--- a/Items.xlsx
+++ b/Items.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10812"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/johnwuller/Library/Mobile Documents/com~apple~CloudDocs/Mine/My Programs/CoinGames/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\johnw\iCloudDrive\Mine\My Programs\CoinGames\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23E97F26-2644-8B4D-A60F-C4C382FE740A}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A4FE975-7407-4F34-8737-2D5C3FC23BC9}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1100" yWindow="460" windowWidth="24420" windowHeight="15000" activeTab="1" xr2:uid="{C42CA93E-3A2D-D040-AB9B-E333D2FB9CC9}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{C42CA93E-3A2D-D040-AB9B-E333D2FB9CC9}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Experimental" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -24,6 +24,7 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -31,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="95">
   <si>
     <t>Name</t>
   </si>
@@ -280,13 +281,49 @@
   </si>
   <si>
     <t>Number in that range</t>
+  </si>
+  <si>
+    <t>Messages needed to earn back the amount of coins spend</t>
+  </si>
+  <si>
+    <t>Darth Vader's Helmet</t>
+  </si>
+  <si>
+    <t>Captain America's Shield</t>
+  </si>
+  <si>
+    <t>Kylo Ren's Helmet</t>
+  </si>
+  <si>
+    <t>Mario's Hat</t>
+  </si>
+  <si>
+    <t>Kirk's Glasses</t>
+  </si>
+  <si>
+    <t>Because I'm Batman!</t>
+  </si>
+  <si>
+    <t>Thanos'Sword</t>
+  </si>
+  <si>
+    <t>Legolas's Bow</t>
+  </si>
+  <si>
+    <t>Ring of Power</t>
+  </si>
+  <si>
+    <t>Cookie</t>
+  </si>
+  <si>
+    <t>Evan Perlmutter's Fanhood</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -304,6 +341,12 @@
       <sz val="12"/>
       <color theme="1"/>
       <name val="Menlo"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF222222"/>
+      <name val="Arial"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -336,7 +379,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -346,6 +389,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -666,17 +710,17 @@
       <selection activeCell="G2" sqref="G2:G68"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6"/>
   <cols>
     <col min="2" max="2" width="38" customWidth="1"/>
-    <col min="3" max="3" width="12.1640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.83203125" style="2"/>
-    <col min="7" max="7" width="18.33203125" customWidth="1"/>
-    <col min="9" max="9" width="19.33203125" customWidth="1"/>
-    <col min="10" max="10" width="10.83203125" customWidth="1"/>
+    <col min="3" max="3" width="12.19921875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.796875" style="2"/>
+    <col min="7" max="7" width="18.296875" customWidth="1"/>
+    <col min="9" max="9" width="19.296875" customWidth="1"/>
+    <col min="10" max="10" width="10.796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10">
       <c r="A1" t="s">
         <v>66</v>
       </c>
@@ -702,7 +746,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:10">
       <c r="B2" s="1" t="s">
         <v>5</v>
       </c>
@@ -731,7 +775,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:10">
       <c r="B3" s="1" t="s">
         <v>6</v>
       </c>
@@ -760,7 +804,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:10">
       <c r="B4" s="1" t="s">
         <v>7</v>
       </c>
@@ -786,7 +830,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:10">
       <c r="B5" s="1" t="s">
         <v>8</v>
       </c>
@@ -812,7 +856,7 @@
         <v>1319.7779136509732</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:10">
       <c r="B6" s="1" t="s">
         <v>9</v>
       </c>
@@ -838,7 +882,7 @@
         <v>1666.6666666666667</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:10">
       <c r="B7" s="1" t="s">
         <v>68</v>
       </c>
@@ -864,7 +908,7 @@
         <v>1191.4627333333333</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:10">
       <c r="B8" s="1" t="s">
         <v>10</v>
       </c>
@@ -890,7 +934,7 @@
         <v>1138</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:10">
       <c r="B9" s="1" t="s">
         <v>11</v>
       </c>
@@ -912,7 +956,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:10">
       <c r="B10" s="1" t="s">
         <v>13</v>
       </c>
@@ -938,7 +982,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:10">
       <c r="B11" s="1" t="s">
         <v>14</v>
       </c>
@@ -964,7 +1008,7 @@
         <v>3333.3333333333335</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:10">
       <c r="A12" s="1" t="s">
         <v>15</v>
       </c>
@@ -993,7 +1037,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:10">
       <c r="B13" s="1" t="s">
         <v>17</v>
       </c>
@@ -1019,7 +1063,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:10">
       <c r="B14" s="1" t="s">
         <v>18</v>
       </c>
@@ -1045,7 +1089,7 @@
         <v>199.6</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:10">
       <c r="B15" s="1" t="s">
         <v>19</v>
       </c>
@@ -1071,7 +1115,7 @@
         <v>37500</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:10">
       <c r="B16" s="1" t="s">
         <v>20</v>
       </c>
@@ -1097,7 +1141,7 @@
         <v>404.6535154274153</v>
       </c>
     </row>
-    <row r="17" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:8">
       <c r="B17" s="1" t="s">
         <v>21</v>
       </c>
@@ -1123,7 +1167,7 @@
         <v>5720</v>
       </c>
     </row>
-    <row r="18" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:8">
       <c r="B18" s="1" t="s">
         <v>22</v>
       </c>
@@ -1149,7 +1193,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="19" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:8">
       <c r="B19" s="1" t="s">
         <v>23</v>
       </c>
@@ -1175,7 +1219,7 @@
         <v>1496.6666666666667</v>
       </c>
     </row>
-    <row r="20" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:8">
       <c r="B20" s="1" t="s">
         <v>24</v>
       </c>
@@ -1201,7 +1245,7 @@
         <v>750</v>
       </c>
     </row>
-    <row r="21" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:8">
       <c r="B21" s="1" t="s">
         <v>25</v>
       </c>
@@ -1227,7 +1271,7 @@
         <v>36511.156186612578</v>
       </c>
     </row>
-    <row r="22" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:8">
       <c r="B22" s="1" t="s">
         <v>26</v>
       </c>
@@ -1253,7 +1297,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="23" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:8">
       <c r="B23" s="1" t="s">
         <v>27</v>
       </c>
@@ -1279,7 +1323,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="24" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:8">
       <c r="B24" s="1" t="s">
         <v>28</v>
       </c>
@@ -1305,7 +1349,7 @@
         <v>1234567.8899999999</v>
       </c>
     </row>
-    <row r="25" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:8">
       <c r="B25" s="1" t="s">
         <v>29</v>
       </c>
@@ -1331,7 +1375,7 @@
         <v>200000</v>
       </c>
     </row>
-    <row r="26" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:8">
       <c r="B26" s="1" t="s">
         <v>30</v>
       </c>
@@ -1357,7 +1401,7 @@
         <v>20000</v>
       </c>
     </row>
-    <row r="27" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="27" spans="2:8">
       <c r="B27" s="1" t="s">
         <v>31</v>
       </c>
@@ -1383,7 +1427,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="28" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="28" spans="2:8">
       <c r="B28" s="1" t="s">
         <v>32</v>
       </c>
@@ -1409,7 +1453,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="29" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="29" spans="2:8">
       <c r="B29" s="1" t="s">
         <v>33</v>
       </c>
@@ -1435,7 +1479,7 @@
         <v>50000</v>
       </c>
     </row>
-    <row r="30" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="30" spans="2:8">
       <c r="B30" s="1" t="s">
         <v>34</v>
       </c>
@@ -1461,7 +1505,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="31" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="31" spans="2:8">
       <c r="B31" s="1" t="s">
         <v>67</v>
       </c>
@@ -1487,7 +1531,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="32" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="32" spans="2:8">
       <c r="B32" s="1" t="s">
         <v>69</v>
       </c>
@@ -1513,7 +1557,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:8">
       <c r="B33" s="1" t="s">
         <v>70</v>
       </c>
@@ -1539,7 +1583,7 @@
         <v>1481.4814814814815</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:8">
       <c r="B34" s="1" t="s">
         <v>35</v>
       </c>
@@ -1565,7 +1609,7 @@
         <v>1866.5018541409147</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:8">
       <c r="B35" s="1" t="s">
         <v>36</v>
       </c>
@@ -1591,7 +1635,7 @@
         <v>5000</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:8">
       <c r="B36" s="1" t="s">
         <v>71</v>
       </c>
@@ -1617,7 +1661,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:8">
       <c r="B37" s="1" t="s">
         <v>37</v>
       </c>
@@ -1643,7 +1687,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:8">
       <c r="B38" s="1" t="s">
         <v>38</v>
       </c>
@@ -1669,7 +1713,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:8">
       <c r="B39" s="1" t="s">
         <v>39</v>
       </c>
@@ -1695,7 +1739,7 @@
         <v>769.23076923076928</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:8">
       <c r="A40" s="1" t="s">
         <v>40</v>
       </c>
@@ -1724,7 +1768,7 @@
         <v>3.3333333333333335</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:8">
       <c r="B41" s="1" t="s">
         <v>42</v>
       </c>
@@ -1750,7 +1794,7 @@
         <v>105.4481546572935</v>
       </c>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:8">
       <c r="B42" s="1" t="s">
         <v>43</v>
       </c>
@@ -1776,7 +1820,7 @@
         <v>5000</v>
       </c>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:8">
       <c r="B43" s="1" t="s">
         <v>44</v>
       </c>
@@ -1802,7 +1846,7 @@
         <v>3571.4285714285716</v>
       </c>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:8">
       <c r="B44" s="1" t="s">
         <v>72</v>
       </c>
@@ -1828,7 +1872,7 @@
         <v>170.1</v>
       </c>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:8">
       <c r="B45" s="1" t="s">
         <v>45</v>
       </c>
@@ -1854,7 +1898,7 @@
         <v>100000</v>
       </c>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:8">
       <c r="B46" s="1" t="s">
         <v>46</v>
       </c>
@@ -1880,7 +1924,7 @@
         <v>20000</v>
       </c>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:8">
       <c r="B47" s="1" t="s">
         <v>47</v>
       </c>
@@ -1906,7 +1950,7 @@
         <v>5307786.9000000004</v>
       </c>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:8">
       <c r="B48" s="1" t="s">
         <v>48</v>
       </c>
@@ -1932,7 +1976,7 @@
         <v>5333.333333333333</v>
       </c>
     </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:8">
       <c r="B49" s="1" t="s">
         <v>73</v>
       </c>
@@ -1958,7 +2002,7 @@
         <v>12563.295042432945</v>
       </c>
     </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:8">
       <c r="B50" s="1" t="s">
         <v>49</v>
       </c>
@@ -1984,7 +2028,7 @@
         <v>14422.110552763819</v>
       </c>
     </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:8">
       <c r="B51" s="1" t="s">
         <v>50</v>
       </c>
@@ -2010,7 +2054,7 @@
         <v>25688.204323161688</v>
       </c>
     </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:8">
       <c r="B52" s="1" t="s">
         <v>51</v>
       </c>
@@ -2036,7 +2080,7 @@
         <v>26490.066225165563</v>
       </c>
     </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:8">
       <c r="B53" s="1" t="s">
         <v>52</v>
       </c>
@@ -2062,7 +2106,7 @@
         <v>6666.666666666667</v>
       </c>
     </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:8">
       <c r="B54" s="1" t="s">
         <v>53</v>
       </c>
@@ -2088,7 +2132,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:8">
       <c r="B55" s="1" t="s">
         <v>54</v>
       </c>
@@ -2114,7 +2158,7 @@
         <v>1296.0712839206155</v>
       </c>
     </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:8">
       <c r="B56" s="1" t="s">
         <v>55</v>
       </c>
@@ -2140,7 +2184,7 @@
         <v>1593.6254980079682</v>
       </c>
     </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:8">
       <c r="B57" s="1" t="s">
         <v>56</v>
       </c>
@@ -2166,7 +2210,7 @@
         <v>8165.3225674752866</v>
       </c>
     </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:8">
       <c r="B58" s="1" t="s">
         <v>57</v>
       </c>
@@ -2192,7 +2236,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:8">
       <c r="B59" s="1" t="s">
         <v>58</v>
       </c>
@@ -2218,7 +2262,7 @@
         <v>1631205.6737588653</v>
       </c>
     </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:8">
       <c r="B60" s="1" t="s">
         <v>59</v>
       </c>
@@ -2244,7 +2288,7 @@
         <v>37500</v>
       </c>
     </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:8">
       <c r="B61" s="1" t="s">
         <v>60</v>
       </c>
@@ -2270,7 +2314,7 @@
         <v>24090.909090909092</v>
       </c>
     </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:8">
       <c r="B62" s="1" t="s">
         <v>61</v>
       </c>
@@ -2296,7 +2340,7 @@
         <v>11000.523834468308</v>
       </c>
     </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:8">
       <c r="A63" s="1" t="s">
         <v>62</v>
       </c>
@@ -2325,7 +2369,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:8">
       <c r="B64" s="1" t="s">
         <v>63</v>
       </c>
@@ -2351,7 +2395,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="65" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="65" spans="2:8">
       <c r="B65" s="1" t="s">
         <v>64</v>
       </c>
@@ -2377,7 +2421,7 @@
         <v>144.92753623188406</v>
       </c>
     </row>
-    <row r="66" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="66" spans="2:8">
       <c r="B66" s="1" t="s">
         <v>80</v>
       </c>
@@ -2403,7 +2447,7 @@
         <v>995.55116164112701</v>
       </c>
     </row>
-    <row r="67" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:8">
       <c r="B67" s="1" t="s">
         <v>75</v>
       </c>
@@ -2429,7 +2473,7 @@
         <v>2515</v>
       </c>
     </row>
-    <row r="68" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="68" spans="2:8">
       <c r="B68" s="1" t="s">
         <v>65</v>
       </c>
@@ -2464,16 +2508,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E6AE1024-0C54-6843-8563-9D359055A938}">
   <dimension ref="A1:N68"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L12" sqref="L12"/>
+    <sheetView tabSelected="1" topLeftCell="A45" workbookViewId="0">
+      <selection activeCell="B68" sqref="B68"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6"/>
   <cols>
     <col min="10" max="10" width="0" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:14">
       <c r="A1" t="s">
         <v>66</v>
       </c>
@@ -2493,7 +2537,7 @@
         <v>4</v>
       </c>
       <c r="H1" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="J1" t="s">
         <v>78</v>
@@ -2505,7 +2549,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:14">
       <c r="B2" s="1" t="s">
         <v>5</v>
       </c>
@@ -2541,7 +2585,7 @@
       </c>
       <c r="N2" s="4"/>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:14">
       <c r="B3" s="1" t="s">
         <v>6</v>
       </c>
@@ -2577,7 +2621,7 @@
       </c>
       <c r="N3" s="4"/>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:14">
       <c r="B4" s="1" t="s">
         <v>7</v>
       </c>
@@ -2610,7 +2654,7 @@
       </c>
       <c r="N4" s="4"/>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:14">
       <c r="B5" s="1" t="s">
         <v>8</v>
       </c>
@@ -2643,7 +2687,7 @@
       </c>
       <c r="N5" s="4"/>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:14">
       <c r="B6" s="1" t="s">
         <v>9</v>
       </c>
@@ -2651,7 +2695,7 @@
         <v>500000</v>
       </c>
       <c r="D6" t="str">
-        <f t="shared" ref="D6:D68" si="3">IF(C6&gt;2147483647,"L","")</f>
+        <f t="shared" ref="D6:D12" si="3">IF(C6&gt;2147483647,"L","")</f>
         <v/>
       </c>
       <c r="E6">
@@ -2676,9 +2720,9 @@
       </c>
       <c r="N6" s="4"/>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:14">
       <c r="B7" s="1" t="s">
-        <v>68</v>
+        <v>85</v>
       </c>
       <c r="C7">
         <v>17871941</v>
@@ -2695,7 +2739,7 @@
       </c>
       <c r="G7" t="str">
         <f t="shared" si="1"/>
-        <v>new Upgrade("Captain America" + apostrophe + "s Shield",17871941,15000,1),</v>
+        <v>new Upgrade("Captain America's Shield",17871941,15000,1),</v>
       </c>
       <c r="H7">
         <f t="shared" si="2"/>
@@ -2709,7 +2753,7 @@
       </c>
       <c r="N7" s="4"/>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:14">
       <c r="B8" s="1" t="s">
         <v>10</v>
       </c>
@@ -2717,7 +2761,7 @@
         <v>113800</v>
       </c>
       <c r="D8" t="str">
-        <f>IF(C8&gt;2147483647,"L","")</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="E8">
@@ -2742,12 +2786,16 @@
       </c>
       <c r="N8" s="4"/>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:14">
       <c r="B9" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C9" t="s">
-        <v>12</v>
+      <c r="C9" s="7">
+        <v>2147483647</v>
+      </c>
+      <c r="D9" t="str">
+        <f t="shared" si="3"/>
+        <v/>
       </c>
       <c r="E9">
         <v>6666</v>
@@ -2757,11 +2805,11 @@
       </c>
       <c r="G9" t="str">
         <f t="shared" si="1"/>
-        <v>new Upgrade("Infinity Gauntlet", Integer.MAX_VALUE,6666,1),</v>
-      </c>
-      <c r="H9" t="e">
-        <f t="shared" si="2"/>
-        <v>#VALUE!</v>
+        <v>new Upgrade("Infinity Gauntlet",2147483647,6666,1),</v>
+      </c>
+      <c r="H9">
+        <f t="shared" si="2"/>
+        <v>322154.7625262526</v>
       </c>
       <c r="L9" s="5">
         <v>7</v>
@@ -2771,7 +2819,7 @@
       </c>
       <c r="N9" s="4"/>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:14">
       <c r="B10" s="1" t="s">
         <v>13</v>
       </c>
@@ -2804,7 +2852,7 @@
       </c>
       <c r="N10" s="4"/>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:14">
       <c r="B11" s="1" t="s">
         <v>14</v>
       </c>
@@ -2837,12 +2885,12 @@
       </c>
       <c r="N11" s="4"/>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:14">
       <c r="A12" s="1" t="s">
         <v>15</v>
       </c>
       <c r="B12" t="s">
-        <v>16</v>
+        <v>92</v>
       </c>
       <c r="C12">
         <v>100000</v>
@@ -2859,7 +2907,7 @@
       </c>
       <c r="G12" t="str">
         <f t="shared" si="1"/>
-        <v>new Upgrade(":ring:"," Ring of Power",100000,100,19),</v>
+        <v>new Upgrade(":ring:","Ring of Power",100000,100,19),</v>
       </c>
       <c r="H12">
         <f t="shared" si="2"/>
@@ -2873,7 +2921,7 @@
       </c>
       <c r="N12" s="4"/>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:14">
       <c r="B13" s="1" t="s">
         <v>17</v>
       </c>
@@ -2881,7 +2929,7 @@
         <v>100000</v>
       </c>
       <c r="D13" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" ref="D6:D68" si="4">IF(C13&gt;2147483647,"L","")</f>
         <v/>
       </c>
       <c r="E13">
@@ -2906,7 +2954,7 @@
       </c>
       <c r="N13" s="4"/>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:14">
       <c r="B14" s="1" t="s">
         <v>18</v>
       </c>
@@ -2914,7 +2962,7 @@
         <v>1996</v>
       </c>
       <c r="D14" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="E14">
@@ -2939,7 +2987,7 @@
       </c>
       <c r="N14" s="4"/>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:14">
       <c r="B15" s="1" t="s">
         <v>19</v>
       </c>
@@ -2947,7 +2995,7 @@
         <v>150000</v>
       </c>
       <c r="D15" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="E15">
@@ -2972,7 +3020,7 @@
       </c>
       <c r="N15" s="4"/>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:14">
       <c r="B16" s="1" t="s">
         <v>20</v>
       </c>
@@ -2980,7 +3028,7 @@
         <v>800000</v>
       </c>
       <c r="D16" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="E16">
@@ -3005,7 +3053,7 @@
       </c>
       <c r="N16" s="4"/>
     </row>
-    <row r="17" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:14">
       <c r="B17" s="1" t="s">
         <v>21</v>
       </c>
@@ -3013,7 +3061,7 @@
         <v>858000</v>
       </c>
       <c r="D17" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="E17">
@@ -3038,7 +3086,7 @@
       </c>
       <c r="N17" s="4"/>
     </row>
-    <row r="18" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:14">
       <c r="B18" s="1" t="s">
         <v>22</v>
       </c>
@@ -3046,7 +3094,7 @@
         <v>630000</v>
       </c>
       <c r="D18" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="E18">
@@ -3071,7 +3119,7 @@
       </c>
       <c r="N18" s="4"/>
     </row>
-    <row r="19" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:14">
       <c r="B19" s="1" t="s">
         <v>23</v>
       </c>
@@ -3079,7 +3127,7 @@
         <v>4490000</v>
       </c>
       <c r="D19" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="E19">
@@ -3104,7 +3152,7 @@
       </c>
       <c r="N19" s="4"/>
     </row>
-    <row r="20" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:14">
       <c r="B20" s="1" t="s">
         <v>24</v>
       </c>
@@ -3112,7 +3160,7 @@
         <v>1230000</v>
       </c>
       <c r="D20" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="E20">
@@ -3137,15 +3185,15 @@
       </c>
       <c r="N20" s="4"/>
     </row>
-    <row r="21" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:14">
       <c r="B21" s="1" t="s">
         <v>25</v>
       </c>
       <c r="C21">
-        <v>18000000</v>
+        <v>1800000</v>
       </c>
       <c r="D21" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="E21">
@@ -3156,11 +3204,11 @@
       </c>
       <c r="G21" t="str">
         <f t="shared" si="1"/>
-        <v>new Upgrade("The Tumbler Batmobile",18000000,493,1),</v>
+        <v>new Upgrade("The Tumbler Batmobile",1800000,493,1),</v>
       </c>
       <c r="H21">
         <f t="shared" si="2"/>
-        <v>36511.156186612578</v>
+        <v>3651.1156186612575</v>
       </c>
       <c r="L21" s="3">
         <v>7</v>
@@ -3170,7 +3218,7 @@
       </c>
       <c r="N21" s="4"/>
     </row>
-    <row r="22" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:14">
       <c r="B22" s="1" t="s">
         <v>26</v>
       </c>
@@ -3178,7 +3226,7 @@
         <v>1</v>
       </c>
       <c r="D22" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="E22">
@@ -3203,7 +3251,7 @@
       </c>
       <c r="N22" s="4"/>
     </row>
-    <row r="23" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:14">
       <c r="B23" s="1" t="s">
         <v>27</v>
       </c>
@@ -3211,7 +3259,7 @@
         <v>20000</v>
       </c>
       <c r="D23" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="E23">
@@ -3236,15 +3284,15 @@
       </c>
       <c r="N23" s="4"/>
     </row>
-    <row r="24" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:14">
       <c r="B24" s="1" t="s">
         <v>28</v>
       </c>
       <c r="C24">
-        <v>123456789</v>
+        <v>123459</v>
       </c>
       <c r="D24" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="E24">
@@ -3255,11 +3303,11 @@
       </c>
       <c r="G24" t="str">
         <f t="shared" si="1"/>
-        <v>new Upgrade("Genesis Device",123456789,100,1),</v>
+        <v>new Upgrade("Genesis Device",123459,100,1),</v>
       </c>
       <c r="H24">
         <f t="shared" si="2"/>
-        <v>1234567.8899999999</v>
+        <v>1234.5899999999999</v>
       </c>
       <c r="L24" s="3">
         <v>10</v>
@@ -3269,7 +3317,7 @@
       </c>
       <c r="N24" s="4"/>
     </row>
-    <row r="25" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:14">
       <c r="B25" s="1" t="s">
         <v>29</v>
       </c>
@@ -3277,7 +3325,7 @@
         <v>200000</v>
       </c>
       <c r="D25" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="E25">
@@ -3302,7 +3350,7 @@
       </c>
       <c r="N25" s="4"/>
     </row>
-    <row r="26" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:14">
       <c r="B26" s="1" t="s">
         <v>30</v>
       </c>
@@ -3310,18 +3358,18 @@
         <v>200000</v>
       </c>
       <c r="D26" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="E26">
         <v>10</v>
       </c>
       <c r="F26" s="2">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="G26" t="str">
         <f t="shared" si="1"/>
-        <v>new Upgrade("Six-Shooter",200000,10,1),</v>
+        <v>new Upgrade("Six-Shooter",200000,10,6),</v>
       </c>
       <c r="H26">
         <f t="shared" si="2"/>
@@ -3335,7 +3383,7 @@
       </c>
       <c r="N26" s="4"/>
     </row>
-    <row r="27" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="27" spans="2:14">
       <c r="B27" s="1" t="s">
         <v>31</v>
       </c>
@@ -3343,7 +3391,7 @@
         <v>10</v>
       </c>
       <c r="D27" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="E27">
@@ -3362,7 +3410,7 @@
       </c>
       <c r="N27" s="4"/>
     </row>
-    <row r="28" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="28" spans="2:14">
       <c r="B28" s="1" t="s">
         <v>32</v>
       </c>
@@ -3370,7 +3418,7 @@
         <v>100000</v>
       </c>
       <c r="D28" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="E28">
@@ -3388,7 +3436,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="29" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="29" spans="2:14">
       <c r="B29" s="1" t="s">
         <v>33</v>
       </c>
@@ -3396,7 +3444,7 @@
         <v>50000</v>
       </c>
       <c r="D29" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="E29">
@@ -3414,7 +3462,7 @@
         <v>50000</v>
       </c>
     </row>
-    <row r="30" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="30" spans="2:14">
       <c r="B30" s="1" t="s">
         <v>34</v>
       </c>
@@ -3422,7 +3470,7 @@
         <v>10000</v>
       </c>
       <c r="D30" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="E30">
@@ -3440,7 +3488,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="31" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="31" spans="2:14">
       <c r="B31" s="1" t="s">
         <v>67</v>
       </c>
@@ -3448,7 +3496,7 @@
         <v>999999</v>
       </c>
       <c r="D31" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="E31">
@@ -3466,15 +3514,15 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="32" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="32" spans="2:14">
       <c r="B32" s="1" t="s">
-        <v>69</v>
+        <v>84</v>
       </c>
       <c r="C32">
         <v>1138000</v>
       </c>
       <c r="D32" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="E32">
@@ -3485,22 +3533,22 @@
       </c>
       <c r="G32" t="str">
         <f t="shared" si="1"/>
-        <v>new Upgrade("Darth Vader" + apostrophe + "s Helmet",1138000,1138,1),</v>
+        <v>new Upgrade("Darth Vader's Helmet",1138000,1138,1),</v>
       </c>
       <c r="H32">
         <f t="shared" si="2"/>
         <v>1000</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:8">
       <c r="B33" s="1" t="s">
-        <v>70</v>
+        <v>86</v>
       </c>
       <c r="C33">
         <v>200000</v>
       </c>
       <c r="D33" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="E33">
@@ -3511,14 +3559,14 @@
       </c>
       <c r="G33" t="str">
         <f t="shared" si="1"/>
-        <v>new Upgrade("Kylo Ren" + apostrophe + "s Helmet",200000,135,1),</v>
+        <v>new Upgrade("Kylo Ren's Helmet",200000,135,1),</v>
       </c>
       <c r="H33">
         <f t="shared" si="2"/>
         <v>1481.4814814814815</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:8">
       <c r="B34" s="1" t="s">
         <v>35</v>
       </c>
@@ -3526,7 +3574,7 @@
         <v>1510000</v>
       </c>
       <c r="D34" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="E34">
@@ -3544,7 +3592,7 @@
         <v>1866.5018541409147</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:8">
       <c r="B35" s="1" t="s">
         <v>36</v>
       </c>
@@ -3552,7 +3600,7 @@
         <v>5000</v>
       </c>
       <c r="D35" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="E35">
@@ -3570,15 +3618,15 @@
         <v>5000</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:8">
       <c r="B36" s="1" t="s">
-        <v>71</v>
+        <v>87</v>
       </c>
       <c r="C36">
         <v>100000</v>
       </c>
       <c r="D36" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="E36">
@@ -3589,14 +3637,14 @@
       </c>
       <c r="G36" t="str">
         <f t="shared" si="1"/>
-        <v>new Upgrade("Mario" + apostrophe + "s Hat",100000,100,1),</v>
+        <v>new Upgrade("Mario's Hat",100000,100,1),</v>
       </c>
       <c r="H36">
         <f t="shared" si="2"/>
         <v>1000</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:8">
       <c r="B37" s="1" t="s">
         <v>37</v>
       </c>
@@ -3604,7 +3652,7 @@
         <v>1000</v>
       </c>
       <c r="D37" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="E37">
@@ -3622,7 +3670,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:8">
       <c r="B38" s="1" t="s">
         <v>38</v>
       </c>
@@ -3630,7 +3678,7 @@
         <v>1</v>
       </c>
       <c r="D38" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="E38">
@@ -3648,7 +3696,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:8">
       <c r="B39" s="1" t="s">
         <v>39</v>
       </c>
@@ -3656,7 +3704,7 @@
         <v>10000</v>
       </c>
       <c r="D39" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="E39">
@@ -3674,18 +3722,18 @@
         <v>769.23076923076928</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:8">
       <c r="A40" s="1" t="s">
         <v>40</v>
       </c>
       <c r="B40" t="s">
-        <v>41</v>
+        <v>93</v>
       </c>
       <c r="C40">
         <v>100</v>
       </c>
       <c r="D40" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="E40">
@@ -3696,14 +3744,14 @@
       </c>
       <c r="G40" t="str">
         <f t="shared" si="1"/>
-        <v>new Upgrade(":cookie:"," Cookie",100,30,10),</v>
+        <v>new Upgrade(":cookie:","Cookie",100,30,10),</v>
       </c>
       <c r="H40">
         <f t="shared" si="2"/>
         <v>3.3333333333333335</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:8">
       <c r="B41" s="1" t="s">
         <v>42</v>
       </c>
@@ -3711,7 +3759,7 @@
         <v>120000</v>
       </c>
       <c r="D41" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="E41">
@@ -3729,7 +3777,7 @@
         <v>105.4481546572935</v>
       </c>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:8">
       <c r="B42" s="1" t="s">
         <v>43</v>
       </c>
@@ -3737,7 +3785,7 @@
         <v>10000</v>
       </c>
       <c r="D42" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="E42">
@@ -3755,7 +3803,7 @@
         <v>5000</v>
       </c>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:8">
       <c r="B43" s="1" t="s">
         <v>44</v>
       </c>
@@ -3763,7 +3811,7 @@
         <v>100000</v>
       </c>
       <c r="D43" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="E43">
@@ -3781,15 +3829,15 @@
         <v>3571.4285714285716</v>
       </c>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:8">
       <c r="B44" s="1" t="s">
-        <v>72</v>
+        <v>88</v>
       </c>
       <c r="C44">
         <v>1701</v>
       </c>
       <c r="D44" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="E44">
@@ -3800,14 +3848,14 @@
       </c>
       <c r="G44" t="str">
         <f t="shared" si="1"/>
-        <v>new Upgrade("Kirk" + apostrophe + "s Glasses",1701,10,1),</v>
+        <v>new Upgrade("Kirk's Glasses",1701,10,1),</v>
       </c>
       <c r="H44">
         <f t="shared" si="2"/>
         <v>170.1</v>
       </c>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:8">
       <c r="B45" s="1" t="s">
         <v>45</v>
       </c>
@@ -3815,7 +3863,7 @@
         <v>100000</v>
       </c>
       <c r="D45" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="E45">
@@ -3833,7 +3881,7 @@
         <v>100000</v>
       </c>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:8">
       <c r="B46" s="1" t="s">
         <v>46</v>
       </c>
@@ -3841,7 +3889,7 @@
         <v>100000</v>
       </c>
       <c r="D46" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="E46">
@@ -3859,7 +3907,7 @@
         <v>20000</v>
       </c>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:8">
       <c r="B47" s="1" t="s">
         <v>47</v>
       </c>
@@ -3867,7 +3915,7 @@
         <v>5307786900</v>
       </c>
       <c r="D47" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>L</v>
       </c>
       <c r="E47">
@@ -3885,7 +3933,7 @@
         <v>5307786.9000000004</v>
       </c>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:8">
       <c r="B48" s="1" t="s">
         <v>48</v>
       </c>
@@ -3893,7 +3941,7 @@
         <v>800000000</v>
       </c>
       <c r="D48" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="E48">
@@ -3911,15 +3959,15 @@
         <v>5333.333333333333</v>
       </c>
     </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:8">
       <c r="B49" s="1" t="s">
-        <v>73</v>
+        <v>89</v>
       </c>
       <c r="C49">
         <v>682450750</v>
       </c>
       <c r="D49" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="E49">
@@ -3930,14 +3978,14 @@
       </c>
       <c r="G49" t="str">
         <f t="shared" si="1"/>
-        <v>new Upgrade("Because I" + apostrophe + "m Batman!",682450750,54321,1),</v>
+        <v>new Upgrade("Because I'm Batman!",682450750,54321,1),</v>
       </c>
       <c r="H49">
         <f t="shared" si="2"/>
         <v>12563.295042432945</v>
       </c>
     </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:8">
       <c r="B50" s="1" t="s">
         <v>49</v>
       </c>
@@ -3945,7 +3993,7 @@
         <v>2870000000</v>
       </c>
       <c r="D50" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>L</v>
       </c>
       <c r="E50">
@@ -3963,7 +4011,7 @@
         <v>14422.110552763819</v>
       </c>
     </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:8">
       <c r="B51" s="1" t="s">
         <v>50</v>
       </c>
@@ -3971,7 +4019,7 @@
         <v>50400000000</v>
       </c>
       <c r="D51" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>L</v>
       </c>
       <c r="E51">
@@ -3989,7 +4037,7 @@
         <v>25688.204323161688</v>
       </c>
     </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:8">
       <c r="B52" s="1" t="s">
         <v>51</v>
       </c>
@@ -3997,7 +4045,7 @@
         <v>52000000</v>
       </c>
       <c r="D52" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="E52">
@@ -4015,7 +4063,7 @@
         <v>26490.066225165563</v>
       </c>
     </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:8">
       <c r="B53" s="1" t="s">
         <v>52</v>
       </c>
@@ -4023,7 +4071,7 @@
         <v>10000000</v>
       </c>
       <c r="D53" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="E53">
@@ -4041,7 +4089,7 @@
         <v>6666.666666666667</v>
       </c>
     </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:8">
       <c r="B54" s="1" t="s">
         <v>53</v>
       </c>
@@ -4049,7 +4097,7 @@
         <v>1600000</v>
       </c>
       <c r="D54" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="E54">
@@ -4067,7 +4115,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:8">
       <c r="B55" s="1" t="s">
         <v>54</v>
       </c>
@@ -4075,7 +4123,7 @@
         <v>16000000</v>
       </c>
       <c r="D55" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="E55">
@@ -4093,7 +4141,7 @@
         <v>1296.0712839206155</v>
       </c>
     </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:8">
       <c r="B56" s="1" t="s">
         <v>55</v>
       </c>
@@ -4101,7 +4149,7 @@
         <v>3200000</v>
       </c>
       <c r="D56" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="E56">
@@ -4119,7 +4167,7 @@
         <v>1593.6254980079682</v>
       </c>
     </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:8">
       <c r="B57" s="1" t="s">
         <v>56</v>
       </c>
@@ -4127,7 +4175,7 @@
         <v>62500000000</v>
       </c>
       <c r="D57" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>L</v>
       </c>
       <c r="E57">
@@ -4145,7 +4193,7 @@
         <v>8165.3225674752866</v>
       </c>
     </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:8">
       <c r="B58" s="1" t="s">
         <v>57</v>
       </c>
@@ -4153,7 +4201,7 @@
         <v>10000</v>
       </c>
       <c r="D58" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="E58">
@@ -4171,7 +4219,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:8">
       <c r="B59" s="1" t="s">
         <v>58</v>
       </c>
@@ -4179,7 +4227,7 @@
         <v>230000000</v>
       </c>
       <c r="D59" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="E59">
@@ -4197,7 +4245,7 @@
         <v>1631205.6737588653</v>
       </c>
     </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:8">
       <c r="B60" s="1" t="s">
         <v>59</v>
       </c>
@@ -4205,7 +4253,7 @@
         <v>600000</v>
       </c>
       <c r="D60" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="E60">
@@ -4223,7 +4271,7 @@
         <v>37500</v>
       </c>
     </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:8">
       <c r="B61" s="1" t="s">
         <v>60</v>
       </c>
@@ -4231,7 +4279,7 @@
         <v>1325000</v>
       </c>
       <c r="D61" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="E61">
@@ -4249,7 +4297,7 @@
         <v>24090.909090909092</v>
       </c>
     </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:8">
       <c r="B62" s="1" t="s">
         <v>61</v>
       </c>
@@ -4257,7 +4305,7 @@
         <v>21000000</v>
       </c>
       <c r="D62" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="E62">
@@ -4275,18 +4323,18 @@
         <v>11000.523834468308</v>
       </c>
     </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:8">
       <c r="A63" s="1" t="s">
         <v>62</v>
       </c>
       <c r="B63" t="s">
-        <v>74</v>
+        <v>94</v>
       </c>
       <c r="C63">
         <v>3500</v>
       </c>
       <c r="D63" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="E63">
@@ -4297,14 +4345,14 @@
       </c>
       <c r="G63" t="str">
         <f t="shared" si="1"/>
-        <v>new Upgrade(":basketball:"," Evan Perlmutter" + apostrophe + "s Fanhood",3500,25,1),</v>
+        <v>new Upgrade(":basketball:","Evan Perlmutter's Fanhood",3500,25,1),</v>
       </c>
       <c r="H63">
         <f t="shared" si="2"/>
         <v>140</v>
       </c>
     </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:8">
       <c r="B64" s="1" t="s">
         <v>63</v>
       </c>
@@ -4312,7 +4360,7 @@
         <v>451</v>
       </c>
       <c r="D64" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="E64">
@@ -4330,7 +4378,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="65" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="65" spans="2:8">
       <c r="B65" s="1" t="s">
         <v>64</v>
       </c>
@@ -4338,7 +4386,7 @@
         <v>10000</v>
       </c>
       <c r="D65" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="E65">
@@ -4356,15 +4404,15 @@
         <v>144.92753623188406</v>
       </c>
     </row>
-    <row r="66" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="66" spans="2:8">
       <c r="B66" s="1" t="s">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="C66">
         <v>2014000</v>
       </c>
       <c r="D66" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="E66">
@@ -4375,22 +4423,22 @@
       </c>
       <c r="G66" t="str">
         <f t="shared" si="1"/>
-        <v>new Upgrade("Thanos" + apostrophe + "Sword",2014000,2023,1),</v>
+        <v>new Upgrade("Thanos'Sword",2014000,2023,1),</v>
       </c>
       <c r="H66">
         <f t="shared" si="2"/>
         <v>995.55116164112701</v>
       </c>
     </row>
-    <row r="67" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:8">
       <c r="B67" s="1" t="s">
-        <v>75</v>
+        <v>91</v>
       </c>
       <c r="C67">
         <v>301800</v>
       </c>
       <c r="D67" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="E67">
@@ -4400,15 +4448,15 @@
         <v>1</v>
       </c>
       <c r="G67" t="str">
-        <f t="shared" ref="G67:G68" si="4">IF(A67="",_xlfn.CONCAT($J$1,$J$2,B67,$J$2,$J$3,C67,D67,$J$3,E67,$J$3,F67,"),",),_xlfn.CONCAT($J$1,$J$2,A67,$J$2,$J$3,$J$2,B67,$J$2,$J$3,C67,D67,$J$3,E67,$J$3,F67,"),"))</f>
-        <v>new Upgrade("Legolas" + apostrophe + "s Bow",301800,120,1),</v>
+        <f t="shared" ref="G67:G68" si="5">IF(A67="",_xlfn.CONCAT($J$1,$J$2,B67,$J$2,$J$3,C67,D67,$J$3,E67,$J$3,F67,"),",),_xlfn.CONCAT($J$1,$J$2,A67,$J$2,$J$3,$J$2,B67,$J$2,$J$3,C67,D67,$J$3,E67,$J$3,F67,"),"))</f>
+        <v>new Upgrade("Legolas's Bow",301800,120,1),</v>
       </c>
       <c r="H67">
-        <f t="shared" ref="H67:H68" si="5">C67/E67</f>
+        <f t="shared" ref="H67:H68" si="6">C67/E67</f>
         <v>2515</v>
       </c>
     </row>
-    <row r="68" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="68" spans="2:8">
       <c r="B68" s="1" t="s">
         <v>65</v>
       </c>
@@ -4416,7 +4464,7 @@
         <v>39999</v>
       </c>
       <c r="D68" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="E68">
@@ -4426,11 +4474,11 @@
         <v>10</v>
       </c>
       <c r="G68" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>new Upgrade("Oculus",39999,10,10),</v>
       </c>
       <c r="H68">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>3999.9</v>
       </c>
     </row>

--- a/Items.xlsx
+++ b/Items.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\johnw\iCloudDrive\Mine\My Programs\CoinGames\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A4FE975-7407-4F34-8737-2D5C3FC23BC9}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20F87D43-4BF9-40CC-9067-978341969FC7}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{C42CA93E-3A2D-D040-AB9B-E333D2FB9CC9}"/>
+    <workbookView xWindow="1224" yWindow="-132" windowWidth="17280" windowHeight="8964" activeTab="1" xr2:uid="{C42CA93E-3A2D-D040-AB9B-E333D2FB9CC9}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="98">
   <si>
     <t>Name</t>
   </si>
@@ -304,9 +304,6 @@
     <t>Because I'm Batman!</t>
   </si>
   <si>
-    <t>Thanos'Sword</t>
-  </si>
-  <si>
     <t>Legolas's Bow</t>
   </si>
   <si>
@@ -317,13 +314,25 @@
   </si>
   <si>
     <t>Evan Perlmutter's Fanhood</t>
+  </si>
+  <si>
+    <t>Thanos' Sword</t>
+  </si>
+  <si>
+    <t>Modulo</t>
+  </si>
+  <si>
+    <t>Column1</t>
+  </si>
+  <si>
+    <t>Charles Hollander Chess Set</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4">
+  <fonts count="7">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -344,9 +353,32 @@
       <family val="2"/>
     </font>
     <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Menlo"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
       <sz val="10"/>
       <color rgb="FF222222"/>
       <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Menlo"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -379,7 +411,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -388,13 +420,50 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="3">
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <name val="Menlo"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -405,6 +474,35 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{4009156A-C36A-4516-A02C-24F9758B47EE}" name="Table1" displayName="Table1" ref="A1:I68" totalsRowShown="0">
+  <autoFilter ref="A1:I68" xr:uid="{78C1917B-7E31-49F9-99AB-AFB2F1BD8BEA}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:I68">
+    <sortCondition descending="1" ref="C1:C68"/>
+  </sortState>
+  <tableColumns count="9">
+    <tableColumn id="1" xr3:uid="{B3882E44-A406-45D7-8B81-3BE7D8468DD3}" name="Prefix"/>
+    <tableColumn id="2" xr3:uid="{BBEDCA42-A349-4B8A-B3F6-630CA6A6848E}" name="Name" dataDxfId="2"/>
+    <tableColumn id="3" xr3:uid="{EF70BBD7-AFE9-448B-8134-0BE31683DB7F}" name="Cost"/>
+    <tableColumn id="4" xr3:uid="{0656EB21-15AB-4A2D-8645-982D7283C115}" name="Column1">
+      <calculatedColumnFormula>IF(C2&gt;2147483647,"L","")</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="5" xr3:uid="{72E00DC1-7F07-4212-9067-1519DBF1E8CB}" name="Boost"/>
+    <tableColumn id="6" xr3:uid="{4C3041D4-FCB0-4127-ACBC-989B299F0011}" name="Quantity" dataDxfId="1"/>
+    <tableColumn id="7" xr3:uid="{F74CFCBD-6EB6-4116-8F58-FAA3BD72544B}" name="Final">
+      <calculatedColumnFormula>IF(A2="",_xlfn.CONCAT($K$1,$K$2,B2,$K$2,$K$3,C2,D2,$K$3,E2,$K$3,F2,"),",),_xlfn.CONCAT($K$1,$K$2,A2,$K$2,$K$3,$K$2,B2,$K$2,$K$3,C2,D2,$K$3,E2,$K$3,F2,"),"))</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="8" xr3:uid="{ED093BC7-1767-47E6-9724-AAE846529AF1}" name="Messages needed to earn back the amount of coins spend" dataDxfId="0">
+      <calculatedColumnFormula>C2/E2</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="9" xr3:uid="{CED6810C-AE22-4E72-BAF9-196C471149E4}" name="Modulo">
+      <calculatedColumnFormula>FLOOR(LOG10(H2),1)</calculatedColumnFormula>
+    </tableColumn>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2508,13 +2606,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E6AE1024-0C54-6843-8563-9D359055A938}">
   <dimension ref="A1:N68"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A45" workbookViewId="0">
-      <selection activeCell="B68" sqref="B68"/>
+    <sheetView tabSelected="1" topLeftCell="B25" workbookViewId="0">
+      <selection activeCell="E68" sqref="E68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6"/>
   <cols>
-    <col min="10" max="10" width="0" hidden="1" customWidth="1"/>
+    <col min="3" max="3" width="11.8984375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="0" hidden="1" customWidth="1"/>
+    <col min="7" max="7" width="0" hidden="1" customWidth="1"/>
+    <col min="8" max="8" width="51.296875" customWidth="1"/>
+    <col min="11" max="11" width="0" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14">
@@ -2527,6 +2629,9 @@
       <c r="C1" t="s">
         <v>1</v>
       </c>
+      <c r="D1" t="s">
+        <v>96</v>
+      </c>
       <c r="E1" t="s">
         <v>2</v>
       </c>
@@ -2539,1820 +2644,2045 @@
       <c r="H1" t="s">
         <v>83</v>
       </c>
-      <c r="J1" t="s">
+      <c r="I1" t="s">
+        <v>95</v>
+      </c>
+      <c r="K1" t="s">
         <v>78</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>81</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="2" spans="1:14">
       <c r="B2" s="1" t="s">
-        <v>5</v>
+        <v>56</v>
       </c>
       <c r="C2">
-        <v>10000</v>
+        <v>62500000000</v>
       </c>
       <c r="D2" t="str">
         <f>IF(C2&gt;2147483647,"L","")</f>
-        <v/>
+        <v>L</v>
       </c>
       <c r="E2">
-        <v>14</v>
+        <v>312500000</v>
       </c>
       <c r="F2" s="2">
         <v>10</v>
       </c>
       <c r="G2" t="str">
-        <f>IF(A2="",_xlfn.CONCAT($J$1,$J$2,B2,$J$2,$J$3,C2,D2,$J$3,E2,$J$3,F2,"),",),_xlfn.CONCAT($J$1,$J$2,A2,$J$2,$J$3,$J$2,B2,$J$2,$J$3,C2,D2,$J$3,E2,$J$3,F2,"),"))</f>
-        <v>new Upgrade("Batarang",10000,14,10),</v>
-      </c>
-      <c r="H2">
+        <f>IF(A2="",_xlfn.CONCAT($K$1,$K$2,B2,$K$2,$K$3,C2,D2,$K$3,E2,$K$3,F2,"),",),_xlfn.CONCAT($K$1,$K$2,A2,$K$2,$K$3,$K$2,B2,$K$2,$K$3,C2,D2,$K$3,E2,$K$3,F2,"),"))</f>
+        <v>new Upgrade("Gram of Antimatter",62500000000L,312500000,10),</v>
+      </c>
+      <c r="H2" s="12">
         <f>C2/E2</f>
-        <v>714.28571428571433</v>
-      </c>
-      <c r="J2" t="s">
+        <v>200</v>
+      </c>
+      <c r="I2">
+        <f>FLOOR(LOG10(H2),1)</f>
+        <v>2</v>
+      </c>
+      <c r="K2" t="s">
         <v>76</v>
       </c>
-      <c r="L2" s="3">
+      <c r="M2" s="3">
         <v>0</v>
       </c>
-      <c r="M2" s="4">
-        <v>2</v>
-      </c>
-      <c r="N2" s="4"/>
+      <c r="N2" s="4">
+        <f>COUNTIF(I:I,M2)</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="3" spans="1:14">
       <c r="B3" s="1" t="s">
-        <v>6</v>
+        <v>50</v>
       </c>
       <c r="C3">
-        <v>100000</v>
+        <v>50400000000</v>
       </c>
       <c r="D3" t="str">
-        <f t="shared" ref="D3:D4" si="0">IF(C3&gt;2147483647,"L","")</f>
-        <v/>
+        <f>IF(C3&gt;2147483647,"L","")</f>
+        <v>L</v>
       </c>
       <c r="E3">
-        <v>100</v>
+        <v>196199000</v>
       </c>
       <c r="F3" s="2">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="G3" t="str">
-        <f t="shared" ref="G3:G66" si="1">IF(A3="",_xlfn.CONCAT($J$1,$J$2,B3,$J$2,$J$3,C3,D3,$J$3,E3,$J$3,F3,"),",),_xlfn.CONCAT($J$1,$J$2,A3,$J$2,$J$3,$J$2,B3,$J$2,$J$3,C3,D3,$J$3,E3,$J$3,F3,"),"))</f>
-        <v>new Upgrade("Rocket",100000,100,10),</v>
-      </c>
-      <c r="H3">
-        <f t="shared" ref="H3:H66" si="2">C3/E3</f>
-        <v>1000</v>
-      </c>
-      <c r="J3" t="s">
+        <f>IF(A3="",_xlfn.CONCAT($K$1,$K$2,B3,$K$2,$K$3,C3,D3,$K$3,E3,$K$3,F3,"),",),_xlfn.CONCAT($K$1,$K$2,A3,$K$2,$K$3,$K$2,B3,$K$2,$K$3,C3,D3,$K$3,E3,$K$3,F3,"),"))</f>
+        <v>new Upgrade("International Space Station",50400000000L,196199000,1),</v>
+      </c>
+      <c r="H3" s="12">
+        <f>C3/E3</f>
+        <v>256.88204323161688</v>
+      </c>
+      <c r="I3">
+        <f>FLOOR(LOG10(H3),1)</f>
+        <v>2</v>
+      </c>
+      <c r="K3" t="s">
         <v>77</v>
       </c>
-      <c r="L3" s="3">
-        <v>1</v>
-      </c>
-      <c r="M3" s="4">
-        <v>0</v>
-      </c>
-      <c r="N3" s="4"/>
+      <c r="M3" s="3">
+        <v>1</v>
+      </c>
+      <c r="N3" s="4">
+        <f t="shared" ref="N3:N16" si="0">COUNTIF(I:I,M3)</f>
+        <v>1</v>
+      </c>
     </row>
     <row r="4" spans="1:14">
       <c r="B4" s="1" t="s">
-        <v>7</v>
+        <v>47</v>
       </c>
       <c r="C4">
-        <v>190000</v>
+        <v>5307786900</v>
       </c>
       <c r="D4" t="str">
+        <f>IF(C4&gt;2147483647,"L","")</f>
+        <v>L</v>
+      </c>
+      <c r="E4">
+        <v>25100000</v>
+      </c>
+      <c r="F4" s="2">
+        <v>1</v>
+      </c>
+      <c r="G4" t="str">
+        <f>IF(A4="",_xlfn.CONCAT($K$1,$K$2,B4,$K$2,$K$3,C4,D4,$K$3,E4,$K$3,F4,"),",),_xlfn.CONCAT($K$1,$K$2,A4,$K$2,$K$3,$K$2,B4,$K$2,$K$3,C4,D4,$K$3,E4,$K$3,F4,"),"))</f>
+        <v>new Upgrade("Diamond Armor",5307786900L,25100000,1),</v>
+      </c>
+      <c r="H4" s="12">
+        <f>C4/E4</f>
+        <v>211.46561354581672</v>
+      </c>
+      <c r="I4">
+        <f>FLOOR(LOG10(H4),1)</f>
+        <v>2</v>
+      </c>
+      <c r="M4" s="3">
+        <v>2</v>
+      </c>
+      <c r="N4" s="4">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="E4">
-        <v>190</v>
-      </c>
-      <c r="F4" s="2">
-        <v>5</v>
-      </c>
-      <c r="G4" t="str">
-        <f t="shared" si="1"/>
-        <v>new Upgrade("Nuclear Bomb",190000,190,5),</v>
-      </c>
-      <c r="H4">
-        <f t="shared" si="2"/>
-        <v>1000</v>
-      </c>
-      <c r="L4" s="3">
-        <v>2</v>
-      </c>
-      <c r="M4" s="4">
-        <v>1</v>
-      </c>
-      <c r="N4" s="4"/>
+        <v>38</v>
+      </c>
     </row>
     <row r="5" spans="1:14">
       <c r="B5" s="1" t="s">
-        <v>8</v>
+        <v>49</v>
       </c>
       <c r="C5">
-        <v>2639860696</v>
+        <v>2870000000</v>
       </c>
       <c r="D5" t="str">
         <f>IF(C5&gt;2147483647,"L","")</f>
         <v>L</v>
       </c>
       <c r="E5">
-        <v>2000231</v>
+        <v>14320231</v>
       </c>
       <c r="F5" s="2">
         <v>1</v>
       </c>
       <c r="G5" t="str">
-        <f t="shared" si="1"/>
-        <v>new Upgrade("Baby Shark",2639860696L,2000231,1),</v>
-      </c>
-      <c r="H5">
-        <f t="shared" si="2"/>
-        <v>1319.7779136509732</v>
-      </c>
-      <c r="L5" s="3">
+        <f>IF(A5="",_xlfn.CONCAT($K$1,$K$2,B5,$K$2,$K$3,C5,D5,$K$3,E5,$K$3,F5,"),",),_xlfn.CONCAT($K$1,$K$2,A5,$K$2,$K$3,$K$2,B5,$K$2,$K$3,C5,D5,$K$3,E5,$K$3,F5,"),"))</f>
+        <v>new Upgrade("Hubble Telescope",2870000000L,14320231,1),</v>
+      </c>
+      <c r="H5" s="12">
+        <f>C5/E5</f>
+        <v>200.41576144965819</v>
+      </c>
+      <c r="I5">
+        <f>FLOOR(LOG10(H5),1)</f>
+        <v>2</v>
+      </c>
+      <c r="M5" s="3">
         <v>3</v>
       </c>
-      <c r="M5" s="4">
-        <v>0</v>
-      </c>
-      <c r="N5" s="4"/>
+      <c r="N5" s="4">
+        <f t="shared" si="0"/>
+        <v>17</v>
+      </c>
     </row>
     <row r="6" spans="1:14">
       <c r="B6" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C6">
-        <v>500000</v>
+        <v>2639860696</v>
       </c>
       <c r="D6" t="str">
-        <f t="shared" ref="D6:D12" si="3">IF(C6&gt;2147483647,"L","")</f>
-        <v/>
+        <f>IF(C6&gt;2147483647,"L","")</f>
+        <v>L</v>
       </c>
       <c r="E6">
-        <v>300</v>
+        <v>13199303</v>
       </c>
       <c r="F6" s="2">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="G6" t="str">
-        <f t="shared" si="1"/>
-        <v>new Upgrade("Smash Ball",500000,300,6),</v>
-      </c>
-      <c r="H6">
-        <f t="shared" si="2"/>
-        <v>1666.6666666666667</v>
-      </c>
-      <c r="L6" s="3">
+        <f>IF(A6="",_xlfn.CONCAT($K$1,$K$2,B6,$K$2,$K$3,C6,D6,$K$3,E6,$K$3,F6,"),",),_xlfn.CONCAT($K$1,$K$2,A6,$K$2,$K$3,$K$2,B6,$K$2,$K$3,C6,D6,$K$3,E6,$K$3,F6,"),"))</f>
+        <v>new Upgrade("Baby Shark",2639860696L,13199303,1),</v>
+      </c>
+      <c r="H6" s="12">
+        <f>C6/E6</f>
+        <v>200.00000727311132</v>
+      </c>
+      <c r="I6">
+        <f>FLOOR(LOG10(H6),1)</f>
+        <v>2</v>
+      </c>
+      <c r="M6" s="3">
         <v>4</v>
       </c>
-      <c r="M6" s="4">
-        <v>1</v>
-      </c>
-      <c r="N6" s="4"/>
-    </row>
-    <row r="7" spans="1:14">
-      <c r="B7" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="C7">
-        <v>17871941</v>
-      </c>
-      <c r="D7" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="E7">
-        <v>15000</v>
-      </c>
-      <c r="F7" s="2">
-        <v>1</v>
-      </c>
-      <c r="G7" t="str">
-        <f t="shared" si="1"/>
-        <v>new Upgrade("Captain America's Shield",17871941,15000,1),</v>
-      </c>
-      <c r="H7">
-        <f t="shared" si="2"/>
-        <v>1191.4627333333333</v>
-      </c>
-      <c r="L7" s="3">
+      <c r="N6" s="4">
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="M7" s="4">
-        <v>0</v>
-      </c>
-      <c r="N7" s="4"/>
+    </row>
+    <row r="7" spans="1:14" s="6" customFormat="1">
+      <c r="B7" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7" s="8">
+        <v>2147483647</v>
+      </c>
+      <c r="D7" s="6" t="str">
+        <f>IF(C7&gt;2147483647,"L","")</f>
+        <v/>
+      </c>
+      <c r="E7" s="6">
+        <v>13166600</v>
+      </c>
+      <c r="F7" s="9">
+        <v>1</v>
+      </c>
+      <c r="G7" s="6" t="str">
+        <f>IF(A7="",_xlfn.CONCAT($K$1,$K$2,B7,$K$2,$K$3,C7,D7,$K$3,E7,$K$3,F7,"),",),_xlfn.CONCAT($K$1,$K$2,A7,$K$2,$K$3,$K$2,B7,$K$2,$K$3,C7,D7,$K$3,E7,$K$3,F7,"),"))</f>
+        <v>new Upgrade("Infinity Gauntlet",2147483647,13166600,1),</v>
+      </c>
+      <c r="H7" s="13">
+        <f>C7/E7</f>
+        <v>163.10084964987163</v>
+      </c>
+      <c r="I7" s="6">
+        <f>FLOOR(LOG10(H7),1)</f>
+        <v>2</v>
+      </c>
+      <c r="M7" s="10">
+        <v>5</v>
+      </c>
+      <c r="N7" s="11">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
     </row>
     <row r="8" spans="1:14">
       <c r="B8" s="1" t="s">
-        <v>10</v>
+        <v>48</v>
       </c>
       <c r="C8">
-        <v>113800</v>
+        <v>800000000</v>
       </c>
       <c r="D8" t="str">
-        <f t="shared" si="3"/>
+        <f>IF(C8&gt;2147483647,"L","")</f>
         <v/>
       </c>
       <c r="E8">
-        <v>100</v>
+        <v>3970009</v>
       </c>
       <c r="F8" s="2">
+        <v>1</v>
+      </c>
+      <c r="G8" t="str">
+        <f>IF(A8="",_xlfn.CONCAT($K$1,$K$2,B8,$K$2,$K$3,C8,D8,$K$3,E8,$K$3,F8,"),",),_xlfn.CONCAT($K$1,$K$2,A8,$K$2,$K$3,$K$2,B8,$K$2,$K$3,C8,D8,$K$3,E8,$K$3,F8,"),"))</f>
+        <v>new Upgrade("Wayne Manor",800000000,3970009,1),</v>
+      </c>
+      <c r="H8" s="12">
+        <f>C8/E8</f>
+        <v>201.51087818692602</v>
+      </c>
+      <c r="I8">
+        <f>FLOOR(LOG10(H8),1)</f>
         <v>2</v>
       </c>
-      <c r="G8" t="str">
-        <f t="shared" si="1"/>
-        <v>new Upgrade("Death Star",113800,100,2),</v>
-      </c>
-      <c r="H8">
-        <f t="shared" si="2"/>
-        <v>1138</v>
-      </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>6</v>
       </c>
-      <c r="M8" s="4">
-        <v>3</v>
-      </c>
-      <c r="N8" s="4"/>
+      <c r="N8" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="9" spans="1:14">
       <c r="B9" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C9" s="7">
-        <v>2147483647</v>
+        <v>89</v>
+      </c>
+      <c r="C9">
+        <v>682450750</v>
       </c>
       <c r="D9" t="str">
-        <f t="shared" si="3"/>
+        <f>IF(C9&gt;2147483647,"L","")</f>
         <v/>
       </c>
       <c r="E9">
-        <v>6666</v>
+        <v>3402000</v>
       </c>
       <c r="F9" s="2">
         <v>1</v>
       </c>
       <c r="G9" t="str">
-        <f t="shared" si="1"/>
-        <v>new Upgrade("Infinity Gauntlet",2147483647,6666,1),</v>
-      </c>
-      <c r="H9">
-        <f t="shared" si="2"/>
-        <v>322154.7625262526</v>
-      </c>
-      <c r="L9" s="5">
+        <f>IF(A9="",_xlfn.CONCAT($K$1,$K$2,B9,$K$2,$K$3,C9,D9,$K$3,E9,$K$3,F9,"),",),_xlfn.CONCAT($K$1,$K$2,A9,$K$2,$K$3,$K$2,B9,$K$2,$K$3,C9,D9,$K$3,E9,$K$3,F9,"),"))</f>
+        <v>new Upgrade("Because I'm Batman!",682450750,3402000,1),</v>
+      </c>
+      <c r="H9" s="12">
+        <f>C9/E9</f>
+        <v>200.60280717225163</v>
+      </c>
+      <c r="I9">
+        <f>FLOOR(LOG10(H9),1)</f>
+        <v>2</v>
+      </c>
+      <c r="M9" s="5">
         <v>7</v>
       </c>
-      <c r="M9" s="6">
-        <v>2</v>
-      </c>
-      <c r="N9" s="4"/>
+      <c r="N9" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="10" spans="1:14">
       <c r="B10" s="1" t="s">
-        <v>13</v>
+        <v>58</v>
       </c>
       <c r="C10">
-        <v>1000</v>
+        <v>230000000</v>
       </c>
       <c r="D10" t="str">
-        <f t="shared" si="3"/>
+        <f>IF(C10&gt;2147483647,"L","")</f>
         <v/>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>948324</v>
       </c>
       <c r="F10" s="2">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="G10" t="str">
-        <f t="shared" si="1"/>
-        <v>new Upgrade("Fire-Breathing Rubber Duckie",1000,1,10),</v>
-      </c>
-      <c r="H10">
-        <f t="shared" si="2"/>
-        <v>1000</v>
-      </c>
-      <c r="L10" s="3">
+        <f>IF(A10="",_xlfn.CONCAT($K$1,$K$2,B10,$K$2,$K$3,C10,D10,$K$3,E10,$K$3,F10,"),",),_xlfn.CONCAT($K$1,$K$2,A10,$K$2,$K$3,$K$2,B10,$K$2,$K$3,C10,D10,$K$3,E10,$K$3,F10,"),"))</f>
+        <v>new Upgrade("141-year-old newspaper",230000000,948324,1),</v>
+      </c>
+      <c r="H10" s="12">
+        <f>C10/E10</f>
+        <v>242.53314268119334</v>
+      </c>
+      <c r="I10">
+        <f>FLOOR(LOG10(H10),1)</f>
+        <v>2</v>
+      </c>
+      <c r="M10" s="3">
         <v>8</v>
       </c>
-      <c r="M10" s="4">
-        <v>2</v>
-      </c>
-      <c r="N10" s="4"/>
+      <c r="N10" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="11" spans="1:14">
       <c r="B11" s="1" t="s">
-        <v>14</v>
+        <v>51</v>
       </c>
       <c r="C11">
-        <v>10000</v>
+        <v>52000000</v>
       </c>
       <c r="D11" t="str">
-        <f t="shared" si="3"/>
+        <f>IF(C11&gt;2147483647,"L","")</f>
         <v/>
       </c>
       <c r="E11">
+        <v>196300</v>
+      </c>
+      <c r="F11" s="2">
+        <v>5</v>
+      </c>
+      <c r="G11" t="str">
+        <f>IF(A11="",_xlfn.CONCAT($K$1,$K$2,B11,$K$2,$K$3,C11,D11,$K$3,E11,$K$3,F11,"),",),_xlfn.CONCAT($K$1,$K$2,A11,$K$2,$K$3,$K$2,B11,$K$2,$K$3,C11,D11,$K$3,E11,$K$3,F11,"),"))</f>
+        <v>new Upgrade("1963 Ferrari GTO",52000000,196300,5),</v>
+      </c>
+      <c r="H11" s="12">
+        <f>C11/E11</f>
+        <v>264.9006622516556</v>
+      </c>
+      <c r="I11">
+        <f>FLOOR(LOG10(H11),1)</f>
+        <v>2</v>
+      </c>
+      <c r="M11" s="3">
+        <v>9</v>
+      </c>
+      <c r="N11" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14">
+      <c r="B12" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C12">
+        <v>2000000</v>
+      </c>
+      <c r="D12" t="str">
+        <f>IF(C12&gt;2147483647,"L","")</f>
+        <v/>
+      </c>
+      <c r="E12">
+        <f>2909*3</f>
+        <v>8727</v>
+      </c>
+      <c r="F12" s="2">
         <v>3</v>
       </c>
-      <c r="F11" s="2">
-        <v>100</v>
-      </c>
-      <c r="G11" t="str">
-        <f t="shared" si="1"/>
-        <v>new Upgrade("Sword",10000,3,100),</v>
-      </c>
-      <c r="H11">
-        <f t="shared" si="2"/>
-        <v>3333.3333333333335</v>
-      </c>
-      <c r="L11" s="3">
-        <v>9</v>
-      </c>
-      <c r="M11" s="4">
-        <v>8</v>
-      </c>
-      <c r="N11" s="4"/>
-    </row>
-    <row r="12" spans="1:14">
-      <c r="A12" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B12" t="s">
-        <v>92</v>
-      </c>
-      <c r="C12">
-        <v>100000</v>
-      </c>
-      <c r="D12" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="E12">
-        <v>100</v>
-      </c>
-      <c r="F12" s="2">
-        <v>19</v>
-      </c>
       <c r="G12" t="str">
-        <f t="shared" si="1"/>
-        <v>new Upgrade(":ring:","Ring of Power",100000,100,19),</v>
-      </c>
-      <c r="H12">
-        <f t="shared" si="2"/>
-        <v>1000</v>
-      </c>
-      <c r="L12" s="3">
+        <f>IF(A12="",_xlfn.CONCAT($K$1,$K$2,B12,$K$2,$K$3,C12,D12,$K$3,E12,$K$3,F12,"),",),_xlfn.CONCAT($K$1,$K$2,A12,$K$2,$K$3,$K$2,B12,$K$2,$K$3,C12,D12,$K$3,E12,$K$3,F12,"),"))</f>
+        <v>new Upgrade("Honus Wagner Rookie Card",2000000,8727,3),</v>
+      </c>
+      <c r="H12" s="12">
+        <f>C12/E12</f>
+        <v>229.17382834880257</v>
+      </c>
+      <c r="I12">
+        <f>FLOOR(LOG10(H12),1)</f>
+        <v>2</v>
+      </c>
+      <c r="M12" s="3">
         <v>10</v>
       </c>
-      <c r="M12" s="4">
+      <c r="N12" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" s="6" customFormat="1">
+      <c r="B13" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="C13" s="6">
+        <v>17871941</v>
+      </c>
+      <c r="D13" s="6" t="str">
+        <f>IF(C13&gt;2147483647,"L","")</f>
+        <v/>
+      </c>
+      <c r="E13" s="6">
+        <v>113100</v>
+      </c>
+      <c r="F13" s="9">
+        <v>1</v>
+      </c>
+      <c r="G13" s="6" t="str">
+        <f>IF(A13="",_xlfn.CONCAT($K$1,$K$2,B13,$K$2,$K$3,C13,D13,$K$3,E13,$K$3,F13,"),",),_xlfn.CONCAT($K$1,$K$2,A13,$K$2,$K$3,$K$2,B13,$K$2,$K$3,C13,D13,$K$3,E13,$K$3,F13,"),"))</f>
+        <v>new Upgrade("Captain America's Shield",17871941,113100,1),</v>
+      </c>
+      <c r="H13" s="13">
+        <f>C13/E13</f>
+        <v>158.01893015030947</v>
+      </c>
+      <c r="I13" s="6">
+        <f>FLOOR(LOG10(H13),1)</f>
         <v>2</v>
       </c>
-      <c r="N12" s="4"/>
-    </row>
-    <row r="13" spans="1:14">
-      <c r="B13" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C13">
-        <v>100000</v>
-      </c>
-      <c r="D13" t="str">
-        <f t="shared" ref="D6:D68" si="4">IF(C13&gt;2147483647,"L","")</f>
-        <v/>
-      </c>
-      <c r="E13">
-        <v>1000</v>
-      </c>
-      <c r="F13" s="2">
-        <v>1</v>
-      </c>
-      <c r="G13" t="str">
-        <f t="shared" si="1"/>
-        <v>new Upgrade("Stormbreaker",100000,1000,1),</v>
-      </c>
-      <c r="H13">
-        <f t="shared" si="2"/>
-        <v>100</v>
-      </c>
-      <c r="L13" s="3">
+      <c r="M13" s="10">
         <v>11</v>
       </c>
-      <c r="M13" s="4">
-        <v>11</v>
-      </c>
-      <c r="N13" s="4"/>
+      <c r="N13" s="11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="14" spans="1:14">
       <c r="B14" s="1" t="s">
-        <v>18</v>
+        <v>54</v>
       </c>
       <c r="C14">
-        <v>1996</v>
+        <v>16000000</v>
       </c>
       <c r="D14" t="str">
-        <f t="shared" si="4"/>
+        <f>IF(C14&gt;2147483647,"L","")</f>
         <v/>
       </c>
       <c r="E14">
-        <v>10</v>
+        <f>12345*5</f>
+        <v>61725</v>
       </c>
       <c r="F14" s="2">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G14" t="str">
-        <f t="shared" si="1"/>
-        <v>new Upgrade("Shark Repellent Bat Spray",1996,10,4),</v>
-      </c>
-      <c r="H14">
-        <f t="shared" si="2"/>
-        <v>199.6</v>
-      </c>
-      <c r="L14" s="3">
+        <f>IF(A14="",_xlfn.CONCAT($K$1,$K$2,B14,$K$2,$K$3,C14,D14,$K$3,E14,$K$3,F14,"),",),_xlfn.CONCAT($K$1,$K$2,A14,$K$2,$K$3,$K$2,B14,$K$2,$K$3,C14,D14,$K$3,E14,$K$3,F14,"),"))</f>
+        <v>new Upgrade("insure.com Domain",16000000,61725,1),</v>
+      </c>
+      <c r="H14" s="12">
+        <f>C14/E14</f>
+        <v>259.21425678412311</v>
+      </c>
+      <c r="I14">
+        <f>FLOOR(LOG10(H14),1)</f>
+        <v>2</v>
+      </c>
+      <c r="M14" s="3">
         <v>12</v>
       </c>
-      <c r="M14" s="4">
-        <v>5</v>
-      </c>
-      <c r="N14" s="4"/>
+      <c r="N14" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="15" spans="1:14">
       <c r="B15" s="1" t="s">
-        <v>19</v>
+        <v>52</v>
       </c>
       <c r="C15">
-        <v>150000</v>
+        <v>10004738</v>
       </c>
       <c r="D15" t="str">
-        <f t="shared" si="4"/>
+        <f>IF(C15&gt;2147483647,"L","")</f>
         <v/>
       </c>
       <c r="E15">
-        <v>4</v>
+        <v>43253</v>
       </c>
       <c r="F15" s="2">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="G15" t="str">
-        <f t="shared" si="1"/>
-        <v>new Upgrade("Bowcaster",150000,4,10),</v>
-      </c>
-      <c r="H15">
-        <f t="shared" si="2"/>
-        <v>37500</v>
-      </c>
-      <c r="L15" s="3">
-        <v>1</v>
-      </c>
-      <c r="M15" s="4">
-        <v>7</v>
-      </c>
-      <c r="N15" s="4"/>
-    </row>
-    <row r="16" spans="1:14">
-      <c r="B16" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="C16">
-        <v>800000</v>
-      </c>
-      <c r="D16" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="E16">
-        <v>1977</v>
-      </c>
-      <c r="F16" s="2">
-        <v>6</v>
-      </c>
-      <c r="G16" t="str">
-        <f t="shared" si="1"/>
-        <v>new Upgrade("Lightsaber",800000,1977,6),</v>
-      </c>
-      <c r="H16">
-        <f t="shared" si="2"/>
-        <v>404.6535154274153</v>
-      </c>
-      <c r="L16" s="3">
+        <f>IF(A15="",_xlfn.CONCAT($K$1,$K$2,B15,$K$2,$K$3,C15,D15,$K$3,E15,$K$3,F15,"),",),_xlfn.CONCAT($K$1,$K$2,A15,$K$2,$K$3,$K$2,B15,$K$2,$K$3,C15,D15,$K$3,E15,$K$3,F15,"),"))</f>
+        <v>new Upgrade("Gold Plated Bugatti Veyron",10004738,43253,1),</v>
+      </c>
+      <c r="H15" s="12">
+        <f>C15/E15</f>
+        <v>231.30737752294638</v>
+      </c>
+      <c r="I15">
+        <f>FLOOR(LOG10(H15),1)</f>
         <v>2</v>
       </c>
-      <c r="M16" s="4">
-        <v>6</v>
-      </c>
-      <c r="N16" s="4"/>
+      <c r="M15" s="3">
+        <v>13</v>
+      </c>
+      <c r="N15" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" s="6" customFormat="1">
+      <c r="B16" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C16" s="6">
+        <v>4490000</v>
+      </c>
+      <c r="D16" s="6" t="str">
+        <f>IF(C16&gt;2147483647,"L","")</f>
+        <v/>
+      </c>
+      <c r="E16" s="6">
+        <v>30000</v>
+      </c>
+      <c r="F16" s="9">
+        <v>1</v>
+      </c>
+      <c r="G16" s="6" t="str">
+        <f>IF(A16="",_xlfn.CONCAT($K$1,$K$2,B16,$K$2,$K$3,C16,D16,$K$3,E16,$K$3,F16,"),",),_xlfn.CONCAT($K$1,$K$2,A16,$K$2,$K$3,$K$2,B16,$K$2,$K$3,C16,D16,$K$3,E16,$K$3,F16,"),"))</f>
+        <v>new Upgrade("Mjolnir",4490000,30000,1),</v>
+      </c>
+      <c r="H16" s="13">
+        <f>C16/E16</f>
+        <v>149.66666666666666</v>
+      </c>
+      <c r="I16" s="6">
+        <f>FLOOR(LOG10(H16),1)</f>
+        <v>2</v>
+      </c>
+      <c r="M16" s="10">
+        <v>14</v>
+      </c>
+      <c r="N16" s="11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="17" spans="2:14">
       <c r="B17" s="1" t="s">
-        <v>21</v>
+        <v>55</v>
       </c>
       <c r="C17">
-        <v>858000</v>
+        <v>3200000</v>
       </c>
       <c r="D17" t="str">
-        <f t="shared" si="4"/>
+        <f>IF(C17&gt;2147483647,"L","")</f>
         <v/>
       </c>
       <c r="E17">
-        <v>150</v>
+        <v>14324</v>
       </c>
       <c r="F17" s="2">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="G17" t="str">
-        <f t="shared" si="1"/>
-        <v>new Upgrade("Tank",858000,150,10),</v>
-      </c>
-      <c r="H17">
-        <f t="shared" si="2"/>
-        <v>5720</v>
-      </c>
-      <c r="L17" s="3">
-        <v>3</v>
-      </c>
-      <c r="M17" s="4">
-        <v>1</v>
-      </c>
-      <c r="N17" s="4"/>
+        <f>IF(A17="",_xlfn.CONCAT($K$1,$K$2,B17,$K$2,$K$3,C17,D17,$K$3,E17,$K$3,F17,"),",),_xlfn.CONCAT($K$1,$K$2,A17,$K$2,$K$3,$K$2,B17,$K$2,$K$3,C17,D17,$K$3,E17,$K$3,F17,"),"))</f>
+        <v>new Upgrade("Crystal Piano",3200000,14324,1),</v>
+      </c>
+      <c r="H17" s="12">
+        <f>C17/E17</f>
+        <v>223.40128455738619</v>
+      </c>
+      <c r="I17">
+        <f>FLOOR(LOG10(H17),1)</f>
+        <v>2</v>
+      </c>
+      <c r="M17" s="3">
+        <v>15</v>
+      </c>
+      <c r="N17" s="4">
+        <f t="shared" ref="N17:N22" si="1">COUNTIF(I:I,M17)</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="18" spans="2:14">
       <c r="B18" s="1" t="s">
-        <v>22</v>
+        <v>94</v>
       </c>
       <c r="C18">
-        <v>630000</v>
+        <v>2014000</v>
       </c>
       <c r="D18" t="str">
-        <f t="shared" si="4"/>
+        <f>IF(C18&gt;2147483647,"L","")</f>
         <v/>
       </c>
       <c r="E18">
-        <v>3000</v>
+        <f>5*2023</f>
+        <v>10115</v>
       </c>
       <c r="F18" s="2">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="G18" t="str">
-        <f t="shared" si="1"/>
-        <v>new Upgrade("Pet Dragon",630000,3000,5),</v>
-      </c>
-      <c r="H18">
-        <f t="shared" si="2"/>
-        <v>210</v>
-      </c>
-      <c r="L18" s="3">
-        <v>4</v>
-      </c>
-      <c r="M18" s="4">
-        <v>5</v>
-      </c>
-      <c r="N18" s="4"/>
+        <f>IF(A18="",_xlfn.CONCAT($K$1,$K$2,B18,$K$2,$K$3,C18,D18,$K$3,E18,$K$3,F18,"),",),_xlfn.CONCAT($K$1,$K$2,A18,$K$2,$K$3,$K$2,B18,$K$2,$K$3,C18,D18,$K$3,E18,$K$3,F18,"),"))</f>
+        <v>new Upgrade("Thanos' Sword",2014000,10115,1),</v>
+      </c>
+      <c r="H18" s="12">
+        <f>C18/E18</f>
+        <v>199.11023232822541</v>
+      </c>
+      <c r="I18">
+        <f>FLOOR(LOG10(H18),1)</f>
+        <v>2</v>
+      </c>
+      <c r="M18" s="3">
+        <v>16</v>
+      </c>
+      <c r="N18" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="19" spans="2:14">
       <c r="B19" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C19">
-        <v>4490000</v>
+        <v>1800000</v>
       </c>
       <c r="D19" t="str">
-        <f t="shared" si="4"/>
+        <f>IF(C19&gt;2147483647,"L","")</f>
         <v/>
       </c>
       <c r="E19">
-        <v>3000</v>
+        <v>6930</v>
       </c>
       <c r="F19" s="2">
         <v>1</v>
       </c>
       <c r="G19" t="str">
-        <f t="shared" si="1"/>
-        <v>new Upgrade("Mjolnir",4490000,3000,1),</v>
-      </c>
-      <c r="H19">
-        <f t="shared" si="2"/>
-        <v>1496.6666666666667</v>
-      </c>
-      <c r="L19" s="3">
-        <v>5</v>
-      </c>
-      <c r="M19" s="4">
-        <v>1</v>
-      </c>
-      <c r="N19" s="4"/>
+        <f>IF(A19="",_xlfn.CONCAT($K$1,$K$2,B19,$K$2,$K$3,C19,D19,$K$3,E19,$K$3,F19,"),",),_xlfn.CONCAT($K$1,$K$2,A19,$K$2,$K$3,$K$2,B19,$K$2,$K$3,C19,D19,$K$3,E19,$K$3,F19,"),"))</f>
+        <v>new Upgrade("The Tumbler Batmobile",1800000,6930,1),</v>
+      </c>
+      <c r="H19" s="12">
+        <f>C19/E19</f>
+        <v>259.74025974025972</v>
+      </c>
+      <c r="I19">
+        <f>FLOOR(LOG10(H19),1)</f>
+        <v>2</v>
+      </c>
+      <c r="M19" s="3">
+        <v>17</v>
+      </c>
+      <c r="N19" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="20" spans="2:14">
       <c r="B20" s="1" t="s">
-        <v>24</v>
+        <v>53</v>
       </c>
       <c r="C20">
-        <v>1230000</v>
+        <v>1600000</v>
       </c>
       <c r="D20" t="str">
-        <f t="shared" si="4"/>
+        <f>IF(C20&gt;2147483647,"L","")</f>
         <v/>
       </c>
       <c r="E20">
-        <v>1640</v>
+        <v>8000</v>
       </c>
       <c r="F20" s="2">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="G20" t="str">
-        <f t="shared" si="1"/>
-        <v>new Upgrade("The Ultimate Ultimate Weapon",1230000,1640,6),</v>
-      </c>
-      <c r="H20">
-        <f t="shared" si="2"/>
-        <v>750</v>
-      </c>
-      <c r="L20" s="3">
-        <v>6</v>
-      </c>
-      <c r="M20" s="4">
-        <v>1</v>
-      </c>
-      <c r="N20" s="4"/>
+        <f>IF(A20="",_xlfn.CONCAT($K$1,$K$2,B20,$K$2,$K$3,C20,D20,$K$3,E20,$K$3,F20,"),",),_xlfn.CONCAT($K$1,$K$2,A20,$K$2,$K$3,$K$2,B20,$K$2,$K$3,C20,D20,$K$3,E20,$K$3,F20,"),"))</f>
+        <v>new Upgrade("Magnetic Floating Bed",1600000,8000,1),</v>
+      </c>
+      <c r="H20" s="12">
+        <f>C20/E20</f>
+        <v>200</v>
+      </c>
+      <c r="I20">
+        <f>FLOOR(LOG10(H20),1)</f>
+        <v>2</v>
+      </c>
+      <c r="M20" s="3">
+        <v>18</v>
+      </c>
+      <c r="N20" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="21" spans="2:14">
       <c r="B21" s="1" t="s">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="C21">
-        <v>1800000</v>
+        <v>1510000</v>
       </c>
       <c r="D21" t="str">
-        <f t="shared" si="4"/>
+        <f>IF(C21&gt;2147483647,"L","")</f>
         <v/>
       </c>
       <c r="E21">
-        <v>493</v>
+        <v>8090</v>
       </c>
       <c r="F21" s="2">
         <v>1</v>
       </c>
       <c r="G21" t="str">
-        <f t="shared" si="1"/>
-        <v>new Upgrade("The Tumbler Batmobile",1800000,493,1),</v>
-      </c>
-      <c r="H21">
-        <f t="shared" si="2"/>
-        <v>3651.1156186612575</v>
-      </c>
-      <c r="L21" s="3">
-        <v>7</v>
-      </c>
-      <c r="M21" s="4">
-        <v>1</v>
-      </c>
-      <c r="N21" s="4"/>
+        <f>IF(A21="",_xlfn.CONCAT($K$1,$K$2,B21,$K$2,$K$3,C21,D21,$K$3,E21,$K$3,F21,"),",),_xlfn.CONCAT($K$1,$K$2,A21,$K$2,$K$3,$K$2,B21,$K$2,$K$3,C21,D21,$K$3,E21,$K$3,F21,"),"))</f>
+        <v>new Upgrade("All of the Pokemon",1510000,8090,1),</v>
+      </c>
+      <c r="H21" s="12">
+        <f>C21/E21</f>
+        <v>186.65018541409148</v>
+      </c>
+      <c r="I21">
+        <f>FLOOR(LOG10(H21),1)</f>
+        <v>2</v>
+      </c>
+      <c r="M21" s="3">
+        <v>19</v>
+      </c>
+      <c r="N21" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="22" spans="2:14">
       <c r="B22" s="1" t="s">
-        <v>26</v>
+        <v>60</v>
       </c>
       <c r="C22">
-        <v>1</v>
+        <v>1325000</v>
       </c>
       <c r="D22" t="str">
-        <f t="shared" si="4"/>
+        <f>IF(C22&gt;2147483647,"L","")</f>
         <v/>
       </c>
       <c r="E22">
-        <v>-1</v>
+        <v>5500</v>
       </c>
       <c r="F22" s="2">
-        <v>128</v>
+        <v>7</v>
       </c>
       <c r="G22" t="str">
-        <f t="shared" si="1"/>
-        <v>new Upgrade("Bug",1,-1,128),</v>
-      </c>
-      <c r="H22">
-        <f t="shared" si="2"/>
-        <v>-1</v>
-      </c>
-      <c r="L22" s="3">
-        <v>8</v>
-      </c>
-      <c r="M22" s="4">
+        <f>IF(A22="",_xlfn.CONCAT($K$1,$K$2,B22,$K$2,$K$3,C22,D22,$K$3,E22,$K$3,F22,"),",),_xlfn.CONCAT($K$1,$K$2,A22,$K$2,$K$3,$K$2,B22,$K$2,$K$3,C22,D22,$K$3,E22,$K$3,F22,"),"))</f>
+        <v>new Upgrade("Ferrari Enzo",1325000,5500,7),</v>
+      </c>
+      <c r="H22" s="12">
+        <f>C22/E22</f>
+        <v>240.90909090909091</v>
+      </c>
+      <c r="I22">
+        <f>FLOOR(LOG10(H22),1)</f>
         <v>2</v>
       </c>
-      <c r="N22" s="4"/>
+      <c r="M22" s="3">
+        <v>20</v>
+      </c>
+      <c r="N22" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="23" spans="2:14">
       <c r="B23" s="1" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C23">
-        <v>20000</v>
+        <v>1230000</v>
       </c>
       <c r="D23" t="str">
-        <f t="shared" si="4"/>
+        <f>IF(C23&gt;2147483647,"L","")</f>
         <v/>
       </c>
       <c r="E23">
-        <v>20</v>
+        <f>3*1640</f>
+        <v>4920</v>
       </c>
       <c r="F23" s="2">
         <v>6</v>
       </c>
       <c r="G23" t="str">
-        <f t="shared" si="1"/>
-        <v>new Upgrade("Shards of Narsil",20000,20,6),</v>
-      </c>
-      <c r="H23">
-        <f t="shared" si="2"/>
-        <v>1000</v>
-      </c>
-      <c r="L23" s="3">
-        <v>9</v>
-      </c>
-      <c r="M23" s="4">
-        <v>3</v>
-      </c>
-      <c r="N23" s="4"/>
-    </row>
-    <row r="24" spans="2:14">
-      <c r="B24" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="C24">
-        <v>123459</v>
-      </c>
-      <c r="D24" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="E24">
-        <v>100</v>
-      </c>
-      <c r="F24" s="2">
-        <v>1</v>
-      </c>
-      <c r="G24" t="str">
-        <f t="shared" si="1"/>
-        <v>new Upgrade("Genesis Device",123459,100,1),</v>
-      </c>
-      <c r="H24">
-        <f t="shared" si="2"/>
-        <v>1234.5899999999999</v>
-      </c>
-      <c r="L24" s="3">
-        <v>10</v>
-      </c>
-      <c r="M24" s="4">
-        <v>1</v>
-      </c>
-      <c r="N24" s="4"/>
+        <f>IF(A23="",_xlfn.CONCAT($K$1,$K$2,B23,$K$2,$K$3,C23,D23,$K$3,E23,$K$3,F23,"),",),_xlfn.CONCAT($K$1,$K$2,A23,$K$2,$K$3,$K$2,B23,$K$2,$K$3,C23,D23,$K$3,E23,$K$3,F23,"),"))</f>
+        <v>new Upgrade("The Ultimate Ultimate Weapon",1230000,4920,6),</v>
+      </c>
+      <c r="H23" s="12">
+        <f>C23/E23</f>
+        <v>250</v>
+      </c>
+      <c r="I23">
+        <f>FLOOR(LOG10(H23),1)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24" spans="2:14" s="6" customFormat="1">
+      <c r="B24" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="C24" s="6">
+        <v>1138000</v>
+      </c>
+      <c r="D24" s="6" t="str">
+        <f>IF(C24&gt;2147483647,"L","")</f>
+        <v/>
+      </c>
+      <c r="E24" s="6">
+        <v>7486</v>
+      </c>
+      <c r="F24" s="9">
+        <v>1</v>
+      </c>
+      <c r="G24" s="6" t="str">
+        <f>IF(A24="",_xlfn.CONCAT($K$1,$K$2,B24,$K$2,$K$3,C24,D24,$K$3,E24,$K$3,F24,"),",),_xlfn.CONCAT($K$1,$K$2,A24,$K$2,$K$3,$K$2,B24,$K$2,$K$3,C24,D24,$K$3,E24,$K$3,F24,"),"))</f>
+        <v>new Upgrade("Darth Vader's Helmet",1138000,7486,1),</v>
+      </c>
+      <c r="H24" s="13">
+        <f>C24/E24</f>
+        <v>152.0170985840235</v>
+      </c>
+      <c r="I24" s="6">
+        <f>FLOOR(LOG10(H24),1)</f>
+        <v>2</v>
+      </c>
     </row>
     <row r="25" spans="2:14">
       <c r="B25" s="1" t="s">
-        <v>29</v>
+        <v>67</v>
       </c>
       <c r="C25">
-        <v>200000</v>
+        <v>999999</v>
       </c>
       <c r="D25" t="str">
-        <f t="shared" si="4"/>
+        <f>IF(C25&gt;2147483647,"L","")</f>
         <v/>
       </c>
       <c r="E25">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F25" s="2">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="G25" t="str">
-        <f t="shared" si="1"/>
-        <v>new Upgrade("Phaser Rifle",200000,1,1),</v>
-      </c>
-      <c r="H25">
-        <f t="shared" si="2"/>
-        <v>200000</v>
-      </c>
-      <c r="L25" s="3">
-        <v>11</v>
-      </c>
-      <c r="M25" s="4">
-        <v>0</v>
-      </c>
-      <c r="N25" s="4"/>
+        <f>IF(A25="",_xlfn.CONCAT($K$1,$K$2,B25,$K$2,$K$3,C25,D25,$K$3,E25,$K$3,F25,"),",),_xlfn.CONCAT($K$1,$K$2,A25,$K$2,$K$3,$K$2,B25,$K$2,$K$3,C25,D25,$K$3,E25,$K$3,F25,"),"))</f>
+        <v>new Upgrade("Crisp $1,000,000 bill",999999,0,100),</v>
+      </c>
+      <c r="H25" s="12" t="e">
+        <f>C25/E25</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I25" t="e">
+        <f>FLOOR(LOG10(H25),1)</f>
+        <v>#DIV/0!</v>
+      </c>
     </row>
     <row r="26" spans="2:14">
       <c r="B26" s="1" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="C26">
-        <v>200000</v>
+        <v>858000</v>
       </c>
       <c r="D26" t="str">
-        <f t="shared" si="4"/>
+        <f>IF(C26&gt;2147483647,"L","")</f>
         <v/>
       </c>
       <c r="E26">
+        <f>2.5*1500</f>
+        <v>3750</v>
+      </c>
+      <c r="F26" s="2">
         <v>10</v>
       </c>
-      <c r="F26" s="2">
+      <c r="G26" t="str">
+        <f>IF(A26="",_xlfn.CONCAT($K$1,$K$2,B26,$K$2,$K$3,C26,D26,$K$3,E26,$K$3,F26,"),",),_xlfn.CONCAT($K$1,$K$2,A26,$K$2,$K$3,$K$2,B26,$K$2,$K$3,C26,D26,$K$3,E26,$K$3,F26,"),"))</f>
+        <v>new Upgrade("Tank",858000,3750,10),</v>
+      </c>
+      <c r="H26" s="12">
+        <f>C26/E26</f>
+        <v>228.8</v>
+      </c>
+      <c r="I26">
+        <f>FLOOR(LOG10(H26),1)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27" spans="2:14" s="6" customFormat="1">
+      <c r="B27" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="C27" s="6">
+        <v>300000</v>
+      </c>
+      <c r="D27" s="6" t="str">
+        <f>IF(C27&gt;2147483647,"L","")</f>
+        <v/>
+      </c>
+      <c r="E27" s="6">
+        <v>1977</v>
+      </c>
+      <c r="F27" s="9">
         <v>6</v>
       </c>
-      <c r="G26" t="str">
-        <f t="shared" si="1"/>
-        <v>new Upgrade("Six-Shooter",200000,10,6),</v>
-      </c>
-      <c r="H26">
-        <f t="shared" si="2"/>
-        <v>20000</v>
-      </c>
-      <c r="L26" s="3">
-        <v>12</v>
-      </c>
-      <c r="M26" s="4">
+      <c r="G27" s="6" t="str">
+        <f>IF(A27="",_xlfn.CONCAT($K$1,$K$2,B27,$K$2,$K$3,C27,D27,$K$3,E27,$K$3,F27,"),",),_xlfn.CONCAT($K$1,$K$2,A27,$K$2,$K$3,$K$2,B27,$K$2,$K$3,C27,D27,$K$3,E27,$K$3,F27,"),"))</f>
+        <v>new Upgrade("Lightsaber",300000,1977,6),</v>
+      </c>
+      <c r="H27" s="13">
+        <f>C27/E27</f>
+        <v>151.74506828528072</v>
+      </c>
+      <c r="I27" s="6">
+        <f>FLOOR(LOG10(H27),1)</f>
         <v>2</v>
       </c>
-      <c r="N26" s="4"/>
-    </row>
-    <row r="27" spans="2:14">
-      <c r="B27" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="C27">
-        <v>10</v>
-      </c>
-      <c r="D27" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="E27">
-        <v>0</v>
-      </c>
-      <c r="F27" s="2">
-        <v>100</v>
-      </c>
-      <c r="G27" t="str">
-        <f t="shared" si="1"/>
-        <v>new Upgrade("Lego Brick",10,0,100),</v>
-      </c>
-      <c r="H27" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="N27" s="4"/>
     </row>
     <row r="28" spans="2:14">
       <c r="B28" s="1" t="s">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="C28">
-        <v>100000</v>
+        <v>630000</v>
       </c>
       <c r="D28" t="str">
-        <f t="shared" si="4"/>
+        <f>IF(C28&gt;2147483647,"L","")</f>
         <v/>
       </c>
       <c r="E28">
-        <v>100</v>
+        <v>3030</v>
       </c>
       <c r="F28" s="2">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="G28" t="str">
-        <f t="shared" si="1"/>
-        <v>new Upgrade("Medpack",100000,100,10),</v>
-      </c>
-      <c r="H28">
-        <f t="shared" si="2"/>
-        <v>1000</v>
+        <f>IF(A28="",_xlfn.CONCAT($K$1,$K$2,B28,$K$2,$K$3,C28,D28,$K$3,E28,$K$3,F28,"),",),_xlfn.CONCAT($K$1,$K$2,A28,$K$2,$K$3,$K$2,B28,$K$2,$K$3,C28,D28,$K$3,E28,$K$3,F28,"),"))</f>
+        <v>new Upgrade("Pet Dragon",630000,3030,5),</v>
+      </c>
+      <c r="H28" s="12">
+        <f>C28/E28</f>
+        <v>207.92079207920793</v>
+      </c>
+      <c r="I28">
+        <f>FLOOR(LOG10(H28),1)</f>
+        <v>2</v>
       </c>
     </row>
     <row r="29" spans="2:14">
       <c r="B29" s="1" t="s">
-        <v>33</v>
+        <v>97</v>
       </c>
       <c r="C29">
-        <v>50000</v>
+        <v>600000</v>
       </c>
       <c r="D29" t="str">
-        <f t="shared" si="4"/>
+        <f>IF(C29&gt;2147483647,"L","")</f>
         <v/>
       </c>
       <c r="E29">
-        <v>1</v>
+        <v>3000</v>
       </c>
       <c r="F29" s="2">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="G29" t="str">
-        <f t="shared" si="1"/>
-        <v>new Upgrade("Sandwitch",50000,1,10),</v>
-      </c>
-      <c r="H29">
-        <f t="shared" si="2"/>
-        <v>50000</v>
+        <f>IF(A29="",_xlfn.CONCAT($K$1,$K$2,B29,$K$2,$K$3,C29,D29,$K$3,E29,$K$3,F29,"),",),_xlfn.CONCAT($K$1,$K$2,A29,$K$2,$K$3,$K$2,B29,$K$2,$K$3,C29,D29,$K$3,E29,$K$3,F29,"),"))</f>
+        <v>new Upgrade("Charles Hollander Chess Set",600000,3000,7),</v>
+      </c>
+      <c r="H29" s="12">
+        <f>C29/E29</f>
+        <v>200</v>
+      </c>
+      <c r="I29">
+        <f>FLOOR(LOG10(H29),1)</f>
+        <v>2</v>
       </c>
     </row>
     <row r="30" spans="2:14">
       <c r="B30" s="1" t="s">
-        <v>34</v>
+        <v>9</v>
       </c>
       <c r="C30">
-        <v>10000</v>
+        <v>400000</v>
       </c>
       <c r="D30" t="str">
-        <f t="shared" si="4"/>
+        <f>IF(C30&gt;2147483647,"L","")</f>
         <v/>
       </c>
       <c r="E30">
-        <v>1</v>
+        <f>1/2*3000</f>
+        <v>1500</v>
       </c>
       <c r="F30" s="2">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="G30" t="str">
-        <f t="shared" si="1"/>
-        <v>new Upgrade("Water Bottle",10000,1,10),</v>
-      </c>
-      <c r="H30">
-        <f t="shared" si="2"/>
-        <v>10000</v>
-      </c>
-    </row>
-    <row r="31" spans="2:14">
-      <c r="B31" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="C31">
-        <v>999999</v>
-      </c>
-      <c r="D31" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="E31">
-        <v>0</v>
-      </c>
-      <c r="F31" s="2">
-        <v>100</v>
-      </c>
-      <c r="G31" t="str">
-        <f t="shared" si="1"/>
-        <v>new Upgrade("Crisp $1,000,000 bill",999999,0,100),</v>
-      </c>
-      <c r="H31" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
+        <f>IF(A30="",_xlfn.CONCAT($K$1,$K$2,B30,$K$2,$K$3,C30,D30,$K$3,E30,$K$3,F30,"),",),_xlfn.CONCAT($K$1,$K$2,A30,$K$2,$K$3,$K$2,B30,$K$2,$K$3,C30,D30,$K$3,E30,$K$3,F30,"),"))</f>
+        <v>new Upgrade("Smash Ball",400000,1500,6),</v>
+      </c>
+      <c r="H30" s="12">
+        <f>C30/E30</f>
+        <v>266.66666666666669</v>
+      </c>
+      <c r="I30">
+        <f>FLOOR(LOG10(H30),1)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="31" spans="2:14" s="6" customFormat="1">
+      <c r="B31" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="C31" s="6">
+        <v>301800</v>
+      </c>
+      <c r="D31" s="6" t="str">
+        <f>IF(C31&gt;2147483647,"L","")</f>
+        <v/>
+      </c>
+      <c r="E31" s="6">
+        <v>2110</v>
+      </c>
+      <c r="F31" s="9">
+        <v>1</v>
+      </c>
+      <c r="G31" s="6" t="str">
+        <f>IF(A31="",_xlfn.CONCAT($K$1,$K$2,B31,$K$2,$K$3,C31,D31,$K$3,E31,$K$3,F31,"),",),_xlfn.CONCAT($K$1,$K$2,A31,$K$2,$K$3,$K$2,B31,$K$2,$K$3,C31,D31,$K$3,E31,$K$3,F31,"),"))</f>
+        <v>new Upgrade("Legolas's Bow",301800,2110,1),</v>
+      </c>
+      <c r="H31" s="13">
+        <f>C31/E31</f>
+        <v>143.03317535545023</v>
+      </c>
+      <c r="I31" s="6">
+        <f>FLOOR(LOG10(H31),1)</f>
+        <v>2</v>
       </c>
     </row>
     <row r="32" spans="2:14">
       <c r="B32" s="1" t="s">
-        <v>84</v>
+        <v>29</v>
       </c>
       <c r="C32">
-        <v>1138000</v>
+        <v>200000</v>
       </c>
       <c r="D32" t="str">
-        <f t="shared" si="4"/>
+        <f>IF(C32&gt;2147483647,"L","")</f>
         <v/>
       </c>
       <c r="E32">
-        <v>1138</v>
+        <v>1</v>
       </c>
       <c r="F32" s="2">
         <v>1</v>
       </c>
       <c r="G32" t="str">
-        <f t="shared" si="1"/>
-        <v>new Upgrade("Darth Vader's Helmet",1138000,1138,1),</v>
-      </c>
-      <c r="H32">
-        <f t="shared" si="2"/>
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8">
+        <f>IF(A32="",_xlfn.CONCAT($K$1,$K$2,B32,$K$2,$K$3,C32,D32,$K$3,E32,$K$3,F32,"),",),_xlfn.CONCAT($K$1,$K$2,A32,$K$2,$K$3,$K$2,B32,$K$2,$K$3,C32,D32,$K$3,E32,$K$3,F32,"),"))</f>
+        <v>new Upgrade("Phaser Rifle",200000,1,1),</v>
+      </c>
+      <c r="H32" s="12">
+        <f>C32/E32</f>
+        <v>200000</v>
+      </c>
+      <c r="I32">
+        <f>FLOOR(LOG10(H32),1)</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9">
       <c r="B33" s="1" t="s">
-        <v>86</v>
+        <v>30</v>
       </c>
       <c r="C33">
         <v>200000</v>
       </c>
       <c r="D33" t="str">
-        <f t="shared" si="4"/>
+        <f>IF(C33&gt;2147483647,"L","")</f>
         <v/>
       </c>
       <c r="E33">
+        <v>10</v>
+      </c>
+      <c r="F33" s="2">
+        <v>6</v>
+      </c>
+      <c r="G33" t="str">
+        <f>IF(A33="",_xlfn.CONCAT($K$1,$K$2,B33,$K$2,$K$3,C33,D33,$K$3,E33,$K$3,F33,"),",),_xlfn.CONCAT($K$1,$K$2,A33,$K$2,$K$3,$K$2,B33,$K$2,$K$3,C33,D33,$K$3,E33,$K$3,F33,"),"))</f>
+        <v>new Upgrade("Six-Shooter",200000,10,6),</v>
+      </c>
+      <c r="H33" s="12">
+        <f>C33/E33</f>
+        <v>20000</v>
+      </c>
+      <c r="I33">
+        <f>FLOOR(LOG10(H33),1)</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" s="6" customFormat="1">
+      <c r="B34" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="C34" s="6">
+        <v>200000</v>
+      </c>
+      <c r="D34" s="6" t="str">
+        <f>IF(C34&gt;2147483647,"L","")</f>
+        <v/>
+      </c>
+      <c r="E34" s="6">
         <v>135</v>
       </c>
-      <c r="F33" s="2">
-        <v>1</v>
-      </c>
-      <c r="G33" t="str">
-        <f t="shared" si="1"/>
+      <c r="F34" s="9">
+        <v>1</v>
+      </c>
+      <c r="G34" s="6" t="str">
+        <f>IF(A34="",_xlfn.CONCAT($K$1,$K$2,B34,$K$2,$K$3,C34,D34,$K$3,E34,$K$3,F34,"),",),_xlfn.CONCAT($K$1,$K$2,A34,$K$2,$K$3,$K$2,B34,$K$2,$K$3,C34,D34,$K$3,E34,$K$3,F34,"),"))</f>
         <v>new Upgrade("Kylo Ren's Helmet",200000,135,1),</v>
       </c>
-      <c r="H33">
-        <f t="shared" si="2"/>
+      <c r="H34" s="13">
+        <f>C34/E34</f>
         <v>1481.4814814814815</v>
       </c>
-    </row>
-    <row r="34" spans="1:8">
-      <c r="B34" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="C34">
-        <v>1510000</v>
-      </c>
-      <c r="D34" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="E34">
-        <v>809</v>
-      </c>
-      <c r="F34" s="2">
-        <v>1</v>
-      </c>
-      <c r="G34" t="str">
-        <f t="shared" si="1"/>
-        <v>new Upgrade("All of the Pokemon",1510000,809,1),</v>
-      </c>
-      <c r="H34">
-        <f t="shared" si="2"/>
-        <v>1866.5018541409147</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8">
+      <c r="I34" s="6">
+        <f>FLOOR(LOG10(H34),1)</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9">
       <c r="B35" s="1" t="s">
-        <v>36</v>
+        <v>7</v>
       </c>
       <c r="C35">
-        <v>5000</v>
+        <v>190000</v>
       </c>
       <c r="D35" t="str">
-        <f t="shared" si="4"/>
+        <f>IF(C35&gt;2147483647,"L","")</f>
         <v/>
       </c>
       <c r="E35">
-        <v>1</v>
+        <v>190</v>
       </c>
       <c r="F35" s="2">
-        <v>200</v>
+        <v>5</v>
       </c>
       <c r="G35" t="str">
-        <f t="shared" si="1"/>
-        <v>new Upgrade("Shield",5000,1,200),</v>
-      </c>
-      <c r="H35">
-        <f t="shared" si="2"/>
-        <v>5000</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8">
+        <f>IF(A35="",_xlfn.CONCAT($K$1,$K$2,B35,$K$2,$K$3,C35,D35,$K$3,E35,$K$3,F35,"),",),_xlfn.CONCAT($K$1,$K$2,A35,$K$2,$K$3,$K$2,B35,$K$2,$K$3,C35,D35,$K$3,E35,$K$3,F35,"),"))</f>
+        <v>new Upgrade("Nuclear Bomb",190000,190,5),</v>
+      </c>
+      <c r="H35" s="12">
+        <f>C35/E35</f>
+        <v>1000</v>
+      </c>
+      <c r="I35">
+        <f>FLOOR(LOG10(H35),1)</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9">
       <c r="B36" s="1" t="s">
-        <v>87</v>
+        <v>19</v>
       </c>
       <c r="C36">
+        <v>150000</v>
+      </c>
+      <c r="D36" t="str">
+        <f>IF(C36&gt;2147483647,"L","")</f>
+        <v/>
+      </c>
+      <c r="E36">
+        <v>4</v>
+      </c>
+      <c r="F36" s="2">
+        <v>10</v>
+      </c>
+      <c r="G36" t="str">
+        <f>IF(A36="",_xlfn.CONCAT($K$1,$K$2,B36,$K$2,$K$3,C36,D36,$K$3,E36,$K$3,F36,"),",),_xlfn.CONCAT($K$1,$K$2,A36,$K$2,$K$3,$K$2,B36,$K$2,$K$3,C36,D36,$K$3,E36,$K$3,F36,"),"))</f>
+        <v>new Upgrade("Bowcaster",150000,4,10),</v>
+      </c>
+      <c r="H36" s="12">
+        <f>C36/E36</f>
+        <v>37500</v>
+      </c>
+      <c r="I36">
+        <f>FLOOR(LOG10(H36),1)</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" s="6" customFormat="1">
+      <c r="B37" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="C37" s="6">
+        <v>123459</v>
+      </c>
+      <c r="D37" s="6" t="str">
+        <f>IF(C37&gt;2147483647,"L","")</f>
+        <v/>
+      </c>
+      <c r="E37" s="6">
+        <v>100</v>
+      </c>
+      <c r="F37" s="9">
+        <v>1</v>
+      </c>
+      <c r="G37" s="6" t="str">
+        <f>IF(A37="",_xlfn.CONCAT($K$1,$K$2,B37,$K$2,$K$3,C37,D37,$K$3,E37,$K$3,F37,"),",),_xlfn.CONCAT($K$1,$K$2,A37,$K$2,$K$3,$K$2,B37,$K$2,$K$3,C37,D37,$K$3,E37,$K$3,F37,"),"))</f>
+        <v>new Upgrade("Genesis Device",123459,100,1),</v>
+      </c>
+      <c r="H37" s="13">
+        <f>C37/E37</f>
+        <v>1234.5899999999999</v>
+      </c>
+      <c r="I37" s="6">
+        <f>FLOOR(LOG10(H37),1)</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9">
+      <c r="B38" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C38">
+        <v>120000</v>
+      </c>
+      <c r="D38" t="str">
+        <f>IF(C38&gt;2147483647,"L","")</f>
+        <v/>
+      </c>
+      <c r="E38">
+        <v>1138</v>
+      </c>
+      <c r="F38" s="2">
+        <v>1</v>
+      </c>
+      <c r="G38" t="str">
+        <f>IF(A38="",_xlfn.CONCAT($K$1,$K$2,B38,$K$2,$K$3,C38,D38,$K$3,E38,$K$3,F38,"),",),_xlfn.CONCAT($K$1,$K$2,A38,$K$2,$K$3,$K$2,B38,$K$2,$K$3,C38,D38,$K$3,E38,$K$3,F38,"),"))</f>
+        <v>new Upgrade("A bad feeling about this",120000,1138,1),</v>
+      </c>
+      <c r="H38" s="12">
+        <f>C38/E38</f>
+        <v>105.4481546572935</v>
+      </c>
+      <c r="I38">
+        <f>FLOOR(LOG10(H38),1)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" s="6" customFormat="1">
+      <c r="B39" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C39" s="6">
+        <v>113800</v>
+      </c>
+      <c r="D39" s="6" t="str">
+        <f>IF(C39&gt;2147483647,"L","")</f>
+        <v/>
+      </c>
+      <c r="E39" s="6">
+        <v>100</v>
+      </c>
+      <c r="F39" s="9">
+        <v>2</v>
+      </c>
+      <c r="G39" s="6" t="str">
+        <f>IF(A39="",_xlfn.CONCAT($K$1,$K$2,B39,$K$2,$K$3,C39,D39,$K$3,E39,$K$3,F39,"),",),_xlfn.CONCAT($K$1,$K$2,A39,$K$2,$K$3,$K$2,B39,$K$2,$K$3,C39,D39,$K$3,E39,$K$3,F39,"),"))</f>
+        <v>new Upgrade("Death Star",113800,100,2),</v>
+      </c>
+      <c r="H39" s="13">
+        <f>C39/E39</f>
+        <v>1138</v>
+      </c>
+      <c r="I39" s="6">
+        <f>FLOOR(LOG10(H39),1)</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9">
+      <c r="B40" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C40">
         <v>100000</v>
       </c>
-      <c r="D36" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="E36">
+      <c r="D40" t="str">
+        <f>IF(C40&gt;2147483647,"L","")</f>
+        <v/>
+      </c>
+      <c r="E40">
         <v>100</v>
-      </c>
-      <c r="F36" s="2">
-        <v>1</v>
-      </c>
-      <c r="G36" t="str">
-        <f t="shared" si="1"/>
-        <v>new Upgrade("Mario's Hat",100000,100,1),</v>
-      </c>
-      <c r="H36">
-        <f t="shared" si="2"/>
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8">
-      <c r="B37" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="C37">
-        <v>1000</v>
-      </c>
-      <c r="D37" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="E37">
-        <v>1</v>
-      </c>
-      <c r="F37" s="2">
-        <v>100</v>
-      </c>
-      <c r="G37" t="str">
-        <f t="shared" si="1"/>
-        <v>new Upgrade("Popcorn",1000,1,100),</v>
-      </c>
-      <c r="H37">
-        <f t="shared" si="2"/>
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8">
-      <c r="B38" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="C38">
-        <v>1</v>
-      </c>
-      <c r="D38" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="E38">
-        <v>0</v>
-      </c>
-      <c r="F38" s="2">
-        <v>256</v>
-      </c>
-      <c r="G38" t="str">
-        <f t="shared" si="1"/>
-        <v>new Upgrade("Debug Byte",1,0,256),</v>
-      </c>
-      <c r="H38" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8">
-      <c r="B39" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="C39">
-        <v>10000</v>
-      </c>
-      <c r="D39" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="E39">
-        <v>13</v>
-      </c>
-      <c r="F39" s="2">
-        <v>10</v>
-      </c>
-      <c r="G39" t="str">
-        <f t="shared" si="1"/>
-        <v>new Upgrade("Easy Button",10000,13,10),</v>
-      </c>
-      <c r="H39">
-        <f t="shared" si="2"/>
-        <v>769.23076923076928</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8">
-      <c r="A40" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="B40" t="s">
-        <v>93</v>
-      </c>
-      <c r="C40">
-        <v>100</v>
-      </c>
-      <c r="D40" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="E40">
-        <v>30</v>
       </c>
       <c r="F40" s="2">
         <v>10</v>
       </c>
       <c r="G40" t="str">
-        <f t="shared" si="1"/>
-        <v>new Upgrade(":cookie:","Cookie",100,30,10),</v>
-      </c>
-      <c r="H40">
-        <f t="shared" si="2"/>
-        <v>3.3333333333333335</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8">
-      <c r="B41" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="C41">
-        <v>120000</v>
-      </c>
-      <c r="D41" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="E41">
-        <v>1138</v>
-      </c>
-      <c r="F41" s="2">
-        <v>1</v>
-      </c>
-      <c r="G41" t="str">
-        <f t="shared" si="1"/>
-        <v>new Upgrade("A bad feeling about this",120000,1138,1),</v>
-      </c>
-      <c r="H41">
-        <f t="shared" si="2"/>
-        <v>105.4481546572935</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8">
-      <c r="B42" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="C42">
-        <v>10000</v>
-      </c>
-      <c r="D42" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="E42">
+        <f>IF(A40="",_xlfn.CONCAT($K$1,$K$2,B40,$K$2,$K$3,C40,D40,$K$3,E40,$K$3,F40,"),",),_xlfn.CONCAT($K$1,$K$2,A40,$K$2,$K$3,$K$2,B40,$K$2,$K$3,C40,D40,$K$3,E40,$K$3,F40,"),"))</f>
+        <v>new Upgrade("Rocket",100000,100,10),</v>
+      </c>
+      <c r="H40" s="12">
+        <f>C40/E40</f>
+        <v>1000</v>
+      </c>
+      <c r="I40">
+        <f>FLOOR(LOG10(H40),1)</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" s="6" customFormat="1">
+      <c r="A41" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="B41" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="C41" s="6">
+        <v>100000</v>
+      </c>
+      <c r="D41" s="6" t="str">
+        <f>IF(C41&gt;2147483647,"L","")</f>
+        <v/>
+      </c>
+      <c r="E41" s="6">
+        <v>100</v>
+      </c>
+      <c r="F41" s="9">
+        <v>19</v>
+      </c>
+      <c r="G41" s="6" t="str">
+        <f>IF(A41="",_xlfn.CONCAT($K$1,$K$2,B41,$K$2,$K$3,C41,D41,$K$3,E41,$K$3,F41,"),",),_xlfn.CONCAT($K$1,$K$2,A41,$K$2,$K$3,$K$2,B41,$K$2,$K$3,C41,D41,$K$3,E41,$K$3,F41,"),"))</f>
+        <v>new Upgrade(":ring:","Ring of Power",100000,100,19),</v>
+      </c>
+      <c r="H41" s="13">
+        <f>C41/E41</f>
+        <v>1000</v>
+      </c>
+      <c r="I41" s="6">
+        <f>FLOOR(LOG10(H41),1)</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" s="6" customFormat="1">
+      <c r="B42" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="C42" s="6">
+        <v>100000</v>
+      </c>
+      <c r="D42" s="6" t="str">
+        <f>IF(C42&gt;2147483647,"L","")</f>
+        <v/>
+      </c>
+      <c r="E42" s="6">
+        <v>1000</v>
+      </c>
+      <c r="F42" s="9">
+        <v>1</v>
+      </c>
+      <c r="G42" s="6" t="str">
+        <f>IF(A42="",_xlfn.CONCAT($K$1,$K$2,B42,$K$2,$K$3,C42,D42,$K$3,E42,$K$3,F42,"),",),_xlfn.CONCAT($K$1,$K$2,A42,$K$2,$K$3,$K$2,B42,$K$2,$K$3,C42,D42,$K$3,E42,$K$3,F42,"),"))</f>
+        <v>new Upgrade("Stormbreaker",100000,1000,1),</v>
+      </c>
+      <c r="H42" s="13">
+        <f>C42/E42</f>
+        <v>100</v>
+      </c>
+      <c r="I42" s="6">
+        <f>FLOOR(LOG10(H42),1)</f>
         <v>2</v>
       </c>
-      <c r="F42" s="2">
-        <v>7</v>
-      </c>
-      <c r="G42" t="str">
-        <f t="shared" si="1"/>
-        <v>new Upgrade("Blender (for food)",10000,2,7),</v>
-      </c>
-      <c r="H42">
-        <f t="shared" si="2"/>
-        <v>5000</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8">
+    </row>
+    <row r="43" spans="1:9">
       <c r="B43" s="1" t="s">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="C43">
         <v>100000</v>
       </c>
       <c r="D43" t="str">
-        <f t="shared" si="4"/>
+        <f>IF(C43&gt;2147483647,"L","")</f>
         <v/>
       </c>
       <c r="E43">
-        <v>28</v>
+        <v>100</v>
       </c>
       <c r="F43" s="2">
         <v>10</v>
       </c>
       <c r="G43" t="str">
-        <f t="shared" si="1"/>
-        <v>new Upgrade("Blender (the program)",100000,28,10),</v>
-      </c>
-      <c r="H43">
-        <f t="shared" si="2"/>
-        <v>3571.4285714285716</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8">
-      <c r="B44" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="C44">
-        <v>1701</v>
-      </c>
-      <c r="D44" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="E44">
-        <v>10</v>
-      </c>
-      <c r="F44" s="2">
-        <v>1</v>
-      </c>
-      <c r="G44" t="str">
-        <f t="shared" si="1"/>
-        <v>new Upgrade("Kirk's Glasses",1701,10,1),</v>
-      </c>
-      <c r="H44">
-        <f t="shared" si="2"/>
-        <v>170.1</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8">
+        <f>IF(A43="",_xlfn.CONCAT($K$1,$K$2,B43,$K$2,$K$3,C43,D43,$K$3,E43,$K$3,F43,"),",),_xlfn.CONCAT($K$1,$K$2,A43,$K$2,$K$3,$K$2,B43,$K$2,$K$3,C43,D43,$K$3,E43,$K$3,F43,"),"))</f>
+        <v>new Upgrade("Medpack",100000,100,10),</v>
+      </c>
+      <c r="H43" s="12">
+        <f>C43/E43</f>
+        <v>1000</v>
+      </c>
+      <c r="I43">
+        <f>FLOOR(LOG10(H43),1)</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" s="6" customFormat="1">
+      <c r="B44" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="C44" s="6">
+        <v>100000</v>
+      </c>
+      <c r="D44" s="6" t="str">
+        <f>IF(C44&gt;2147483647,"L","")</f>
+        <v/>
+      </c>
+      <c r="E44" s="6">
+        <v>100</v>
+      </c>
+      <c r="F44" s="9">
+        <v>1</v>
+      </c>
+      <c r="G44" s="6" t="str">
+        <f>IF(A44="",_xlfn.CONCAT($K$1,$K$2,B44,$K$2,$K$3,C44,D44,$K$3,E44,$K$3,F44,"),",),_xlfn.CONCAT($K$1,$K$2,A44,$K$2,$K$3,$K$2,B44,$K$2,$K$3,C44,D44,$K$3,E44,$K$3,F44,"),"))</f>
+        <v>new Upgrade("Mario's Hat",100000,100,1),</v>
+      </c>
+      <c r="H44" s="13">
+        <f>C44/E44</f>
+        <v>1000</v>
+      </c>
+      <c r="I44" s="6">
+        <f>FLOOR(LOG10(H44),1)</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9">
       <c r="B45" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C45">
         <v>100000</v>
       </c>
       <c r="D45" t="str">
-        <f t="shared" si="4"/>
+        <f>IF(C45&gt;2147483647,"L","")</f>
         <v/>
       </c>
       <c r="E45">
-        <v>1</v>
+        <v>28</v>
       </c>
       <c r="F45" s="2">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="G45" t="str">
-        <f t="shared" si="1"/>
-        <v>new Upgrade("iPhone XR",100000,1,1),</v>
-      </c>
-      <c r="H45">
-        <f t="shared" si="2"/>
-        <v>100000</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8">
+        <f>IF(A45="",_xlfn.CONCAT($K$1,$K$2,B45,$K$2,$K$3,C45,D45,$K$3,E45,$K$3,F45,"),",),_xlfn.CONCAT($K$1,$K$2,A45,$K$2,$K$3,$K$2,B45,$K$2,$K$3,C45,D45,$K$3,E45,$K$3,F45,"),"))</f>
+        <v>new Upgrade("Blender (the program)",100000,28,10),</v>
+      </c>
+      <c r="H45" s="12">
+        <f>C45/E45</f>
+        <v>3571.4285714285716</v>
+      </c>
+      <c r="I45">
+        <f>FLOOR(LOG10(H45),1)</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9">
       <c r="B46" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C46">
         <v>100000</v>
       </c>
       <c r="D46" t="str">
-        <f t="shared" si="4"/>
+        <f>IF(C46&gt;2147483647,"L","")</f>
         <v/>
       </c>
       <c r="E46">
+        <v>1</v>
+      </c>
+      <c r="F46" s="2">
+        <v>1</v>
+      </c>
+      <c r="G46" t="str">
+        <f>IF(A46="",_xlfn.CONCAT($K$1,$K$2,B46,$K$2,$K$3,C46,D46,$K$3,E46,$K$3,F46,"),",),_xlfn.CONCAT($K$1,$K$2,A46,$K$2,$K$3,$K$2,B46,$K$2,$K$3,C46,D46,$K$3,E46,$K$3,F46,"),"))</f>
+        <v>new Upgrade("iPhone XR",100000,1,1),</v>
+      </c>
+      <c r="H46" s="12">
+        <f>C46/E46</f>
+        <v>100000</v>
+      </c>
+      <c r="I46">
+        <f>FLOOR(LOG10(H46),1)</f>
         <v>5</v>
       </c>
-      <c r="F46" s="2">
+    </row>
+    <row r="47" spans="1:9">
+      <c r="B47" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C47">
+        <v>100000</v>
+      </c>
+      <c r="D47" t="str">
+        <f>IF(C47&gt;2147483647,"L","")</f>
+        <v/>
+      </c>
+      <c r="E47">
+        <v>5</v>
+      </c>
+      <c r="F47" s="2">
         <v>10</v>
       </c>
-      <c r="G46" t="str">
-        <f t="shared" si="1"/>
+      <c r="G47" t="str">
+        <f>IF(A47="",_xlfn.CONCAT($K$1,$K$2,B47,$K$2,$K$3,C47,D47,$K$3,E47,$K$3,F47,"),",),_xlfn.CONCAT($K$1,$K$2,A47,$K$2,$K$3,$K$2,B47,$K$2,$K$3,C47,D47,$K$3,E47,$K$3,F47,"),"))</f>
         <v>new Upgrade("Stormtrooper Helmet",100000,5,10),</v>
       </c>
-      <c r="H46">
-        <f t="shared" si="2"/>
+      <c r="H47" s="12">
+        <f>C47/E47</f>
         <v>20000</v>
       </c>
-    </row>
-    <row r="47" spans="1:8">
-      <c r="B47" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="C47">
-        <v>5307786900</v>
-      </c>
-      <c r="D47" t="str">
-        <f t="shared" si="4"/>
-        <v>L</v>
-      </c>
-      <c r="E47">
+      <c r="I47">
+        <f>FLOOR(LOG10(H47),1)</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9">
+      <c r="B48" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C48">
+        <v>50000</v>
+      </c>
+      <c r="D48" t="str">
+        <f>IF(C48&gt;2147483647,"L","")</f>
+        <v/>
+      </c>
+      <c r="E48">
+        <v>1</v>
+      </c>
+      <c r="F48" s="2">
+        <v>10</v>
+      </c>
+      <c r="G48" t="str">
+        <f>IF(A48="",_xlfn.CONCAT($K$1,$K$2,B48,$K$2,$K$3,C48,D48,$K$3,E48,$K$3,F48,"),",),_xlfn.CONCAT($K$1,$K$2,A48,$K$2,$K$3,$K$2,B48,$K$2,$K$3,C48,D48,$K$3,E48,$K$3,F48,"),"))</f>
+        <v>new Upgrade("Sandwitch",50000,1,10),</v>
+      </c>
+      <c r="H48" s="12">
+        <f>C48/E48</f>
+        <v>50000</v>
+      </c>
+      <c r="I48">
+        <f>FLOOR(LOG10(H48),1)</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9">
+      <c r="B49" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C49">
+        <v>39999</v>
+      </c>
+      <c r="D49" t="str">
+        <f>IF(C49&gt;2147483647,"L","")</f>
+        <v/>
+      </c>
+      <c r="E49">
+        <v>10</v>
+      </c>
+      <c r="F49" s="2">
+        <v>10</v>
+      </c>
+      <c r="G49" t="str">
+        <f>IF(A49="",_xlfn.CONCAT($K$1,$K$2,B49,$K$2,$K$3,C49,D49,$K$3,E49,$K$3,F49,"),",),_xlfn.CONCAT($K$1,$K$2,A49,$K$2,$K$3,$K$2,B49,$K$2,$K$3,C49,D49,$K$3,E49,$K$3,F49,"),"))</f>
+        <v>new Upgrade("Oculus",39999,10,10),</v>
+      </c>
+      <c r="H49" s="12">
+        <f>C49/E49</f>
+        <v>3999.9</v>
+      </c>
+      <c r="I49">
+        <f>FLOOR(LOG10(H49),1)</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9">
+      <c r="B50" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C50">
+        <v>20000</v>
+      </c>
+      <c r="D50" t="str">
+        <f>IF(C50&gt;2147483647,"L","")</f>
+        <v/>
+      </c>
+      <c r="E50">
+        <v>20</v>
+      </c>
+      <c r="F50" s="2">
+        <v>6</v>
+      </c>
+      <c r="G50" t="str">
+        <f>IF(A50="",_xlfn.CONCAT($K$1,$K$2,B50,$K$2,$K$3,C50,D50,$K$3,E50,$K$3,F50,"),",),_xlfn.CONCAT($K$1,$K$2,A50,$K$2,$K$3,$K$2,B50,$K$2,$K$3,C50,D50,$K$3,E50,$K$3,F50,"),"))</f>
+        <v>new Upgrade("Shards of Narsil",20000,20,6),</v>
+      </c>
+      <c r="H50" s="12">
+        <f>C50/E50</f>
         <v>1000</v>
       </c>
-      <c r="F47" s="2">
-        <v>1</v>
-      </c>
-      <c r="G47" t="str">
-        <f t="shared" si="1"/>
-        <v>new Upgrade("Diamond Armor",5307786900L,1000,1),</v>
-      </c>
-      <c r="H47">
-        <f t="shared" si="2"/>
-        <v>5307786.9000000004</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8">
-      <c r="B48" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="C48">
-        <v>800000000</v>
-      </c>
-      <c r="D48" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="E48">
-        <v>150000</v>
-      </c>
-      <c r="F48" s="2">
-        <v>1</v>
-      </c>
-      <c r="G48" t="str">
-        <f t="shared" si="1"/>
-        <v>new Upgrade("Wayne Manor",800000000,150000,1),</v>
-      </c>
-      <c r="H48">
-        <f t="shared" si="2"/>
-        <v>5333.333333333333</v>
-      </c>
-    </row>
-    <row r="49" spans="1:8">
-      <c r="B49" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="C49">
-        <v>682450750</v>
-      </c>
-      <c r="D49" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="E49">
-        <v>54321</v>
-      </c>
-      <c r="F49" s="2">
-        <v>1</v>
-      </c>
-      <c r="G49" t="str">
-        <f t="shared" si="1"/>
-        <v>new Upgrade("Because I'm Batman!",682450750,54321,1),</v>
-      </c>
-      <c r="H49">
-        <f t="shared" si="2"/>
-        <v>12563.295042432945</v>
-      </c>
-    </row>
-    <row r="50" spans="1:8">
-      <c r="B50" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="C50">
-        <v>2870000000</v>
-      </c>
-      <c r="D50" t="str">
-        <f t="shared" si="4"/>
-        <v>L</v>
-      </c>
-      <c r="E50">
-        <v>199000</v>
-      </c>
-      <c r="F50" s="2">
-        <v>1</v>
-      </c>
-      <c r="G50" t="str">
-        <f t="shared" si="1"/>
-        <v>new Upgrade("Hubble Telescope",2870000000L,199000,1),</v>
-      </c>
-      <c r="H50">
-        <f t="shared" si="2"/>
-        <v>14422.110552763819</v>
-      </c>
-    </row>
-    <row r="51" spans="1:8">
+      <c r="I50">
+        <f>FLOOR(LOG10(H50),1)</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9">
       <c r="B51" s="1" t="s">
-        <v>50</v>
+        <v>5</v>
       </c>
       <c r="C51">
-        <v>50400000000</v>
+        <v>10000</v>
       </c>
       <c r="D51" t="str">
-        <f t="shared" si="4"/>
-        <v>L</v>
+        <f>IF(C51&gt;2147483647,"L","")</f>
+        <v/>
       </c>
       <c r="E51">
-        <v>1961990</v>
+        <v>14</v>
       </c>
       <c r="F51" s="2">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="G51" t="str">
-        <f t="shared" si="1"/>
-        <v>new Upgrade("International Space Station",50400000000L,1961990,1),</v>
-      </c>
-      <c r="H51">
-        <f t="shared" si="2"/>
-        <v>25688.204323161688</v>
-      </c>
-    </row>
-    <row r="52" spans="1:8">
+        <f>IF(A51="",_xlfn.CONCAT($K$1,$K$2,B51,$K$2,$K$3,C51,D51,$K$3,E51,$K$3,F51,"),",),_xlfn.CONCAT($K$1,$K$2,A51,$K$2,$K$3,$K$2,B51,$K$2,$K$3,C51,D51,$K$3,E51,$K$3,F51,"),"))</f>
+        <v>new Upgrade("Batarang",10000,14,10),</v>
+      </c>
+      <c r="H51" s="12">
+        <f>C51/E51</f>
+        <v>714.28571428571433</v>
+      </c>
+      <c r="I51">
+        <f>FLOOR(LOG10(H51),1)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9">
       <c r="B52" s="1" t="s">
-        <v>51</v>
+        <v>14</v>
       </c>
       <c r="C52">
-        <v>52000000</v>
+        <v>10000</v>
       </c>
       <c r="D52" t="str">
-        <f t="shared" si="4"/>
+        <f>IF(C52&gt;2147483647,"L","")</f>
         <v/>
       </c>
       <c r="E52">
-        <v>1963</v>
+        <v>3</v>
       </c>
       <c r="F52" s="2">
-        <v>5</v>
+        <v>100</v>
       </c>
       <c r="G52" t="str">
-        <f t="shared" si="1"/>
-        <v>new Upgrade("1963 Ferrari GTO",52000000,1963,5),</v>
-      </c>
-      <c r="H52">
-        <f t="shared" si="2"/>
-        <v>26490.066225165563</v>
-      </c>
-    </row>
-    <row r="53" spans="1:8">
+        <f>IF(A52="",_xlfn.CONCAT($K$1,$K$2,B52,$K$2,$K$3,C52,D52,$K$3,E52,$K$3,F52,"),",),_xlfn.CONCAT($K$1,$K$2,A52,$K$2,$K$3,$K$2,B52,$K$2,$K$3,C52,D52,$K$3,E52,$K$3,F52,"),"))</f>
+        <v>new Upgrade("Sword",10000,3,100),</v>
+      </c>
+      <c r="H52" s="12">
+        <f>C52/E52</f>
+        <v>3333.3333333333335</v>
+      </c>
+      <c r="I52">
+        <f>FLOOR(LOG10(H52),1)</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9">
       <c r="B53" s="1" t="s">
-        <v>52</v>
+        <v>34</v>
       </c>
       <c r="C53">
-        <v>10000000</v>
+        <v>10000</v>
       </c>
       <c r="D53" t="str">
-        <f t="shared" si="4"/>
+        <f>IF(C53&gt;2147483647,"L","")</f>
         <v/>
       </c>
       <c r="E53">
-        <v>1500</v>
+        <v>1</v>
       </c>
       <c r="F53" s="2">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="G53" t="str">
-        <f t="shared" si="1"/>
-        <v>new Upgrade("Gold Plated Bugatti Veyron",10000000,1500,1),</v>
-      </c>
-      <c r="H53">
-        <f t="shared" si="2"/>
-        <v>6666.666666666667</v>
-      </c>
-    </row>
-    <row r="54" spans="1:8">
+        <f>IF(A53="",_xlfn.CONCAT($K$1,$K$2,B53,$K$2,$K$3,C53,D53,$K$3,E53,$K$3,F53,"),",),_xlfn.CONCAT($K$1,$K$2,A53,$K$2,$K$3,$K$2,B53,$K$2,$K$3,C53,D53,$K$3,E53,$K$3,F53,"),"))</f>
+        <v>new Upgrade("Water Bottle",10000,1,10),</v>
+      </c>
+      <c r="H53" s="12">
+        <f>C53/E53</f>
+        <v>10000</v>
+      </c>
+      <c r="I53">
+        <f>FLOOR(LOG10(H53),1)</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9">
       <c r="B54" s="1" t="s">
-        <v>53</v>
+        <v>39</v>
       </c>
       <c r="C54">
-        <v>1600000</v>
+        <v>10000</v>
       </c>
       <c r="D54" t="str">
-        <f t="shared" si="4"/>
+        <f>IF(C54&gt;2147483647,"L","")</f>
         <v/>
       </c>
       <c r="E54">
-        <v>2000</v>
+        <v>13</v>
       </c>
       <c r="F54" s="2">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="G54" t="str">
-        <f t="shared" si="1"/>
-        <v>new Upgrade("Magnetic Floating Bed",1600000,2000,1),</v>
-      </c>
-      <c r="H54">
-        <f t="shared" si="2"/>
-        <v>800</v>
-      </c>
-    </row>
-    <row r="55" spans="1:8">
+        <f>IF(A54="",_xlfn.CONCAT($K$1,$K$2,B54,$K$2,$K$3,C54,D54,$K$3,E54,$K$3,F54,"),",),_xlfn.CONCAT($K$1,$K$2,A54,$K$2,$K$3,$K$2,B54,$K$2,$K$3,C54,D54,$K$3,E54,$K$3,F54,"),"))</f>
+        <v>new Upgrade("Easy Button",10000,13,10),</v>
+      </c>
+      <c r="H54" s="12">
+        <f>C54/E54</f>
+        <v>769.23076923076928</v>
+      </c>
+      <c r="I54">
+        <f>FLOOR(LOG10(H54),1)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9">
       <c r="B55" s="1" t="s">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="C55">
-        <v>16000000</v>
+        <v>10000</v>
       </c>
       <c r="D55" t="str">
-        <f t="shared" si="4"/>
+        <f>IF(C55&gt;2147483647,"L","")</f>
         <v/>
       </c>
       <c r="E55">
-        <v>12345</v>
+        <v>2</v>
       </c>
       <c r="F55" s="2">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="G55" t="str">
-        <f t="shared" si="1"/>
-        <v>new Upgrade("insure.com Domain",16000000,12345,1),</v>
-      </c>
-      <c r="H55">
-        <f t="shared" si="2"/>
-        <v>1296.0712839206155</v>
-      </c>
-    </row>
-    <row r="56" spans="1:8">
+        <f>IF(A55="",_xlfn.CONCAT($K$1,$K$2,B55,$K$2,$K$3,C55,D55,$K$3,E55,$K$3,F55,"),",),_xlfn.CONCAT($K$1,$K$2,A55,$K$2,$K$3,$K$2,B55,$K$2,$K$3,C55,D55,$K$3,E55,$K$3,F55,"),"))</f>
+        <v>new Upgrade("Blender (for food)",10000,2,7),</v>
+      </c>
+      <c r="H55" s="12">
+        <f>C55/E55</f>
+        <v>5000</v>
+      </c>
+      <c r="I55">
+        <f>FLOOR(LOG10(H55),1)</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9">
       <c r="B56" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="C56">
-        <v>3200000</v>
+        <v>10000</v>
       </c>
       <c r="D56" t="str">
-        <f t="shared" si="4"/>
+        <f>IF(C56&gt;2147483647,"L","")</f>
         <v/>
       </c>
       <c r="E56">
-        <v>2008</v>
+        <v>10</v>
       </c>
       <c r="F56" s="2">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="G56" t="str">
-        <f>IF(A56="",_xlfn.CONCAT($J$1,$J$2,B56,$J$2,$J$3,C56,D56,$J$3,E56,$J$3,F56,"),",),_xlfn.CONCAT($J$1,$J$2,A56,$J$2,$J$3,$J$2,B56,$J$2,$J$3,C56,D56,$J$3,E56,$J$3,F56,"),"))</f>
-        <v>new Upgrade("Crystal Piano",3200000,2008,1),</v>
-      </c>
-      <c r="H56">
+        <f>IF(A56="",_xlfn.CONCAT($K$1,$K$2,B56,$K$2,$K$3,C56,D56,$K$3,E56,$K$3,F56,"),",),_xlfn.CONCAT($K$1,$K$2,A56,$K$2,$K$3,$K$2,B56,$K$2,$K$3,C56,D56,$K$3,E56,$K$3,F56,"),"))</f>
+        <v>new Upgrade("Huia Bird Feather",10000,10,12),</v>
+      </c>
+      <c r="H56" s="12">
         <f>C56/E56</f>
-        <v>1593.6254980079682</v>
-      </c>
-    </row>
-    <row r="57" spans="1:8">
+        <v>1000</v>
+      </c>
+      <c r="I56">
+        <f>FLOOR(LOG10(H56),1)</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9">
       <c r="B57" s="1" t="s">
-        <v>56</v>
+        <v>64</v>
       </c>
       <c r="C57">
-        <v>62500000000</v>
+        <v>10000</v>
       </c>
       <c r="D57" t="str">
-        <f t="shared" si="4"/>
-        <v>L</v>
+        <f>IF(C57&gt;2147483647,"L","")</f>
+        <v/>
       </c>
       <c r="E57">
-        <v>7654321</v>
+        <v>69</v>
       </c>
       <c r="F57" s="2">
+        <v>1</v>
+      </c>
+      <c r="G57" t="str">
+        <f>IF(A57="",_xlfn.CONCAT($K$1,$K$2,B57,$K$2,$K$3,C57,D57,$K$3,E57,$K$3,F57,"),",),_xlfn.CONCAT($K$1,$K$2,A57,$K$2,$K$3,$K$2,B57,$K$2,$K$3,C57,D57,$K$3,E57,$K$3,F57,"),"))</f>
+        <v>new Upgrade("The Piece of Resistance",10000,69,1),</v>
+      </c>
+      <c r="H57" s="12">
+        <f>C57/E57</f>
+        <v>144.92753623188406</v>
+      </c>
+      <c r="I57">
+        <f>FLOOR(LOG10(H57),1)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9">
+      <c r="B58" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C58">
+        <v>5000</v>
+      </c>
+      <c r="D58" t="str">
+        <f>IF(C58&gt;2147483647,"L","")</f>
+        <v/>
+      </c>
+      <c r="E58">
+        <v>1</v>
+      </c>
+      <c r="F58" s="2">
+        <v>200</v>
+      </c>
+      <c r="G58" t="str">
+        <f>IF(A58="",_xlfn.CONCAT($K$1,$K$2,B58,$K$2,$K$3,C58,D58,$K$3,E58,$K$3,F58,"),",),_xlfn.CONCAT($K$1,$K$2,A58,$K$2,$K$3,$K$2,B58,$K$2,$K$3,C58,D58,$K$3,E58,$K$3,F58,"),"))</f>
+        <v>new Upgrade("Shield",5000,1,200),</v>
+      </c>
+      <c r="H58" s="12">
+        <f>C58/E58</f>
+        <v>5000</v>
+      </c>
+      <c r="I58">
+        <f>FLOOR(LOG10(H58),1)</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9">
+      <c r="A59" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B59" t="s">
+        <v>93</v>
+      </c>
+      <c r="C59">
+        <v>3500</v>
+      </c>
+      <c r="D59" t="str">
+        <f>IF(C59&gt;2147483647,"L","")</f>
+        <v/>
+      </c>
+      <c r="E59">
+        <v>25</v>
+      </c>
+      <c r="F59" s="2">
+        <v>1</v>
+      </c>
+      <c r="G59" t="str">
+        <f>IF(A59="",_xlfn.CONCAT($K$1,$K$2,B59,$K$2,$K$3,C59,D59,$K$3,E59,$K$3,F59,"),",),_xlfn.CONCAT($K$1,$K$2,A59,$K$2,$K$3,$K$2,B59,$K$2,$K$3,C59,D59,$K$3,E59,$K$3,F59,"),"))</f>
+        <v>new Upgrade(":basketball:","Evan Perlmutter's Fanhood",3500,25,1),</v>
+      </c>
+      <c r="H59" s="12">
+        <f>C59/E59</f>
+        <v>140</v>
+      </c>
+      <c r="I59">
+        <f>FLOOR(LOG10(H59),1)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9">
+      <c r="B60" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C60">
+        <v>1996</v>
+      </c>
+      <c r="D60" t="str">
+        <f>IF(C60&gt;2147483647,"L","")</f>
+        <v/>
+      </c>
+      <c r="E60">
         <v>10</v>
       </c>
-      <c r="G57" t="str">
-        <f t="shared" si="1"/>
-        <v>new Upgrade("Gram of Antimatter",62500000000L,7654321,10),</v>
-      </c>
-      <c r="H57">
-        <f t="shared" si="2"/>
-        <v>8165.3225674752866</v>
-      </c>
-    </row>
-    <row r="58" spans="1:8">
-      <c r="B58" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="C58">
-        <v>10000</v>
-      </c>
-      <c r="D58" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="E58">
+      <c r="F60" s="2">
+        <v>4</v>
+      </c>
+      <c r="G60" t="str">
+        <f>IF(A60="",_xlfn.CONCAT($K$1,$K$2,B60,$K$2,$K$3,C60,D60,$K$3,E60,$K$3,F60,"),",),_xlfn.CONCAT($K$1,$K$2,A60,$K$2,$K$3,$K$2,B60,$K$2,$K$3,C60,D60,$K$3,E60,$K$3,F60,"),"))</f>
+        <v>new Upgrade("Shark Repellent Bat Spray",1996,10,4),</v>
+      </c>
+      <c r="H60" s="12">
+        <f>C60/E60</f>
+        <v>199.6</v>
+      </c>
+      <c r="I60">
+        <f>FLOOR(LOG10(H60),1)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9" s="6" customFormat="1">
+      <c r="B61" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="C61" s="6">
+        <v>1701</v>
+      </c>
+      <c r="D61" s="6" t="str">
+        <f>IF(C61&gt;2147483647,"L","")</f>
+        <v/>
+      </c>
+      <c r="E61" s="6">
         <v>10</v>
       </c>
-      <c r="F58" s="2">
-        <v>12</v>
-      </c>
-      <c r="G58" t="str">
-        <f t="shared" si="1"/>
-        <v>new Upgrade("Huia Bird Feather",10000,10,12),</v>
-      </c>
-      <c r="H58">
-        <f t="shared" si="2"/>
+      <c r="F61" s="9">
+        <v>1</v>
+      </c>
+      <c r="G61" s="6" t="str">
+        <f>IF(A61="",_xlfn.CONCAT($K$1,$K$2,B61,$K$2,$K$3,C61,D61,$K$3,E61,$K$3,F61,"),",),_xlfn.CONCAT($K$1,$K$2,A61,$K$2,$K$3,$K$2,B61,$K$2,$K$3,C61,D61,$K$3,E61,$K$3,F61,"),"))</f>
+        <v>new Upgrade("Kirk's Glasses",1701,10,1),</v>
+      </c>
+      <c r="H61" s="13">
+        <f>C61/E61</f>
+        <v>170.1</v>
+      </c>
+      <c r="I61" s="6">
+        <f>FLOOR(LOG10(H61),1)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9">
+      <c r="B62" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C62">
         <v>1000</v>
       </c>
-    </row>
-    <row r="59" spans="1:8">
-      <c r="B59" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="C59">
-        <v>230000000</v>
-      </c>
-      <c r="D59" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="E59">
-        <v>141</v>
-      </c>
-      <c r="F59" s="2">
-        <v>1</v>
-      </c>
-      <c r="G59" t="str">
-        <f t="shared" si="1"/>
-        <v>new Upgrade("141-year-old newspaper",230000000,141,1),</v>
-      </c>
-      <c r="H59">
-        <f t="shared" si="2"/>
-        <v>1631205.6737588653</v>
-      </c>
-    </row>
-    <row r="60" spans="1:8">
-      <c r="B60" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="C60">
-        <v>600000</v>
-      </c>
-      <c r="D60" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="E60">
-        <v>16</v>
-      </c>
-      <c r="F60" s="2">
-        <v>7</v>
-      </c>
-      <c r="G60" t="str">
-        <f t="shared" si="1"/>
-        <v>new Upgrade("Charles Hollander chess set",600000,16,7),</v>
-      </c>
-      <c r="H60">
-        <f t="shared" si="2"/>
-        <v>37500</v>
-      </c>
-    </row>
-    <row r="61" spans="1:8">
-      <c r="B61" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="C61">
-        <v>1325000</v>
-      </c>
-      <c r="D61" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="E61">
-        <v>55</v>
-      </c>
-      <c r="F61" s="2">
-        <v>7</v>
-      </c>
-      <c r="G61" t="str">
-        <f t="shared" si="1"/>
-        <v>new Upgrade("Ferrari Enzo",1325000,55,7),</v>
-      </c>
-      <c r="H61">
-        <f t="shared" si="2"/>
-        <v>24090.909090909092</v>
-      </c>
-    </row>
-    <row r="62" spans="1:8">
-      <c r="B62" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="C62">
-        <v>21000000</v>
-      </c>
       <c r="D62" t="str">
-        <f t="shared" si="4"/>
+        <f>IF(C62&gt;2147483647,"L","")</f>
         <v/>
       </c>
       <c r="E62">
-        <v>1909</v>
+        <v>1</v>
       </c>
       <c r="F62" s="2">
+        <v>10</v>
+      </c>
+      <c r="G62" t="str">
+        <f>IF(A62="",_xlfn.CONCAT($K$1,$K$2,B62,$K$2,$K$3,C62,D62,$K$3,E62,$K$3,F62,"),",),_xlfn.CONCAT($K$1,$K$2,A62,$K$2,$K$3,$K$2,B62,$K$2,$K$3,C62,D62,$K$3,E62,$K$3,F62,"),"))</f>
+        <v>new Upgrade("Fire-Breathing Rubber Duckie",1000,1,10),</v>
+      </c>
+      <c r="H62" s="12">
+        <f>C62/E62</f>
+        <v>1000</v>
+      </c>
+      <c r="I62">
+        <f>FLOOR(LOG10(H62),1)</f>
         <v>3</v>
       </c>
-      <c r="G62" t="str">
-        <f t="shared" si="1"/>
-        <v>new Upgrade("Honus Wagner Rookie Card",21000000,1909,3),</v>
-      </c>
-      <c r="H62">
-        <f t="shared" si="2"/>
-        <v>11000.523834468308</v>
-      </c>
-    </row>
-    <row r="63" spans="1:8">
-      <c r="A63" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="B63" t="s">
-        <v>94</v>
+    </row>
+    <row r="63" spans="1:9">
+      <c r="B63" s="1" t="s">
+        <v>37</v>
       </c>
       <c r="C63">
-        <v>3500</v>
+        <v>1000</v>
       </c>
       <c r="D63" t="str">
-        <f t="shared" si="4"/>
+        <f>IF(C63&gt;2147483647,"L","")</f>
         <v/>
       </c>
       <c r="E63">
-        <v>25</v>
+        <v>1</v>
       </c>
       <c r="F63" s="2">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="G63" t="str">
-        <f t="shared" si="1"/>
-        <v>new Upgrade(":basketball:","Evan Perlmutter's Fanhood",3500,25,1),</v>
-      </c>
-      <c r="H63">
-        <f t="shared" si="2"/>
-        <v>140</v>
-      </c>
-    </row>
-    <row r="64" spans="1:8">
+        <f>IF(A63="",_xlfn.CONCAT($K$1,$K$2,B63,$K$2,$K$3,C63,D63,$K$3,E63,$K$3,F63,"),",),_xlfn.CONCAT($K$1,$K$2,A63,$K$2,$K$3,$K$2,B63,$K$2,$K$3,C63,D63,$K$3,E63,$K$3,F63,"),"))</f>
+        <v>new Upgrade("Popcorn",1000,1,100),</v>
+      </c>
+      <c r="H63" s="12">
+        <f>C63/E63</f>
+        <v>1000</v>
+      </c>
+      <c r="I63">
+        <f>FLOOR(LOG10(H63),1)</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9">
       <c r="B64" s="1" t="s">
         <v>63</v>
       </c>
@@ -4360,7 +4690,7 @@
         <v>451</v>
       </c>
       <c r="D64" t="str">
-        <f t="shared" si="4"/>
+        <f>IF(C64&gt;2147483647,"L","")</f>
         <v/>
       </c>
       <c r="E64">
@@ -4370,119 +4700,146 @@
         <v>10</v>
       </c>
       <c r="G64" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(A64="",_xlfn.CONCAT($K$1,$K$2,B64,$K$2,$K$3,C64,D64,$K$3,E64,$K$3,F64,"),",),_xlfn.CONCAT($K$1,$K$2,A64,$K$2,$K$3,$K$2,B64,$K$2,$K$3,C64,D64,$K$3,E64,$K$3,F64,"),"))</f>
         <v>new Upgrade("Book",451,1,10),</v>
       </c>
-      <c r="H64">
-        <f t="shared" si="2"/>
+      <c r="H64" s="12">
+        <f>C64/E64</f>
         <v>451</v>
       </c>
-    </row>
-    <row r="65" spans="2:8">
-      <c r="B65" s="1" t="s">
-        <v>64</v>
+      <c r="I64">
+        <f>FLOOR(LOG10(H64),1)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9">
+      <c r="A65" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B65" t="s">
+        <v>92</v>
       </c>
       <c r="C65">
-        <v>10000</v>
+        <v>100</v>
       </c>
       <c r="D65" t="str">
-        <f t="shared" si="4"/>
+        <f>IF(C65&gt;2147483647,"L","")</f>
         <v/>
       </c>
       <c r="E65">
-        <v>69</v>
+        <v>3</v>
       </c>
       <c r="F65" s="2">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="G65" t="str">
-        <f t="shared" si="1"/>
-        <v>new Upgrade("The Piece of Resistance",10000,69,1),</v>
-      </c>
-      <c r="H65">
-        <f t="shared" si="2"/>
-        <v>144.92753623188406</v>
-      </c>
-    </row>
-    <row r="66" spans="2:8">
+        <f>IF(A65="",_xlfn.CONCAT($K$1,$K$2,B65,$K$2,$K$3,C65,D65,$K$3,E65,$K$3,F65,"),",),_xlfn.CONCAT($K$1,$K$2,A65,$K$2,$K$3,$K$2,B65,$K$2,$K$3,C65,D65,$K$3,E65,$K$3,F65,"),"))</f>
+        <v>new Upgrade(":cookie:","Cookie",100,3,10),</v>
+      </c>
+      <c r="H65" s="12">
+        <f>C65/E65</f>
+        <v>33.333333333333336</v>
+      </c>
+      <c r="I65">
+        <f>FLOOR(LOG10(H65),1)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9">
       <c r="B66" s="1" t="s">
-        <v>90</v>
+        <v>31</v>
       </c>
       <c r="C66">
-        <v>2014000</v>
+        <v>10</v>
       </c>
       <c r="D66" t="str">
-        <f t="shared" si="4"/>
+        <f>IF(C66&gt;2147483647,"L","")</f>
         <v/>
       </c>
       <c r="E66">
-        <v>2023</v>
+        <v>0</v>
       </c>
       <c r="F66" s="2">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="G66" t="str">
-        <f t="shared" si="1"/>
-        <v>new Upgrade("Thanos'Sword",2014000,2023,1),</v>
-      </c>
-      <c r="H66">
-        <f t="shared" si="2"/>
-        <v>995.55116164112701</v>
-      </c>
-    </row>
-    <row r="67" spans="2:8">
+        <f>IF(A66="",_xlfn.CONCAT($K$1,$K$2,B66,$K$2,$K$3,C66,D66,$K$3,E66,$K$3,F66,"),",),_xlfn.CONCAT($K$1,$K$2,A66,$K$2,$K$3,$K$2,B66,$K$2,$K$3,C66,D66,$K$3,E66,$K$3,F66,"),"))</f>
+        <v>new Upgrade("Lego Brick",10,0,100),</v>
+      </c>
+      <c r="H66" s="12" t="e">
+        <f>C66/E66</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I66" t="e">
+        <f>FLOOR(LOG10(H66),1)</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9">
       <c r="B67" s="1" t="s">
-        <v>91</v>
+        <v>26</v>
       </c>
       <c r="C67">
-        <v>301800</v>
+        <v>1</v>
       </c>
       <c r="D67" t="str">
-        <f t="shared" si="4"/>
+        <f>IF(C67&gt;2147483647,"L","")</f>
         <v/>
       </c>
       <c r="E67">
-        <v>120</v>
+        <v>-1</v>
       </c>
       <c r="F67" s="2">
-        <v>1</v>
+        <v>128</v>
       </c>
       <c r="G67" t="str">
-        <f t="shared" ref="G67:G68" si="5">IF(A67="",_xlfn.CONCAT($J$1,$J$2,B67,$J$2,$J$3,C67,D67,$J$3,E67,$J$3,F67,"),",),_xlfn.CONCAT($J$1,$J$2,A67,$J$2,$J$3,$J$2,B67,$J$2,$J$3,C67,D67,$J$3,E67,$J$3,F67,"),"))</f>
-        <v>new Upgrade("Legolas's Bow",301800,120,1),</v>
-      </c>
-      <c r="H67">
-        <f t="shared" ref="H67:H68" si="6">C67/E67</f>
-        <v>2515</v>
-      </c>
-    </row>
-    <row r="68" spans="2:8">
+        <f>IF(A67="",_xlfn.CONCAT($K$1,$K$2,B67,$K$2,$K$3,C67,D67,$K$3,E67,$K$3,F67,"),",),_xlfn.CONCAT($K$1,$K$2,A67,$K$2,$K$3,$K$2,B67,$K$2,$K$3,C67,D67,$K$3,E67,$K$3,F67,"),"))</f>
+        <v>new Upgrade("Bug",1,-1,128),</v>
+      </c>
+      <c r="H67" s="12">
+        <f>C67/E67</f>
+        <v>-1</v>
+      </c>
+      <c r="I67" t="e">
+        <f>FLOOR(LOG10(H67),1)</f>
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9">
       <c r="B68" s="1" t="s">
-        <v>65</v>
+        <v>38</v>
       </c>
       <c r="C68">
-        <v>39999</v>
+        <v>1</v>
       </c>
       <c r="D68" t="str">
-        <f t="shared" si="4"/>
+        <f>IF(C68&gt;2147483647,"L","")</f>
         <v/>
       </c>
       <c r="E68">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="F68" s="2">
-        <v>10</v>
+        <v>256</v>
       </c>
       <c r="G68" t="str">
-        <f t="shared" si="5"/>
-        <v>new Upgrade("Oculus",39999,10,10),</v>
-      </c>
-      <c r="H68">
-        <f t="shared" si="6"/>
-        <v>3999.9</v>
+        <f>IF(A68="",_xlfn.CONCAT($K$1,$K$2,B68,$K$2,$K$3,C68,D68,$K$3,E68,$K$3,F68,"),",),_xlfn.CONCAT($K$1,$K$2,A68,$K$2,$K$3,$K$2,B68,$K$2,$K$3,C68,D68,$K$3,E68,$K$3,F68,"),"))</f>
+        <v>new Upgrade("Debug Byte",1,0,256),</v>
+      </c>
+      <c r="H68" s="12" t="e">
+        <f>C68/E68</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I68" t="e">
+        <f>FLOOR(LOG10(H68),1)</f>
+        <v>#DIV/0!</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
 </worksheet>
 </file>
--- a/Items.xlsx
+++ b/Items.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\johnw\iCloudDrive\Mine\My Programs\CoinGames\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20F87D43-4BF9-40CC-9067-978341969FC7}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{748F7585-2442-462E-AD91-63764AB8D793}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1224" yWindow="-132" windowWidth="17280" windowHeight="8964" activeTab="1" xr2:uid="{C42CA93E-3A2D-D040-AB9B-E333D2FB9CC9}"/>
+    <workbookView xWindow="1560" yWindow="1272" windowWidth="17280" windowHeight="8964" activeTab="1" xr2:uid="{C42CA93E-3A2D-D040-AB9B-E333D2FB9CC9}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="101">
   <si>
     <t>Name</t>
   </si>
@@ -313,9 +313,6 @@
     <t>Cookie</t>
   </si>
   <si>
-    <t>Evan Perlmutter's Fanhood</t>
-  </si>
-  <si>
     <t>Thanos' Sword</t>
   </si>
   <si>
@@ -325,7 +322,19 @@
     <t>Column1</t>
   </si>
   <si>
-    <t>Charles Hollander Chess Set</t>
+    <t>Egg</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>yes</t>
+  </si>
+  <si>
+    <t>Cheat</t>
+  </si>
+  <si>
+    <t>OP</t>
   </si>
 </sst>
 </file>
@@ -438,7 +447,10 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="3">
+  <dxfs count="4">
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
     <dxf>
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -477,29 +489,30 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{4009156A-C36A-4516-A02C-24F9758B47EE}" name="Table1" displayName="Table1" ref="A1:I68" totalsRowShown="0">
-  <autoFilter ref="A1:I68" xr:uid="{78C1917B-7E31-49F9-99AB-AFB2F1BD8BEA}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:I68">
-    <sortCondition descending="1" ref="C1:C68"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{4009156A-C36A-4516-A02C-24F9758B47EE}" name="Table1" displayName="Table1" ref="A1:J63" totalsRowShown="0">
+  <autoFilter ref="A1:J63" xr:uid="{78C1917B-7E31-49F9-99AB-AFB2F1BD8BEA}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:I63">
+    <sortCondition descending="1" ref="C1:C63"/>
   </sortState>
-  <tableColumns count="9">
+  <tableColumns count="10">
     <tableColumn id="1" xr3:uid="{B3882E44-A406-45D7-8B81-3BE7D8468DD3}" name="Prefix"/>
-    <tableColumn id="2" xr3:uid="{BBEDCA42-A349-4B8A-B3F6-630CA6A6848E}" name="Name" dataDxfId="2"/>
+    <tableColumn id="2" xr3:uid="{BBEDCA42-A349-4B8A-B3F6-630CA6A6848E}" name="Name" dataDxfId="3"/>
     <tableColumn id="3" xr3:uid="{EF70BBD7-AFE9-448B-8134-0BE31683DB7F}" name="Cost"/>
     <tableColumn id="4" xr3:uid="{0656EB21-15AB-4A2D-8645-982D7283C115}" name="Column1">
       <calculatedColumnFormula>IF(C2&gt;2147483647,"L","")</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="5" xr3:uid="{72E00DC1-7F07-4212-9067-1519DBF1E8CB}" name="Boost"/>
-    <tableColumn id="6" xr3:uid="{4C3041D4-FCB0-4127-ACBC-989B299F0011}" name="Quantity" dataDxfId="1"/>
+    <tableColumn id="6" xr3:uid="{4C3041D4-FCB0-4127-ACBC-989B299F0011}" name="Quantity" dataDxfId="2"/>
     <tableColumn id="7" xr3:uid="{F74CFCBD-6EB6-4116-8F58-FAA3BD72544B}" name="Final">
       <calculatedColumnFormula>IF(A2="",_xlfn.CONCAT($K$1,$K$2,B2,$K$2,$K$3,C2,D2,$K$3,E2,$K$3,F2,"),",),_xlfn.CONCAT($K$1,$K$2,A2,$K$2,$K$3,$K$2,B2,$K$2,$K$3,C2,D2,$K$3,E2,$K$3,F2,"),"))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{ED093BC7-1767-47E6-9724-AAE846529AF1}" name="Messages needed to earn back the amount of coins spend" dataDxfId="0">
+    <tableColumn id="8" xr3:uid="{ED093BC7-1767-47E6-9724-AAE846529AF1}" name="Messages needed to earn back the amount of coins spend" dataDxfId="1">
       <calculatedColumnFormula>C2/E2</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{CED6810C-AE22-4E72-BAF9-196C471149E4}" name="Modulo">
-      <calculatedColumnFormula>FLOOR(LOG10(H2),1)</calculatedColumnFormula>
+    <tableColumn id="9" xr3:uid="{CED6810C-AE22-4E72-BAF9-196C471149E4}" name="Modulo" dataDxfId="0">
+      <calculatedColumnFormula>FLOOR(LOG10(C2),1)</calculatedColumnFormula>
     </tableColumn>
+    <tableColumn id="10" xr3:uid="{4B948BE7-CCBA-44E6-88FF-EF66EE6101A1}" name="Egg"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2604,10 +2617,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E6AE1024-0C54-6843-8563-9D359055A938}">
-  <dimension ref="A1:N68"/>
+  <dimension ref="A1:N63"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B25" workbookViewId="0">
-      <selection activeCell="E68" sqref="E68"/>
+    <sheetView tabSelected="1" topLeftCell="A54" workbookViewId="0">
+      <selection activeCell="E60" sqref="E60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6"/>
@@ -2630,7 +2643,7 @@
         <v>1</v>
       </c>
       <c r="D1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E1" t="s">
         <v>2</v>
@@ -2645,7 +2658,10 @@
         <v>83</v>
       </c>
       <c r="I1" t="s">
-        <v>95</v>
+        <v>94</v>
+      </c>
+      <c r="J1" t="s">
+        <v>96</v>
       </c>
       <c r="K1" t="s">
         <v>78</v>
@@ -2659,38 +2675,38 @@
     </row>
     <row r="2" spans="1:14">
       <c r="B2" s="1" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="C2">
-        <v>62500000000</v>
+        <v>50400000000</v>
       </c>
       <c r="D2" t="str">
-        <f>IF(C2&gt;2147483647,"L","")</f>
+        <f t="shared" ref="D2:D30" si="0">IF(C2&gt;2147483647,"L","")</f>
         <v>L</v>
       </c>
       <c r="E2">
-        <v>312500000</v>
+        <v>196199000</v>
       </c>
       <c r="F2" s="2">
+        <v>1</v>
+      </c>
+      <c r="G2" t="e">
+        <f>IF(A2="",_xlfn.CONCAT($K$1,#REF!,B2,#REF!,$K$2,C2,D2,$K$2,E2,$K$2,F2,"),",),_xlfn.CONCAT($K$1,#REF!,A2,#REF!,$K$2,#REF!,B2,#REF!,$K$2,C2,D2,$K$2,E2,$K$2,F2,"),"))</f>
+        <v>#REF!</v>
+      </c>
+      <c r="H2" s="12">
+        <f t="shared" ref="H2:H30" si="1">C2/E2</f>
+        <v>256.88204323161688</v>
+      </c>
+      <c r="I2">
+        <f t="shared" ref="I2:I30" si="2">FLOOR(LOG10(C2),1)</f>
         <v>10</v>
       </c>
-      <c r="G2" t="str">
-        <f>IF(A2="",_xlfn.CONCAT($K$1,$K$2,B2,$K$2,$K$3,C2,D2,$K$3,E2,$K$3,F2,"),",),_xlfn.CONCAT($K$1,$K$2,A2,$K$2,$K$3,$K$2,B2,$K$2,$K$3,C2,D2,$K$3,E2,$K$3,F2,"),"))</f>
-        <v>new Upgrade("Gram of Antimatter",62500000000L,312500000,10),</v>
-      </c>
-      <c r="H2" s="12">
-        <f>C2/E2</f>
-        <v>200</v>
-      </c>
-      <c r="I2">
-        <f>FLOOR(LOG10(H2),1)</f>
-        <v>2</v>
-      </c>
       <c r="K2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="M2" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N2" s="4">
         <f>COUNTIF(I:I,M2)</f>
@@ -2699,1935 +2715,1960 @@
     </row>
     <row r="3" spans="1:14">
       <c r="B3" s="1" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="C3">
-        <v>50400000000</v>
+        <v>5307786900</v>
       </c>
       <c r="D3" t="str">
-        <f>IF(C3&gt;2147483647,"L","")</f>
+        <f t="shared" si="0"/>
         <v>L</v>
       </c>
       <c r="E3">
-        <v>196199000</v>
+        <v>25100000</v>
       </c>
       <c r="F3" s="2">
         <v>1</v>
       </c>
-      <c r="G3" t="str">
-        <f>IF(A3="",_xlfn.CONCAT($K$1,$K$2,B3,$K$2,$K$3,C3,D3,$K$3,E3,$K$3,F3,"),",),_xlfn.CONCAT($K$1,$K$2,A3,$K$2,$K$3,$K$2,B3,$K$2,$K$3,C3,D3,$K$3,E3,$K$3,F3,"),"))</f>
-        <v>new Upgrade("International Space Station",50400000000L,196199000,1),</v>
+      <c r="G3" t="e">
+        <f>IF(A3="",_xlfn.CONCAT($K$1,#REF!,B3,#REF!,$K$2,C3,D3,$K$2,E3,$K$2,F3,"),",),_xlfn.CONCAT($K$1,#REF!,A3,#REF!,$K$2,#REF!,B3,#REF!,$K$2,C3,D3,$K$2,E3,$K$2,F3,"),"))</f>
+        <v>#REF!</v>
       </c>
       <c r="H3" s="12">
-        <f>C3/E3</f>
-        <v>256.88204323161688</v>
+        <f t="shared" si="1"/>
+        <v>211.46561354581672</v>
       </c>
       <c r="I3">
-        <f>FLOOR(LOG10(H3),1)</f>
+        <f t="shared" si="2"/>
+        <v>9</v>
+      </c>
+      <c r="M3" s="3">
         <v>2</v>
       </c>
-      <c r="K3" t="s">
-        <v>77</v>
-      </c>
-      <c r="M3" s="3">
-        <v>1</v>
-      </c>
       <c r="N3" s="4">
-        <f t="shared" ref="N3:N16" si="0">COUNTIF(I:I,M3)</f>
-        <v>1</v>
+        <f>COUNTIF(I:I,M3)</f>
+        <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:14">
       <c r="B4" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="C4">
-        <v>5307786900</v>
+        <v>2870000000</v>
       </c>
       <c r="D4" t="str">
-        <f>IF(C4&gt;2147483647,"L","")</f>
+        <f t="shared" si="0"/>
         <v>L</v>
       </c>
       <c r="E4">
-        <v>25100000</v>
+        <v>14320231</v>
       </c>
       <c r="F4" s="2">
         <v>1</v>
       </c>
-      <c r="G4" t="str">
-        <f>IF(A4="",_xlfn.CONCAT($K$1,$K$2,B4,$K$2,$K$3,C4,D4,$K$3,E4,$K$3,F4,"),",),_xlfn.CONCAT($K$1,$K$2,A4,$K$2,$K$3,$K$2,B4,$K$2,$K$3,C4,D4,$K$3,E4,$K$3,F4,"),"))</f>
-        <v>new Upgrade("Diamond Armor",5307786900L,25100000,1),</v>
+      <c r="G4" t="e">
+        <f>IF(A4="",_xlfn.CONCAT($K$1,#REF!,B4,#REF!,$K$2,C4,D4,$K$2,E4,$K$2,F4,"),",),_xlfn.CONCAT($K$1,#REF!,A4,#REF!,$K$2,#REF!,B4,#REF!,$K$2,C4,D4,$K$2,E4,$K$2,F4,"),"))</f>
+        <v>#REF!</v>
       </c>
       <c r="H4" s="12">
-        <f>C4/E4</f>
-        <v>211.46561354581672</v>
+        <f t="shared" si="1"/>
+        <v>200.41576144965819</v>
       </c>
       <c r="I4">
-        <f>FLOOR(LOG10(H4),1)</f>
-        <v>2</v>
+        <f t="shared" si="2"/>
+        <v>9</v>
       </c>
       <c r="M4" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N4" s="4">
-        <f t="shared" si="0"/>
-        <v>38</v>
+        <f>COUNTIF(I:I,M4)</f>
+        <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:14">
       <c r="B5" s="1" t="s">
-        <v>49</v>
+        <v>8</v>
       </c>
       <c r="C5">
-        <v>2870000000</v>
+        <v>2639860696</v>
       </c>
       <c r="D5" t="str">
-        <f>IF(C5&gt;2147483647,"L","")</f>
+        <f t="shared" si="0"/>
         <v>L</v>
       </c>
       <c r="E5">
-        <v>14320231</v>
+        <v>13199303</v>
       </c>
       <c r="F5" s="2">
         <v>1</v>
       </c>
-      <c r="G5" t="str">
-        <f>IF(A5="",_xlfn.CONCAT($K$1,$K$2,B5,$K$2,$K$3,C5,D5,$K$3,E5,$K$3,F5,"),",),_xlfn.CONCAT($K$1,$K$2,A5,$K$2,$K$3,$K$2,B5,$K$2,$K$3,C5,D5,$K$3,E5,$K$3,F5,"),"))</f>
-        <v>new Upgrade("Hubble Telescope",2870000000L,14320231,1),</v>
+      <c r="G5" t="e">
+        <f>IF(A5="",_xlfn.CONCAT($K$1,#REF!,B5,#REF!,$K$2,C5,D5,$K$2,E5,$K$2,F5,"),",),_xlfn.CONCAT($K$1,#REF!,A5,#REF!,$K$2,#REF!,B5,#REF!,$K$2,C5,D5,$K$2,E5,$K$2,F5,"),"))</f>
+        <v>#REF!</v>
       </c>
       <c r="H5" s="12">
-        <f>C5/E5</f>
-        <v>200.41576144965819</v>
+        <f t="shared" si="1"/>
+        <v>200.00000727311132</v>
       </c>
       <c r="I5">
-        <f>FLOOR(LOG10(H5),1)</f>
-        <v>2</v>
+        <f t="shared" si="2"/>
+        <v>9</v>
       </c>
       <c r="M5" s="3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N5" s="4">
+        <f>COUNTIF(I:I,M5)</f>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" s="6" customFormat="1">
+      <c r="B6" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" s="8">
+        <v>2147483647</v>
+      </c>
+      <c r="D6" s="6" t="str">
         <f t="shared" si="0"/>
-        <v>17</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14">
-      <c r="B6" s="1" t="s">
+        <v/>
+      </c>
+      <c r="E6" s="6">
+        <v>13166600</v>
+      </c>
+      <c r="F6" s="9">
+        <v>1</v>
+      </c>
+      <c r="G6" s="6" t="e">
+        <f>IF(A6="",_xlfn.CONCAT($K$1,#REF!,B6,#REF!,$K$2,C6,D6,$K$2,E6,$K$2,F6,"),",),_xlfn.CONCAT($K$1,#REF!,A6,#REF!,$K$2,#REF!,B6,#REF!,$K$2,C6,D6,$K$2,E6,$K$2,F6,"),"))</f>
+        <v>#REF!</v>
+      </c>
+      <c r="H6" s="13">
+        <f t="shared" si="1"/>
+        <v>163.10084964987163</v>
+      </c>
+      <c r="I6" s="6">
+        <f t="shared" si="2"/>
+        <v>9</v>
+      </c>
+      <c r="M6" s="10">
+        <v>5</v>
+      </c>
+      <c r="N6" s="11">
+        <f>COUNTIF(I:I,M6)</f>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14">
+      <c r="B7" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C7">
+        <v>800000000</v>
+      </c>
+      <c r="D7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="E7">
+        <v>3970009</v>
+      </c>
+      <c r="F7" s="2">
+        <v>1</v>
+      </c>
+      <c r="G7" t="e">
+        <f>IF(A7="",_xlfn.CONCAT($K$1,#REF!,B7,#REF!,$K$2,C7,D7,$K$2,E7,$K$2,F7,"),",),_xlfn.CONCAT($K$1,#REF!,A7,#REF!,$K$2,#REF!,B7,#REF!,$K$2,C7,D7,$K$2,E7,$K$2,F7,"),"))</f>
+        <v>#REF!</v>
+      </c>
+      <c r="H7" s="12">
+        <f t="shared" si="1"/>
+        <v>201.51087818692602</v>
+      </c>
+      <c r="I7">
+        <f t="shared" si="2"/>
         <v>8</v>
       </c>
-      <c r="C6">
-        <v>2639860696</v>
-      </c>
-      <c r="D6" t="str">
-        <f>IF(C6&gt;2147483647,"L","")</f>
-        <v>L</v>
-      </c>
-      <c r="E6">
-        <v>13199303</v>
-      </c>
-      <c r="F6" s="2">
-        <v>1</v>
-      </c>
-      <c r="G6" t="str">
-        <f>IF(A6="",_xlfn.CONCAT($K$1,$K$2,B6,$K$2,$K$3,C6,D6,$K$3,E6,$K$3,F6,"),",),_xlfn.CONCAT($K$1,$K$2,A6,$K$2,$K$3,$K$2,B6,$K$2,$K$3,C6,D6,$K$3,E6,$K$3,F6,"),"))</f>
-        <v>new Upgrade("Baby Shark",2639860696L,13199303,1),</v>
-      </c>
-      <c r="H6" s="12">
-        <f>C6/E6</f>
-        <v>200.00000727311132</v>
-      </c>
-      <c r="I6">
-        <f>FLOOR(LOG10(H6),1)</f>
-        <v>2</v>
-      </c>
-      <c r="M6" s="3">
-        <v>4</v>
-      </c>
-      <c r="N6" s="4">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14" s="6" customFormat="1">
-      <c r="B7" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="C7" s="8">
-        <v>2147483647</v>
-      </c>
-      <c r="D7" s="6" t="str">
-        <f>IF(C7&gt;2147483647,"L","")</f>
-        <v/>
-      </c>
-      <c r="E7" s="6">
-        <v>13166600</v>
-      </c>
-      <c r="F7" s="9">
-        <v>1</v>
-      </c>
-      <c r="G7" s="6" t="str">
-        <f>IF(A7="",_xlfn.CONCAT($K$1,$K$2,B7,$K$2,$K$3,C7,D7,$K$3,E7,$K$3,F7,"),",),_xlfn.CONCAT($K$1,$K$2,A7,$K$2,$K$3,$K$2,B7,$K$2,$K$3,C7,D7,$K$3,E7,$K$3,F7,"),"))</f>
-        <v>new Upgrade("Infinity Gauntlet",2147483647,13166600,1),</v>
-      </c>
-      <c r="H7" s="13">
-        <f>C7/E7</f>
-        <v>163.10084964987163</v>
-      </c>
-      <c r="I7" s="6">
-        <f>FLOOR(LOG10(H7),1)</f>
-        <v>2</v>
-      </c>
-      <c r="M7" s="10">
-        <v>5</v>
-      </c>
-      <c r="N7" s="11">
-        <f t="shared" si="0"/>
-        <v>2</v>
+      <c r="M7" s="3">
+        <v>6</v>
+      </c>
+      <c r="N7" s="4">
+        <f>COUNTIF(I:I,M7)</f>
+        <v>14</v>
       </c>
     </row>
     <row r="8" spans="1:14">
       <c r="B8" s="1" t="s">
-        <v>48</v>
+        <v>89</v>
       </c>
       <c r="C8">
-        <v>800000000</v>
+        <v>682450750</v>
       </c>
       <c r="D8" t="str">
-        <f>IF(C8&gt;2147483647,"L","")</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="E8">
-        <v>3970009</v>
+        <v>3402000</v>
       </c>
       <c r="F8" s="2">
         <v>1</v>
       </c>
-      <c r="G8" t="str">
-        <f>IF(A8="",_xlfn.CONCAT($K$1,$K$2,B8,$K$2,$K$3,C8,D8,$K$3,E8,$K$3,F8,"),",),_xlfn.CONCAT($K$1,$K$2,A8,$K$2,$K$3,$K$2,B8,$K$2,$K$3,C8,D8,$K$3,E8,$K$3,F8,"),"))</f>
-        <v>new Upgrade("Wayne Manor",800000000,3970009,1),</v>
+      <c r="G8" t="e">
+        <f>IF(A8="",_xlfn.CONCAT($K$1,#REF!,B8,#REF!,$K$2,C8,D8,$K$2,E8,$K$2,F8,"),",),_xlfn.CONCAT($K$1,#REF!,A8,#REF!,$K$2,#REF!,B8,#REF!,$K$2,C8,D8,$K$2,E8,$K$2,F8,"),"))</f>
+        <v>#REF!</v>
       </c>
       <c r="H8" s="12">
-        <f>C8/E8</f>
-        <v>201.51087818692602</v>
+        <f t="shared" si="1"/>
+        <v>200.60280717225163</v>
       </c>
       <c r="I8">
-        <f>FLOOR(LOG10(H8),1)</f>
-        <v>2</v>
-      </c>
-      <c r="M8" s="3">
-        <v>6</v>
+        <f t="shared" si="2"/>
+        <v>8</v>
+      </c>
+      <c r="M8" s="5">
+        <v>7</v>
       </c>
       <c r="N8" s="4">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f>COUNTIF(I:I,M8)</f>
+        <v>3</v>
       </c>
     </row>
     <row r="9" spans="1:14">
       <c r="B9" s="1" t="s">
-        <v>89</v>
+        <v>58</v>
       </c>
       <c r="C9">
-        <v>682450750</v>
+        <v>230000000</v>
       </c>
       <c r="D9" t="str">
-        <f>IF(C9&gt;2147483647,"L","")</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="E9">
-        <v>3402000</v>
+        <v>948324</v>
       </c>
       <c r="F9" s="2">
         <v>1</v>
       </c>
-      <c r="G9" t="str">
-        <f>IF(A9="",_xlfn.CONCAT($K$1,$K$2,B9,$K$2,$K$3,C9,D9,$K$3,E9,$K$3,F9,"),",),_xlfn.CONCAT($K$1,$K$2,A9,$K$2,$K$3,$K$2,B9,$K$2,$K$3,C9,D9,$K$3,E9,$K$3,F9,"),"))</f>
-        <v>new Upgrade("Because I'm Batman!",682450750,3402000,1),</v>
+      <c r="G9" t="e">
+        <f>IF(A9="",_xlfn.CONCAT($K$1,#REF!,B9,#REF!,$K$2,C9,D9,$K$2,E9,$K$2,F9,"),",),_xlfn.CONCAT($K$1,#REF!,A9,#REF!,$K$2,#REF!,B9,#REF!,$K$2,C9,D9,$K$2,E9,$K$2,F9,"),"))</f>
+        <v>#REF!</v>
       </c>
       <c r="H9" s="12">
-        <f>C9/E9</f>
-        <v>200.60280717225163</v>
+        <f t="shared" si="1"/>
+        <v>242.53314268119334</v>
       </c>
       <c r="I9">
-        <f>FLOOR(LOG10(H9),1)</f>
-        <v>2</v>
-      </c>
-      <c r="M9" s="5">
-        <v>7</v>
+        <f t="shared" si="2"/>
+        <v>8</v>
+      </c>
+      <c r="M9" s="3">
+        <v>8</v>
       </c>
       <c r="N9" s="4">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f>COUNTIF(I:I,M9)</f>
+        <v>3</v>
       </c>
     </row>
     <row r="10" spans="1:14">
       <c r="B10" s="1" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="C10">
-        <v>230000000</v>
+        <v>52000000</v>
       </c>
       <c r="D10" t="str">
-        <f>IF(C10&gt;2147483647,"L","")</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="E10">
-        <v>948324</v>
+        <v>196300</v>
       </c>
       <c r="F10" s="2">
-        <v>1</v>
-      </c>
-      <c r="G10" t="str">
-        <f>IF(A10="",_xlfn.CONCAT($K$1,$K$2,B10,$K$2,$K$3,C10,D10,$K$3,E10,$K$3,F10,"),",),_xlfn.CONCAT($K$1,$K$2,A10,$K$2,$K$3,$K$2,B10,$K$2,$K$3,C10,D10,$K$3,E10,$K$3,F10,"),"))</f>
-        <v>new Upgrade("141-year-old newspaper",230000000,948324,1),</v>
+        <v>5</v>
+      </c>
+      <c r="G10" t="e">
+        <f>IF(A10="",_xlfn.CONCAT($K$1,#REF!,B10,#REF!,$K$2,C10,D10,$K$2,E10,$K$2,F10,"),",),_xlfn.CONCAT($K$1,#REF!,A10,#REF!,$K$2,#REF!,B10,#REF!,$K$2,C10,D10,$K$2,E10,$K$2,F10,"),"))</f>
+        <v>#REF!</v>
       </c>
       <c r="H10" s="12">
-        <f>C10/E10</f>
-        <v>242.53314268119334</v>
+        <f t="shared" si="1"/>
+        <v>264.9006622516556</v>
       </c>
       <c r="I10">
-        <f>FLOOR(LOG10(H10),1)</f>
-        <v>2</v>
+        <f t="shared" si="2"/>
+        <v>7</v>
       </c>
       <c r="M10" s="3">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="N10" s="4">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f>COUNTIF(I:I,M10)</f>
+        <v>4</v>
       </c>
     </row>
     <row r="11" spans="1:14">
       <c r="B11" s="1" t="s">
-        <v>51</v>
+        <v>61</v>
       </c>
       <c r="C11">
-        <v>52000000</v>
+        <v>2000000</v>
       </c>
       <c r="D11" t="str">
-        <f>IF(C11&gt;2147483647,"L","")</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="E11">
-        <v>196300</v>
-      </c>
-      <c r="F11" s="2">
-        <v>5</v>
-      </c>
-      <c r="G11" t="str">
-        <f>IF(A11="",_xlfn.CONCAT($K$1,$K$2,B11,$K$2,$K$3,C11,D11,$K$3,E11,$K$3,F11,"),",),_xlfn.CONCAT($K$1,$K$2,A11,$K$2,$K$3,$K$2,B11,$K$2,$K$3,C11,D11,$K$3,E11,$K$3,F11,"),"))</f>
-        <v>new Upgrade("1963 Ferrari GTO",52000000,196300,5),</v>
-      </c>
-      <c r="H11" s="12">
-        <f>C11/E11</f>
-        <v>264.9006622516556</v>
-      </c>
-      <c r="I11">
-        <f>FLOOR(LOG10(H11),1)</f>
-        <v>2</v>
-      </c>
-      <c r="M11" s="3">
-        <v>9</v>
-      </c>
-      <c r="N11" s="4">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14">
-      <c r="B12" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="C12">
-        <v>2000000</v>
-      </c>
-      <c r="D12" t="str">
-        <f>IF(C12&gt;2147483647,"L","")</f>
-        <v/>
-      </c>
-      <c r="E12">
         <f>2909*3</f>
         <v>8727</v>
       </c>
-      <c r="F12" s="2">
+      <c r="F11" s="2">
         <v>3</v>
       </c>
-      <c r="G12" t="str">
-        <f>IF(A12="",_xlfn.CONCAT($K$1,$K$2,B12,$K$2,$K$3,C12,D12,$K$3,E12,$K$3,F12,"),",),_xlfn.CONCAT($K$1,$K$2,A12,$K$2,$K$3,$K$2,B12,$K$2,$K$3,C12,D12,$K$3,E12,$K$3,F12,"),"))</f>
-        <v>new Upgrade("Honus Wagner Rookie Card",2000000,8727,3),</v>
-      </c>
-      <c r="H12" s="12">
-        <f>C12/E12</f>
+      <c r="G11" t="e">
+        <f>IF(A11="",_xlfn.CONCAT($K$1,#REF!,B11,#REF!,$K$2,C11,D11,$K$2,E11,$K$2,F11,"),",),_xlfn.CONCAT($K$1,#REF!,A11,#REF!,$K$2,#REF!,B11,#REF!,$K$2,C11,D11,$K$2,E11,$K$2,F11,"),"))</f>
+        <v>#REF!</v>
+      </c>
+      <c r="H11" s="12">
+        <f t="shared" si="1"/>
         <v>229.17382834880257</v>
       </c>
-      <c r="I12">
-        <f>FLOOR(LOG10(H12),1)</f>
-        <v>2</v>
-      </c>
-      <c r="M12" s="3">
+      <c r="I11">
+        <f t="shared" si="2"/>
+        <v>6</v>
+      </c>
+      <c r="M11" s="3">
         <v>10</v>
       </c>
-      <c r="N12" s="4">
+      <c r="N11" s="4">
+        <f>COUNTIF(I:I,M11)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" s="6" customFormat="1">
+      <c r="B12" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="C12" s="6">
+        <v>17871941</v>
+      </c>
+      <c r="D12" s="6" t="str">
         <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="E12" s="6">
+        <v>113100</v>
+      </c>
+      <c r="F12" s="9">
+        <v>1</v>
+      </c>
+      <c r="G12" s="6" t="e">
+        <f>IF(A12="",_xlfn.CONCAT($K$1,#REF!,B12,#REF!,$K$2,C12,D12,$K$2,E12,$K$2,F12,"),",),_xlfn.CONCAT($K$1,#REF!,A12,#REF!,$K$2,#REF!,B12,#REF!,$K$2,C12,D12,$K$2,E12,$K$2,F12,"),"))</f>
+        <v>#REF!</v>
+      </c>
+      <c r="H12" s="13">
+        <f t="shared" si="1"/>
+        <v>158.01893015030947</v>
+      </c>
+      <c r="I12" s="6">
+        <f t="shared" si="2"/>
+        <v>7</v>
+      </c>
+      <c r="M12" s="10">
+        <v>11</v>
+      </c>
+      <c r="N12" s="11">
+        <f>COUNTIF(I:I,M12)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:14" s="6" customFormat="1">
-      <c r="B13" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="C13" s="6">
-        <v>17871941</v>
-      </c>
-      <c r="D13" s="6" t="str">
-        <f>IF(C13&gt;2147483647,"L","")</f>
-        <v/>
-      </c>
-      <c r="E13" s="6">
-        <v>113100</v>
-      </c>
-      <c r="F13" s="9">
-        <v>1</v>
-      </c>
-      <c r="G13" s="6" t="str">
-        <f>IF(A13="",_xlfn.CONCAT($K$1,$K$2,B13,$K$2,$K$3,C13,D13,$K$3,E13,$K$3,F13,"),",),_xlfn.CONCAT($K$1,$K$2,A13,$K$2,$K$3,$K$2,B13,$K$2,$K$3,C13,D13,$K$3,E13,$K$3,F13,"),"))</f>
-        <v>new Upgrade("Captain America's Shield",17871941,113100,1),</v>
-      </c>
-      <c r="H13" s="13">
-        <f>C13/E13</f>
-        <v>158.01893015030947</v>
-      </c>
-      <c r="I13" s="6">
-        <f>FLOOR(LOG10(H13),1)</f>
-        <v>2</v>
-      </c>
-      <c r="M13" s="10">
-        <v>11</v>
-      </c>
-      <c r="N13" s="11">
+    <row r="13" spans="1:14">
+      <c r="B13" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C13">
+        <v>10004738</v>
+      </c>
+      <c r="D13" t="str">
         <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="E13">
+        <v>43253</v>
+      </c>
+      <c r="F13" s="2">
+        <v>1</v>
+      </c>
+      <c r="G13" t="e">
+        <f>IF(A13="",_xlfn.CONCAT($K$1,#REF!,B13,#REF!,$K$2,C13,D13,$K$2,E13,$K$2,F13,"),",),_xlfn.CONCAT($K$1,#REF!,A13,#REF!,$K$2,#REF!,B13,#REF!,$K$2,C13,D13,$K$2,E13,$K$2,F13,"),"))</f>
+        <v>#REF!</v>
+      </c>
+      <c r="H13" s="12">
+        <f t="shared" si="1"/>
+        <v>231.30737752294638</v>
+      </c>
+      <c r="I13">
+        <f t="shared" si="2"/>
+        <v>7</v>
+      </c>
+      <c r="M13" s="3">
+        <v>13</v>
+      </c>
+      <c r="N13" s="4">
+        <f>COUNTIF(I:I,M13)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:14">
-      <c r="B14" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="C14">
-        <v>16000000</v>
-      </c>
-      <c r="D14" t="str">
-        <f>IF(C14&gt;2147483647,"L","")</f>
-        <v/>
-      </c>
-      <c r="E14">
-        <f>12345*5</f>
-        <v>61725</v>
-      </c>
-      <c r="F14" s="2">
-        <v>1</v>
-      </c>
-      <c r="G14" t="str">
-        <f>IF(A14="",_xlfn.CONCAT($K$1,$K$2,B14,$K$2,$K$3,C14,D14,$K$3,E14,$K$3,F14,"),",),_xlfn.CONCAT($K$1,$K$2,A14,$K$2,$K$3,$K$2,B14,$K$2,$K$3,C14,D14,$K$3,E14,$K$3,F14,"),"))</f>
-        <v>new Upgrade("insure.com Domain",16000000,61725,1),</v>
-      </c>
-      <c r="H14" s="12">
-        <f>C14/E14</f>
-        <v>259.21425678412311</v>
-      </c>
-      <c r="I14">
-        <f>FLOOR(LOG10(H14),1)</f>
-        <v>2</v>
-      </c>
-      <c r="M14" s="3">
-        <v>12</v>
-      </c>
-      <c r="N14" s="4">
+    <row r="14" spans="1:14" s="6" customFormat="1">
+      <c r="B14" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C14" s="6">
+        <v>4490000</v>
+      </c>
+      <c r="D14" s="6" t="str">
         <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="E14" s="6">
+        <v>30000</v>
+      </c>
+      <c r="F14" s="9">
+        <v>1</v>
+      </c>
+      <c r="G14" s="6" t="e">
+        <f>IF(A14="",_xlfn.CONCAT($K$1,#REF!,B14,#REF!,$K$2,C14,D14,$K$2,E14,$K$2,F14,"),",),_xlfn.CONCAT($K$1,#REF!,A14,#REF!,$K$2,#REF!,B14,#REF!,$K$2,C14,D14,$K$2,E14,$K$2,F14,"),"))</f>
+        <v>#REF!</v>
+      </c>
+      <c r="H14" s="13">
+        <f t="shared" si="1"/>
+        <v>149.66666666666666</v>
+      </c>
+      <c r="I14" s="6">
+        <f t="shared" si="2"/>
+        <v>6</v>
+      </c>
+      <c r="M14" s="10">
+        <v>14</v>
+      </c>
+      <c r="N14" s="11">
+        <f>COUNTIF(I:I,M14)</f>
         <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:14">
       <c r="B15" s="1" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="C15">
-        <v>10004738</v>
+        <v>3200000</v>
       </c>
       <c r="D15" t="str">
-        <f>IF(C15&gt;2147483647,"L","")</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="E15">
-        <v>43253</v>
+        <v>14324</v>
       </c>
       <c r="F15" s="2">
         <v>1</v>
       </c>
-      <c r="G15" t="str">
-        <f>IF(A15="",_xlfn.CONCAT($K$1,$K$2,B15,$K$2,$K$3,C15,D15,$K$3,E15,$K$3,F15,"),",),_xlfn.CONCAT($K$1,$K$2,A15,$K$2,$K$3,$K$2,B15,$K$2,$K$3,C15,D15,$K$3,E15,$K$3,F15,"),"))</f>
-        <v>new Upgrade("Gold Plated Bugatti Veyron",10004738,43253,1),</v>
+      <c r="G15" t="e">
+        <f>IF(A15="",_xlfn.CONCAT($K$1,#REF!,B15,#REF!,$K$2,C15,D15,$K$2,E15,$K$2,F15,"),",),_xlfn.CONCAT($K$1,#REF!,A15,#REF!,$K$2,#REF!,B15,#REF!,$K$2,C15,D15,$K$2,E15,$K$2,F15,"),"))</f>
+        <v>#REF!</v>
       </c>
       <c r="H15" s="12">
-        <f>C15/E15</f>
-        <v>231.30737752294638</v>
+        <f t="shared" si="1"/>
+        <v>223.40128455738619</v>
       </c>
       <c r="I15">
-        <f>FLOOR(LOG10(H15),1)</f>
-        <v>2</v>
+        <f t="shared" si="2"/>
+        <v>6</v>
       </c>
       <c r="M15" s="3">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="N15" s="4">
+        <f>COUNTIF(I:I,M15)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14">
+      <c r="B16" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="C16">
+        <v>2014000</v>
+      </c>
+      <c r="D16" t="str">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14" s="6" customFormat="1">
-      <c r="B16" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="C16" s="6">
-        <v>4490000</v>
-      </c>
-      <c r="D16" s="6" t="str">
-        <f>IF(C16&gt;2147483647,"L","")</f>
-        <v/>
-      </c>
-      <c r="E16" s="6">
-        <v>30000</v>
-      </c>
-      <c r="F16" s="9">
-        <v>1</v>
-      </c>
-      <c r="G16" s="6" t="str">
-        <f>IF(A16="",_xlfn.CONCAT($K$1,$K$2,B16,$K$2,$K$3,C16,D16,$K$3,E16,$K$3,F16,"),",),_xlfn.CONCAT($K$1,$K$2,A16,$K$2,$K$3,$K$2,B16,$K$2,$K$3,C16,D16,$K$3,E16,$K$3,F16,"),"))</f>
-        <v>new Upgrade("Mjolnir",4490000,30000,1),</v>
-      </c>
-      <c r="H16" s="13">
-        <f>C16/E16</f>
-        <v>149.66666666666666</v>
-      </c>
-      <c r="I16" s="6">
-        <f>FLOOR(LOG10(H16),1)</f>
-        <v>2</v>
-      </c>
-      <c r="M16" s="10">
-        <v>14</v>
-      </c>
-      <c r="N16" s="11">
-        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="E16">
+        <f>5*2023</f>
+        <v>10115</v>
+      </c>
+      <c r="F16" s="2">
+        <v>1</v>
+      </c>
+      <c r="G16" t="e">
+        <f>IF(A16="",_xlfn.CONCAT($K$1,#REF!,B16,#REF!,$K$2,C16,D16,$K$2,E16,$K$2,F16,"),",),_xlfn.CONCAT($K$1,#REF!,A16,#REF!,$K$2,#REF!,B16,#REF!,$K$2,C16,D16,$K$2,E16,$K$2,F16,"),"))</f>
+        <v>#REF!</v>
+      </c>
+      <c r="H16" s="12">
+        <f t="shared" si="1"/>
+        <v>199.11023232822541</v>
+      </c>
+      <c r="I16">
+        <f t="shared" si="2"/>
+        <v>6</v>
+      </c>
+      <c r="M16" s="3">
+        <v>16</v>
+      </c>
+      <c r="N16" s="4">
+        <f>COUNTIF(I:I,M16)</f>
         <v>0</v>
       </c>
     </row>
     <row r="17" spans="2:14">
       <c r="B17" s="1" t="s">
-        <v>55</v>
+        <v>25</v>
       </c>
       <c r="C17">
-        <v>3200000</v>
+        <v>1800000</v>
       </c>
       <c r="D17" t="str">
-        <f>IF(C17&gt;2147483647,"L","")</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="E17">
-        <v>14324</v>
+        <v>6930</v>
       </c>
       <c r="F17" s="2">
         <v>1</v>
       </c>
-      <c r="G17" t="str">
-        <f>IF(A17="",_xlfn.CONCAT($K$1,$K$2,B17,$K$2,$K$3,C17,D17,$K$3,E17,$K$3,F17,"),",),_xlfn.CONCAT($K$1,$K$2,A17,$K$2,$K$3,$K$2,B17,$K$2,$K$3,C17,D17,$K$3,E17,$K$3,F17,"),"))</f>
-        <v>new Upgrade("Crystal Piano",3200000,14324,1),</v>
+      <c r="G17" t="e">
+        <f>IF(A17="",_xlfn.CONCAT($K$1,#REF!,B17,#REF!,$K$2,C17,D17,$K$2,E17,$K$2,F17,"),",),_xlfn.CONCAT($K$1,#REF!,A17,#REF!,$K$2,#REF!,B17,#REF!,$K$2,C17,D17,$K$2,E17,$K$2,F17,"),"))</f>
+        <v>#REF!</v>
       </c>
       <c r="H17" s="12">
-        <f>C17/E17</f>
-        <v>223.40128455738619</v>
+        <f t="shared" si="1"/>
+        <v>259.74025974025972</v>
       </c>
       <c r="I17">
-        <f>FLOOR(LOG10(H17),1)</f>
-        <v>2</v>
+        <f t="shared" si="2"/>
+        <v>6</v>
       </c>
       <c r="M17" s="3">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="N17" s="4">
-        <f t="shared" ref="N17:N22" si="1">COUNTIF(I:I,M17)</f>
+        <f>COUNTIF(I:I,M17)</f>
         <v>0</v>
       </c>
     </row>
     <row r="18" spans="2:14">
       <c r="B18" s="1" t="s">
-        <v>94</v>
+        <v>53</v>
       </c>
       <c r="C18">
-        <v>2014000</v>
+        <v>1600000</v>
       </c>
       <c r="D18" t="str">
-        <f>IF(C18&gt;2147483647,"L","")</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="E18">
-        <f>5*2023</f>
-        <v>10115</v>
+        <v>8000</v>
       </c>
       <c r="F18" s="2">
         <v>1</v>
       </c>
-      <c r="G18" t="str">
-        <f>IF(A18="",_xlfn.CONCAT($K$1,$K$2,B18,$K$2,$K$3,C18,D18,$K$3,E18,$K$3,F18,"),",),_xlfn.CONCAT($K$1,$K$2,A18,$K$2,$K$3,$K$2,B18,$K$2,$K$3,C18,D18,$K$3,E18,$K$3,F18,"),"))</f>
-        <v>new Upgrade("Thanos' Sword",2014000,10115,1),</v>
+      <c r="G18" t="e">
+        <f>IF(A18="",_xlfn.CONCAT($K$1,#REF!,B18,#REF!,$K$2,C18,D18,$K$2,E18,$K$2,F18,"),",),_xlfn.CONCAT($K$1,#REF!,A18,#REF!,$K$2,#REF!,B18,#REF!,$K$2,C18,D18,$K$2,E18,$K$2,F18,"),"))</f>
+        <v>#REF!</v>
       </c>
       <c r="H18" s="12">
-        <f>C18/E18</f>
-        <v>199.11023232822541</v>
+        <f t="shared" si="1"/>
+        <v>200</v>
       </c>
       <c r="I18">
-        <f>FLOOR(LOG10(H18),1)</f>
-        <v>2</v>
+        <f t="shared" si="2"/>
+        <v>6</v>
       </c>
       <c r="M18" s="3">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="N18" s="4">
-        <f t="shared" si="1"/>
+        <f>COUNTIF(I:I,M18)</f>
         <v>0</v>
       </c>
     </row>
     <row r="19" spans="2:14">
       <c r="B19" s="1" t="s">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="C19">
-        <v>1800000</v>
+        <v>1510000</v>
       </c>
       <c r="D19" t="str">
-        <f>IF(C19&gt;2147483647,"L","")</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="E19">
-        <v>6930</v>
+        <v>8090</v>
       </c>
       <c r="F19" s="2">
         <v>1</v>
       </c>
-      <c r="G19" t="str">
-        <f>IF(A19="",_xlfn.CONCAT($K$1,$K$2,B19,$K$2,$K$3,C19,D19,$K$3,E19,$K$3,F19,"),",),_xlfn.CONCAT($K$1,$K$2,A19,$K$2,$K$3,$K$2,B19,$K$2,$K$3,C19,D19,$K$3,E19,$K$3,F19,"),"))</f>
-        <v>new Upgrade("The Tumbler Batmobile",1800000,6930,1),</v>
+      <c r="G19" t="e">
+        <f>IF(A19="",_xlfn.CONCAT($K$1,#REF!,B19,#REF!,$K$2,C19,D19,$K$2,E19,$K$2,F19,"),",),_xlfn.CONCAT($K$1,#REF!,A19,#REF!,$K$2,#REF!,B19,#REF!,$K$2,C19,D19,$K$2,E19,$K$2,F19,"),"))</f>
+        <v>#REF!</v>
       </c>
       <c r="H19" s="12">
-        <f>C19/E19</f>
-        <v>259.74025974025972</v>
+        <f t="shared" si="1"/>
+        <v>186.65018541409148</v>
       </c>
       <c r="I19">
-        <f>FLOOR(LOG10(H19),1)</f>
-        <v>2</v>
+        <f t="shared" si="2"/>
+        <v>6</v>
       </c>
       <c r="M19" s="3">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="N19" s="4">
-        <f t="shared" si="1"/>
+        <f>COUNTIF(I:I,M19)</f>
         <v>0</v>
       </c>
     </row>
     <row r="20" spans="2:14">
       <c r="B20" s="1" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="C20">
-        <v>1600000</v>
+        <v>1325000</v>
       </c>
       <c r="D20" t="str">
-        <f>IF(C20&gt;2147483647,"L","")</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="E20">
-        <v>8000</v>
+        <v>5500</v>
       </c>
       <c r="F20" s="2">
-        <v>1</v>
-      </c>
-      <c r="G20" t="str">
-        <f>IF(A20="",_xlfn.CONCAT($K$1,$K$2,B20,$K$2,$K$3,C20,D20,$K$3,E20,$K$3,F20,"),",),_xlfn.CONCAT($K$1,$K$2,A20,$K$2,$K$3,$K$2,B20,$K$2,$K$3,C20,D20,$K$3,E20,$K$3,F20,"),"))</f>
-        <v>new Upgrade("Magnetic Floating Bed",1600000,8000,1),</v>
+        <v>7</v>
+      </c>
+      <c r="G20" t="e">
+        <f>IF(A20="",_xlfn.CONCAT($K$1,#REF!,B20,#REF!,$K$2,C20,D20,$K$2,E20,$K$2,F20,"),",),_xlfn.CONCAT($K$1,#REF!,A20,#REF!,$K$2,#REF!,B20,#REF!,$K$2,C20,D20,$K$2,E20,$K$2,F20,"),"))</f>
+        <v>#REF!</v>
       </c>
       <c r="H20" s="12">
-        <f>C20/E20</f>
-        <v>200</v>
+        <f t="shared" si="1"/>
+        <v>240.90909090909091</v>
       </c>
       <c r="I20">
-        <f>FLOOR(LOG10(H20),1)</f>
-        <v>2</v>
+        <f t="shared" si="2"/>
+        <v>6</v>
       </c>
       <c r="M20" s="3">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="N20" s="4">
-        <f t="shared" si="1"/>
+        <f>COUNTIF(I:I,M20)</f>
         <v>0</v>
       </c>
     </row>
     <row r="21" spans="2:14">
       <c r="B21" s="1" t="s">
-        <v>35</v>
+        <v>24</v>
       </c>
       <c r="C21">
-        <v>1510000</v>
+        <v>1230000</v>
       </c>
       <c r="D21" t="str">
-        <f>IF(C21&gt;2147483647,"L","")</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="E21">
-        <v>8090</v>
+        <f>3*1640</f>
+        <v>4920</v>
       </c>
       <c r="F21" s="2">
-        <v>1</v>
-      </c>
-      <c r="G21" t="str">
-        <f>IF(A21="",_xlfn.CONCAT($K$1,$K$2,B21,$K$2,$K$3,C21,D21,$K$3,E21,$K$3,F21,"),",),_xlfn.CONCAT($K$1,$K$2,A21,$K$2,$K$3,$K$2,B21,$K$2,$K$3,C21,D21,$K$3,E21,$K$3,F21,"),"))</f>
-        <v>new Upgrade("All of the Pokemon",1510000,8090,1),</v>
+        <v>6</v>
+      </c>
+      <c r="G21" t="e">
+        <f>IF(A21="",_xlfn.CONCAT($K$1,#REF!,B21,#REF!,$K$2,C21,D21,$K$2,E21,$K$2,F21,"),",),_xlfn.CONCAT($K$1,#REF!,A21,#REF!,$K$2,#REF!,B21,#REF!,$K$2,C21,D21,$K$2,E21,$K$2,F21,"),"))</f>
+        <v>#REF!</v>
       </c>
       <c r="H21" s="12">
-        <f>C21/E21</f>
-        <v>186.65018541409148</v>
+        <f t="shared" si="1"/>
+        <v>250</v>
       </c>
       <c r="I21">
-        <f>FLOOR(LOG10(H21),1)</f>
-        <v>2</v>
-      </c>
-      <c r="M21" s="3">
-        <v>19</v>
-      </c>
-      <c r="N21" s="4">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="2:14">
-      <c r="B22" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="C22">
-        <v>1325000</v>
-      </c>
-      <c r="D22" t="str">
-        <f>IF(C22&gt;2147483647,"L","")</f>
-        <v/>
-      </c>
-      <c r="E22">
-        <v>5500</v>
-      </c>
-      <c r="F22" s="2">
-        <v>7</v>
-      </c>
-      <c r="G22" t="str">
-        <f>IF(A22="",_xlfn.CONCAT($K$1,$K$2,B22,$K$2,$K$3,C22,D22,$K$3,E22,$K$3,F22,"),",),_xlfn.CONCAT($K$1,$K$2,A22,$K$2,$K$3,$K$2,B22,$K$2,$K$3,C22,D22,$K$3,E22,$K$3,F22,"),"))</f>
-        <v>new Upgrade("Ferrari Enzo",1325000,5500,7),</v>
-      </c>
-      <c r="H22" s="12">
-        <f>C22/E22</f>
-        <v>240.90909090909091</v>
-      </c>
-      <c r="I22">
-        <f>FLOOR(LOG10(H22),1)</f>
-        <v>2</v>
-      </c>
-      <c r="M22" s="3">
-        <v>20</v>
-      </c>
-      <c r="N22" s="4">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <f t="shared" si="2"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="22" spans="2:14" s="6" customFormat="1">
+      <c r="B22" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="C22" s="6">
+        <v>1138000</v>
+      </c>
+      <c r="D22" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="E22" s="6">
+        <v>7486</v>
+      </c>
+      <c r="F22" s="9">
+        <v>1</v>
+      </c>
+      <c r="G22" s="6" t="e">
+        <f>IF(A22="",_xlfn.CONCAT($K$1,#REF!,B22,#REF!,$K$2,C22,D22,$K$2,E22,$K$2,F22,"),",),_xlfn.CONCAT($K$1,#REF!,A22,#REF!,$K$2,#REF!,B22,#REF!,$K$2,C22,D22,$K$2,E22,$K$2,F22,"),"))</f>
+        <v>#REF!</v>
+      </c>
+      <c r="H22" s="13">
+        <f t="shared" si="1"/>
+        <v>152.0170985840235</v>
+      </c>
+      <c r="I22" s="6">
+        <f t="shared" si="2"/>
+        <v>6</v>
       </c>
     </row>
     <row r="23" spans="2:14">
       <c r="B23" s="1" t="s">
-        <v>24</v>
+        <v>67</v>
       </c>
       <c r="C23">
-        <v>1230000</v>
+        <v>999999</v>
       </c>
       <c r="D23" t="str">
-        <f>IF(C23&gt;2147483647,"L","")</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="E23">
-        <f>3*1640</f>
-        <v>4920</v>
+        <v>0</v>
       </c>
       <c r="F23" s="2">
+        <v>100</v>
+      </c>
+      <c r="G23" t="e">
+        <f>IF(A23="",_xlfn.CONCAT($K$1,#REF!,B23,#REF!,$K$2,C23,D23,$K$2,E23,$K$2,F23,"),",),_xlfn.CONCAT($K$1,#REF!,A23,#REF!,$K$2,#REF!,B23,#REF!,$K$2,C23,D23,$K$2,E23,$K$2,F23,"),"))</f>
+        <v>#REF!</v>
+      </c>
+      <c r="H23" s="12" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I23">
+        <f t="shared" si="2"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="24" spans="2:14">
+      <c r="B24" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C24">
+        <v>858000</v>
+      </c>
+      <c r="D24" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="E24">
+        <f>2.5*1500</f>
+        <v>3750</v>
+      </c>
+      <c r="F24" s="2">
+        <v>10</v>
+      </c>
+      <c r="G24" t="e">
+        <f>IF(A24="",_xlfn.CONCAT($K$1,#REF!,B24,#REF!,$K$2,C24,D24,$K$2,E24,$K$2,F24,"),",),_xlfn.CONCAT($K$1,#REF!,A24,#REF!,$K$2,#REF!,B24,#REF!,$K$2,C24,D24,$K$2,E24,$K$2,F24,"),"))</f>
+        <v>#REF!</v>
+      </c>
+      <c r="H24" s="12">
+        <f t="shared" si="1"/>
+        <v>228.8</v>
+      </c>
+      <c r="I24">
+        <f t="shared" si="2"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="25" spans="2:14" s="6" customFormat="1">
+      <c r="B25" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="C25" s="6">
+        <v>300000</v>
+      </c>
+      <c r="D25" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="E25" s="6">
+        <v>1977</v>
+      </c>
+      <c r="F25" s="9">
         <v>6</v>
       </c>
-      <c r="G23" t="str">
-        <f>IF(A23="",_xlfn.CONCAT($K$1,$K$2,B23,$K$2,$K$3,C23,D23,$K$3,E23,$K$3,F23,"),",),_xlfn.CONCAT($K$1,$K$2,A23,$K$2,$K$3,$K$2,B23,$K$2,$K$3,C23,D23,$K$3,E23,$K$3,F23,"),"))</f>
-        <v>new Upgrade("The Ultimate Ultimate Weapon",1230000,4920,6),</v>
-      </c>
-      <c r="H23" s="12">
-        <f>C23/E23</f>
-        <v>250</v>
-      </c>
-      <c r="I23">
-        <f>FLOOR(LOG10(H23),1)</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="24" spans="2:14" s="6" customFormat="1">
-      <c r="B24" s="7" t="s">
-        <v>84</v>
-      </c>
-      <c r="C24" s="6">
-        <v>1138000</v>
-      </c>
-      <c r="D24" s="6" t="str">
-        <f>IF(C24&gt;2147483647,"L","")</f>
-        <v/>
-      </c>
-      <c r="E24" s="6">
-        <v>7486</v>
-      </c>
-      <c r="F24" s="9">
-        <v>1</v>
-      </c>
-      <c r="G24" s="6" t="str">
-        <f>IF(A24="",_xlfn.CONCAT($K$1,$K$2,B24,$K$2,$K$3,C24,D24,$K$3,E24,$K$3,F24,"),",),_xlfn.CONCAT($K$1,$K$2,A24,$K$2,$K$3,$K$2,B24,$K$2,$K$3,C24,D24,$K$3,E24,$K$3,F24,"),"))</f>
-        <v>new Upgrade("Darth Vader's Helmet",1138000,7486,1),</v>
-      </c>
-      <c r="H24" s="13">
-        <f>C24/E24</f>
-        <v>152.0170985840235</v>
-      </c>
-      <c r="I24" s="6">
-        <f>FLOOR(LOG10(H24),1)</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="25" spans="2:14">
-      <c r="B25" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="C25">
-        <v>999999</v>
-      </c>
-      <c r="D25" t="str">
-        <f>IF(C25&gt;2147483647,"L","")</f>
-        <v/>
-      </c>
-      <c r="E25">
-        <v>0</v>
-      </c>
-      <c r="F25" s="2">
-        <v>100</v>
-      </c>
-      <c r="G25" t="str">
-        <f>IF(A25="",_xlfn.CONCAT($K$1,$K$2,B25,$K$2,$K$3,C25,D25,$K$3,E25,$K$3,F25,"),",),_xlfn.CONCAT($K$1,$K$2,A25,$K$2,$K$3,$K$2,B25,$K$2,$K$3,C25,D25,$K$3,E25,$K$3,F25,"),"))</f>
-        <v>new Upgrade("Crisp $1,000,000 bill",999999,0,100),</v>
-      </c>
-      <c r="H25" s="12" t="e">
-        <f>C25/E25</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I25" t="e">
-        <f>FLOOR(LOG10(H25),1)</f>
-        <v>#DIV/0!</v>
+      <c r="G25" s="6" t="e">
+        <f>IF(A25="",_xlfn.CONCAT($K$1,#REF!,B25,#REF!,$K$2,C25,D25,$K$2,E25,$K$2,F25,"),",),_xlfn.CONCAT($K$1,#REF!,A25,#REF!,$K$2,#REF!,B25,#REF!,$K$2,C25,D25,$K$2,E25,$K$2,F25,"),"))</f>
+        <v>#REF!</v>
+      </c>
+      <c r="H25" s="13">
+        <f t="shared" si="1"/>
+        <v>151.74506828528072</v>
+      </c>
+      <c r="I25" s="6">
+        <f t="shared" si="2"/>
+        <v>5</v>
       </c>
     </row>
     <row r="26" spans="2:14">
       <c r="B26" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C26">
-        <v>858000</v>
+        <v>630000</v>
       </c>
       <c r="D26" t="str">
-        <f>IF(C26&gt;2147483647,"L","")</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="E26">
-        <f>2.5*1500</f>
-        <v>3750</v>
+        <v>3030</v>
       </c>
       <c r="F26" s="2">
-        <v>10</v>
-      </c>
-      <c r="G26" t="str">
-        <f>IF(A26="",_xlfn.CONCAT($K$1,$K$2,B26,$K$2,$K$3,C26,D26,$K$3,E26,$K$3,F26,"),",),_xlfn.CONCAT($K$1,$K$2,A26,$K$2,$K$3,$K$2,B26,$K$2,$K$3,C26,D26,$K$3,E26,$K$3,F26,"),"))</f>
-        <v>new Upgrade("Tank",858000,3750,10),</v>
+        <v>5</v>
+      </c>
+      <c r="G26" t="e">
+        <f>IF(A26="",_xlfn.CONCAT($K$1,#REF!,B26,#REF!,$K$2,C26,D26,$K$2,E26,$K$2,F26,"),",),_xlfn.CONCAT($K$1,#REF!,A26,#REF!,$K$2,#REF!,B26,#REF!,$K$2,C26,D26,$K$2,E26,$K$2,F26,"),"))</f>
+        <v>#REF!</v>
       </c>
       <c r="H26" s="12">
-        <f>C26/E26</f>
-        <v>228.8</v>
+        <f t="shared" si="1"/>
+        <v>207.92079207920793</v>
       </c>
       <c r="I26">
-        <f>FLOOR(LOG10(H26),1)</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="27" spans="2:14" s="6" customFormat="1">
-      <c r="B27" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="C27" s="6">
-        <v>300000</v>
-      </c>
-      <c r="D27" s="6" t="str">
-        <f>IF(C27&gt;2147483647,"L","")</f>
-        <v/>
-      </c>
-      <c r="E27" s="6">
-        <v>1977</v>
-      </c>
-      <c r="F27" s="9">
+        <f t="shared" si="2"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="27" spans="2:14">
+      <c r="B27" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C27">
+        <v>400000</v>
+      </c>
+      <c r="D27" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="E27">
+        <f>1/2*3000</f>
+        <v>1500</v>
+      </c>
+      <c r="F27" s="2">
         <v>6</v>
       </c>
-      <c r="G27" s="6" t="str">
-        <f>IF(A27="",_xlfn.CONCAT($K$1,$K$2,B27,$K$2,$K$3,C27,D27,$K$3,E27,$K$3,F27,"),",),_xlfn.CONCAT($K$1,$K$2,A27,$K$2,$K$3,$K$2,B27,$K$2,$K$3,C27,D27,$K$3,E27,$K$3,F27,"),"))</f>
-        <v>new Upgrade("Lightsaber",300000,1977,6),</v>
-      </c>
-      <c r="H27" s="13">
-        <f>C27/E27</f>
-        <v>151.74506828528072</v>
-      </c>
-      <c r="I27" s="6">
-        <f>FLOOR(LOG10(H27),1)</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="28" spans="2:14">
-      <c r="B28" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C28">
-        <v>630000</v>
-      </c>
-      <c r="D28" t="str">
-        <f>IF(C28&gt;2147483647,"L","")</f>
-        <v/>
-      </c>
-      <c r="E28">
-        <v>3030</v>
-      </c>
-      <c r="F28" s="2">
+      <c r="G27" t="e">
+        <f>IF(A27="",_xlfn.CONCAT($K$1,#REF!,B27,#REF!,$K$2,C27,D27,$K$2,E27,$K$2,F27,"),",),_xlfn.CONCAT($K$1,#REF!,A27,#REF!,$K$2,#REF!,B27,#REF!,$K$2,C27,D27,$K$2,E27,$K$2,F27,"),"))</f>
+        <v>#REF!</v>
+      </c>
+      <c r="H27" s="12">
+        <f t="shared" si="1"/>
+        <v>266.66666666666669</v>
+      </c>
+      <c r="I27">
+        <f t="shared" si="2"/>
         <v>5</v>
       </c>
-      <c r="G28" t="str">
-        <f>IF(A28="",_xlfn.CONCAT($K$1,$K$2,B28,$K$2,$K$3,C28,D28,$K$3,E28,$K$3,F28,"),",),_xlfn.CONCAT($K$1,$K$2,A28,$K$2,$K$3,$K$2,B28,$K$2,$K$3,C28,D28,$K$3,E28,$K$3,F28,"),"))</f>
-        <v>new Upgrade("Pet Dragon",630000,3030,5),</v>
-      </c>
-      <c r="H28" s="12">
-        <f>C28/E28</f>
-        <v>207.92079207920793</v>
-      </c>
-      <c r="I28">
-        <f>FLOOR(LOG10(H28),1)</f>
-        <v>2</v>
+    </row>
+    <row r="28" spans="2:14" s="6" customFormat="1">
+      <c r="B28" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="C28" s="6">
+        <v>301800</v>
+      </c>
+      <c r="D28" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="E28" s="6">
+        <v>2110</v>
+      </c>
+      <c r="F28" s="9">
+        <v>1</v>
+      </c>
+      <c r="G28" s="6" t="e">
+        <f>IF(A28="",_xlfn.CONCAT($K$1,#REF!,B28,#REF!,$K$2,C28,D28,$K$2,E28,$K$2,F28,"),",),_xlfn.CONCAT($K$1,#REF!,A28,#REF!,$K$2,#REF!,B28,#REF!,$K$2,C28,D28,$K$2,E28,$K$2,F28,"),"))</f>
+        <v>#REF!</v>
+      </c>
+      <c r="H28" s="13">
+        <f t="shared" si="1"/>
+        <v>143.03317535545023</v>
+      </c>
+      <c r="I28" s="6">
+        <f t="shared" si="2"/>
+        <v>5</v>
       </c>
     </row>
     <row r="29" spans="2:14">
       <c r="B29" s="1" t="s">
-        <v>97</v>
+        <v>29</v>
       </c>
       <c r="C29">
-        <v>600000</v>
+        <v>200000</v>
       </c>
       <c r="D29" t="str">
-        <f>IF(C29&gt;2147483647,"L","")</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="E29">
-        <v>3000</v>
+        <v>1000</v>
       </c>
       <c r="F29" s="2">
-        <v>7</v>
-      </c>
-      <c r="G29" t="str">
-        <f>IF(A29="",_xlfn.CONCAT($K$1,$K$2,B29,$K$2,$K$3,C29,D29,$K$3,E29,$K$3,F29,"),",),_xlfn.CONCAT($K$1,$K$2,A29,$K$2,$K$3,$K$2,B29,$K$2,$K$3,C29,D29,$K$3,E29,$K$3,F29,"),"))</f>
-        <v>new Upgrade("Charles Hollander Chess Set",600000,3000,7),</v>
+        <v>1</v>
+      </c>
+      <c r="G29" t="e">
+        <f>IF(A29="",_xlfn.CONCAT($K$1,#REF!,B29,#REF!,$K$2,C29,D29,$K$2,E29,$K$2,F29,"),",),_xlfn.CONCAT($K$1,#REF!,A29,#REF!,$K$2,#REF!,B29,#REF!,$K$2,C29,D29,$K$2,E29,$K$2,F29,"),"))</f>
+        <v>#REF!</v>
       </c>
       <c r="H29" s="12">
-        <f>C29/E29</f>
+        <f t="shared" si="1"/>
         <v>200</v>
       </c>
       <c r="I29">
-        <f>FLOOR(LOG10(H29),1)</f>
-        <v>2</v>
+        <f t="shared" si="2"/>
+        <v>5</v>
       </c>
     </row>
     <row r="30" spans="2:14">
       <c r="B30" s="1" t="s">
-        <v>9</v>
+        <v>30</v>
       </c>
       <c r="C30">
-        <v>400000</v>
+        <v>130364</v>
       </c>
       <c r="D30" t="str">
-        <f>IF(C30&gt;2147483647,"L","")</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="E30">
-        <f>1/2*3000</f>
-        <v>1500</v>
+        <v>600</v>
       </c>
       <c r="F30" s="2">
         <v>6</v>
       </c>
-      <c r="G30" t="str">
-        <f>IF(A30="",_xlfn.CONCAT($K$1,$K$2,B30,$K$2,$K$3,C30,D30,$K$3,E30,$K$3,F30,"),",),_xlfn.CONCAT($K$1,$K$2,A30,$K$2,$K$3,$K$2,B30,$K$2,$K$3,C30,D30,$K$3,E30,$K$3,F30,"),"))</f>
-        <v>new Upgrade("Smash Ball",400000,1500,6),</v>
+      <c r="G30" t="e">
+        <f>IF(A30="",_xlfn.CONCAT($K$1,#REF!,B30,#REF!,$K$2,C30,D30,$K$2,E30,$K$2,F30,"),",),_xlfn.CONCAT($K$1,#REF!,A30,#REF!,$K$2,#REF!,B30,#REF!,$K$2,C30,D30,$K$2,E30,$K$2,F30,"),"))</f>
+        <v>#REF!</v>
       </c>
       <c r="H30" s="12">
-        <f>C30/E30</f>
-        <v>266.66666666666669</v>
+        <f t="shared" si="1"/>
+        <v>217.27333333333334</v>
       </c>
       <c r="I30">
-        <f>FLOOR(LOG10(H30),1)</f>
-        <v>2</v>
+        <f t="shared" si="2"/>
+        <v>5</v>
       </c>
     </row>
     <row r="31" spans="2:14" s="6" customFormat="1">
       <c r="B31" s="7" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="C31" s="6">
-        <v>301800</v>
+        <v>200000</v>
       </c>
       <c r="D31" s="6" t="str">
-        <f>IF(C31&gt;2147483647,"L","")</f>
+        <f t="shared" ref="D31:D59" si="3">IF(C31&gt;2147483647,"L","")</f>
         <v/>
       </c>
       <c r="E31" s="6">
-        <v>2110</v>
+        <v>1350</v>
       </c>
       <c r="F31" s="9">
         <v>1</v>
       </c>
-      <c r="G31" s="6" t="str">
-        <f>IF(A31="",_xlfn.CONCAT($K$1,$K$2,B31,$K$2,$K$3,C31,D31,$K$3,E31,$K$3,F31,"),",),_xlfn.CONCAT($K$1,$K$2,A31,$K$2,$K$3,$K$2,B31,$K$2,$K$3,C31,D31,$K$3,E31,$K$3,F31,"),"))</f>
-        <v>new Upgrade("Legolas's Bow",301800,2110,1),</v>
+      <c r="G31" s="6" t="e">
+        <f>IF(A31="",_xlfn.CONCAT($K$1,#REF!,B31,#REF!,$K$2,C31,D31,$K$2,E31,$K$2,F31,"),",),_xlfn.CONCAT($K$1,#REF!,A31,#REF!,$K$2,#REF!,B31,#REF!,$K$2,C31,D31,$K$2,E31,$K$2,F31,"),"))</f>
+        <v>#REF!</v>
       </c>
       <c r="H31" s="13">
-        <f>C31/E31</f>
-        <v>143.03317535545023</v>
+        <f t="shared" ref="H31:H63" si="4">C31/E31</f>
+        <v>148.14814814814815</v>
       </c>
       <c r="I31" s="6">
-        <f>FLOOR(LOG10(H31),1)</f>
-        <v>2</v>
+        <f t="shared" ref="I31:I63" si="5">FLOOR(LOG10(C31),1)</f>
+        <v>5</v>
       </c>
     </row>
     <row r="32" spans="2:14">
       <c r="B32" s="1" t="s">
-        <v>29</v>
+        <v>7</v>
       </c>
       <c r="C32">
-        <v>200000</v>
+        <v>500235</v>
       </c>
       <c r="D32" t="str">
-        <f>IF(C32&gt;2147483647,"L","")</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="E32">
-        <v>1</v>
+        <v>2390</v>
       </c>
       <c r="F32" s="2">
-        <v>1</v>
-      </c>
-      <c r="G32" t="str">
-        <f>IF(A32="",_xlfn.CONCAT($K$1,$K$2,B32,$K$2,$K$3,C32,D32,$K$3,E32,$K$3,F32,"),",),_xlfn.CONCAT($K$1,$K$2,A32,$K$2,$K$3,$K$2,B32,$K$2,$K$3,C32,D32,$K$3,E32,$K$3,F32,"),"))</f>
-        <v>new Upgrade("Phaser Rifle",200000,1,1),</v>
+        <v>5</v>
+      </c>
+      <c r="G32" t="e">
+        <f>IF(A32="",_xlfn.CONCAT($K$1,#REF!,B32,#REF!,$K$2,C32,D32,$K$2,E32,$K$2,F32,"),",),_xlfn.CONCAT($K$1,#REF!,A32,#REF!,$K$2,#REF!,B32,#REF!,$K$2,C32,D32,$K$2,E32,$K$2,F32,"),"))</f>
+        <v>#REF!</v>
       </c>
       <c r="H32" s="12">
-        <f>C32/E32</f>
-        <v>200000</v>
+        <f t="shared" si="4"/>
+        <v>209.30334728033472</v>
       </c>
       <c r="I32">
-        <f>FLOOR(LOG10(H32),1)</f>
+        <f t="shared" si="5"/>
         <v>5</v>
       </c>
     </row>
-    <row r="33" spans="1:9">
+    <row r="33" spans="1:10">
       <c r="B33" s="1" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="C33">
-        <v>200000</v>
+        <v>155893</v>
       </c>
       <c r="D33" t="str">
-        <f>IF(C33&gt;2147483647,"L","")</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="E33">
+        <v>563</v>
+      </c>
+      <c r="F33" s="2">
         <v>10</v>
       </c>
-      <c r="F33" s="2">
+      <c r="G33" t="e">
+        <f>IF(A33="",_xlfn.CONCAT($K$1,#REF!,B33,#REF!,$K$2,C33,D33,$K$2,E33,$K$2,F33,"),",),_xlfn.CONCAT($K$1,#REF!,A33,#REF!,$K$2,#REF!,B33,#REF!,$K$2,C33,D33,$K$2,E33,$K$2,F33,"),"))</f>
+        <v>#REF!</v>
+      </c>
+      <c r="H33" s="12">
+        <f t="shared" si="4"/>
+        <v>276.89698046181172</v>
+      </c>
+      <c r="I33">
+        <f t="shared" si="5"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" s="6" customFormat="1">
+      <c r="B34" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="C34" s="6">
+        <v>765482</v>
+      </c>
+      <c r="D34" s="6" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="E34" s="6">
+        <f>2*2285</f>
+        <v>4570</v>
+      </c>
+      <c r="F34" s="9">
+        <v>1</v>
+      </c>
+      <c r="G34" s="6" t="e">
+        <f>IF(A34="",_xlfn.CONCAT($K$1,#REF!,B34,#REF!,$K$2,C34,D34,$K$2,E34,$K$2,F34,"),",),_xlfn.CONCAT($K$1,#REF!,A34,#REF!,$K$2,#REF!,B34,#REF!,$K$2,C34,D34,$K$2,E34,$K$2,F34,"),"))</f>
+        <v>#REF!</v>
+      </c>
+      <c r="H34" s="13">
+        <f t="shared" si="4"/>
+        <v>167.50153172866521</v>
+      </c>
+      <c r="I34" s="6">
+        <f t="shared" si="5"/>
+        <v>5</v>
+      </c>
+      <c r="J34" s="6" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10">
+      <c r="B35" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C35">
+        <v>166830</v>
+      </c>
+      <c r="D35" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="E35">
+        <v>1138</v>
+      </c>
+      <c r="F35" s="2">
+        <v>1</v>
+      </c>
+      <c r="G35" t="e">
+        <f>IF(A35="",_xlfn.CONCAT($K$1,#REF!,B35,#REF!,$K$2,C35,D35,$K$2,E35,$K$2,F35,"),",),_xlfn.CONCAT($K$1,#REF!,A35,#REF!,$K$2,#REF!,B35,#REF!,$K$2,C35,D35,$K$2,E35,$K$2,F35,"),"))</f>
+        <v>#REF!</v>
+      </c>
+      <c r="H35" s="12">
+        <f t="shared" si="4"/>
+        <v>146.59929701230229</v>
+      </c>
+      <c r="I35">
+        <f t="shared" si="5"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" s="6" customFormat="1">
+      <c r="B36" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C36" s="6">
+        <v>1344339</v>
+      </c>
+      <c r="D36" s="6" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="E36" s="6">
+        <v>7324</v>
+      </c>
+      <c r="F36" s="9">
+        <v>2</v>
+      </c>
+      <c r="G36" s="6" t="e">
+        <f>IF(A36="",_xlfn.CONCAT($K$1,#REF!,B36,#REF!,$K$2,C36,D36,$K$2,E36,$K$2,F36,"),",),_xlfn.CONCAT($K$1,#REF!,A36,#REF!,$K$2,#REF!,B36,#REF!,$K$2,C36,D36,$K$2,E36,$K$2,F36,"),"))</f>
+        <v>#REF!</v>
+      </c>
+      <c r="H36" s="13">
+        <f t="shared" si="4"/>
+        <v>183.55256690333152</v>
+      </c>
+      <c r="I36" s="6">
+        <f t="shared" si="5"/>
         <v>6</v>
       </c>
-      <c r="G33" t="str">
-        <f>IF(A33="",_xlfn.CONCAT($K$1,$K$2,B33,$K$2,$K$3,C33,D33,$K$3,E33,$K$3,F33,"),",),_xlfn.CONCAT($K$1,$K$2,A33,$K$2,$K$3,$K$2,B33,$K$2,$K$3,C33,D33,$K$3,E33,$K$3,F33,"),"))</f>
-        <v>new Upgrade("Six-Shooter",200000,10,6),</v>
-      </c>
-      <c r="H33" s="12">
-        <f>C33/E33</f>
-        <v>20000</v>
-      </c>
-      <c r="I33">
-        <f>FLOOR(LOG10(H33),1)</f>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9" s="6" customFormat="1">
-      <c r="B34" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="C34" s="6">
-        <v>200000</v>
-      </c>
-      <c r="D34" s="6" t="str">
-        <f>IF(C34&gt;2147483647,"L","")</f>
-        <v/>
-      </c>
-      <c r="E34" s="6">
-        <v>135</v>
-      </c>
-      <c r="F34" s="9">
-        <v>1</v>
-      </c>
-      <c r="G34" s="6" t="str">
-        <f>IF(A34="",_xlfn.CONCAT($K$1,$K$2,B34,$K$2,$K$3,C34,D34,$K$3,E34,$K$3,F34,"),",),_xlfn.CONCAT($K$1,$K$2,A34,$K$2,$K$3,$K$2,B34,$K$2,$K$3,C34,D34,$K$3,E34,$K$3,F34,"),"))</f>
-        <v>new Upgrade("Kylo Ren's Helmet",200000,135,1),</v>
-      </c>
-      <c r="H34" s="13">
-        <f>C34/E34</f>
-        <v>1481.4814814814815</v>
-      </c>
-      <c r="I34" s="6">
-        <f>FLOOR(LOG10(H34),1)</f>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9">
-      <c r="B35" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C35">
-        <v>190000</v>
-      </c>
-      <c r="D35" t="str">
-        <f>IF(C35&gt;2147483647,"L","")</f>
-        <v/>
-      </c>
-      <c r="E35">
-        <v>190</v>
-      </c>
-      <c r="F35" s="2">
+      <c r="J36" s="6" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10">
+      <c r="B37" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C37">
+        <v>100000</v>
+      </c>
+      <c r="D37" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="E37">
+        <v>500</v>
+      </c>
+      <c r="F37" s="2">
+        <v>10</v>
+      </c>
+      <c r="G37" t="e">
+        <f>IF(A37="",_xlfn.CONCAT($K$1,#REF!,B37,#REF!,$K$2,C37,D37,$K$2,E37,$K$2,F37,"),",),_xlfn.CONCAT($K$1,#REF!,A37,#REF!,$K$2,#REF!,B37,#REF!,$K$2,C37,D37,$K$2,E37,$K$2,F37,"),"))</f>
+        <v>#REF!</v>
+      </c>
+      <c r="H37" s="12">
+        <f t="shared" si="4"/>
+        <v>200</v>
+      </c>
+      <c r="I37">
+        <f t="shared" si="5"/>
         <v>5</v>
       </c>
-      <c r="G35" t="str">
-        <f>IF(A35="",_xlfn.CONCAT($K$1,$K$2,B35,$K$2,$K$3,C35,D35,$K$3,E35,$K$3,F35,"),",),_xlfn.CONCAT($K$1,$K$2,A35,$K$2,$K$3,$K$2,B35,$K$2,$K$3,C35,D35,$K$3,E35,$K$3,F35,"),"))</f>
-        <v>new Upgrade("Nuclear Bomb",190000,190,5),</v>
-      </c>
-      <c r="H35" s="12">
-        <f>C35/E35</f>
-        <v>1000</v>
-      </c>
-      <c r="I35">
-        <f>FLOOR(LOG10(H35),1)</f>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9">
-      <c r="B36" s="1" t="s">
+    </row>
+    <row r="38" spans="1:10" s="6" customFormat="1">
+      <c r="A38" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="B38" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="C38" s="6">
+        <v>2963500</v>
+      </c>
+      <c r="D38" s="6" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="E38" s="6">
+        <f>6*3296</f>
+        <v>19776</v>
+      </c>
+      <c r="F38" s="9">
         <v>19</v>
       </c>
-      <c r="C36">
-        <v>150000</v>
-      </c>
-      <c r="D36" t="str">
-        <f>IF(C36&gt;2147483647,"L","")</f>
-        <v/>
-      </c>
-      <c r="E36">
-        <v>4</v>
-      </c>
-      <c r="F36" s="2">
-        <v>10</v>
-      </c>
-      <c r="G36" t="str">
-        <f>IF(A36="",_xlfn.CONCAT($K$1,$K$2,B36,$K$2,$K$3,C36,D36,$K$3,E36,$K$3,F36,"),",),_xlfn.CONCAT($K$1,$K$2,A36,$K$2,$K$3,$K$2,B36,$K$2,$K$3,C36,D36,$K$3,E36,$K$3,F36,"),"))</f>
-        <v>new Upgrade("Bowcaster",150000,4,10),</v>
-      </c>
-      <c r="H36" s="12">
-        <f>C36/E36</f>
-        <v>37500</v>
-      </c>
-      <c r="I36">
-        <f>FLOOR(LOG10(H36),1)</f>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9" s="6" customFormat="1">
-      <c r="B37" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="C37" s="6">
-        <v>123459</v>
-      </c>
-      <c r="D37" s="6" t="str">
-        <f>IF(C37&gt;2147483647,"L","")</f>
-        <v/>
-      </c>
-      <c r="E37" s="6">
-        <v>100</v>
-      </c>
-      <c r="F37" s="9">
-        <v>1</v>
-      </c>
-      <c r="G37" s="6" t="str">
-        <f>IF(A37="",_xlfn.CONCAT($K$1,$K$2,B37,$K$2,$K$3,C37,D37,$K$3,E37,$K$3,F37,"),",),_xlfn.CONCAT($K$1,$K$2,A37,$K$2,$K$3,$K$2,B37,$K$2,$K$3,C37,D37,$K$3,E37,$K$3,F37,"),"))</f>
-        <v>new Upgrade("Genesis Device",123459,100,1),</v>
-      </c>
-      <c r="H37" s="13">
-        <f>C37/E37</f>
-        <v>1234.5899999999999</v>
-      </c>
-      <c r="I37" s="6">
-        <f>FLOOR(LOG10(H37),1)</f>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9">
-      <c r="B38" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="C38">
-        <v>120000</v>
-      </c>
-      <c r="D38" t="str">
-        <f>IF(C38&gt;2147483647,"L","")</f>
-        <v/>
-      </c>
-      <c r="E38">
-        <v>1138</v>
-      </c>
-      <c r="F38" s="2">
-        <v>1</v>
-      </c>
-      <c r="G38" t="str">
-        <f>IF(A38="",_xlfn.CONCAT($K$1,$K$2,B38,$K$2,$K$3,C38,D38,$K$3,E38,$K$3,F38,"),",),_xlfn.CONCAT($K$1,$K$2,A38,$K$2,$K$3,$K$2,B38,$K$2,$K$3,C38,D38,$K$3,E38,$K$3,F38,"),"))</f>
-        <v>new Upgrade("A bad feeling about this",120000,1138,1),</v>
-      </c>
-      <c r="H38" s="12">
-        <f>C38/E38</f>
-        <v>105.4481546572935</v>
-      </c>
-      <c r="I38">
-        <f>FLOOR(LOG10(H38),1)</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9" s="6" customFormat="1">
+      <c r="G38" s="6" t="e">
+        <f>IF(A38="",_xlfn.CONCAT($K$1,#REF!,B38,#REF!,$K$2,C38,D38,$K$2,E38,$K$2,F38,"),",),_xlfn.CONCAT($K$1,#REF!,A38,#REF!,$K$2,#REF!,B38,#REF!,$K$2,C38,D38,$K$2,E38,$K$2,F38,"),"))</f>
+        <v>#REF!</v>
+      </c>
+      <c r="H38" s="13">
+        <f t="shared" si="4"/>
+        <v>149.85335760517799</v>
+      </c>
+      <c r="I38" s="6">
+        <f t="shared" si="5"/>
+        <v>6</v>
+      </c>
+      <c r="J38" s="6" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" s="6" customFormat="1">
       <c r="B39" s="7" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="C39" s="6">
-        <v>113800</v>
+        <v>1375947</v>
       </c>
       <c r="D39" s="6" t="str">
-        <f>IF(C39&gt;2147483647,"L","")</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="E39" s="6">
-        <v>100</v>
+        <v>10000</v>
       </c>
       <c r="F39" s="9">
-        <v>2</v>
-      </c>
-      <c r="G39" s="6" t="str">
-        <f>IF(A39="",_xlfn.CONCAT($K$1,$K$2,B39,$K$2,$K$3,C39,D39,$K$3,E39,$K$3,F39,"),",),_xlfn.CONCAT($K$1,$K$2,A39,$K$2,$K$3,$K$2,B39,$K$2,$K$3,C39,D39,$K$3,E39,$K$3,F39,"),"))</f>
-        <v>new Upgrade("Death Star",113800,100,2),</v>
+        <v>1</v>
+      </c>
+      <c r="G39" s="6" t="e">
+        <f>IF(A39="",_xlfn.CONCAT($K$1,#REF!,B39,#REF!,$K$2,C39,D39,$K$2,E39,$K$2,F39,"),",),_xlfn.CONCAT($K$1,#REF!,A39,#REF!,$K$2,#REF!,B39,#REF!,$K$2,C39,D39,$K$2,E39,$K$2,F39,"),"))</f>
+        <v>#REF!</v>
       </c>
       <c r="H39" s="13">
-        <f>C39/E39</f>
-        <v>1138</v>
+        <f t="shared" si="4"/>
+        <v>137.59469999999999</v>
       </c>
       <c r="I39" s="6">
-        <f>FLOOR(LOG10(H39),1)</f>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="40" spans="1:9">
+        <f t="shared" si="5"/>
+        <v>6</v>
+      </c>
+      <c r="J39" s="6" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10">
       <c r="B40" s="1" t="s">
-        <v>6</v>
+        <v>32</v>
       </c>
       <c r="C40">
         <v>100000</v>
       </c>
       <c r="D40" t="str">
-        <f>IF(C40&gt;2147483647,"L","")</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="E40">
-        <v>100</v>
+        <v>500</v>
       </c>
       <c r="F40" s="2">
         <v>10</v>
       </c>
-      <c r="G40" t="str">
-        <f>IF(A40="",_xlfn.CONCAT($K$1,$K$2,B40,$K$2,$K$3,C40,D40,$K$3,E40,$K$3,F40,"),",),_xlfn.CONCAT($K$1,$K$2,A40,$K$2,$K$3,$K$2,B40,$K$2,$K$3,C40,D40,$K$3,E40,$K$3,F40,"),"))</f>
-        <v>new Upgrade("Rocket",100000,100,10),</v>
+      <c r="G40" t="e">
+        <f>IF(A40="",_xlfn.CONCAT($K$1,#REF!,B40,#REF!,$K$2,C40,D40,$K$2,E40,$K$2,F40,"),",),_xlfn.CONCAT($K$1,#REF!,A40,#REF!,$K$2,#REF!,B40,#REF!,$K$2,C40,D40,$K$2,E40,$K$2,F40,"),"))</f>
+        <v>#REF!</v>
       </c>
       <c r="H40" s="12">
-        <f>C40/E40</f>
-        <v>1000</v>
+        <f t="shared" si="4"/>
+        <v>200</v>
       </c>
       <c r="I40">
-        <f>FLOOR(LOG10(H40),1)</f>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="41" spans="1:9" s="6" customFormat="1">
-      <c r="A41" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="B41" s="6" t="s">
-        <v>91</v>
+        <f t="shared" si="5"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" s="6" customFormat="1">
+      <c r="B41" s="7" t="s">
+        <v>87</v>
       </c>
       <c r="C41" s="6">
-        <v>100000</v>
+        <v>1019358</v>
       </c>
       <c r="D41" s="6" t="str">
-        <f>IF(C41&gt;2147483647,"L","")</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="E41" s="6">
-        <v>100</v>
+        <v>5342</v>
       </c>
       <c r="F41" s="9">
-        <v>19</v>
-      </c>
-      <c r="G41" s="6" t="str">
-        <f>IF(A41="",_xlfn.CONCAT($K$1,$K$2,B41,$K$2,$K$3,C41,D41,$K$3,E41,$K$3,F41,"),",),_xlfn.CONCAT($K$1,$K$2,A41,$K$2,$K$3,$K$2,B41,$K$2,$K$3,C41,D41,$K$3,E41,$K$3,F41,"),"))</f>
-        <v>new Upgrade(":ring:","Ring of Power",100000,100,19),</v>
+        <v>1</v>
+      </c>
+      <c r="G41" s="6" t="e">
+        <f>IF(A41="",_xlfn.CONCAT($K$1,#REF!,B41,#REF!,$K$2,C41,D41,$K$2,E41,$K$2,F41,"),",),_xlfn.CONCAT($K$1,#REF!,A41,#REF!,$K$2,#REF!,B41,#REF!,$K$2,C41,D41,$K$2,E41,$K$2,F41,"),"))</f>
+        <v>#REF!</v>
       </c>
       <c r="H41" s="13">
-        <f>C41/E41</f>
-        <v>1000</v>
+        <f t="shared" si="4"/>
+        <v>190.81954324223136</v>
       </c>
       <c r="I41" s="6">
-        <f>FLOOR(LOG10(H41),1)</f>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="42" spans="1:9" s="6" customFormat="1">
-      <c r="B42" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="C42" s="6">
-        <v>100000</v>
-      </c>
-      <c r="D42" s="6" t="str">
-        <f>IF(C42&gt;2147483647,"L","")</f>
-        <v/>
-      </c>
-      <c r="E42" s="6">
-        <v>1000</v>
-      </c>
-      <c r="F42" s="9">
-        <v>1</v>
-      </c>
-      <c r="G42" s="6" t="str">
-        <f>IF(A42="",_xlfn.CONCAT($K$1,$K$2,B42,$K$2,$K$3,C42,D42,$K$3,E42,$K$3,F42,"),",),_xlfn.CONCAT($K$1,$K$2,A42,$K$2,$K$3,$K$2,B42,$K$2,$K$3,C42,D42,$K$3,E42,$K$3,F42,"),"))</f>
-        <v>new Upgrade("Stormbreaker",100000,1000,1),</v>
-      </c>
-      <c r="H42" s="13">
-        <f>C42/E42</f>
-        <v>100</v>
-      </c>
-      <c r="I42" s="6">
-        <f>FLOOR(LOG10(H42),1)</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="43" spans="1:9">
+        <f t="shared" si="5"/>
+        <v>6</v>
+      </c>
+      <c r="J41" s="6" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10">
+      <c r="B42" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C42">
+        <v>530000</v>
+      </c>
+      <c r="D42" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="E42">
+        <v>2140</v>
+      </c>
+      <c r="F42" s="2">
+        <v>10</v>
+      </c>
+      <c r="G42" t="e">
+        <f>IF(A42="",_xlfn.CONCAT($K$1,#REF!,B42,#REF!,$K$2,C42,D42,$K$2,E42,$K$2,F42,"),",),_xlfn.CONCAT($K$1,#REF!,A42,#REF!,$K$2,#REF!,B42,#REF!,$K$2,C42,D42,$K$2,E42,$K$2,F42,"),"))</f>
+        <v>#REF!</v>
+      </c>
+      <c r="H42" s="12">
+        <f t="shared" si="4"/>
+        <v>247.66355140186917</v>
+      </c>
+      <c r="I42">
+        <f t="shared" si="5"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10">
       <c r="B43" s="1" t="s">
-        <v>32</v>
+        <v>45</v>
       </c>
       <c r="C43">
-        <v>100000</v>
+        <v>300000</v>
       </c>
       <c r="D43" t="str">
-        <f>IF(C43&gt;2147483647,"L","")</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="E43">
-        <v>100</v>
+        <v>1215</v>
       </c>
       <c r="F43" s="2">
+        <v>1</v>
+      </c>
+      <c r="G43" t="e">
+        <f>IF(A43="",_xlfn.CONCAT($K$1,#REF!,B43,#REF!,$K$2,C43,D43,$K$2,E43,$K$2,F43,"),",),_xlfn.CONCAT($K$1,#REF!,A43,#REF!,$K$2,#REF!,B43,#REF!,$K$2,C43,D43,$K$2,E43,$K$2,F43,"),"))</f>
+        <v>#REF!</v>
+      </c>
+      <c r="H43" s="12">
+        <f t="shared" si="4"/>
+        <v>246.91358024691357</v>
+      </c>
+      <c r="I43">
+        <f t="shared" si="5"/>
+        <v>5</v>
+      </c>
+      <c r="J43" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10">
+      <c r="B44" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C44">
+        <v>13630</v>
+      </c>
+      <c r="D44" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="E44">
+        <v>70</v>
+      </c>
+      <c r="F44" s="2">
         <v>10</v>
       </c>
-      <c r="G43" t="str">
-        <f>IF(A43="",_xlfn.CONCAT($K$1,$K$2,B43,$K$2,$K$3,C43,D43,$K$3,E43,$K$3,F43,"),",),_xlfn.CONCAT($K$1,$K$2,A43,$K$2,$K$3,$K$2,B43,$K$2,$K$3,C43,D43,$K$3,E43,$K$3,F43,"),"))</f>
-        <v>new Upgrade("Medpack",100000,100,10),</v>
-      </c>
-      <c r="H43" s="12">
-        <f>C43/E43</f>
-        <v>1000</v>
-      </c>
-      <c r="I43">
-        <f>FLOOR(LOG10(H43),1)</f>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="44" spans="1:9" s="6" customFormat="1">
-      <c r="B44" s="7" t="s">
-        <v>87</v>
-      </c>
-      <c r="C44" s="6">
-        <v>100000</v>
-      </c>
-      <c r="D44" s="6" t="str">
-        <f>IF(C44&gt;2147483647,"L","")</f>
-        <v/>
-      </c>
-      <c r="E44" s="6">
-        <v>100</v>
-      </c>
-      <c r="F44" s="9">
-        <v>1</v>
-      </c>
-      <c r="G44" s="6" t="str">
-        <f>IF(A44="",_xlfn.CONCAT($K$1,$K$2,B44,$K$2,$K$3,C44,D44,$K$3,E44,$K$3,F44,"),",),_xlfn.CONCAT($K$1,$K$2,A44,$K$2,$K$3,$K$2,B44,$K$2,$K$3,C44,D44,$K$3,E44,$K$3,F44,"),"))</f>
-        <v>new Upgrade("Mario's Hat",100000,100,1),</v>
-      </c>
-      <c r="H44" s="13">
-        <f>C44/E44</f>
-        <v>1000</v>
-      </c>
-      <c r="I44" s="6">
-        <f>FLOOR(LOG10(H44),1)</f>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="45" spans="1:9">
+      <c r="G44" t="e">
+        <f>IF(A44="",_xlfn.CONCAT($K$1,#REF!,B44,#REF!,$K$2,C44,D44,$K$2,E44,$K$2,F44,"),",),_xlfn.CONCAT($K$1,#REF!,A44,#REF!,$K$2,#REF!,B44,#REF!,$K$2,C44,D44,$K$2,E44,$K$2,F44,"),"))</f>
+        <v>#REF!</v>
+      </c>
+      <c r="H44" s="12">
+        <f t="shared" si="4"/>
+        <v>194.71428571428572</v>
+      </c>
+      <c r="I44">
+        <f t="shared" si="5"/>
+        <v>4</v>
+      </c>
+      <c r="J44" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10">
       <c r="B45" s="1" t="s">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="C45">
-        <v>100000</v>
+        <v>22414</v>
       </c>
       <c r="D45" t="str">
-        <f>IF(C45&gt;2147483647,"L","")</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="E45">
-        <v>28</v>
+        <v>84</v>
       </c>
       <c r="F45" s="2">
         <v>10</v>
       </c>
-      <c r="G45" t="str">
-        <f>IF(A45="",_xlfn.CONCAT($K$1,$K$2,B45,$K$2,$K$3,C45,D45,$K$3,E45,$K$3,F45,"),",),_xlfn.CONCAT($K$1,$K$2,A45,$K$2,$K$3,$K$2,B45,$K$2,$K$3,C45,D45,$K$3,E45,$K$3,F45,"),"))</f>
-        <v>new Upgrade("Blender (the program)",100000,28,10),</v>
+      <c r="G45" t="e">
+        <f>IF(A45="",_xlfn.CONCAT($K$1,#REF!,B45,#REF!,$K$2,C45,D45,$K$2,E45,$K$2,F45,"),",),_xlfn.CONCAT($K$1,#REF!,A45,#REF!,$K$2,#REF!,B45,#REF!,$K$2,C45,D45,$K$2,E45,$K$2,F45,"),"))</f>
+        <v>#REF!</v>
       </c>
       <c r="H45" s="12">
-        <f>C45/E45</f>
-        <v>3571.4285714285716</v>
+        <f t="shared" si="4"/>
+        <v>266.83333333333331</v>
       </c>
       <c r="I45">
-        <f>FLOOR(LOG10(H45),1)</f>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="46" spans="1:9">
+        <f t="shared" si="5"/>
+        <v>4</v>
+      </c>
+      <c r="J45" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10">
       <c r="B46" s="1" t="s">
-        <v>45</v>
+        <v>65</v>
       </c>
       <c r="C46">
-        <v>100000</v>
+        <v>39999</v>
       </c>
       <c r="D46" t="str">
-        <f>IF(C46&gt;2147483647,"L","")</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="E46">
-        <v>1</v>
+        <v>199</v>
       </c>
       <c r="F46" s="2">
-        <v>1</v>
-      </c>
-      <c r="G46" t="str">
-        <f>IF(A46="",_xlfn.CONCAT($K$1,$K$2,B46,$K$2,$K$3,C46,D46,$K$3,E46,$K$3,F46,"),",),_xlfn.CONCAT($K$1,$K$2,A46,$K$2,$K$3,$K$2,B46,$K$2,$K$3,C46,D46,$K$3,E46,$K$3,F46,"),"))</f>
-        <v>new Upgrade("iPhone XR",100000,1,1),</v>
+        <v>10</v>
+      </c>
+      <c r="G46" t="e">
+        <f>IF(A46="",_xlfn.CONCAT($K$1,#REF!,B46,#REF!,$K$2,C46,D46,$K$2,E46,$K$2,F46,"),",),_xlfn.CONCAT($K$1,#REF!,A46,#REF!,$K$2,#REF!,B46,#REF!,$K$2,C46,D46,$K$2,E46,$K$2,F46,"),"))</f>
+        <v>#REF!</v>
       </c>
       <c r="H46" s="12">
-        <f>C46/E46</f>
-        <v>100000</v>
+        <f t="shared" si="4"/>
+        <v>201</v>
       </c>
       <c r="I46">
-        <f>FLOOR(LOG10(H46),1)</f>
+        <f t="shared" si="5"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10">
+      <c r="B47" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C47">
+        <v>20000</v>
+      </c>
+      <c r="D47" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="E47">
+        <v>97</v>
+      </c>
+      <c r="F47" s="2">
+        <v>6</v>
+      </c>
+      <c r="G47" t="e">
+        <f>IF(A47="",_xlfn.CONCAT($K$1,#REF!,B47,#REF!,$K$2,C47,D47,$K$2,E47,$K$2,F47,"),",),_xlfn.CONCAT($K$1,#REF!,A47,#REF!,$K$2,#REF!,B47,#REF!,$K$2,C47,D47,$K$2,E47,$K$2,F47,"),"))</f>
+        <v>#REF!</v>
+      </c>
+      <c r="H47" s="12">
+        <f t="shared" si="4"/>
+        <v>206.18556701030928</v>
+      </c>
+      <c r="I47">
+        <f t="shared" si="5"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10">
+      <c r="B48" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="47" spans="1:9">
-      <c r="B47" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="C47">
-        <v>100000</v>
-      </c>
-      <c r="D47" t="str">
-        <f>IF(C47&gt;2147483647,"L","")</f>
-        <v/>
-      </c>
-      <c r="E47">
-        <v>5</v>
-      </c>
-      <c r="F47" s="2">
-        <v>10</v>
-      </c>
-      <c r="G47" t="str">
-        <f>IF(A47="",_xlfn.CONCAT($K$1,$K$2,B47,$K$2,$K$3,C47,D47,$K$3,E47,$K$3,F47,"),",),_xlfn.CONCAT($K$1,$K$2,A47,$K$2,$K$3,$K$2,B47,$K$2,$K$3,C47,D47,$K$3,E47,$K$3,F47,"),"))</f>
-        <v>new Upgrade("Stormtrooper Helmet",100000,5,10),</v>
-      </c>
-      <c r="H47" s="12">
-        <f>C47/E47</f>
-        <v>20000</v>
-      </c>
-      <c r="I47">
-        <f>FLOOR(LOG10(H47),1)</f>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="48" spans="1:9">
-      <c r="B48" s="1" t="s">
-        <v>33</v>
-      </c>
       <c r="C48">
-        <v>50000</v>
+        <v>14645</v>
       </c>
       <c r="D48" t="str">
-        <f>IF(C48&gt;2147483647,"L","")</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="E48">
-        <v>1</v>
+        <f>14*5</f>
+        <v>70</v>
       </c>
       <c r="F48" s="2">
         <v>10</v>
       </c>
-      <c r="G48" t="str">
-        <f>IF(A48="",_xlfn.CONCAT($K$1,$K$2,B48,$K$2,$K$3,C48,D48,$K$3,E48,$K$3,F48,"),",),_xlfn.CONCAT($K$1,$K$2,A48,$K$2,$K$3,$K$2,B48,$K$2,$K$3,C48,D48,$K$3,E48,$K$3,F48,"),"))</f>
-        <v>new Upgrade("Sandwitch",50000,1,10),</v>
+      <c r="G48" t="e">
+        <f>IF(A48="",_xlfn.CONCAT($K$1,#REF!,B48,#REF!,$K$2,C48,D48,$K$2,E48,$K$2,F48,"),",),_xlfn.CONCAT($K$1,#REF!,A48,#REF!,$K$2,#REF!,B48,#REF!,$K$2,C48,D48,$K$2,E48,$K$2,F48,"),"))</f>
+        <v>#REF!</v>
       </c>
       <c r="H48" s="12">
-        <f>C48/E48</f>
-        <v>50000</v>
+        <f t="shared" si="4"/>
+        <v>209.21428571428572</v>
       </c>
       <c r="I48">
-        <f>FLOOR(LOG10(H48),1)</f>
+        <f t="shared" si="5"/>
         <v>4</v>
       </c>
-    </row>
-    <row r="49" spans="1:9">
+      <c r="J48" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10">
       <c r="B49" s="1" t="s">
-        <v>65</v>
+        <v>14</v>
       </c>
       <c r="C49">
-        <v>39999</v>
+        <v>10000</v>
       </c>
       <c r="D49" t="str">
-        <f>IF(C49&gt;2147483647,"L","")</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="E49">
+        <v>51</v>
+      </c>
+      <c r="F49" s="2">
+        <v>100</v>
+      </c>
+      <c r="G49" t="e">
+        <f>IF(A49="",_xlfn.CONCAT($K$1,#REF!,B49,#REF!,$K$2,C49,D49,$K$2,E49,$K$2,F49,"),",),_xlfn.CONCAT($K$1,#REF!,A49,#REF!,$K$2,#REF!,B49,#REF!,$K$2,C49,D49,$K$2,E49,$K$2,F49,"),"))</f>
+        <v>#REF!</v>
+      </c>
+      <c r="H49" s="12">
+        <f t="shared" si="4"/>
+        <v>196.07843137254903</v>
+      </c>
+      <c r="I49">
+        <f t="shared" si="5"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10">
+      <c r="B50" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C50">
+        <v>10000</v>
+      </c>
+      <c r="D50" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="E50">
+        <v>49</v>
+      </c>
+      <c r="F50" s="2">
         <v>10</v>
       </c>
-      <c r="F49" s="2">
-        <v>10</v>
-      </c>
-      <c r="G49" t="str">
-        <f>IF(A49="",_xlfn.CONCAT($K$1,$K$2,B49,$K$2,$K$3,C49,D49,$K$3,E49,$K$3,F49,"),",),_xlfn.CONCAT($K$1,$K$2,A49,$K$2,$K$3,$K$2,B49,$K$2,$K$3,C49,D49,$K$3,E49,$K$3,F49,"),"))</f>
-        <v>new Upgrade("Oculus",39999,10,10),</v>
-      </c>
-      <c r="H49" s="12">
-        <f>C49/E49</f>
-        <v>3999.9</v>
-      </c>
-      <c r="I49">
-        <f>FLOOR(LOG10(H49),1)</f>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="50" spans="1:9">
-      <c r="B50" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="C50">
-        <v>20000</v>
-      </c>
-      <c r="D50" t="str">
-        <f>IF(C50&gt;2147483647,"L","")</f>
-        <v/>
-      </c>
-      <c r="E50">
-        <v>20</v>
-      </c>
-      <c r="F50" s="2">
-        <v>6</v>
-      </c>
-      <c r="G50" t="str">
-        <f>IF(A50="",_xlfn.CONCAT($K$1,$K$2,B50,$K$2,$K$3,C50,D50,$K$3,E50,$K$3,F50,"),",),_xlfn.CONCAT($K$1,$K$2,A50,$K$2,$K$3,$K$2,B50,$K$2,$K$3,C50,D50,$K$3,E50,$K$3,F50,"),"))</f>
-        <v>new Upgrade("Shards of Narsil",20000,20,6),</v>
+      <c r="G50" t="e">
+        <f>IF(A50="",_xlfn.CONCAT($K$1,#REF!,B50,#REF!,$K$2,C50,D50,$K$2,E50,$K$2,F50,"),",),_xlfn.CONCAT($K$1,#REF!,A50,#REF!,$K$2,#REF!,B50,#REF!,$K$2,C50,D50,$K$2,E50,$K$2,F50,"),"))</f>
+        <v>#REF!</v>
       </c>
       <c r="H50" s="12">
-        <f>C50/E50</f>
-        <v>1000</v>
+        <f t="shared" si="4"/>
+        <v>204.08163265306123</v>
       </c>
       <c r="I50">
-        <f>FLOOR(LOG10(H50),1)</f>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="51" spans="1:9">
+        <f t="shared" si="5"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10">
       <c r="B51" s="1" t="s">
-        <v>5</v>
+        <v>39</v>
       </c>
       <c r="C51">
-        <v>10000</v>
+        <v>667186</v>
       </c>
       <c r="D51" t="str">
-        <f>IF(C51&gt;2147483647,"L","")</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="E51">
-        <v>14</v>
+        <v>2839</v>
       </c>
       <c r="F51" s="2">
         <v>10</v>
       </c>
-      <c r="G51" t="str">
-        <f>IF(A51="",_xlfn.CONCAT($K$1,$K$2,B51,$K$2,$K$3,C51,D51,$K$3,E51,$K$3,F51,"),",),_xlfn.CONCAT($K$1,$K$2,A51,$K$2,$K$3,$K$2,B51,$K$2,$K$3,C51,D51,$K$3,E51,$K$3,F51,"),"))</f>
-        <v>new Upgrade("Batarang",10000,14,10),</v>
+      <c r="G51" t="e">
+        <f>IF(A51="",_xlfn.CONCAT($K$1,#REF!,B51,#REF!,$K$2,C51,D51,$K$2,E51,$K$2,F51,"),",),_xlfn.CONCAT($K$1,#REF!,A51,#REF!,$K$2,#REF!,B51,#REF!,$K$2,C51,D51,$K$2,E51,$K$2,F51,"),"))</f>
+        <v>#REF!</v>
       </c>
       <c r="H51" s="12">
-        <f>C51/E51</f>
-        <v>714.28571428571433</v>
+        <f t="shared" si="4"/>
+        <v>235.00739697076435</v>
       </c>
       <c r="I51">
-        <f>FLOOR(LOG10(H51),1)</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="52" spans="1:9">
+        <f t="shared" si="5"/>
+        <v>5</v>
+      </c>
+      <c r="J51" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10">
       <c r="B52" s="1" t="s">
-        <v>14</v>
+        <v>43</v>
       </c>
       <c r="C52">
         <v>10000</v>
       </c>
       <c r="D52" t="str">
-        <f>IF(C52&gt;2147483647,"L","")</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="E52">
+        <v>43</v>
+      </c>
+      <c r="F52" s="2">
+        <v>7</v>
+      </c>
+      <c r="G52" t="e">
+        <f>IF(A52="",_xlfn.CONCAT($K$1,#REF!,B52,#REF!,$K$2,C52,D52,$K$2,E52,$K$2,F52,"),",),_xlfn.CONCAT($K$1,#REF!,A52,#REF!,$K$2,#REF!,B52,#REF!,$K$2,C52,D52,$K$2,E52,$K$2,F52,"),"))</f>
+        <v>#REF!</v>
+      </c>
+      <c r="H52" s="12">
+        <f t="shared" si="4"/>
+        <v>232.55813953488371</v>
+      </c>
+      <c r="I52">
+        <f t="shared" si="5"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10">
+      <c r="B53" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C53">
+        <v>998520</v>
+      </c>
+      <c r="D53" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="E53">
+        <f>5*990</f>
+        <v>4950</v>
+      </c>
+      <c r="F53" s="2">
+        <v>1</v>
+      </c>
+      <c r="G53" t="e">
+        <f>IF(A53="",_xlfn.CONCAT($K$1,#REF!,B53,#REF!,$K$2,C53,D53,$K$2,E53,$K$2,F53,"),",),_xlfn.CONCAT($K$1,#REF!,A53,#REF!,$K$2,#REF!,B53,#REF!,$K$2,C53,D53,$K$2,E53,$K$2,F53,"),"))</f>
+        <v>#REF!</v>
+      </c>
+      <c r="H53" s="12">
+        <f t="shared" si="4"/>
+        <v>201.72121212121212</v>
+      </c>
+      <c r="I53">
+        <f t="shared" si="5"/>
+        <v>5</v>
+      </c>
+      <c r="J53" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10">
+      <c r="B54" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C54">
+        <v>5000</v>
+      </c>
+      <c r="D54" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="E54">
+        <v>25</v>
+      </c>
+      <c r="F54" s="2">
+        <v>200</v>
+      </c>
+      <c r="G54" t="e">
+        <f>IF(A54="",_xlfn.CONCAT($K$1,#REF!,B54,#REF!,$K$2,C54,D54,$K$2,E54,$K$2,F54,"),",),_xlfn.CONCAT($K$1,#REF!,A54,#REF!,$K$2,#REF!,B54,#REF!,$K$2,C54,D54,$K$2,E54,$K$2,F54,"),"))</f>
+        <v>#REF!</v>
+      </c>
+      <c r="H54" s="12">
+        <f t="shared" si="4"/>
+        <v>200</v>
+      </c>
+      <c r="I54">
+        <f t="shared" si="5"/>
         <v>3</v>
       </c>
-      <c r="F52" s="2">
+    </row>
+    <row r="55" spans="1:10">
+      <c r="B55" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C55">
+        <v>1996</v>
+      </c>
+      <c r="D55" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="E55">
+        <v>10</v>
+      </c>
+      <c r="F55" s="2">
+        <v>4</v>
+      </c>
+      <c r="G55" t="e">
+        <f>IF(A55="",_xlfn.CONCAT($K$1,#REF!,B55,#REF!,$K$2,C55,D55,$K$2,E55,$K$2,F55,"),",),_xlfn.CONCAT($K$1,#REF!,A55,#REF!,$K$2,#REF!,B55,#REF!,$K$2,C55,D55,$K$2,E55,$K$2,F55,"),"))</f>
+        <v>#REF!</v>
+      </c>
+      <c r="H55" s="12">
+        <f t="shared" si="4"/>
+        <v>199.6</v>
+      </c>
+      <c r="I55">
+        <f t="shared" si="5"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10" s="6" customFormat="1">
+      <c r="B56" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="C56" s="6">
+        <v>957440</v>
+      </c>
+      <c r="D56" s="6" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="E56" s="6">
+        <v>4329</v>
+      </c>
+      <c r="F56" s="9">
+        <v>1</v>
+      </c>
+      <c r="G56" s="6" t="e">
+        <f>IF(A56="",_xlfn.CONCAT($K$1,#REF!,B56,#REF!,$K$2,C56,D56,$K$2,E56,$K$2,F56,"),",),_xlfn.CONCAT($K$1,#REF!,A56,#REF!,$K$2,#REF!,B56,#REF!,$K$2,C56,D56,$K$2,E56,$K$2,F56,"),"))</f>
+        <v>#REF!</v>
+      </c>
+      <c r="H56" s="13">
+        <f t="shared" si="4"/>
+        <v>221.16886116886116</v>
+      </c>
+      <c r="I56" s="6">
+        <f t="shared" si="5"/>
+        <v>5</v>
+      </c>
+      <c r="J56" s="6" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10">
+      <c r="B57" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C57">
+        <v>1000</v>
+      </c>
+      <c r="D57" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="E57">
+        <v>5</v>
+      </c>
+      <c r="F57" s="2">
         <v>100</v>
       </c>
-      <c r="G52" t="str">
-        <f>IF(A52="",_xlfn.CONCAT($K$1,$K$2,B52,$K$2,$K$3,C52,D52,$K$3,E52,$K$3,F52,"),",),_xlfn.CONCAT($K$1,$K$2,A52,$K$2,$K$3,$K$2,B52,$K$2,$K$3,C52,D52,$K$3,E52,$K$3,F52,"),"))</f>
-        <v>new Upgrade("Sword",10000,3,100),</v>
-      </c>
-      <c r="H52" s="12">
-        <f>C52/E52</f>
-        <v>3333.3333333333335</v>
-      </c>
-      <c r="I52">
-        <f>FLOOR(LOG10(H52),1)</f>
+      <c r="G57" t="e">
+        <f>IF(A57="",_xlfn.CONCAT($K$1,#REF!,B57,#REF!,$K$2,C57,D57,$K$2,E57,$K$2,F57,"),",),_xlfn.CONCAT($K$1,#REF!,A57,#REF!,$K$2,#REF!,B57,#REF!,$K$2,C57,D57,$K$2,E57,$K$2,F57,"),"))</f>
+        <v>#REF!</v>
+      </c>
+      <c r="H57" s="12">
+        <f t="shared" si="4"/>
+        <v>200</v>
+      </c>
+      <c r="I57">
+        <f t="shared" si="5"/>
         <v>3</v>
       </c>
     </row>
-    <row r="53" spans="1:9">
-      <c r="B53" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="C53">
-        <v>10000</v>
-      </c>
-      <c r="D53" t="str">
-        <f>IF(C53&gt;2147483647,"L","")</f>
-        <v/>
-      </c>
-      <c r="E53">
-        <v>1</v>
-      </c>
-      <c r="F53" s="2">
+    <row r="58" spans="1:10">
+      <c r="B58" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C58">
+        <v>451</v>
+      </c>
+      <c r="D58" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="E58">
+        <v>2</v>
+      </c>
+      <c r="F58" s="2">
         <v>10</v>
       </c>
-      <c r="G53" t="str">
-        <f>IF(A53="",_xlfn.CONCAT($K$1,$K$2,B53,$K$2,$K$3,C53,D53,$K$3,E53,$K$3,F53,"),",),_xlfn.CONCAT($K$1,$K$2,A53,$K$2,$K$3,$K$2,B53,$K$2,$K$3,C53,D53,$K$3,E53,$K$3,F53,"),"))</f>
-        <v>new Upgrade("Water Bottle",10000,1,10),</v>
-      </c>
-      <c r="H53" s="12">
-        <f>C53/E53</f>
-        <v>10000</v>
-      </c>
-      <c r="I53">
-        <f>FLOOR(LOG10(H53),1)</f>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="54" spans="1:9">
-      <c r="B54" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="C54">
-        <v>10000</v>
-      </c>
-      <c r="D54" t="str">
-        <f>IF(C54&gt;2147483647,"L","")</f>
-        <v/>
-      </c>
-      <c r="E54">
-        <v>13</v>
-      </c>
-      <c r="F54" s="2">
-        <v>10</v>
-      </c>
-      <c r="G54" t="str">
-        <f>IF(A54="",_xlfn.CONCAT($K$1,$K$2,B54,$K$2,$K$3,C54,D54,$K$3,E54,$K$3,F54,"),",),_xlfn.CONCAT($K$1,$K$2,A54,$K$2,$K$3,$K$2,B54,$K$2,$K$3,C54,D54,$K$3,E54,$K$3,F54,"),"))</f>
-        <v>new Upgrade("Easy Button",10000,13,10),</v>
-      </c>
-      <c r="H54" s="12">
-        <f>C54/E54</f>
-        <v>769.23076923076928</v>
-      </c>
-      <c r="I54">
-        <f>FLOOR(LOG10(H54),1)</f>
+      <c r="G58" t="e">
+        <f>IF(A58="",_xlfn.CONCAT($K$1,#REF!,B58,#REF!,$K$2,C58,D58,$K$2,E58,$K$2,F58,"),",),_xlfn.CONCAT($K$1,#REF!,A58,#REF!,$K$2,#REF!,B58,#REF!,$K$2,C58,D58,$K$2,E58,$K$2,F58,"),"))</f>
+        <v>#REF!</v>
+      </c>
+      <c r="H58" s="12">
+        <f t="shared" si="4"/>
+        <v>225.5</v>
+      </c>
+      <c r="I58">
+        <f t="shared" si="5"/>
         <v>2</v>
       </c>
     </row>
-    <row r="55" spans="1:9">
-      <c r="B55" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="C55">
-        <v>10000</v>
-      </c>
-      <c r="D55" t="str">
-        <f>IF(C55&gt;2147483647,"L","")</f>
-        <v/>
-      </c>
-      <c r="E55">
+    <row r="59" spans="1:10">
+      <c r="A59" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B59" t="s">
+        <v>92</v>
+      </c>
+      <c r="C59">
+        <v>100</v>
+      </c>
+      <c r="D59" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="E59">
+        <v>3</v>
+      </c>
+      <c r="F59" s="2">
+        <v>1</v>
+      </c>
+      <c r="G59" t="e">
+        <f>IF(A59="",_xlfn.CONCAT($K$1,#REF!,B59,#REF!,$K$2,C59,D59,$K$2,E59,$K$2,F59,"),",),_xlfn.CONCAT($K$1,#REF!,A59,#REF!,$K$2,#REF!,B59,#REF!,$K$2,C59,D59,$K$2,E59,$K$2,F59,"),"))</f>
+        <v>#REF!</v>
+      </c>
+      <c r="H59" s="12">
+        <f t="shared" si="4"/>
+        <v>33.333333333333336</v>
+      </c>
+      <c r="I59">
+        <f t="shared" si="5"/>
         <v>2</v>
       </c>
-      <c r="F55" s="2">
-        <v>7</v>
-      </c>
-      <c r="G55" t="str">
-        <f>IF(A55="",_xlfn.CONCAT($K$1,$K$2,B55,$K$2,$K$3,C55,D55,$K$3,E55,$K$3,F55,"),",),_xlfn.CONCAT($K$1,$K$2,A55,$K$2,$K$3,$K$2,B55,$K$2,$K$3,C55,D55,$K$3,E55,$K$3,F55,"),"))</f>
-        <v>new Upgrade("Blender (for food)",10000,2,7),</v>
-      </c>
-      <c r="H55" s="12">
-        <f>C55/E55</f>
-        <v>5000</v>
-      </c>
-      <c r="I55">
-        <f>FLOOR(LOG10(H55),1)</f>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="56" spans="1:9">
-      <c r="B56" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="C56">
-        <v>10000</v>
-      </c>
-      <c r="D56" t="str">
-        <f>IF(C56&gt;2147483647,"L","")</f>
-        <v/>
-      </c>
-      <c r="E56">
-        <v>10</v>
-      </c>
-      <c r="F56" s="2">
-        <v>12</v>
-      </c>
-      <c r="G56" t="str">
-        <f>IF(A56="",_xlfn.CONCAT($K$1,$K$2,B56,$K$2,$K$3,C56,D56,$K$3,E56,$K$3,F56,"),",),_xlfn.CONCAT($K$1,$K$2,A56,$K$2,$K$3,$K$2,B56,$K$2,$K$3,C56,D56,$K$3,E56,$K$3,F56,"),"))</f>
-        <v>new Upgrade("Huia Bird Feather",10000,10,12),</v>
-      </c>
-      <c r="H56" s="12">
-        <f>C56/E56</f>
-        <v>1000</v>
-      </c>
-      <c r="I56">
-        <f>FLOOR(LOG10(H56),1)</f>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="57" spans="1:9">
-      <c r="B57" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="C57">
-        <v>10000</v>
-      </c>
-      <c r="D57" t="str">
-        <f>IF(C57&gt;2147483647,"L","")</f>
-        <v/>
-      </c>
-      <c r="E57">
-        <v>69</v>
-      </c>
-      <c r="F57" s="2">
-        <v>1</v>
-      </c>
-      <c r="G57" t="str">
-        <f>IF(A57="",_xlfn.CONCAT($K$1,$K$2,B57,$K$2,$K$3,C57,D57,$K$3,E57,$K$3,F57,"),",),_xlfn.CONCAT($K$1,$K$2,A57,$K$2,$K$3,$K$2,B57,$K$2,$K$3,C57,D57,$K$3,E57,$K$3,F57,"),"))</f>
-        <v>new Upgrade("The Piece of Resistance",10000,69,1),</v>
-      </c>
-      <c r="H57" s="12">
-        <f>C57/E57</f>
-        <v>144.92753623188406</v>
-      </c>
-      <c r="I57">
-        <f>FLOOR(LOG10(H57),1)</f>
+    </row>
+    <row r="60" spans="1:10">
+      <c r="B60" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C60">
+        <v>200</v>
+      </c>
+      <c r="D60" t="str">
+        <f t="shared" ref="D60:D63" si="6">IF(C60&gt;2147483647,"L","")</f>
+        <v/>
+      </c>
+      <c r="E60">
+        <v>1</v>
+      </c>
+      <c r="F60" s="2">
+        <v>100</v>
+      </c>
+      <c r="G60" t="e">
+        <f>IF(A60="",_xlfn.CONCAT($K$1,#REF!,B60,#REF!,$K$2,C60,D60,$K$2,E60,$K$2,F60,"),",),_xlfn.CONCAT($K$1,#REF!,A60,#REF!,$K$2,#REF!,B60,#REF!,$K$2,C60,D60,$K$2,E60,$K$2,F60,"),"))</f>
+        <v>#REF!</v>
+      </c>
+      <c r="H60" s="12">
+        <f t="shared" si="4"/>
+        <v>200</v>
+      </c>
+      <c r="I60">
+        <f t="shared" si="5"/>
         <v>2</v>
       </c>
     </row>
-    <row r="58" spans="1:9">
-      <c r="B58" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="C58">
-        <v>5000</v>
-      </c>
-      <c r="D58" t="str">
-        <f>IF(C58&gt;2147483647,"L","")</f>
-        <v/>
-      </c>
-      <c r="E58">
-        <v>1</v>
-      </c>
-      <c r="F58" s="2">
-        <v>200</v>
-      </c>
-      <c r="G58" t="str">
-        <f>IF(A58="",_xlfn.CONCAT($K$1,$K$2,B58,$K$2,$K$3,C58,D58,$K$3,E58,$K$3,F58,"),",),_xlfn.CONCAT($K$1,$K$2,A58,$K$2,$K$3,$K$2,B58,$K$2,$K$3,C58,D58,$K$3,E58,$K$3,F58,"),"))</f>
-        <v>new Upgrade("Shield",5000,1,200),</v>
-      </c>
-      <c r="H58" s="12">
-        <f>C58/E58</f>
-        <v>5000</v>
-      </c>
-      <c r="I58">
-        <f>FLOOR(LOG10(H58),1)</f>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="59" spans="1:9">
-      <c r="A59" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="B59" t="s">
-        <v>93</v>
-      </c>
-      <c r="C59">
-        <v>3500</v>
-      </c>
-      <c r="D59" t="str">
-        <f>IF(C59&gt;2147483647,"L","")</f>
-        <v/>
-      </c>
-      <c r="E59">
-        <v>25</v>
-      </c>
-      <c r="F59" s="2">
-        <v>1</v>
-      </c>
-      <c r="G59" t="str">
-        <f>IF(A59="",_xlfn.CONCAT($K$1,$K$2,B59,$K$2,$K$3,C59,D59,$K$3,E59,$K$3,F59,"),",),_xlfn.CONCAT($K$1,$K$2,A59,$K$2,$K$3,$K$2,B59,$K$2,$K$3,C59,D59,$K$3,E59,$K$3,F59,"),"))</f>
-        <v>new Upgrade(":basketball:","Evan Perlmutter's Fanhood",3500,25,1),</v>
-      </c>
-      <c r="H59" s="12">
-        <f>C59/E59</f>
-        <v>140</v>
-      </c>
-      <c r="I59">
-        <f>FLOOR(LOG10(H59),1)</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="60" spans="1:9">
-      <c r="B60" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C60">
-        <v>1996</v>
-      </c>
-      <c r="D60" t="str">
-        <f>IF(C60&gt;2147483647,"L","")</f>
-        <v/>
-      </c>
-      <c r="E60">
-        <v>10</v>
-      </c>
-      <c r="F60" s="2">
-        <v>4</v>
-      </c>
-      <c r="G60" t="str">
-        <f>IF(A60="",_xlfn.CONCAT($K$1,$K$2,B60,$K$2,$K$3,C60,D60,$K$3,E60,$K$3,F60,"),",),_xlfn.CONCAT($K$1,$K$2,A60,$K$2,$K$3,$K$2,B60,$K$2,$K$3,C60,D60,$K$3,E60,$K$3,F60,"),"))</f>
-        <v>new Upgrade("Shark Repellent Bat Spray",1996,10,4),</v>
-      </c>
-      <c r="H60" s="12">
-        <f>C60/E60</f>
-        <v>199.6</v>
-      </c>
-      <c r="I60">
-        <f>FLOOR(LOG10(H60),1)</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="61" spans="1:9" s="6" customFormat="1">
-      <c r="B61" s="7" t="s">
-        <v>88</v>
-      </c>
-      <c r="C61" s="6">
-        <v>1701</v>
-      </c>
-      <c r="D61" s="6" t="str">
-        <f>IF(C61&gt;2147483647,"L","")</f>
-        <v/>
-      </c>
-      <c r="E61" s="6">
-        <v>10</v>
-      </c>
-      <c r="F61" s="9">
-        <v>1</v>
-      </c>
-      <c r="G61" s="6" t="str">
-        <f>IF(A61="",_xlfn.CONCAT($K$1,$K$2,B61,$K$2,$K$3,C61,D61,$K$3,E61,$K$3,F61,"),",),_xlfn.CONCAT($K$1,$K$2,A61,$K$2,$K$3,$K$2,B61,$K$2,$K$3,C61,D61,$K$3,E61,$K$3,F61,"),"))</f>
-        <v>new Upgrade("Kirk's Glasses",1701,10,1),</v>
-      </c>
-      <c r="H61" s="13">
-        <f>C61/E61</f>
-        <v>170.1</v>
-      </c>
-      <c r="I61" s="6">
-        <f>FLOOR(LOG10(H61),1)</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="62" spans="1:9">
+    <row r="61" spans="1:10">
+      <c r="B61" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C61">
+        <v>1</v>
+      </c>
+      <c r="D61" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="E61">
+        <v>-1</v>
+      </c>
+      <c r="F61" s="2">
+        <v>128</v>
+      </c>
+      <c r="G61" t="e">
+        <f>IF(A61="",_xlfn.CONCAT($K$1,#REF!,B61,#REF!,$K$2,C61,D61,$K$2,E61,$K$2,F61,"),",),_xlfn.CONCAT($K$1,#REF!,A61,#REF!,$K$2,#REF!,B61,#REF!,$K$2,C61,D61,$K$2,E61,$K$2,F61,"),"))</f>
+        <v>#REF!</v>
+      </c>
+      <c r="H61" s="12">
+        <f t="shared" si="4"/>
+        <v>-1</v>
+      </c>
+      <c r="I61">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10">
+      <c r="A62" t="s">
+        <v>100</v>
+      </c>
       <c r="B62" s="1" t="s">
-        <v>13</v>
+        <v>99</v>
       </c>
       <c r="C62">
-        <v>1000</v>
+        <v>1</v>
       </c>
       <c r="D62" t="str">
         <f>IF(C62&gt;2147483647,"L","")</f>
@@ -4637,202 +4678,49 @@
         <v>1</v>
       </c>
       <c r="F62" s="2">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="G62" t="str">
         <f>IF(A62="",_xlfn.CONCAT($K$1,$K$2,B62,$K$2,$K$3,C62,D62,$K$3,E62,$K$3,F62,"),",),_xlfn.CONCAT($K$1,$K$2,A62,$K$2,$K$3,$K$2,B62,$K$2,$K$3,C62,D62,$K$3,E62,$K$3,F62,"),"))</f>
-        <v>new Upgrade("Fire-Breathing Rubber Duckie",1000,1,10),</v>
+        <v>new Upgrade(,OP,,Cheat,111),</v>
       </c>
       <c r="H62" s="12">
         <f>C62/E62</f>
-        <v>1000</v>
-      </c>
-      <c r="I62">
-        <f>FLOOR(LOG10(H62),1)</f>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="63" spans="1:9">
+        <v>1</v>
+      </c>
+      <c r="I62" s="4">
+        <f>FLOOR(LOG10(C62),1)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10">
       <c r="B63" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C63">
-        <v>1000</v>
+        <v>1</v>
       </c>
       <c r="D63" t="str">
-        <f>IF(C63&gt;2147483647,"L","")</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="E63">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F63" s="2">
-        <v>100</v>
-      </c>
-      <c r="G63" t="str">
-        <f>IF(A63="",_xlfn.CONCAT($K$1,$K$2,B63,$K$2,$K$3,C63,D63,$K$3,E63,$K$3,F63,"),",),_xlfn.CONCAT($K$1,$K$2,A63,$K$2,$K$3,$K$2,B63,$K$2,$K$3,C63,D63,$K$3,E63,$K$3,F63,"),"))</f>
-        <v>new Upgrade("Popcorn",1000,1,100),</v>
-      </c>
-      <c r="H63" s="12">
-        <f>C63/E63</f>
-        <v>1000</v>
+        <v>256</v>
+      </c>
+      <c r="G63" t="e">
+        <f>IF(A63="",_xlfn.CONCAT($K$1,#REF!,B63,#REF!,$K$2,C63,D63,$K$2,E63,$K$2,F63,"),",),_xlfn.CONCAT($K$1,#REF!,A63,#REF!,$K$2,#REF!,B63,#REF!,$K$2,C63,D63,$K$2,E63,$K$2,F63,"),"))</f>
+        <v>#REF!</v>
+      </c>
+      <c r="H63" s="12" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
       </c>
       <c r="I63">
-        <f>FLOOR(LOG10(H63),1)</f>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="64" spans="1:9">
-      <c r="B64" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="C64">
-        <v>451</v>
-      </c>
-      <c r="D64" t="str">
-        <f>IF(C64&gt;2147483647,"L","")</f>
-        <v/>
-      </c>
-      <c r="E64">
-        <v>1</v>
-      </c>
-      <c r="F64" s="2">
-        <v>10</v>
-      </c>
-      <c r="G64" t="str">
-        <f>IF(A64="",_xlfn.CONCAT($K$1,$K$2,B64,$K$2,$K$3,C64,D64,$K$3,E64,$K$3,F64,"),",),_xlfn.CONCAT($K$1,$K$2,A64,$K$2,$K$3,$K$2,B64,$K$2,$K$3,C64,D64,$K$3,E64,$K$3,F64,"),"))</f>
-        <v>new Upgrade("Book",451,1,10),</v>
-      </c>
-      <c r="H64" s="12">
-        <f>C64/E64</f>
-        <v>451</v>
-      </c>
-      <c r="I64">
-        <f>FLOOR(LOG10(H64),1)</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="65" spans="1:9">
-      <c r="A65" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="B65" t="s">
-        <v>92</v>
-      </c>
-      <c r="C65">
-        <v>100</v>
-      </c>
-      <c r="D65" t="str">
-        <f>IF(C65&gt;2147483647,"L","")</f>
-        <v/>
-      </c>
-      <c r="E65">
-        <v>3</v>
-      </c>
-      <c r="F65" s="2">
-        <v>10</v>
-      </c>
-      <c r="G65" t="str">
-        <f>IF(A65="",_xlfn.CONCAT($K$1,$K$2,B65,$K$2,$K$3,C65,D65,$K$3,E65,$K$3,F65,"),",),_xlfn.CONCAT($K$1,$K$2,A65,$K$2,$K$3,$K$2,B65,$K$2,$K$3,C65,D65,$K$3,E65,$K$3,F65,"),"))</f>
-        <v>new Upgrade(":cookie:","Cookie",100,3,10),</v>
-      </c>
-      <c r="H65" s="12">
-        <f>C65/E65</f>
-        <v>33.333333333333336</v>
-      </c>
-      <c r="I65">
-        <f>FLOOR(LOG10(H65),1)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="66" spans="1:9">
-      <c r="B66" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="C66">
-        <v>10</v>
-      </c>
-      <c r="D66" t="str">
-        <f>IF(C66&gt;2147483647,"L","")</f>
-        <v/>
-      </c>
-      <c r="E66">
+        <f t="shared" si="5"/>
         <v>0</v>
-      </c>
-      <c r="F66" s="2">
-        <v>100</v>
-      </c>
-      <c r="G66" t="str">
-        <f>IF(A66="",_xlfn.CONCAT($K$1,$K$2,B66,$K$2,$K$3,C66,D66,$K$3,E66,$K$3,F66,"),",),_xlfn.CONCAT($K$1,$K$2,A66,$K$2,$K$3,$K$2,B66,$K$2,$K$3,C66,D66,$K$3,E66,$K$3,F66,"),"))</f>
-        <v>new Upgrade("Lego Brick",10,0,100),</v>
-      </c>
-      <c r="H66" s="12" t="e">
-        <f>C66/E66</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I66" t="e">
-        <f>FLOOR(LOG10(H66),1)</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="67" spans="1:9">
-      <c r="B67" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="C67">
-        <v>1</v>
-      </c>
-      <c r="D67" t="str">
-        <f>IF(C67&gt;2147483647,"L","")</f>
-        <v/>
-      </c>
-      <c r="E67">
-        <v>-1</v>
-      </c>
-      <c r="F67" s="2">
-        <v>128</v>
-      </c>
-      <c r="G67" t="str">
-        <f>IF(A67="",_xlfn.CONCAT($K$1,$K$2,B67,$K$2,$K$3,C67,D67,$K$3,E67,$K$3,F67,"),",),_xlfn.CONCAT($K$1,$K$2,A67,$K$2,$K$3,$K$2,B67,$K$2,$K$3,C67,D67,$K$3,E67,$K$3,F67,"),"))</f>
-        <v>new Upgrade("Bug",1,-1,128),</v>
-      </c>
-      <c r="H67" s="12">
-        <f>C67/E67</f>
-        <v>-1</v>
-      </c>
-      <c r="I67" t="e">
-        <f>FLOOR(LOG10(H67),1)</f>
-        <v>#NUM!</v>
-      </c>
-    </row>
-    <row r="68" spans="1:9">
-      <c r="B68" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="C68">
-        <v>1</v>
-      </c>
-      <c r="D68" t="str">
-        <f>IF(C68&gt;2147483647,"L","")</f>
-        <v/>
-      </c>
-      <c r="E68">
-        <v>0</v>
-      </c>
-      <c r="F68" s="2">
-        <v>256</v>
-      </c>
-      <c r="G68" t="str">
-        <f>IF(A68="",_xlfn.CONCAT($K$1,$K$2,B68,$K$2,$K$3,C68,D68,$K$3,E68,$K$3,F68,"),",),_xlfn.CONCAT($K$1,$K$2,A68,$K$2,$K$3,$K$2,B68,$K$2,$K$3,C68,D68,$K$3,E68,$K$3,F68,"),"))</f>
-        <v>new Upgrade("Debug Byte",1,0,256),</v>
-      </c>
-      <c r="H68" s="12" t="e">
-        <f>C68/E68</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I68" t="e">
-        <f>FLOOR(LOG10(H68),1)</f>
-        <v>#DIV/0!</v>
       </c>
     </row>
   </sheetData>

--- a/Items.xlsx
+++ b/Items.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\johnw\iCloudDrive\Mine\My Programs\CoinGames\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{748F7585-2442-462E-AD91-63764AB8D793}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91B9EB58-EAF6-4FCB-BA7C-B99153025302}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1560" yWindow="1272" windowWidth="17280" windowHeight="8964" activeTab="1" xr2:uid="{C42CA93E-3A2D-D040-AB9B-E333D2FB9CC9}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{C42CA93E-3A2D-D040-AB9B-E333D2FB9CC9}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="119">
   <si>
     <t>Name</t>
   </si>
@@ -277,9 +277,6 @@
     <t>Thanos" + apostrophe + "Sword</t>
   </si>
   <si>
-    <t>10^n</t>
-  </si>
-  <si>
     <t>Number in that range</t>
   </si>
   <si>
@@ -316,9 +313,6 @@
     <t>Thanos' Sword</t>
   </si>
   <si>
-    <t>Modulo</t>
-  </si>
-  <si>
     <t>Column1</t>
   </si>
   <si>
@@ -335,13 +329,73 @@
   </si>
   <si>
     <t>OP</t>
+  </si>
+  <si>
+    <t>Arc Reactor</t>
+  </si>
+  <si>
+    <t>Kryptonite</t>
+  </si>
+  <si>
+    <t>Air Force One</t>
+  </si>
+  <si>
+    <t>Iron Man Suit</t>
+  </si>
+  <si>
+    <t>Number of digits</t>
+  </si>
+  <si>
+    <t>Klondike Bar</t>
+  </si>
+  <si>
+    <t>Time Machine</t>
+  </si>
+  <si>
+    <t>Bribe</t>
+  </si>
+  <si>
+    <t>Nuclear Fireworks</t>
+  </si>
+  <si>
+    <t>Meme</t>
+  </si>
+  <si>
+    <t>Bigfoot</t>
+  </si>
+  <si>
+    <t>Area 51</t>
+  </si>
+  <si>
+    <t>Loch Ness Monster</t>
+  </si>
+  <si>
+    <t>The Moon</t>
+  </si>
+  <si>
+    <t>A True Cake</t>
+  </si>
+  <si>
+    <t>MissingNo</t>
+  </si>
+  <si>
+    <t>Airpods</t>
+  </si>
+  <si>
+    <t>Ice Cream</t>
+  </si>
+  <si>
+    <t>N/A</t>
+  </si>
+  <si>
+    <t>Digits</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7">
+  <fonts count="8">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -390,13 +444,27 @@
       <name val="Menlo"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="20"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -436,23 +504,38 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="4">
+  <dxfs count="6">
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -489,28 +572,28 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{4009156A-C36A-4516-A02C-24F9758B47EE}" name="Table1" displayName="Table1" ref="A1:J63" totalsRowShown="0">
-  <autoFilter ref="A1:J63" xr:uid="{78C1917B-7E31-49F9-99AB-AFB2F1BD8BEA}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:I63">
-    <sortCondition descending="1" ref="C1:C63"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{4009156A-C36A-4516-A02C-24F9758B47EE}" name="Table1" displayName="Table1" ref="A1:J80" totalsRowShown="0">
+  <autoFilter ref="A1:J80" xr:uid="{78C1917B-7E31-49F9-99AB-AFB2F1BD8BEA}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:I80">
+    <sortCondition descending="1" ref="C1:C80"/>
   </sortState>
   <tableColumns count="10">
     <tableColumn id="1" xr3:uid="{B3882E44-A406-45D7-8B81-3BE7D8468DD3}" name="Prefix"/>
-    <tableColumn id="2" xr3:uid="{BBEDCA42-A349-4B8A-B3F6-630CA6A6848E}" name="Name" dataDxfId="3"/>
+    <tableColumn id="2" xr3:uid="{BBEDCA42-A349-4B8A-B3F6-630CA6A6848E}" name="Name" dataDxfId="5"/>
     <tableColumn id="3" xr3:uid="{EF70BBD7-AFE9-448B-8134-0BE31683DB7F}" name="Cost"/>
     <tableColumn id="4" xr3:uid="{0656EB21-15AB-4A2D-8645-982D7283C115}" name="Column1">
       <calculatedColumnFormula>IF(C2&gt;2147483647,"L","")</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="5" xr3:uid="{72E00DC1-7F07-4212-9067-1519DBF1E8CB}" name="Boost"/>
-    <tableColumn id="6" xr3:uid="{4C3041D4-FCB0-4127-ACBC-989B299F0011}" name="Quantity" dataDxfId="2"/>
-    <tableColumn id="7" xr3:uid="{F74CFCBD-6EB6-4116-8F58-FAA3BD72544B}" name="Final">
-      <calculatedColumnFormula>IF(A2="",_xlfn.CONCAT($K$1,$K$2,B2,$K$2,$K$3,C2,D2,$K$3,E2,$K$3,F2,"),",),_xlfn.CONCAT($K$1,$K$2,A2,$K$2,$K$3,$K$2,B2,$K$2,$K$3,C2,D2,$K$3,E2,$K$3,F2,"),"))</calculatedColumnFormula>
+    <tableColumn id="6" xr3:uid="{4C3041D4-FCB0-4127-ACBC-989B299F0011}" name="Quantity" dataDxfId="4"/>
+    <tableColumn id="7" xr3:uid="{F74CFCBD-6EB6-4116-8F58-FAA3BD72544B}" name="Final" dataDxfId="3">
+      <calculatedColumnFormula>_xlfn.CONCAT($K$1,$K$3,B2,$K$3,$K$2,C2,D2,$K$2,E2,$K$2,F2,"),")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{ED093BC7-1767-47E6-9724-AAE846529AF1}" name="Messages needed to earn back the amount of coins spend" dataDxfId="1">
+    <tableColumn id="8" xr3:uid="{ED093BC7-1767-47E6-9724-AAE846529AF1}" name="Messages needed to earn back the amount of coins spend" dataDxfId="2">
       <calculatedColumnFormula>C2/E2</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{CED6810C-AE22-4E72-BAF9-196C471149E4}" name="Modulo" dataDxfId="0">
-      <calculatedColumnFormula>FLOOR(LOG10(C2),1)</calculatedColumnFormula>
+    <tableColumn id="9" xr3:uid="{CED6810C-AE22-4E72-BAF9-196C471149E4}" name="Digits" dataDxfId="0">
+      <calculatedColumnFormula>CEILING(LOG10(C2),1)</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="10" xr3:uid="{4B948BE7-CCBA-44E6-88FF-EF66EE6101A1}" name="Egg"/>
   </tableColumns>
@@ -2617,19 +2700,20 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E6AE1024-0C54-6843-8563-9D359055A938}">
-  <dimension ref="A1:N63"/>
+  <dimension ref="A1:N92"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A54" workbookViewId="0">
-      <selection activeCell="E60" sqref="E60"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6"/>
   <cols>
     <col min="3" max="3" width="11.8984375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="0" hidden="1" customWidth="1"/>
-    <col min="7" max="7" width="0" hidden="1" customWidth="1"/>
+    <col min="4" max="4" width="11.19921875" customWidth="1"/>
+    <col min="5" max="5" width="11.8984375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.19921875" customWidth="1"/>
     <col min="8" max="8" width="51.296875" customWidth="1"/>
-    <col min="11" max="11" width="0" hidden="1" customWidth="1"/>
+    <col min="11" max="11" width="11.19921875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14">
@@ -2643,7 +2727,7 @@
         <v>1</v>
       </c>
       <c r="D1" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="E1" t="s">
         <v>2</v>
@@ -2655,22 +2739,22 @@
         <v>4</v>
       </c>
       <c r="H1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="I1" t="s">
+        <v>118</v>
+      </c>
+      <c r="J1" t="s">
         <v>94</v>
-      </c>
-      <c r="J1" t="s">
-        <v>96</v>
       </c>
       <c r="K1" t="s">
         <v>78</v>
       </c>
       <c r="M1" t="s">
+        <v>103</v>
+      </c>
+      <c r="N1" t="s">
         <v>81</v>
-      </c>
-      <c r="N1" t="s">
-        <v>82</v>
       </c>
     </row>
     <row r="2" spans="1:14">
@@ -2690,17 +2774,17 @@
       <c r="F2" s="2">
         <v>1</v>
       </c>
-      <c r="G2" t="e">
-        <f>IF(A2="",_xlfn.CONCAT($K$1,#REF!,B2,#REF!,$K$2,C2,D2,$K$2,E2,$K$2,F2,"),",),_xlfn.CONCAT($K$1,#REF!,A2,#REF!,$K$2,#REF!,B2,#REF!,$K$2,C2,D2,$K$2,E2,$K$2,F2,"),"))</f>
-        <v>#REF!</v>
-      </c>
-      <c r="H2" s="12">
-        <f t="shared" ref="H2:H30" si="1">C2/E2</f>
+      <c r="G2" t="str">
+        <f>_xlfn.CONCAT($K$1,$K$3,B2,$K$3,$K$2,C2,D2,$K$2,E2,$K$2,F2,"),")</f>
+        <v>new Upgrade("International Space Station",50400000000L,196199000,1),</v>
+      </c>
+      <c r="H2" s="11">
+        <f t="shared" ref="H2:H9" si="1">C2/E2</f>
         <v>256.88204323161688</v>
       </c>
       <c r="I2">
-        <f t="shared" ref="I2:I30" si="2">FLOOR(LOG10(C2),1)</f>
-        <v>10</v>
+        <f t="shared" ref="I2:I33" si="2">CEILING(LOG10(C2),1)</f>
+        <v>11</v>
       </c>
       <c r="K2" t="s">
         <v>77</v>
@@ -2710,7 +2794,7 @@
       </c>
       <c r="N2" s="4">
         <f>COUNTIF(I:I,M2)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -2730,24 +2814,27 @@
       <c r="F3" s="2">
         <v>1</v>
       </c>
-      <c r="G3" t="e">
-        <f>IF(A3="",_xlfn.CONCAT($K$1,#REF!,B3,#REF!,$K$2,C3,D3,$K$2,E3,$K$2,F3,"),",),_xlfn.CONCAT($K$1,#REF!,A3,#REF!,$K$2,#REF!,B3,#REF!,$K$2,C3,D3,$K$2,E3,$K$2,F3,"),"))</f>
-        <v>#REF!</v>
-      </c>
-      <c r="H3" s="12">
+      <c r="G3" t="str">
+        <f>_xlfn.CONCAT($K$1,$K$3,B3,$K$3,$K$2,C3,D3,$K$2,E3,$K$2,F3,"),")</f>
+        <v>new Upgrade("Diamond Armor",5307786900L,25100000,1),</v>
+      </c>
+      <c r="H3" s="11">
         <f t="shared" si="1"/>
         <v>211.46561354581672</v>
       </c>
       <c r="I3">
         <f t="shared" si="2"/>
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="K3" t="s">
+        <v>76</v>
       </c>
       <c r="M3" s="3">
         <v>2</v>
       </c>
       <c r="N3" s="4">
         <f>COUNTIF(I:I,M3)</f>
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -2767,17 +2854,17 @@
       <c r="F4" s="2">
         <v>1</v>
       </c>
-      <c r="G4" t="e">
-        <f>IF(A4="",_xlfn.CONCAT($K$1,#REF!,B4,#REF!,$K$2,C4,D4,$K$2,E4,$K$2,F4,"),",),_xlfn.CONCAT($K$1,#REF!,A4,#REF!,$K$2,#REF!,B4,#REF!,$K$2,C4,D4,$K$2,E4,$K$2,F4,"),"))</f>
-        <v>#REF!</v>
-      </c>
-      <c r="H4" s="12">
+      <c r="G4" t="str">
+        <f>_xlfn.CONCAT($K$1,$K$3,B4,$K$3,$K$2,C4,D4,$K$2,E4,$K$2,F4,"),")</f>
+        <v>new Upgrade("Hubble Telescope",2870000000L,14320231,1),</v>
+      </c>
+      <c r="H4" s="11">
         <f t="shared" si="1"/>
         <v>200.41576144965819</v>
       </c>
       <c r="I4">
         <f t="shared" si="2"/>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="M4" s="3">
         <v>3</v>
@@ -2804,24 +2891,29 @@
       <c r="F5" s="2">
         <v>1</v>
       </c>
-      <c r="G5" t="e">
-        <f>IF(A5="",_xlfn.CONCAT($K$1,#REF!,B5,#REF!,$K$2,C5,D5,$K$2,E5,$K$2,F5,"),",),_xlfn.CONCAT($K$1,#REF!,A5,#REF!,$K$2,#REF!,B5,#REF!,$K$2,C5,D5,$K$2,E5,$K$2,F5,"),"))</f>
-        <v>#REF!</v>
-      </c>
-      <c r="H5" s="12">
+      <c r="G5" t="str">
+        <f>_xlfn.CONCAT($K$1,$K$3,B5,$K$3,$K$2,C5,D5,$K$2,E5,$K$2,F5,"),")</f>
+        <v>new Upgrade("Baby Shark",2639860696L,13199303,1),</v>
+      </c>
+      <c r="H5" s="11">
         <f t="shared" si="1"/>
         <v>200.00000727311132</v>
       </c>
       <c r="I5">
         <f t="shared" si="2"/>
-        <v>9</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="K5" s="13" t="str">
+        <f>_xlfn.CONCAT(G2:G5000)</f>
+        <v>new Upgrade("International Space Station",50400000000L,196199000,1),new Upgrade("Diamond Armor",5307786900L,25100000,1),new Upgrade("Hubble Telescope",2870000000L,14320231,1),new Upgrade("Baby Shark",2639860696L,13199303,1),new Upgrade("Infinity Gauntlet",2147483647,13166600,1),new Upgrade("Wayne Manor",800000000,3970009,1),new Upgrade("Because I'm Batman!",682450750,3402000,1),new Upgrade("141-year-old newspaper",230000000,948324,1),new Upgrade("1963 Ferrari GTO",52000000,196300,5),new Upgrade("Honus Wagner Rookie Card",2000000,8727,3),new Upgrade("Captain America's Shield",17871941,113100,1),new Upgrade("Gold Plated Bugatti Veyron",10004738,43253,1),new Upgrade("Mjolnir",4490000,30000,1),new Upgrade("Crystal Piano",3200000,14324,1),new Upgrade("Thanos' Sword",2014000,10115,1),new Upgrade("The Tumbler Batmobile",1800000,6930,1),new Upgrade("Magnetic Floating Bed",1600000,8000,1),new Upgrade("All of the Pokemon",1510000,8090,1),new Upgrade("Ferrari Enzo",1325000,5500,7),new Upgrade("The Ultimate Ultimate Weapon",1230000,4920,6),new Upgrade("Darth Vader's Helmet",1138000,7486,1),new Upgrade("Crisp $1,000,000 bill",999999,0,100),new Upgrade("Tank",858000,3750,10),new Upgrade("Lightsaber",300000,1977,6),new Upgrade("Pet Dragon",630000,3030,5),new Upgrade("Smash Ball",400000,1500,6),new Upgrade("Legolas's Bow",301800,2110,1),new Upgrade("Phaser Rifle",200000,1000,1),new Upgrade("Six-Shooter",130364,600,6),new Upgrade("Kylo Ren's Helmet",200000,1350,1),new Upgrade("Nuclear Bomb",500235,2390,5),new Upgrade("Bowcaster",155893,563,10),new Upgrade("Genesis Device",765482,4570,1),new Upgrade("A bad feeling about this",166830,1138,1),new Upgrade("Death Star",1344339,7324,2),new Upgrade("Rocket",100000,500,10),new Upgrade("Ring of Power",2963500,19776,19),new Upgrade("Stormbreaker",1375947,10000,1),new Upgrade("Medpack",100000,500,10),new Upgrade("Mario's Hat",1019358,5342,1),new Upgrade("Blender (the program)",530000,2140,10),new Upgrade("iPhone XR",300000,1215,1),new Upgrade("Stormtrooper Helmet",13630,70,10),new Upgrade("Sandwitch",22414,84,10),new Upgrade("Oculus",39999,199,10),new Upgrade("Shards of Narsil",20000,97,6),new Upgrade("Batarang",14645,70,10),new Upgrade("Sword",10000,51,100),new Upgrade("Water Bottle",10000,49,10),new Upgrade("Easy Button",667186,2839,10),new Upgrade("Blender (for food)",10000,43,7),new Upgrade("The Piece of Resistance",998520,4950,1),new Upgrade("Shield",5000,25,200),new Upgrade("Shark Repellent Bat Spray",1996,10,4),new Upgrade("Kirk's Glasses",957440,4329,1),new Upgrade("Popcorn",1000,5,100),new Upgrade("Book",451,2,10),new Upgrade("Cookie",100,3,1),new Upgrade("Lego Brick",200,1,100),new Upgrade("Bug",1,-1,128),new Upgrade("Arc Reactor",59637044043L,141467051,1),new Upgrade("Kryptonite",2110089696934650L,4096534023712,1),new Upgrade("Air Force One",83250280290413900L,151941677102307,1),new Upgrade("Cheat",1,1,1),new Upgrade("Ice Cream",40896568606L,97793577,),new Upgrade("Klondike Bar",4275149189933540000L,7331994574249420,1),new Upgrade("Time Machine",83745097494464L,172216610960,1),new Upgrade("Bribe",1000000,0,1),new Upgrade("Nuclear Fireworks",81247450573750L,167173305334,1),new Upgrade("Meme",1755841378694L,3886619829,1),new Upgrade("Bigfoot",79837291968785L,164324651505,1),new Upgrade("Area 51",5704058330541L,12338782071,1),new Upgrade("Loch Ness Monster",2221819257185L,4895303336,1),new Upgrade("The Moon",839548670437L,1885876413,1),new Upgrade("A True Cake",1248529473245030L,2446152366149,5),new Upgrade("MissingNo",55905021527L,132795976,1),new Upgrade("Airpods",37910263806L,90799614,2),new Upgrade("Iron Man Suit",1858055186797720L,3615205690620,2),new Upgrade("Debug Byte",1,0,256),</v>
+      </c>
+      <c r="L5" s="13"/>
       <c r="M5" s="3">
         <v>4</v>
       </c>
       <c r="N5" s="4">
         <f>COUNTIF(I:I,M5)</f>
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:14" s="6" customFormat="1">
@@ -2841,24 +2933,26 @@
       <c r="F6" s="9">
         <v>1</v>
       </c>
-      <c r="G6" s="6" t="e">
-        <f>IF(A6="",_xlfn.CONCAT($K$1,#REF!,B6,#REF!,$K$2,C6,D6,$K$2,E6,$K$2,F6,"),",),_xlfn.CONCAT($K$1,#REF!,A6,#REF!,$K$2,#REF!,B6,#REF!,$K$2,C6,D6,$K$2,E6,$K$2,F6,"),"))</f>
-        <v>#REF!</v>
-      </c>
-      <c r="H6" s="13">
+      <c r="G6" t="str">
+        <f>_xlfn.CONCAT($K$1,$K$3,B6,$K$3,$K$2,C6,D6,$K$2,E6,$K$2,F6,"),")</f>
+        <v>new Upgrade("Infinity Gauntlet",2147483647,13166600,1),</v>
+      </c>
+      <c r="H6" s="12">
         <f t="shared" si="1"/>
         <v>163.10084964987163</v>
       </c>
       <c r="I6" s="6">
         <f t="shared" si="2"/>
-        <v>9</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="K6" s="13"/>
+      <c r="L6" s="13"/>
       <c r="M6" s="10">
         <v>5</v>
       </c>
-      <c r="N6" s="11">
+      <c r="N6" s="4">
         <f>COUNTIF(I:I,M6)</f>
-        <v>20</v>
+        <v>7</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -2878,29 +2972,31 @@
       <c r="F7" s="2">
         <v>1</v>
       </c>
-      <c r="G7" t="e">
-        <f>IF(A7="",_xlfn.CONCAT($K$1,#REF!,B7,#REF!,$K$2,C7,D7,$K$2,E7,$K$2,F7,"),",),_xlfn.CONCAT($K$1,#REF!,A7,#REF!,$K$2,#REF!,B7,#REF!,$K$2,C7,D7,$K$2,E7,$K$2,F7,"),"))</f>
-        <v>#REF!</v>
-      </c>
-      <c r="H7" s="12">
+      <c r="G7" t="str">
+        <f>_xlfn.CONCAT($K$1,$K$3,B7,$K$3,$K$2,C7,D7,$K$2,E7,$K$2,F7,"),")</f>
+        <v>new Upgrade("Wayne Manor",800000000,3970009,1),</v>
+      </c>
+      <c r="H7" s="11">
         <f t="shared" si="1"/>
         <v>201.51087818692602</v>
       </c>
       <c r="I7">
         <f t="shared" si="2"/>
-        <v>8</v>
-      </c>
+        <v>9</v>
+      </c>
+      <c r="K7" s="13"/>
+      <c r="L7" s="13"/>
       <c r="M7" s="3">
         <v>6</v>
       </c>
       <c r="N7" s="4">
         <f>COUNTIF(I:I,M7)</f>
-        <v>14</v>
+        <v>19</v>
       </c>
     </row>
     <row r="8" spans="1:14">
       <c r="B8" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C8">
         <v>682450750</v>
@@ -2915,24 +3011,24 @@
       <c r="F8" s="2">
         <v>1</v>
       </c>
-      <c r="G8" t="e">
-        <f>IF(A8="",_xlfn.CONCAT($K$1,#REF!,B8,#REF!,$K$2,C8,D8,$K$2,E8,$K$2,F8,"),",),_xlfn.CONCAT($K$1,#REF!,A8,#REF!,$K$2,#REF!,B8,#REF!,$K$2,C8,D8,$K$2,E8,$K$2,F8,"),"))</f>
-        <v>#REF!</v>
-      </c>
-      <c r="H8" s="12">
+      <c r="G8" t="str">
+        <f>_xlfn.CONCAT($K$1,$K$3,B8,$K$3,$K$2,C8,D8,$K$2,E8,$K$2,F8,"),")</f>
+        <v>new Upgrade("Because I'm Batman!",682450750,3402000,1),</v>
+      </c>
+      <c r="H8" s="11">
         <f t="shared" si="1"/>
         <v>200.60280717225163</v>
       </c>
       <c r="I8">
         <f t="shared" si="2"/>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="M8" s="5">
         <v>7</v>
       </c>
       <c r="N8" s="4">
         <f>COUNTIF(I:I,M8)</f>
-        <v>3</v>
+        <v>14</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -2952,17 +3048,17 @@
       <c r="F9" s="2">
         <v>1</v>
       </c>
-      <c r="G9" t="e">
-        <f>IF(A9="",_xlfn.CONCAT($K$1,#REF!,B9,#REF!,$K$2,C9,D9,$K$2,E9,$K$2,F9,"),",),_xlfn.CONCAT($K$1,#REF!,A9,#REF!,$K$2,#REF!,B9,#REF!,$K$2,C9,D9,$K$2,E9,$K$2,F9,"),"))</f>
-        <v>#REF!</v>
-      </c>
-      <c r="H9" s="12">
+      <c r="G9" t="str">
+        <f>_xlfn.CONCAT($K$1,$K$3,B9,$K$3,$K$2,C9,D9,$K$2,E9,$K$2,F9,"),")</f>
+        <v>new Upgrade("141-year-old newspaper",230000000,948324,1),</v>
+      </c>
+      <c r="H9" s="11">
         <f t="shared" si="1"/>
         <v>242.53314268119334</v>
       </c>
       <c r="I9">
         <f t="shared" si="2"/>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="M9" s="3">
         <v>8</v>
@@ -2989,24 +3085,24 @@
       <c r="F10" s="2">
         <v>5</v>
       </c>
-      <c r="G10" t="e">
-        <f>IF(A10="",_xlfn.CONCAT($K$1,#REF!,B10,#REF!,$K$2,C10,D10,$K$2,E10,$K$2,F10,"),",),_xlfn.CONCAT($K$1,#REF!,A10,#REF!,$K$2,#REF!,B10,#REF!,$K$2,C10,D10,$K$2,E10,$K$2,F10,"),"))</f>
-        <v>#REF!</v>
-      </c>
-      <c r="H10" s="12">
-        <f t="shared" si="1"/>
+      <c r="G10" t="str">
+        <f>_xlfn.CONCAT($K$1,$K$3,B10,$K$3,$K$2,C10,D10,$K$2,E10,$K$2,F10,"),")</f>
+        <v>new Upgrade("1963 Ferrari GTO",52000000,196300,5),</v>
+      </c>
+      <c r="H10" s="11">
+        <f>C10/E10</f>
         <v>264.9006622516556</v>
       </c>
       <c r="I10">
         <f t="shared" si="2"/>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="M10" s="3">
         <v>9</v>
       </c>
       <c r="N10" s="4">
         <f>COUNTIF(I:I,M10)</f>
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -3027,29 +3123,29 @@
       <c r="F11" s="2">
         <v>3</v>
       </c>
-      <c r="G11" t="e">
-        <f>IF(A11="",_xlfn.CONCAT($K$1,#REF!,B11,#REF!,$K$2,C11,D11,$K$2,E11,$K$2,F11,"),",),_xlfn.CONCAT($K$1,#REF!,A11,#REF!,$K$2,#REF!,B11,#REF!,$K$2,C11,D11,$K$2,E11,$K$2,F11,"),"))</f>
-        <v>#REF!</v>
-      </c>
-      <c r="H11" s="12">
-        <f t="shared" si="1"/>
+      <c r="G11" t="str">
+        <f>_xlfn.CONCAT($K$1,$K$3,B11,$K$3,$K$2,C11,D11,$K$2,E11,$K$2,F11,"),")</f>
+        <v>new Upgrade("Honus Wagner Rookie Card",2000000,8727,3),</v>
+      </c>
+      <c r="H11" s="11">
+        <f>C11/E11</f>
         <v>229.17382834880257</v>
       </c>
       <c r="I11">
         <f t="shared" si="2"/>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="M11" s="3">
         <v>10</v>
       </c>
       <c r="N11" s="4">
         <f>COUNTIF(I:I,M11)</f>
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="12" spans="1:14" s="6" customFormat="1">
       <c r="B12" s="7" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C12" s="6">
         <v>17871941</v>
@@ -3064,24 +3160,24 @@
       <c r="F12" s="9">
         <v>1</v>
       </c>
-      <c r="G12" s="6" t="e">
-        <f>IF(A12="",_xlfn.CONCAT($K$1,#REF!,B12,#REF!,$K$2,C12,D12,$K$2,E12,$K$2,F12,"),",),_xlfn.CONCAT($K$1,#REF!,A12,#REF!,$K$2,#REF!,B12,#REF!,$K$2,C12,D12,$K$2,E12,$K$2,F12,"),"))</f>
-        <v>#REF!</v>
-      </c>
-      <c r="H12" s="13">
-        <f t="shared" si="1"/>
+      <c r="G12" t="str">
+        <f>_xlfn.CONCAT($K$1,$K$3,B12,$K$3,$K$2,C12,D12,$K$2,E12,$K$2,F12,"),")</f>
+        <v>new Upgrade("Captain America's Shield",17871941,113100,1),</v>
+      </c>
+      <c r="H12" s="12">
+        <f>C12/E12</f>
         <v>158.01893015030947</v>
       </c>
       <c r="I12" s="6">
         <f t="shared" si="2"/>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="M12" s="10">
         <v>11</v>
       </c>
-      <c r="N12" s="11">
+      <c r="N12" s="4">
         <f>COUNTIF(I:I,M12)</f>
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -3101,24 +3197,24 @@
       <c r="F13" s="2">
         <v>1</v>
       </c>
-      <c r="G13" t="e">
-        <f>IF(A13="",_xlfn.CONCAT($K$1,#REF!,B13,#REF!,$K$2,C13,D13,$K$2,E13,$K$2,F13,"),",),_xlfn.CONCAT($K$1,#REF!,A13,#REF!,$K$2,#REF!,B13,#REF!,$K$2,C13,D13,$K$2,E13,$K$2,F13,"),"))</f>
-        <v>#REF!</v>
-      </c>
-      <c r="H13" s="12">
-        <f t="shared" si="1"/>
+      <c r="G13" t="str">
+        <f>_xlfn.CONCAT($K$1,$K$3,B13,$K$3,$K$2,C13,D13,$K$2,E13,$K$2,F13,"),")</f>
+        <v>new Upgrade("Gold Plated Bugatti Veyron",10004738,43253,1),</v>
+      </c>
+      <c r="H13" s="11">
+        <f>C13/E13</f>
         <v>231.30737752294638</v>
       </c>
       <c r="I13">
         <f t="shared" si="2"/>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="M13" s="3">
         <v>13</v>
       </c>
       <c r="N13" s="4">
         <f>COUNTIF(I:I,M13)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="14" spans="1:14" s="6" customFormat="1">
@@ -3138,24 +3234,24 @@
       <c r="F14" s="9">
         <v>1</v>
       </c>
-      <c r="G14" s="6" t="e">
-        <f>IF(A14="",_xlfn.CONCAT($K$1,#REF!,B14,#REF!,$K$2,C14,D14,$K$2,E14,$K$2,F14,"),",),_xlfn.CONCAT($K$1,#REF!,A14,#REF!,$K$2,#REF!,B14,#REF!,$K$2,C14,D14,$K$2,E14,$K$2,F14,"),"))</f>
-        <v>#REF!</v>
-      </c>
-      <c r="H14" s="13">
-        <f t="shared" si="1"/>
+      <c r="G14" t="str">
+        <f>_xlfn.CONCAT($K$1,$K$3,B14,$K$3,$K$2,C14,D14,$K$2,E14,$K$2,F14,"),")</f>
+        <v>new Upgrade("Mjolnir",4490000,30000,1),</v>
+      </c>
+      <c r="H14" s="12">
+        <f>C14/E14</f>
         <v>149.66666666666666</v>
       </c>
       <c r="I14" s="6">
         <f t="shared" si="2"/>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="M14" s="10">
         <v>14</v>
       </c>
-      <c r="N14" s="11">
+      <c r="N14" s="4">
         <f>COUNTIF(I:I,M14)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -3175,17 +3271,17 @@
       <c r="F15" s="2">
         <v>1</v>
       </c>
-      <c r="G15" t="e">
-        <f>IF(A15="",_xlfn.CONCAT($K$1,#REF!,B15,#REF!,$K$2,C15,D15,$K$2,E15,$K$2,F15,"),",),_xlfn.CONCAT($K$1,#REF!,A15,#REF!,$K$2,#REF!,B15,#REF!,$K$2,C15,D15,$K$2,E15,$K$2,F15,"),"))</f>
-        <v>#REF!</v>
-      </c>
-      <c r="H15" s="12">
-        <f t="shared" si="1"/>
+      <c r="G15" t="str">
+        <f>_xlfn.CONCAT($K$1,$K$3,B15,$K$3,$K$2,C15,D15,$K$2,E15,$K$2,F15,"),")</f>
+        <v>new Upgrade("Crystal Piano",3200000,14324,1),</v>
+      </c>
+      <c r="H15" s="11">
+        <f>C15/E15</f>
         <v>223.40128455738619</v>
       </c>
       <c r="I15">
         <f t="shared" si="2"/>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="M15" s="3">
         <v>15</v>
@@ -3197,7 +3293,7 @@
     </row>
     <row r="16" spans="1:14">
       <c r="B16" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C16">
         <v>2014000</v>
@@ -3213,24 +3309,24 @@
       <c r="F16" s="2">
         <v>1</v>
       </c>
-      <c r="G16" t="e">
-        <f>IF(A16="",_xlfn.CONCAT($K$1,#REF!,B16,#REF!,$K$2,C16,D16,$K$2,E16,$K$2,F16,"),",),_xlfn.CONCAT($K$1,#REF!,A16,#REF!,$K$2,#REF!,B16,#REF!,$K$2,C16,D16,$K$2,E16,$K$2,F16,"),"))</f>
-        <v>#REF!</v>
-      </c>
-      <c r="H16" s="12">
-        <f t="shared" si="1"/>
+      <c r="G16" t="str">
+        <f>_xlfn.CONCAT($K$1,$K$3,B16,$K$3,$K$2,C16,D16,$K$2,E16,$K$2,F16,"),")</f>
+        <v>new Upgrade("Thanos' Sword",2014000,10115,1),</v>
+      </c>
+      <c r="H16" s="11">
+        <f>C16/E16</f>
         <v>199.11023232822541</v>
       </c>
       <c r="I16">
         <f t="shared" si="2"/>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="M16" s="3">
         <v>16</v>
       </c>
       <c r="N16" s="4">
         <f>COUNTIF(I:I,M16)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="17" spans="2:14">
@@ -3250,24 +3346,24 @@
       <c r="F17" s="2">
         <v>1</v>
       </c>
-      <c r="G17" t="e">
-        <f>IF(A17="",_xlfn.CONCAT($K$1,#REF!,B17,#REF!,$K$2,C17,D17,$K$2,E17,$K$2,F17,"),",),_xlfn.CONCAT($K$1,#REF!,A17,#REF!,$K$2,#REF!,B17,#REF!,$K$2,C17,D17,$K$2,E17,$K$2,F17,"),"))</f>
-        <v>#REF!</v>
-      </c>
-      <c r="H17" s="12">
-        <f t="shared" si="1"/>
+      <c r="G17" t="str">
+        <f>_xlfn.CONCAT($K$1,$K$3,B17,$K$3,$K$2,C17,D17,$K$2,E17,$K$2,F17,"),")</f>
+        <v>new Upgrade("The Tumbler Batmobile",1800000,6930,1),</v>
+      </c>
+      <c r="H17" s="11">
+        <f>C17/E17</f>
         <v>259.74025974025972</v>
       </c>
       <c r="I17">
         <f t="shared" si="2"/>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="M17" s="3">
         <v>17</v>
       </c>
       <c r="N17" s="4">
         <f>COUNTIF(I:I,M17)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18" spans="2:14">
@@ -3287,17 +3383,17 @@
       <c r="F18" s="2">
         <v>1</v>
       </c>
-      <c r="G18" t="e">
-        <f>IF(A18="",_xlfn.CONCAT($K$1,#REF!,B18,#REF!,$K$2,C18,D18,$K$2,E18,$K$2,F18,"),",),_xlfn.CONCAT($K$1,#REF!,A18,#REF!,$K$2,#REF!,B18,#REF!,$K$2,C18,D18,$K$2,E18,$K$2,F18,"),"))</f>
-        <v>#REF!</v>
-      </c>
-      <c r="H18" s="12">
-        <f t="shared" si="1"/>
+      <c r="G18" t="str">
+        <f>_xlfn.CONCAT($K$1,$K$3,B18,$K$3,$K$2,C18,D18,$K$2,E18,$K$2,F18,"),")</f>
+        <v>new Upgrade("Magnetic Floating Bed",1600000,8000,1),</v>
+      </c>
+      <c r="H18" s="11">
+        <f>C18/E18</f>
         <v>200</v>
       </c>
       <c r="I18">
         <f t="shared" si="2"/>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="M18" s="3">
         <v>18</v>
@@ -3324,24 +3420,24 @@
       <c r="F19" s="2">
         <v>1</v>
       </c>
-      <c r="G19" t="e">
-        <f>IF(A19="",_xlfn.CONCAT($K$1,#REF!,B19,#REF!,$K$2,C19,D19,$K$2,E19,$K$2,F19,"),",),_xlfn.CONCAT($K$1,#REF!,A19,#REF!,$K$2,#REF!,B19,#REF!,$K$2,C19,D19,$K$2,E19,$K$2,F19,"),"))</f>
-        <v>#REF!</v>
-      </c>
-      <c r="H19" s="12">
-        <f t="shared" si="1"/>
+      <c r="G19" t="str">
+        <f>_xlfn.CONCAT($K$1,$K$3,B19,$K$3,$K$2,C19,D19,$K$2,E19,$K$2,F19,"),")</f>
+        <v>new Upgrade("All of the Pokemon",1510000,8090,1),</v>
+      </c>
+      <c r="H19" s="11">
+        <f>C19/E19</f>
         <v>186.65018541409148</v>
       </c>
       <c r="I19">
         <f t="shared" si="2"/>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="M19" s="3">
         <v>19</v>
       </c>
       <c r="N19" s="4">
         <f>COUNTIF(I:I,M19)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20" spans="2:14">
@@ -3361,17 +3457,17 @@
       <c r="F20" s="2">
         <v>7</v>
       </c>
-      <c r="G20" t="e">
-        <f>IF(A20="",_xlfn.CONCAT($K$1,#REF!,B20,#REF!,$K$2,C20,D20,$K$2,E20,$K$2,F20,"),",),_xlfn.CONCAT($K$1,#REF!,A20,#REF!,$K$2,#REF!,B20,#REF!,$K$2,C20,D20,$K$2,E20,$K$2,F20,"),"))</f>
-        <v>#REF!</v>
-      </c>
-      <c r="H20" s="12">
-        <f t="shared" si="1"/>
+      <c r="G20" t="str">
+        <f>_xlfn.CONCAT($K$1,$K$3,B20,$K$3,$K$2,C20,D20,$K$2,E20,$K$2,F20,"),")</f>
+        <v>new Upgrade("Ferrari Enzo",1325000,5500,7),</v>
+      </c>
+      <c r="H20" s="11">
+        <f>C20/E20</f>
         <v>240.90909090909091</v>
       </c>
       <c r="I20">
         <f t="shared" si="2"/>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="M20" s="3">
         <v>20</v>
@@ -3399,22 +3495,23 @@
       <c r="F21" s="2">
         <v>6</v>
       </c>
-      <c r="G21" t="e">
-        <f>IF(A21="",_xlfn.CONCAT($K$1,#REF!,B21,#REF!,$K$2,C21,D21,$K$2,E21,$K$2,F21,"),",),_xlfn.CONCAT($K$1,#REF!,A21,#REF!,$K$2,#REF!,B21,#REF!,$K$2,C21,D21,$K$2,E21,$K$2,F21,"),"))</f>
-        <v>#REF!</v>
-      </c>
-      <c r="H21" s="12">
-        <f t="shared" si="1"/>
+      <c r="G21" t="str">
+        <f>_xlfn.CONCAT($K$1,$K$3,B21,$K$3,$K$2,C21,D21,$K$2,E21,$K$2,F21,"),")</f>
+        <v>new Upgrade("The Ultimate Ultimate Weapon",1230000,4920,6),</v>
+      </c>
+      <c r="H21" s="11">
+        <f>C21/E21</f>
         <v>250</v>
       </c>
       <c r="I21">
         <f t="shared" si="2"/>
-        <v>6</v>
-      </c>
+        <v>7</v>
+      </c>
+      <c r="N21" s="4"/>
     </row>
     <row r="22" spans="2:14" s="6" customFormat="1">
       <c r="B22" s="7" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C22" s="6">
         <v>1138000</v>
@@ -3429,18 +3526,19 @@
       <c r="F22" s="9">
         <v>1</v>
       </c>
-      <c r="G22" s="6" t="e">
-        <f>IF(A22="",_xlfn.CONCAT($K$1,#REF!,B22,#REF!,$K$2,C22,D22,$K$2,E22,$K$2,F22,"),",),_xlfn.CONCAT($K$1,#REF!,A22,#REF!,$K$2,#REF!,B22,#REF!,$K$2,C22,D22,$K$2,E22,$K$2,F22,"),"))</f>
-        <v>#REF!</v>
-      </c>
-      <c r="H22" s="13">
-        <f t="shared" si="1"/>
+      <c r="G22" t="str">
+        <f>_xlfn.CONCAT($K$1,$K$3,B22,$K$3,$K$2,C22,D22,$K$2,E22,$K$2,F22,"),")</f>
+        <v>new Upgrade("Darth Vader's Helmet",1138000,7486,1),</v>
+      </c>
+      <c r="H22" s="12">
+        <f>C22/E22</f>
         <v>152.0170985840235</v>
       </c>
       <c r="I22" s="6">
         <f t="shared" si="2"/>
-        <v>6</v>
-      </c>
+        <v>7</v>
+      </c>
+      <c r="N22" s="4"/>
     </row>
     <row r="23" spans="2:14">
       <c r="B23" s="1" t="s">
@@ -3459,18 +3557,19 @@
       <c r="F23" s="2">
         <v>100</v>
       </c>
-      <c r="G23" t="e">
-        <f>IF(A23="",_xlfn.CONCAT($K$1,#REF!,B23,#REF!,$K$2,C23,D23,$K$2,E23,$K$2,F23,"),",),_xlfn.CONCAT($K$1,#REF!,A23,#REF!,$K$2,#REF!,B23,#REF!,$K$2,C23,D23,$K$2,E23,$K$2,F23,"),"))</f>
-        <v>#REF!</v>
-      </c>
-      <c r="H23" s="12" t="e">
-        <f t="shared" si="1"/>
+      <c r="G23" t="str">
+        <f>_xlfn.CONCAT($K$1,$K$3,B23,$K$3,$K$2,C23,D23,$K$2,E23,$K$2,F23,"),")</f>
+        <v>new Upgrade("Crisp $1,000,000 bill",999999,0,100),</v>
+      </c>
+      <c r="H23" s="11" t="e">
+        <f>C23/E23</f>
         <v>#DIV/0!</v>
       </c>
       <c r="I23">
         <f t="shared" si="2"/>
-        <v>5</v>
-      </c>
+        <v>6</v>
+      </c>
+      <c r="N23" s="4"/>
     </row>
     <row r="24" spans="2:14">
       <c r="B24" s="1" t="s">
@@ -3490,18 +3589,19 @@
       <c r="F24" s="2">
         <v>10</v>
       </c>
-      <c r="G24" t="e">
-        <f>IF(A24="",_xlfn.CONCAT($K$1,#REF!,B24,#REF!,$K$2,C24,D24,$K$2,E24,$K$2,F24,"),",),_xlfn.CONCAT($K$1,#REF!,A24,#REF!,$K$2,#REF!,B24,#REF!,$K$2,C24,D24,$K$2,E24,$K$2,F24,"),"))</f>
-        <v>#REF!</v>
-      </c>
-      <c r="H24" s="12">
-        <f t="shared" si="1"/>
+      <c r="G24" t="str">
+        <f>_xlfn.CONCAT($K$1,$K$3,B24,$K$3,$K$2,C24,D24,$K$2,E24,$K$2,F24,"),")</f>
+        <v>new Upgrade("Tank",858000,3750,10),</v>
+      </c>
+      <c r="H24" s="11">
+        <f>C24/E24</f>
         <v>228.8</v>
       </c>
       <c r="I24">
         <f t="shared" si="2"/>
-        <v>5</v>
-      </c>
+        <v>6</v>
+      </c>
+      <c r="N24" s="4"/>
     </row>
     <row r="25" spans="2:14" s="6" customFormat="1">
       <c r="B25" s="7" t="s">
@@ -3520,18 +3620,19 @@
       <c r="F25" s="9">
         <v>6</v>
       </c>
-      <c r="G25" s="6" t="e">
-        <f>IF(A25="",_xlfn.CONCAT($K$1,#REF!,B25,#REF!,$K$2,C25,D25,$K$2,E25,$K$2,F25,"),",),_xlfn.CONCAT($K$1,#REF!,A25,#REF!,$K$2,#REF!,B25,#REF!,$K$2,C25,D25,$K$2,E25,$K$2,F25,"),"))</f>
-        <v>#REF!</v>
-      </c>
-      <c r="H25" s="13">
-        <f t="shared" si="1"/>
+      <c r="G25" t="str">
+        <f>_xlfn.CONCAT($K$1,$K$3,B25,$K$3,$K$2,C25,D25,$K$2,E25,$K$2,F25,"),")</f>
+        <v>new Upgrade("Lightsaber",300000,1977,6),</v>
+      </c>
+      <c r="H25" s="12">
+        <f>C25/E25</f>
         <v>151.74506828528072</v>
       </c>
       <c r="I25" s="6">
         <f t="shared" si="2"/>
-        <v>5</v>
-      </c>
+        <v>6</v>
+      </c>
+      <c r="N25" s="4"/>
     </row>
     <row r="26" spans="2:14">
       <c r="B26" s="1" t="s">
@@ -3550,18 +3651,19 @@
       <c r="F26" s="2">
         <v>5</v>
       </c>
-      <c r="G26" t="e">
-        <f>IF(A26="",_xlfn.CONCAT($K$1,#REF!,B26,#REF!,$K$2,C26,D26,$K$2,E26,$K$2,F26,"),",),_xlfn.CONCAT($K$1,#REF!,A26,#REF!,$K$2,#REF!,B26,#REF!,$K$2,C26,D26,$K$2,E26,$K$2,F26,"),"))</f>
-        <v>#REF!</v>
-      </c>
-      <c r="H26" s="12">
-        <f t="shared" si="1"/>
+      <c r="G26" t="str">
+        <f>_xlfn.CONCAT($K$1,$K$3,B26,$K$3,$K$2,C26,D26,$K$2,E26,$K$2,F26,"),")</f>
+        <v>new Upgrade("Pet Dragon",630000,3030,5),</v>
+      </c>
+      <c r="H26" s="11">
+        <f>C26/E26</f>
         <v>207.92079207920793</v>
       </c>
       <c r="I26">
         <f t="shared" si="2"/>
-        <v>5</v>
-      </c>
+        <v>6</v>
+      </c>
+      <c r="N26" s="4"/>
     </row>
     <row r="27" spans="2:14">
       <c r="B27" s="1" t="s">
@@ -3581,22 +3683,23 @@
       <c r="F27" s="2">
         <v>6</v>
       </c>
-      <c r="G27" t="e">
-        <f>IF(A27="",_xlfn.CONCAT($K$1,#REF!,B27,#REF!,$K$2,C27,D27,$K$2,E27,$K$2,F27,"),",),_xlfn.CONCAT($K$1,#REF!,A27,#REF!,$K$2,#REF!,B27,#REF!,$K$2,C27,D27,$K$2,E27,$K$2,F27,"),"))</f>
-        <v>#REF!</v>
-      </c>
-      <c r="H27" s="12">
-        <f t="shared" si="1"/>
+      <c r="G27" t="str">
+        <f>_xlfn.CONCAT($K$1,$K$3,B27,$K$3,$K$2,C27,D27,$K$2,E27,$K$2,F27,"),")</f>
+        <v>new Upgrade("Smash Ball",400000,1500,6),</v>
+      </c>
+      <c r="H27" s="11">
+        <f>C27/E27</f>
         <v>266.66666666666669</v>
       </c>
       <c r="I27">
         <f t="shared" si="2"/>
-        <v>5</v>
-      </c>
+        <v>6</v>
+      </c>
+      <c r="N27" s="4"/>
     </row>
     <row r="28" spans="2:14" s="6" customFormat="1">
       <c r="B28" s="7" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C28" s="6">
         <v>301800</v>
@@ -3611,18 +3714,19 @@
       <c r="F28" s="9">
         <v>1</v>
       </c>
-      <c r="G28" s="6" t="e">
-        <f>IF(A28="",_xlfn.CONCAT($K$1,#REF!,B28,#REF!,$K$2,C28,D28,$K$2,E28,$K$2,F28,"),",),_xlfn.CONCAT($K$1,#REF!,A28,#REF!,$K$2,#REF!,B28,#REF!,$K$2,C28,D28,$K$2,E28,$K$2,F28,"),"))</f>
-        <v>#REF!</v>
-      </c>
-      <c r="H28" s="13">
-        <f t="shared" si="1"/>
+      <c r="G28" t="str">
+        <f>_xlfn.CONCAT($K$1,$K$3,B28,$K$3,$K$2,C28,D28,$K$2,E28,$K$2,F28,"),")</f>
+        <v>new Upgrade("Legolas's Bow",301800,2110,1),</v>
+      </c>
+      <c r="H28" s="12">
+        <f>C28/E28</f>
         <v>143.03317535545023</v>
       </c>
       <c r="I28" s="6">
         <f t="shared" si="2"/>
-        <v>5</v>
-      </c>
+        <v>6</v>
+      </c>
+      <c r="N28" s="4"/>
     </row>
     <row r="29" spans="2:14">
       <c r="B29" s="1" t="s">
@@ -3641,18 +3745,19 @@
       <c r="F29" s="2">
         <v>1</v>
       </c>
-      <c r="G29" t="e">
-        <f>IF(A29="",_xlfn.CONCAT($K$1,#REF!,B29,#REF!,$K$2,C29,D29,$K$2,E29,$K$2,F29,"),",),_xlfn.CONCAT($K$1,#REF!,A29,#REF!,$K$2,#REF!,B29,#REF!,$K$2,C29,D29,$K$2,E29,$K$2,F29,"),"))</f>
-        <v>#REF!</v>
-      </c>
-      <c r="H29" s="12">
-        <f t="shared" si="1"/>
+      <c r="G29" t="str">
+        <f>_xlfn.CONCAT($K$1,$K$3,B29,$K$3,$K$2,C29,D29,$K$2,E29,$K$2,F29,"),")</f>
+        <v>new Upgrade("Phaser Rifle",200000,1000,1),</v>
+      </c>
+      <c r="H29" s="11">
+        <f>C29/E29</f>
         <v>200</v>
       </c>
       <c r="I29">
         <f t="shared" si="2"/>
-        <v>5</v>
-      </c>
+        <v>6</v>
+      </c>
+      <c r="N29" s="4"/>
     </row>
     <row r="30" spans="2:14">
       <c r="B30" s="1" t="s">
@@ -3671,22 +3776,23 @@
       <c r="F30" s="2">
         <v>6</v>
       </c>
-      <c r="G30" t="e">
-        <f>IF(A30="",_xlfn.CONCAT($K$1,#REF!,B30,#REF!,$K$2,C30,D30,$K$2,E30,$K$2,F30,"),",),_xlfn.CONCAT($K$1,#REF!,A30,#REF!,$K$2,#REF!,B30,#REF!,$K$2,C30,D30,$K$2,E30,$K$2,F30,"),"))</f>
-        <v>#REF!</v>
-      </c>
-      <c r="H30" s="12">
-        <f t="shared" si="1"/>
+      <c r="G30" t="str">
+        <f>_xlfn.CONCAT($K$1,$K$3,B30,$K$3,$K$2,C30,D30,$K$2,E30,$K$2,F30,"),")</f>
+        <v>new Upgrade("Six-Shooter",130364,600,6),</v>
+      </c>
+      <c r="H30" s="11">
+        <f>C30/E30</f>
         <v>217.27333333333334</v>
       </c>
       <c r="I30">
         <f t="shared" si="2"/>
-        <v>5</v>
-      </c>
+        <v>6</v>
+      </c>
+      <c r="N30" s="4"/>
     </row>
     <row r="31" spans="2:14" s="6" customFormat="1">
       <c r="B31" s="7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C31" s="6">
         <v>200000</v>
@@ -3701,18 +3807,19 @@
       <c r="F31" s="9">
         <v>1</v>
       </c>
-      <c r="G31" s="6" t="e">
-        <f>IF(A31="",_xlfn.CONCAT($K$1,#REF!,B31,#REF!,$K$2,C31,D31,$K$2,E31,$K$2,F31,"),",),_xlfn.CONCAT($K$1,#REF!,A31,#REF!,$K$2,#REF!,B31,#REF!,$K$2,C31,D31,$K$2,E31,$K$2,F31,"),"))</f>
-        <v>#REF!</v>
-      </c>
-      <c r="H31" s="13">
-        <f t="shared" ref="H31:H63" si="4">C31/E31</f>
+      <c r="G31" t="str">
+        <f>_xlfn.CONCAT($K$1,$K$3,B31,$K$3,$K$2,C31,D31,$K$2,E31,$K$2,F31,"),")</f>
+        <v>new Upgrade("Kylo Ren's Helmet",200000,1350,1),</v>
+      </c>
+      <c r="H31" s="12">
+        <f>C31/E31</f>
         <v>148.14814814814815</v>
       </c>
       <c r="I31" s="6">
-        <f t="shared" ref="I31:I63" si="5">FLOOR(LOG10(C31),1)</f>
-        <v>5</v>
-      </c>
+        <f t="shared" si="2"/>
+        <v>6</v>
+      </c>
+      <c r="N31" s="4"/>
     </row>
     <row r="32" spans="2:14">
       <c r="B32" s="1" t="s">
@@ -3731,20 +3838,21 @@
       <c r="F32" s="2">
         <v>5</v>
       </c>
-      <c r="G32" t="e">
-        <f>IF(A32="",_xlfn.CONCAT($K$1,#REF!,B32,#REF!,$K$2,C32,D32,$K$2,E32,$K$2,F32,"),",),_xlfn.CONCAT($K$1,#REF!,A32,#REF!,$K$2,#REF!,B32,#REF!,$K$2,C32,D32,$K$2,E32,$K$2,F32,"),"))</f>
-        <v>#REF!</v>
-      </c>
-      <c r="H32" s="12">
-        <f t="shared" si="4"/>
+      <c r="G32" t="str">
+        <f>_xlfn.CONCAT($K$1,$K$3,B32,$K$3,$K$2,C32,D32,$K$2,E32,$K$2,F32,"),")</f>
+        <v>new Upgrade("Nuclear Bomb",500235,2390,5),</v>
+      </c>
+      <c r="H32" s="11">
+        <f>C32/E32</f>
         <v>209.30334728033472</v>
       </c>
       <c r="I32">
-        <f t="shared" si="5"/>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="33" spans="1:10">
+        <f t="shared" si="2"/>
+        <v>6</v>
+      </c>
+      <c r="N32" s="4"/>
+    </row>
+    <row r="33" spans="1:14">
       <c r="B33" s="1" t="s">
         <v>19</v>
       </c>
@@ -3761,20 +3869,21 @@
       <c r="F33" s="2">
         <v>10</v>
       </c>
-      <c r="G33" t="e">
-        <f>IF(A33="",_xlfn.CONCAT($K$1,#REF!,B33,#REF!,$K$2,C33,D33,$K$2,E33,$K$2,F33,"),",),_xlfn.CONCAT($K$1,#REF!,A33,#REF!,$K$2,#REF!,B33,#REF!,$K$2,C33,D33,$K$2,E33,$K$2,F33,"),"))</f>
-        <v>#REF!</v>
-      </c>
-      <c r="H33" s="12">
-        <f t="shared" si="4"/>
+      <c r="G33" t="str">
+        <f>_xlfn.CONCAT($K$1,$K$3,B33,$K$3,$K$2,C33,D33,$K$2,E33,$K$2,F33,"),")</f>
+        <v>new Upgrade("Bowcaster",155893,563,10),</v>
+      </c>
+      <c r="H33" s="11">
+        <f>C33/E33</f>
         <v>276.89698046181172</v>
       </c>
       <c r="I33">
-        <f t="shared" si="5"/>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="34" spans="1:10" s="6" customFormat="1">
+        <f t="shared" si="2"/>
+        <v>6</v>
+      </c>
+      <c r="N33" s="4"/>
+    </row>
+    <row r="34" spans="1:14" s="6" customFormat="1">
       <c r="B34" s="7" t="s">
         <v>28</v>
       </c>
@@ -3792,23 +3901,24 @@
       <c r="F34" s="9">
         <v>1</v>
       </c>
-      <c r="G34" s="6" t="e">
-        <f>IF(A34="",_xlfn.CONCAT($K$1,#REF!,B34,#REF!,$K$2,C34,D34,$K$2,E34,$K$2,F34,"),",),_xlfn.CONCAT($K$1,#REF!,A34,#REF!,$K$2,#REF!,B34,#REF!,$K$2,C34,D34,$K$2,E34,$K$2,F34,"),"))</f>
-        <v>#REF!</v>
-      </c>
-      <c r="H34" s="13">
-        <f t="shared" si="4"/>
+      <c r="G34" t="str">
+        <f>_xlfn.CONCAT($K$1,$K$3,B34,$K$3,$K$2,C34,D34,$K$2,E34,$K$2,F34,"),")</f>
+        <v>new Upgrade("Genesis Device",765482,4570,1),</v>
+      </c>
+      <c r="H34" s="12">
+        <f>C34/E34</f>
         <v>167.50153172866521</v>
       </c>
       <c r="I34" s="6">
-        <f t="shared" si="5"/>
-        <v>5</v>
+        <f t="shared" ref="I34:I65" si="4">CEILING(LOG10(C34),1)</f>
+        <v>6</v>
       </c>
       <c r="J34" s="6" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="35" spans="1:10">
+        <v>95</v>
+      </c>
+      <c r="N34" s="4"/>
+    </row>
+    <row r="35" spans="1:14">
       <c r="B35" s="1" t="s">
         <v>42</v>
       </c>
@@ -3825,20 +3935,21 @@
       <c r="F35" s="2">
         <v>1</v>
       </c>
-      <c r="G35" t="e">
-        <f>IF(A35="",_xlfn.CONCAT($K$1,#REF!,B35,#REF!,$K$2,C35,D35,$K$2,E35,$K$2,F35,"),",),_xlfn.CONCAT($K$1,#REF!,A35,#REF!,$K$2,#REF!,B35,#REF!,$K$2,C35,D35,$K$2,E35,$K$2,F35,"),"))</f>
-        <v>#REF!</v>
-      </c>
-      <c r="H35" s="12">
+      <c r="G35" t="str">
+        <f>_xlfn.CONCAT($K$1,$K$3,B35,$K$3,$K$2,C35,D35,$K$2,E35,$K$2,F35,"),")</f>
+        <v>new Upgrade("A bad feeling about this",166830,1138,1),</v>
+      </c>
+      <c r="H35" s="11">
+        <f>C35/E35</f>
+        <v>146.59929701230229</v>
+      </c>
+      <c r="I35">
         <f t="shared" si="4"/>
-        <v>146.59929701230229</v>
-      </c>
-      <c r="I35">
-        <f t="shared" si="5"/>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="36" spans="1:10" s="6" customFormat="1">
+        <v>6</v>
+      </c>
+      <c r="N35" s="4"/>
+    </row>
+    <row r="36" spans="1:14" s="6" customFormat="1">
       <c r="B36" s="7" t="s">
         <v>10</v>
       </c>
@@ -3855,23 +3966,24 @@
       <c r="F36" s="9">
         <v>2</v>
       </c>
-      <c r="G36" s="6" t="e">
-        <f>IF(A36="",_xlfn.CONCAT($K$1,#REF!,B36,#REF!,$K$2,C36,D36,$K$2,E36,$K$2,F36,"),",),_xlfn.CONCAT($K$1,#REF!,A36,#REF!,$K$2,#REF!,B36,#REF!,$K$2,C36,D36,$K$2,E36,$K$2,F36,"),"))</f>
-        <v>#REF!</v>
-      </c>
-      <c r="H36" s="13">
+      <c r="G36" t="str">
+        <f>_xlfn.CONCAT($K$1,$K$3,B36,$K$3,$K$2,C36,D36,$K$2,E36,$K$2,F36,"),")</f>
+        <v>new Upgrade("Death Star",1344339,7324,2),</v>
+      </c>
+      <c r="H36" s="12">
+        <f>C36/E36</f>
+        <v>183.55256690333152</v>
+      </c>
+      <c r="I36" s="6">
         <f t="shared" si="4"/>
-        <v>183.55256690333152</v>
-      </c>
-      <c r="I36" s="6">
-        <f t="shared" si="5"/>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="J36" s="6" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="37" spans="1:10">
+        <v>95</v>
+      </c>
+      <c r="N36" s="4"/>
+    </row>
+    <row r="37" spans="1:14">
       <c r="B37" s="1" t="s">
         <v>6</v>
       </c>
@@ -3888,25 +4000,26 @@
       <c r="F37" s="2">
         <v>10</v>
       </c>
-      <c r="G37" t="e">
-        <f>IF(A37="",_xlfn.CONCAT($K$1,#REF!,B37,#REF!,$K$2,C37,D37,$K$2,E37,$K$2,F37,"),",),_xlfn.CONCAT($K$1,#REF!,A37,#REF!,$K$2,#REF!,B37,#REF!,$K$2,C37,D37,$K$2,E37,$K$2,F37,"),"))</f>
-        <v>#REF!</v>
-      </c>
-      <c r="H37" s="12">
+      <c r="G37" t="str">
+        <f>_xlfn.CONCAT($K$1,$K$3,B37,$K$3,$K$2,C37,D37,$K$2,E37,$K$2,F37,"),")</f>
+        <v>new Upgrade("Rocket",100000,500,10),</v>
+      </c>
+      <c r="H37" s="11">
+        <f>C37/E37</f>
+        <v>200</v>
+      </c>
+      <c r="I37">
         <f t="shared" si="4"/>
-        <v>200</v>
-      </c>
-      <c r="I37">
-        <f t="shared" si="5"/>
         <v>5</v>
       </c>
-    </row>
-    <row r="38" spans="1:10" s="6" customFormat="1">
+      <c r="N37" s="4"/>
+    </row>
+    <row r="38" spans="1:14" s="6" customFormat="1">
       <c r="A38" s="7" t="s">
         <v>15</v>
       </c>
       <c r="B38" s="6" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C38" s="6">
         <v>2963500</v>
@@ -3922,23 +4035,24 @@
       <c r="F38" s="9">
         <v>19</v>
       </c>
-      <c r="G38" s="6" t="e">
-        <f>IF(A38="",_xlfn.CONCAT($K$1,#REF!,B38,#REF!,$K$2,C38,D38,$K$2,E38,$K$2,F38,"),",),_xlfn.CONCAT($K$1,#REF!,A38,#REF!,$K$2,#REF!,B38,#REF!,$K$2,C38,D38,$K$2,E38,$K$2,F38,"),"))</f>
-        <v>#REF!</v>
-      </c>
-      <c r="H38" s="13">
+      <c r="G38" t="str">
+        <f>_xlfn.CONCAT($K$1,$K$3,B38,$K$3,$K$2,C38,D38,$K$2,E38,$K$2,F38,"),")</f>
+        <v>new Upgrade("Ring of Power",2963500,19776,19),</v>
+      </c>
+      <c r="H38" s="12">
+        <f>C38/E38</f>
+        <v>149.85335760517799</v>
+      </c>
+      <c r="I38" s="6">
         <f t="shared" si="4"/>
-        <v>149.85335760517799</v>
-      </c>
-      <c r="I38" s="6">
-        <f t="shared" si="5"/>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="J38" s="6" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="39" spans="1:10" s="6" customFormat="1">
+        <v>95</v>
+      </c>
+      <c r="N38" s="4"/>
+    </row>
+    <row r="39" spans="1:14" s="6" customFormat="1">
       <c r="B39" s="7" t="s">
         <v>17</v>
       </c>
@@ -3955,23 +4069,24 @@
       <c r="F39" s="9">
         <v>1</v>
       </c>
-      <c r="G39" s="6" t="e">
-        <f>IF(A39="",_xlfn.CONCAT($K$1,#REF!,B39,#REF!,$K$2,C39,D39,$K$2,E39,$K$2,F39,"),",),_xlfn.CONCAT($K$1,#REF!,A39,#REF!,$K$2,#REF!,B39,#REF!,$K$2,C39,D39,$K$2,E39,$K$2,F39,"),"))</f>
-        <v>#REF!</v>
-      </c>
-      <c r="H39" s="13">
+      <c r="G39" t="str">
+        <f>_xlfn.CONCAT($K$1,$K$3,B39,$K$3,$K$2,C39,D39,$K$2,E39,$K$2,F39,"),")</f>
+        <v>new Upgrade("Stormbreaker",1375947,10000,1),</v>
+      </c>
+      <c r="H39" s="12">
+        <f>C39/E39</f>
+        <v>137.59469999999999</v>
+      </c>
+      <c r="I39" s="6">
         <f t="shared" si="4"/>
-        <v>137.59469999999999</v>
-      </c>
-      <c r="I39" s="6">
-        <f t="shared" si="5"/>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="J39" s="6" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="40" spans="1:10">
+        <v>95</v>
+      </c>
+      <c r="N39" s="4"/>
+    </row>
+    <row r="40" spans="1:14">
       <c r="B40" s="1" t="s">
         <v>32</v>
       </c>
@@ -3988,22 +4103,23 @@
       <c r="F40" s="2">
         <v>10</v>
       </c>
-      <c r="G40" t="e">
-        <f>IF(A40="",_xlfn.CONCAT($K$1,#REF!,B40,#REF!,$K$2,C40,D40,$K$2,E40,$K$2,F40,"),",),_xlfn.CONCAT($K$1,#REF!,A40,#REF!,$K$2,#REF!,B40,#REF!,$K$2,C40,D40,$K$2,E40,$K$2,F40,"),"))</f>
-        <v>#REF!</v>
-      </c>
-      <c r="H40" s="12">
+      <c r="G40" t="str">
+        <f>_xlfn.CONCAT($K$1,$K$3,B40,$K$3,$K$2,C40,D40,$K$2,E40,$K$2,F40,"),")</f>
+        <v>new Upgrade("Medpack",100000,500,10),</v>
+      </c>
+      <c r="H40" s="11">
+        <f>C40/E40</f>
+        <v>200</v>
+      </c>
+      <c r="I40">
         <f t="shared" si="4"/>
-        <v>200</v>
-      </c>
-      <c r="I40">
-        <f t="shared" si="5"/>
         <v>5</v>
       </c>
-    </row>
-    <row r="41" spans="1:10" s="6" customFormat="1">
+      <c r="N40" s="4"/>
+    </row>
+    <row r="41" spans="1:14" s="6" customFormat="1">
       <c r="B41" s="7" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C41" s="6">
         <v>1019358</v>
@@ -4018,23 +4134,24 @@
       <c r="F41" s="9">
         <v>1</v>
       </c>
-      <c r="G41" s="6" t="e">
-        <f>IF(A41="",_xlfn.CONCAT($K$1,#REF!,B41,#REF!,$K$2,C41,D41,$K$2,E41,$K$2,F41,"),",),_xlfn.CONCAT($K$1,#REF!,A41,#REF!,$K$2,#REF!,B41,#REF!,$K$2,C41,D41,$K$2,E41,$K$2,F41,"),"))</f>
-        <v>#REF!</v>
-      </c>
-      <c r="H41" s="13">
+      <c r="G41" t="str">
+        <f>_xlfn.CONCAT($K$1,$K$3,B41,$K$3,$K$2,C41,D41,$K$2,E41,$K$2,F41,"),")</f>
+        <v>new Upgrade("Mario's Hat",1019358,5342,1),</v>
+      </c>
+      <c r="H41" s="12">
+        <f>C41/E41</f>
+        <v>190.81954324223136</v>
+      </c>
+      <c r="I41" s="6">
         <f t="shared" si="4"/>
-        <v>190.81954324223136</v>
-      </c>
-      <c r="I41" s="6">
-        <f t="shared" si="5"/>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="J41" s="6" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="42" spans="1:10">
+        <v>95</v>
+      </c>
+      <c r="N41" s="4"/>
+    </row>
+    <row r="42" spans="1:14">
       <c r="B42" s="1" t="s">
         <v>44</v>
       </c>
@@ -4051,20 +4168,21 @@
       <c r="F42" s="2">
         <v>10</v>
       </c>
-      <c r="G42" t="e">
-        <f>IF(A42="",_xlfn.CONCAT($K$1,#REF!,B42,#REF!,$K$2,C42,D42,$K$2,E42,$K$2,F42,"),",),_xlfn.CONCAT($K$1,#REF!,A42,#REF!,$K$2,#REF!,B42,#REF!,$K$2,C42,D42,$K$2,E42,$K$2,F42,"),"))</f>
-        <v>#REF!</v>
-      </c>
-      <c r="H42" s="12">
+      <c r="G42" t="str">
+        <f>_xlfn.CONCAT($K$1,$K$3,B42,$K$3,$K$2,C42,D42,$K$2,E42,$K$2,F42,"),")</f>
+        <v>new Upgrade("Blender (the program)",530000,2140,10),</v>
+      </c>
+      <c r="H42" s="11">
+        <f>C42/E42</f>
+        <v>247.66355140186917</v>
+      </c>
+      <c r="I42">
         <f t="shared" si="4"/>
-        <v>247.66355140186917</v>
-      </c>
-      <c r="I42">
-        <f t="shared" si="5"/>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="43" spans="1:10">
+        <v>6</v>
+      </c>
+      <c r="N42" s="4"/>
+    </row>
+    <row r="43" spans="1:14">
       <c r="B43" s="1" t="s">
         <v>45</v>
       </c>
@@ -4081,23 +4199,24 @@
       <c r="F43" s="2">
         <v>1</v>
       </c>
-      <c r="G43" t="e">
-        <f>IF(A43="",_xlfn.CONCAT($K$1,#REF!,B43,#REF!,$K$2,C43,D43,$K$2,E43,$K$2,F43,"),",),_xlfn.CONCAT($K$1,#REF!,A43,#REF!,$K$2,#REF!,B43,#REF!,$K$2,C43,D43,$K$2,E43,$K$2,F43,"),"))</f>
-        <v>#REF!</v>
-      </c>
-      <c r="H43" s="12">
+      <c r="G43" t="str">
+        <f>_xlfn.CONCAT($K$1,$K$3,B43,$K$3,$K$2,C43,D43,$K$2,E43,$K$2,F43,"),")</f>
+        <v>new Upgrade("iPhone XR",300000,1215,1),</v>
+      </c>
+      <c r="H43" s="11">
+        <f>C43/E43</f>
+        <v>246.91358024691357</v>
+      </c>
+      <c r="I43">
         <f t="shared" si="4"/>
-        <v>246.91358024691357</v>
-      </c>
-      <c r="I43">
-        <f t="shared" si="5"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="J43" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="44" spans="1:10">
+        <v>95</v>
+      </c>
+      <c r="N43" s="4"/>
+    </row>
+    <row r="44" spans="1:14">
       <c r="B44" s="1" t="s">
         <v>46</v>
       </c>
@@ -4114,23 +4233,24 @@
       <c r="F44" s="2">
         <v>10</v>
       </c>
-      <c r="G44" t="e">
-        <f>IF(A44="",_xlfn.CONCAT($K$1,#REF!,B44,#REF!,$K$2,C44,D44,$K$2,E44,$K$2,F44,"),",),_xlfn.CONCAT($K$1,#REF!,A44,#REF!,$K$2,#REF!,B44,#REF!,$K$2,C44,D44,$K$2,E44,$K$2,F44,"),"))</f>
-        <v>#REF!</v>
-      </c>
-      <c r="H44" s="12">
+      <c r="G44" t="str">
+        <f>_xlfn.CONCAT($K$1,$K$3,B44,$K$3,$K$2,C44,D44,$K$2,E44,$K$2,F44,"),")</f>
+        <v>new Upgrade("Stormtrooper Helmet",13630,70,10),</v>
+      </c>
+      <c r="H44" s="11">
+        <f>C44/E44</f>
+        <v>194.71428571428572</v>
+      </c>
+      <c r="I44">
         <f t="shared" si="4"/>
-        <v>194.71428571428572</v>
-      </c>
-      <c r="I44">
-        <f t="shared" si="5"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J44" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="45" spans="1:10">
+        <v>95</v>
+      </c>
+      <c r="N44" s="4"/>
+    </row>
+    <row r="45" spans="1:14">
       <c r="B45" s="1" t="s">
         <v>33</v>
       </c>
@@ -4147,23 +4267,24 @@
       <c r="F45" s="2">
         <v>10</v>
       </c>
-      <c r="G45" t="e">
-        <f>IF(A45="",_xlfn.CONCAT($K$1,#REF!,B45,#REF!,$K$2,C45,D45,$K$2,E45,$K$2,F45,"),",),_xlfn.CONCAT($K$1,#REF!,A45,#REF!,$K$2,#REF!,B45,#REF!,$K$2,C45,D45,$K$2,E45,$K$2,F45,"),"))</f>
-        <v>#REF!</v>
-      </c>
-      <c r="H45" s="12">
+      <c r="G45" t="str">
+        <f>_xlfn.CONCAT($K$1,$K$3,B45,$K$3,$K$2,C45,D45,$K$2,E45,$K$2,F45,"),")</f>
+        <v>new Upgrade("Sandwitch",22414,84,10),</v>
+      </c>
+      <c r="H45" s="11">
+        <f>C45/E45</f>
+        <v>266.83333333333331</v>
+      </c>
+      <c r="I45">
         <f t="shared" si="4"/>
-        <v>266.83333333333331</v>
-      </c>
-      <c r="I45">
-        <f t="shared" si="5"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J45" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="46" spans="1:10">
+        <v>95</v>
+      </c>
+      <c r="N45" s="4"/>
+    </row>
+    <row r="46" spans="1:14">
       <c r="B46" s="1" t="s">
         <v>65</v>
       </c>
@@ -4180,20 +4301,21 @@
       <c r="F46" s="2">
         <v>10</v>
       </c>
-      <c r="G46" t="e">
-        <f>IF(A46="",_xlfn.CONCAT($K$1,#REF!,B46,#REF!,$K$2,C46,D46,$K$2,E46,$K$2,F46,"),",),_xlfn.CONCAT($K$1,#REF!,A46,#REF!,$K$2,#REF!,B46,#REF!,$K$2,C46,D46,$K$2,E46,$K$2,F46,"),"))</f>
-        <v>#REF!</v>
-      </c>
-      <c r="H46" s="12">
+      <c r="G46" t="str">
+        <f>_xlfn.CONCAT($K$1,$K$3,B46,$K$3,$K$2,C46,D46,$K$2,E46,$K$2,F46,"),")</f>
+        <v>new Upgrade("Oculus",39999,199,10),</v>
+      </c>
+      <c r="H46" s="11">
+        <f>C46/E46</f>
+        <v>201</v>
+      </c>
+      <c r="I46">
         <f t="shared" si="4"/>
-        <v>201</v>
-      </c>
-      <c r="I46">
-        <f t="shared" si="5"/>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="47" spans="1:10">
+        <v>5</v>
+      </c>
+      <c r="N46" s="4"/>
+    </row>
+    <row r="47" spans="1:14">
       <c r="B47" s="1" t="s">
         <v>27</v>
       </c>
@@ -4210,20 +4332,21 @@
       <c r="F47" s="2">
         <v>6</v>
       </c>
-      <c r="G47" t="e">
-        <f>IF(A47="",_xlfn.CONCAT($K$1,#REF!,B47,#REF!,$K$2,C47,D47,$K$2,E47,$K$2,F47,"),",),_xlfn.CONCAT($K$1,#REF!,A47,#REF!,$K$2,#REF!,B47,#REF!,$K$2,C47,D47,$K$2,E47,$K$2,F47,"),"))</f>
-        <v>#REF!</v>
-      </c>
-      <c r="H47" s="12">
+      <c r="G47" t="str">
+        <f>_xlfn.CONCAT($K$1,$K$3,B47,$K$3,$K$2,C47,D47,$K$2,E47,$K$2,F47,"),")</f>
+        <v>new Upgrade("Shards of Narsil",20000,97,6),</v>
+      </c>
+      <c r="H47" s="11">
+        <f>C47/E47</f>
+        <v>206.18556701030928</v>
+      </c>
+      <c r="I47">
         <f t="shared" si="4"/>
-        <v>206.18556701030928</v>
-      </c>
-      <c r="I47">
-        <f t="shared" si="5"/>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="48" spans="1:10">
+        <v>5</v>
+      </c>
+      <c r="N47" s="4"/>
+    </row>
+    <row r="48" spans="1:14">
       <c r="B48" s="1" t="s">
         <v>5</v>
       </c>
@@ -4241,23 +4364,24 @@
       <c r="F48" s="2">
         <v>10</v>
       </c>
-      <c r="G48" t="e">
-        <f>IF(A48="",_xlfn.CONCAT($K$1,#REF!,B48,#REF!,$K$2,C48,D48,$K$2,E48,$K$2,F48,"),",),_xlfn.CONCAT($K$1,#REF!,A48,#REF!,$K$2,#REF!,B48,#REF!,$K$2,C48,D48,$K$2,E48,$K$2,F48,"),"))</f>
-        <v>#REF!</v>
-      </c>
-      <c r="H48" s="12">
+      <c r="G48" t="str">
+        <f>_xlfn.CONCAT($K$1,$K$3,B48,$K$3,$K$2,C48,D48,$K$2,E48,$K$2,F48,"),")</f>
+        <v>new Upgrade("Batarang",14645,70,10),</v>
+      </c>
+      <c r="H48" s="11">
+        <f>C48/E48</f>
+        <v>209.21428571428572</v>
+      </c>
+      <c r="I48">
         <f t="shared" si="4"/>
-        <v>209.21428571428572</v>
-      </c>
-      <c r="I48">
-        <f t="shared" si="5"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J48" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="49" spans="1:10">
+        <v>95</v>
+      </c>
+      <c r="N48" s="4"/>
+    </row>
+    <row r="49" spans="1:14">
       <c r="B49" s="1" t="s">
         <v>14</v>
       </c>
@@ -4274,20 +4398,21 @@
       <c r="F49" s="2">
         <v>100</v>
       </c>
-      <c r="G49" t="e">
-        <f>IF(A49="",_xlfn.CONCAT($K$1,#REF!,B49,#REF!,$K$2,C49,D49,$K$2,E49,$K$2,F49,"),",),_xlfn.CONCAT($K$1,#REF!,A49,#REF!,$K$2,#REF!,B49,#REF!,$K$2,C49,D49,$K$2,E49,$K$2,F49,"),"))</f>
-        <v>#REF!</v>
-      </c>
-      <c r="H49" s="12">
+      <c r="G49" t="str">
+        <f>_xlfn.CONCAT($K$1,$K$3,B49,$K$3,$K$2,C49,D49,$K$2,E49,$K$2,F49,"),")</f>
+        <v>new Upgrade("Sword",10000,51,100),</v>
+      </c>
+      <c r="H49" s="11">
+        <f>C49/E49</f>
+        <v>196.07843137254903</v>
+      </c>
+      <c r="I49">
         <f t="shared" si="4"/>
-        <v>196.07843137254903</v>
-      </c>
-      <c r="I49">
-        <f t="shared" si="5"/>
         <v>4</v>
       </c>
-    </row>
-    <row r="50" spans="1:10">
+      <c r="N49" s="4"/>
+    </row>
+    <row r="50" spans="1:14">
       <c r="B50" s="1" t="s">
         <v>34</v>
       </c>
@@ -4304,20 +4429,21 @@
       <c r="F50" s="2">
         <v>10</v>
       </c>
-      <c r="G50" t="e">
-        <f>IF(A50="",_xlfn.CONCAT($K$1,#REF!,B50,#REF!,$K$2,C50,D50,$K$2,E50,$K$2,F50,"),",),_xlfn.CONCAT($K$1,#REF!,A50,#REF!,$K$2,#REF!,B50,#REF!,$K$2,C50,D50,$K$2,E50,$K$2,F50,"),"))</f>
-        <v>#REF!</v>
-      </c>
-      <c r="H50" s="12">
+      <c r="G50" t="str">
+        <f>_xlfn.CONCAT($K$1,$K$3,B50,$K$3,$K$2,C50,D50,$K$2,E50,$K$2,F50,"),")</f>
+        <v>new Upgrade("Water Bottle",10000,49,10),</v>
+      </c>
+      <c r="H50" s="11">
+        <f>C50/E50</f>
+        <v>204.08163265306123</v>
+      </c>
+      <c r="I50">
         <f t="shared" si="4"/>
-        <v>204.08163265306123</v>
-      </c>
-      <c r="I50">
-        <f t="shared" si="5"/>
         <v>4</v>
       </c>
-    </row>
-    <row r="51" spans="1:10">
+      <c r="N50" s="4"/>
+    </row>
+    <row r="51" spans="1:14">
       <c r="B51" s="1" t="s">
         <v>39</v>
       </c>
@@ -4334,23 +4460,24 @@
       <c r="F51" s="2">
         <v>10</v>
       </c>
-      <c r="G51" t="e">
-        <f>IF(A51="",_xlfn.CONCAT($K$1,#REF!,B51,#REF!,$K$2,C51,D51,$K$2,E51,$K$2,F51,"),",),_xlfn.CONCAT($K$1,#REF!,A51,#REF!,$K$2,#REF!,B51,#REF!,$K$2,C51,D51,$K$2,E51,$K$2,F51,"),"))</f>
-        <v>#REF!</v>
-      </c>
-      <c r="H51" s="12">
+      <c r="G51" t="str">
+        <f>_xlfn.CONCAT($K$1,$K$3,B51,$K$3,$K$2,C51,D51,$K$2,E51,$K$2,F51,"),")</f>
+        <v>new Upgrade("Easy Button",667186,2839,10),</v>
+      </c>
+      <c r="H51" s="11">
+        <f>C51/E51</f>
+        <v>235.00739697076435</v>
+      </c>
+      <c r="I51">
         <f t="shared" si="4"/>
-        <v>235.00739697076435</v>
-      </c>
-      <c r="I51">
-        <f t="shared" si="5"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="J51" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="52" spans="1:10">
+        <v>96</v>
+      </c>
+      <c r="N51" s="4"/>
+    </row>
+    <row r="52" spans="1:14">
       <c r="B52" s="1" t="s">
         <v>43</v>
       </c>
@@ -4367,20 +4494,21 @@
       <c r="F52" s="2">
         <v>7</v>
       </c>
-      <c r="G52" t="e">
-        <f>IF(A52="",_xlfn.CONCAT($K$1,#REF!,B52,#REF!,$K$2,C52,D52,$K$2,E52,$K$2,F52,"),",),_xlfn.CONCAT($K$1,#REF!,A52,#REF!,$K$2,#REF!,B52,#REF!,$K$2,C52,D52,$K$2,E52,$K$2,F52,"),"))</f>
-        <v>#REF!</v>
-      </c>
-      <c r="H52" s="12">
+      <c r="G52" t="str">
+        <f>_xlfn.CONCAT($K$1,$K$3,B52,$K$3,$K$2,C52,D52,$K$2,E52,$K$2,F52,"),")</f>
+        <v>new Upgrade("Blender (for food)",10000,43,7),</v>
+      </c>
+      <c r="H52" s="11">
+        <f>C52/E52</f>
+        <v>232.55813953488371</v>
+      </c>
+      <c r="I52">
         <f t="shared" si="4"/>
-        <v>232.55813953488371</v>
-      </c>
-      <c r="I52">
-        <f t="shared" si="5"/>
         <v>4</v>
       </c>
-    </row>
-    <row r="53" spans="1:10">
+      <c r="N52" s="4"/>
+    </row>
+    <row r="53" spans="1:14">
       <c r="B53" s="1" t="s">
         <v>64</v>
       </c>
@@ -4398,23 +4526,24 @@
       <c r="F53" s="2">
         <v>1</v>
       </c>
-      <c r="G53" t="e">
-        <f>IF(A53="",_xlfn.CONCAT($K$1,#REF!,B53,#REF!,$K$2,C53,D53,$K$2,E53,$K$2,F53,"),",),_xlfn.CONCAT($K$1,#REF!,A53,#REF!,$K$2,#REF!,B53,#REF!,$K$2,C53,D53,$K$2,E53,$K$2,F53,"),"))</f>
-        <v>#REF!</v>
-      </c>
-      <c r="H53" s="12">
+      <c r="G53" t="str">
+        <f>_xlfn.CONCAT($K$1,$K$3,B53,$K$3,$K$2,C53,D53,$K$2,E53,$K$2,F53,"),")</f>
+        <v>new Upgrade("The Piece of Resistance",998520,4950,1),</v>
+      </c>
+      <c r="H53" s="11">
+        <f>C53/E53</f>
+        <v>201.72121212121212</v>
+      </c>
+      <c r="I53">
         <f t="shared" si="4"/>
-        <v>201.72121212121212</v>
-      </c>
-      <c r="I53">
-        <f t="shared" si="5"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="J53" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="54" spans="1:10">
+        <v>96</v>
+      </c>
+      <c r="N53" s="4"/>
+    </row>
+    <row r="54" spans="1:14">
       <c r="B54" s="1" t="s">
         <v>36</v>
       </c>
@@ -4431,20 +4560,21 @@
       <c r="F54" s="2">
         <v>200</v>
       </c>
-      <c r="G54" t="e">
-        <f>IF(A54="",_xlfn.CONCAT($K$1,#REF!,B54,#REF!,$K$2,C54,D54,$K$2,E54,$K$2,F54,"),",),_xlfn.CONCAT($K$1,#REF!,A54,#REF!,$K$2,#REF!,B54,#REF!,$K$2,C54,D54,$K$2,E54,$K$2,F54,"),"))</f>
-        <v>#REF!</v>
-      </c>
-      <c r="H54" s="12">
+      <c r="G54" t="str">
+        <f>_xlfn.CONCAT($K$1,$K$3,B54,$K$3,$K$2,C54,D54,$K$2,E54,$K$2,F54,"),")</f>
+        <v>new Upgrade("Shield",5000,25,200),</v>
+      </c>
+      <c r="H54" s="11">
+        <f>C54/E54</f>
+        <v>200</v>
+      </c>
+      <c r="I54">
         <f t="shared" si="4"/>
-        <v>200</v>
-      </c>
-      <c r="I54">
-        <f t="shared" si="5"/>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="55" spans="1:10">
+        <v>4</v>
+      </c>
+      <c r="N54" s="4"/>
+    </row>
+    <row r="55" spans="1:14">
       <c r="B55" s="1" t="s">
         <v>18</v>
       </c>
@@ -4461,22 +4591,23 @@
       <c r="F55" s="2">
         <v>4</v>
       </c>
-      <c r="G55" t="e">
-        <f>IF(A55="",_xlfn.CONCAT($K$1,#REF!,B55,#REF!,$K$2,C55,D55,$K$2,E55,$K$2,F55,"),",),_xlfn.CONCAT($K$1,#REF!,A55,#REF!,$K$2,#REF!,B55,#REF!,$K$2,C55,D55,$K$2,E55,$K$2,F55,"),"))</f>
-        <v>#REF!</v>
-      </c>
-      <c r="H55" s="12">
+      <c r="G55" t="str">
+        <f>_xlfn.CONCAT($K$1,$K$3,B55,$K$3,$K$2,C55,D55,$K$2,E55,$K$2,F55,"),")</f>
+        <v>new Upgrade("Shark Repellent Bat Spray",1996,10,4),</v>
+      </c>
+      <c r="H55" s="11">
+        <f>C55/E55</f>
+        <v>199.6</v>
+      </c>
+      <c r="I55">
         <f t="shared" si="4"/>
-        <v>199.6</v>
-      </c>
-      <c r="I55">
-        <f t="shared" si="5"/>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="56" spans="1:10" s="6" customFormat="1">
+        <v>4</v>
+      </c>
+      <c r="N55" s="4"/>
+    </row>
+    <row r="56" spans="1:14" s="6" customFormat="1">
       <c r="B56" s="7" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C56" s="6">
         <v>957440</v>
@@ -4491,23 +4622,24 @@
       <c r="F56" s="9">
         <v>1</v>
       </c>
-      <c r="G56" s="6" t="e">
-        <f>IF(A56="",_xlfn.CONCAT($K$1,#REF!,B56,#REF!,$K$2,C56,D56,$K$2,E56,$K$2,F56,"),",),_xlfn.CONCAT($K$1,#REF!,A56,#REF!,$K$2,#REF!,B56,#REF!,$K$2,C56,D56,$K$2,E56,$K$2,F56,"),"))</f>
-        <v>#REF!</v>
-      </c>
-      <c r="H56" s="13">
+      <c r="G56" t="str">
+        <f>_xlfn.CONCAT($K$1,$K$3,B56,$K$3,$K$2,C56,D56,$K$2,E56,$K$2,F56,"),")</f>
+        <v>new Upgrade("Kirk's Glasses",957440,4329,1),</v>
+      </c>
+      <c r="H56" s="12">
+        <f>C56/E56</f>
+        <v>221.16886116886116</v>
+      </c>
+      <c r="I56" s="6">
         <f t="shared" si="4"/>
-        <v>221.16886116886116</v>
-      </c>
-      <c r="I56" s="6">
-        <f t="shared" si="5"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="J56" s="6" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="57" spans="1:10">
+        <v>95</v>
+      </c>
+      <c r="N56" s="4"/>
+    </row>
+    <row r="57" spans="1:14">
       <c r="B57" s="1" t="s">
         <v>37</v>
       </c>
@@ -4524,20 +4656,21 @@
       <c r="F57" s="2">
         <v>100</v>
       </c>
-      <c r="G57" t="e">
-        <f>IF(A57="",_xlfn.CONCAT($K$1,#REF!,B57,#REF!,$K$2,C57,D57,$K$2,E57,$K$2,F57,"),",),_xlfn.CONCAT($K$1,#REF!,A57,#REF!,$K$2,#REF!,B57,#REF!,$K$2,C57,D57,$K$2,E57,$K$2,F57,"),"))</f>
-        <v>#REF!</v>
-      </c>
-      <c r="H57" s="12">
+      <c r="G57" t="str">
+        <f>_xlfn.CONCAT($K$1,$K$3,B57,$K$3,$K$2,C57,D57,$K$2,E57,$K$2,F57,"),")</f>
+        <v>new Upgrade("Popcorn",1000,5,100),</v>
+      </c>
+      <c r="H57" s="11">
+        <f>C57/E57</f>
+        <v>200</v>
+      </c>
+      <c r="I57">
         <f t="shared" si="4"/>
-        <v>200</v>
-      </c>
-      <c r="I57">
-        <f t="shared" si="5"/>
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="1:10">
+      <c r="N57" s="4"/>
+    </row>
+    <row r="58" spans="1:14">
       <c r="B58" s="1" t="s">
         <v>63</v>
       </c>
@@ -4554,25 +4687,26 @@
       <c r="F58" s="2">
         <v>10</v>
       </c>
-      <c r="G58" t="e">
-        <f>IF(A58="",_xlfn.CONCAT($K$1,#REF!,B58,#REF!,$K$2,C58,D58,$K$2,E58,$K$2,F58,"),",),_xlfn.CONCAT($K$1,#REF!,A58,#REF!,$K$2,#REF!,B58,#REF!,$K$2,C58,D58,$K$2,E58,$K$2,F58,"),"))</f>
-        <v>#REF!</v>
-      </c>
-      <c r="H58" s="12">
+      <c r="G58" t="str">
+        <f>_xlfn.CONCAT($K$1,$K$3,B58,$K$3,$K$2,C58,D58,$K$2,E58,$K$2,F58,"),")</f>
+        <v>new Upgrade("Book",451,2,10),</v>
+      </c>
+      <c r="H58" s="11">
+        <f>C58/E58</f>
+        <v>225.5</v>
+      </c>
+      <c r="I58">
         <f t="shared" si="4"/>
-        <v>225.5</v>
-      </c>
-      <c r="I58">
-        <f t="shared" si="5"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="59" spans="1:10">
+        <v>3</v>
+      </c>
+      <c r="N58" s="4"/>
+    </row>
+    <row r="59" spans="1:14">
       <c r="A59" s="1" t="s">
         <v>40</v>
       </c>
       <c r="B59" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C59">
         <v>100</v>
@@ -4587,20 +4721,21 @@
       <c r="F59" s="2">
         <v>1</v>
       </c>
-      <c r="G59" t="e">
-        <f>IF(A59="",_xlfn.CONCAT($K$1,#REF!,B59,#REF!,$K$2,C59,D59,$K$2,E59,$K$2,F59,"),",),_xlfn.CONCAT($K$1,#REF!,A59,#REF!,$K$2,#REF!,B59,#REF!,$K$2,C59,D59,$K$2,E59,$K$2,F59,"),"))</f>
-        <v>#REF!</v>
-      </c>
-      <c r="H59" s="12">
+      <c r="G59" t="str">
+        <f>_xlfn.CONCAT($K$1,$K$3,B59,$K$3,$K$2,C59,D59,$K$2,E59,$K$2,F59,"),")</f>
+        <v>new Upgrade("Cookie",100,3,1),</v>
+      </c>
+      <c r="H59" s="11">
+        <f>C59/E59</f>
+        <v>33.333333333333336</v>
+      </c>
+      <c r="I59">
         <f t="shared" si="4"/>
-        <v>33.333333333333336</v>
-      </c>
-      <c r="I59">
-        <f t="shared" si="5"/>
         <v>2</v>
       </c>
-    </row>
-    <row r="60" spans="1:10">
+      <c r="N59" s="4"/>
+    </row>
+    <row r="60" spans="1:14">
       <c r="B60" s="1" t="s">
         <v>31</v>
       </c>
@@ -4608,7 +4743,7 @@
         <v>200</v>
       </c>
       <c r="D60" t="str">
-        <f t="shared" ref="D60:D63" si="6">IF(C60&gt;2147483647,"L","")</f>
+        <f t="shared" ref="D60:D80" si="5">IF(C60&gt;2147483647,"L","")</f>
         <v/>
       </c>
       <c r="E60">
@@ -4617,20 +4752,21 @@
       <c r="F60" s="2">
         <v>100</v>
       </c>
-      <c r="G60" t="e">
-        <f>IF(A60="",_xlfn.CONCAT($K$1,#REF!,B60,#REF!,$K$2,C60,D60,$K$2,E60,$K$2,F60,"),",),_xlfn.CONCAT($K$1,#REF!,A60,#REF!,$K$2,#REF!,B60,#REF!,$K$2,C60,D60,$K$2,E60,$K$2,F60,"),"))</f>
-        <v>#REF!</v>
-      </c>
-      <c r="H60" s="12">
+      <c r="G60" t="str">
+        <f>_xlfn.CONCAT($K$1,$K$3,B60,$K$3,$K$2,C60,D60,$K$2,E60,$K$2,F60,"),")</f>
+        <v>new Upgrade("Lego Brick",200,1,100),</v>
+      </c>
+      <c r="H60" s="11">
+        <f>C60/E60</f>
+        <v>200</v>
+      </c>
+      <c r="I60">
         <f t="shared" si="4"/>
-        <v>200</v>
-      </c>
-      <c r="I60">
-        <f t="shared" si="5"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="61" spans="1:10">
+        <v>3</v>
+      </c>
+      <c r="N60" s="4"/>
+    </row>
+    <row r="61" spans="1:14">
       <c r="B61" s="1" t="s">
         <v>26</v>
       </c>
@@ -4638,7 +4774,7 @@
         <v>1</v>
       </c>
       <c r="D61" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="E61">
@@ -4647,83 +4783,709 @@
       <c r="F61" s="2">
         <v>128</v>
       </c>
-      <c r="G61" t="e">
-        <f>IF(A61="",_xlfn.CONCAT($K$1,#REF!,B61,#REF!,$K$2,C61,D61,$K$2,E61,$K$2,F61,"),",),_xlfn.CONCAT($K$1,#REF!,A61,#REF!,$K$2,#REF!,B61,#REF!,$K$2,C61,D61,$K$2,E61,$K$2,F61,"),"))</f>
-        <v>#REF!</v>
-      </c>
-      <c r="H61" s="12">
-        <f t="shared" si="4"/>
+      <c r="G61" t="str">
+        <f>_xlfn.CONCAT($K$1,$K$3,B61,$K$3,$K$2,C61,D61,$K$2,E61,$K$2,F61,"),")</f>
+        <v>new Upgrade("Bug",1,-1,128),</v>
+      </c>
+      <c r="H61" s="11">
+        <f>C61/E61</f>
         <v>-1</v>
       </c>
       <c r="I61">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="62" spans="1:10">
-      <c r="A62" t="s">
-        <v>100</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="N61" s="4"/>
+    </row>
+    <row r="62" spans="1:14">
       <c r="B62" s="1" t="s">
         <v>99</v>
       </c>
       <c r="C62">
-        <v>1</v>
+        <v>59637044043</v>
       </c>
       <c r="D62" t="str">
-        <f>IF(C62&gt;2147483647,"L","")</f>
-        <v/>
+        <f t="shared" si="5"/>
+        <v>L</v>
       </c>
       <c r="E62">
-        <v>1</v>
+        <f>MROUND(Table1[[#This Row],[Cost]]/Table1[[#This Row],[Messages needed to earn back the amount of coins spend]],1)</f>
+        <v>141467051</v>
       </c>
       <c r="F62" s="2">
         <v>1</v>
       </c>
-      <c r="G62" t="str">
-        <f>IF(A62="",_xlfn.CONCAT($K$1,$K$2,B62,$K$2,$K$3,C62,D62,$K$3,E62,$K$3,F62,"),",),_xlfn.CONCAT($K$1,$K$2,A62,$K$2,$K$3,$K$2,B62,$K$2,$K$3,C62,D62,$K$3,E62,$K$3,F62,"),"))</f>
-        <v>new Upgrade(,OP,,Cheat,111),</v>
-      </c>
-      <c r="H62" s="12">
-        <f>C62/E62</f>
-        <v>1</v>
+      <c r="G62" s="4" t="str">
+        <f>_xlfn.CONCAT($K$1,$K$3,B62,$K$3,$K$2,C62,D62,$K$2,E62,$K$2,F62,"),")</f>
+        <v>new Upgrade("Arc Reactor",59637044043L,141467051,1),</v>
+      </c>
+      <c r="H62" s="11">
+        <f t="shared" ref="H62:H64" si="6">16*LOG(C62,6)+200</f>
+        <v>421.56137082818816</v>
       </c>
       <c r="I62" s="4">
-        <f>FLOOR(LOG10(C62),1)</f>
+        <f t="shared" si="4"/>
+        <v>11</v>
+      </c>
+      <c r="J62" t="s">
+        <v>95</v>
+      </c>
+      <c r="M62" s="3"/>
+      <c r="N62" s="4"/>
+    </row>
+    <row r="63" spans="1:14">
+      <c r="B63" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="C63">
+        <v>2110089696934650</v>
+      </c>
+      <c r="D63" t="str">
+        <f t="shared" si="5"/>
+        <v>L</v>
+      </c>
+      <c r="E63">
+        <f>MROUND(Table1[[#This Row],[Cost]]/Table1[[#This Row],[Messages needed to earn back the amount of coins spend]],1)</f>
+        <v>4096534023712</v>
+      </c>
+      <c r="F63" s="2">
+        <v>1</v>
+      </c>
+      <c r="G63" s="4" t="str">
+        <f>_xlfn.CONCAT($K$1,$K$3,B63,$K$3,$K$2,C63,D63,$K$2,E63,$K$2,F63,"),")</f>
+        <v>new Upgrade("Kryptonite",2110089696934650L,4096534023712,1),</v>
+      </c>
+      <c r="H63" s="11">
+        <f t="shared" si="6"/>
+        <v>515.09146139659265</v>
+      </c>
+      <c r="I63" s="4">
+        <f t="shared" si="4"/>
+        <v>16</v>
+      </c>
+      <c r="J63" t="s">
+        <v>95</v>
+      </c>
+      <c r="N63" s="4"/>
+    </row>
+    <row r="64" spans="1:14">
+      <c r="B64" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="C64">
+        <v>8.3250280290413904E+16</v>
+      </c>
+      <c r="D64" t="str">
+        <f t="shared" si="5"/>
+        <v>L</v>
+      </c>
+      <c r="E64">
+        <f>MROUND(Table1[[#This Row],[Cost]]/Table1[[#This Row],[Messages needed to earn back the amount of coins spend]],1)</f>
+        <v>151941677102307</v>
+      </c>
+      <c r="F64" s="2">
+        <v>1</v>
+      </c>
+      <c r="G64" s="4" t="str">
+        <f>_xlfn.CONCAT($K$1,$K$3,B64,$K$3,$K$2,C64,D64,$K$2,E64,$K$2,F64,"),")</f>
+        <v>new Upgrade("Air Force One",83250280290413900L,151941677102307,1),</v>
+      </c>
+      <c r="H64" s="11">
+        <f t="shared" si="6"/>
+        <v>547.90944708579946</v>
+      </c>
+      <c r="I64" s="4">
+        <f t="shared" si="4"/>
+        <v>17</v>
+      </c>
+      <c r="J64" t="s">
+        <v>95</v>
+      </c>
+      <c r="N64" s="4"/>
+    </row>
+    <row r="65" spans="1:14">
+      <c r="A65" t="s">
+        <v>98</v>
+      </c>
+      <c r="B65" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="C65">
+        <v>1</v>
+      </c>
+      <c r="E65">
+        <v>1</v>
+      </c>
+      <c r="F65" s="2">
+        <v>1</v>
+      </c>
+      <c r="G65" t="str">
+        <f>_xlfn.CONCAT($K$1,$K$3,B65,$K$3,$K$2,C65,D65,$K$2,E65,$K$2,F65,"),")</f>
+        <v>new Upgrade("Cheat",1,1,1),</v>
+      </c>
+      <c r="H65" s="11">
+        <f>C65/E65</f>
+        <v>1</v>
+      </c>
+      <c r="I65" s="4">
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:10">
-      <c r="B63" s="1" t="s">
+      <c r="N65" s="4"/>
+    </row>
+    <row r="66" spans="1:14">
+      <c r="B66" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="C66">
+        <v>40896568606</v>
+      </c>
+      <c r="D66" t="str">
+        <f>IF(C66&gt;2147483647,"L","")</f>
+        <v>L</v>
+      </c>
+      <c r="E66">
+        <f>MROUND(Table1[[#This Row],[Cost]]/Table1[[#This Row],[Messages needed to earn back the amount of coins spend]],1)</f>
+        <v>97793577</v>
+      </c>
+      <c r="F66" s="2"/>
+      <c r="G66" s="4" t="str">
+        <f>_xlfn.CONCAT($K$1,$K$3,B66,$K$3,$K$2,C66,D66,$K$2,E66,$K$2,F66,"),")</f>
+        <v>new Upgrade("Ice Cream",40896568606L,97793577,),</v>
+      </c>
+      <c r="H66" s="11">
+        <f t="shared" ref="H66" si="7">16*LOG(C66,6)+200</f>
+        <v>418.19278686855296</v>
+      </c>
+      <c r="I66" s="4">
+        <f t="shared" ref="I66:I80" si="8">CEILING(LOG10(C66),1)</f>
+        <v>11</v>
+      </c>
+      <c r="N66" s="4"/>
+    </row>
+    <row r="67" spans="1:14">
+      <c r="B67" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="C67">
+        <v>4.2751491899335398E+18</v>
+      </c>
+      <c r="D67" t="str">
+        <f t="shared" ref="D67:D70" si="9">IF(C67&gt;2147483647,"L","")</f>
+        <v>L</v>
+      </c>
+      <c r="E67">
+        <f>MROUND(Table1[[#This Row],[Cost]]/Table1[[#This Row],[Messages needed to earn back the amount of coins spend]],1)</f>
+        <v>7331994574249421</v>
+      </c>
+      <c r="F67" s="2">
+        <v>1</v>
+      </c>
+      <c r="G67" s="4" t="str">
+        <f t="shared" ref="G67:G70" si="10">_xlfn.CONCAT($K$1,$K$3,B67,$K$3,$K$2,C67,D67,$K$2,E67,$K$2,F67,"),")</f>
+        <v>new Upgrade("Klondike Bar",4275149189933540000L,7331994574249420,1),</v>
+      </c>
+      <c r="H67" s="11">
+        <f t="shared" ref="H67:H79" si="11">16*LOG(C67,6)+200</f>
+        <v>583.081335732056</v>
+      </c>
+      <c r="I67" s="4">
+        <f t="shared" si="8"/>
+        <v>19</v>
+      </c>
+      <c r="J67" t="s">
+        <v>95</v>
+      </c>
+      <c r="N67" s="4"/>
+    </row>
+    <row r="68" spans="1:14">
+      <c r="B68" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="C68">
+        <v>83745097494464</v>
+      </c>
+      <c r="D68" t="str">
+        <f t="shared" si="9"/>
+        <v>L</v>
+      </c>
+      <c r="E68">
+        <f>MROUND(Table1[[#This Row],[Cost]]/Table1[[#This Row],[Messages needed to earn back the amount of coins spend]],1)</f>
+        <v>172216610960</v>
+      </c>
+      <c r="F68" s="2">
+        <v>1</v>
+      </c>
+      <c r="G68" s="4" t="str">
+        <f t="shared" si="10"/>
+        <v>new Upgrade("Time Machine",83745097494464L,172216610960,1),</v>
+      </c>
+      <c r="H68" s="11">
+        <f t="shared" si="11"/>
+        <v>486.27770008752549</v>
+      </c>
+      <c r="I68" s="4">
+        <f t="shared" si="8"/>
+        <v>14</v>
+      </c>
+      <c r="J68" t="s">
+        <v>95</v>
+      </c>
+      <c r="N68" s="4"/>
+    </row>
+    <row r="69" spans="1:14">
+      <c r="B69" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="C69">
+        <v>1000000</v>
+      </c>
+      <c r="D69" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="E69">
+        <v>0</v>
+      </c>
+      <c r="F69" s="2">
+        <v>1</v>
+      </c>
+      <c r="G69" s="4" t="str">
+        <f t="shared" si="10"/>
+        <v>new Upgrade("Bribe",1000000,0,1),</v>
+      </c>
+      <c r="H69" s="11">
+        <v>0</v>
+      </c>
+      <c r="I69" s="4">
+        <f t="shared" si="8"/>
+        <v>6</v>
+      </c>
+      <c r="N69" s="4"/>
+    </row>
+    <row r="70" spans="1:14">
+      <c r="B70" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="C70">
+        <v>81247450573750</v>
+      </c>
+      <c r="D70" t="str">
+        <f t="shared" si="9"/>
+        <v>L</v>
+      </c>
+      <c r="E70">
+        <f>MROUND(Table1[[#This Row],[Cost]]/Table1[[#This Row],[Messages needed to earn back the amount of coins spend]],1)</f>
+        <v>167173305334</v>
+      </c>
+      <c r="F70" s="2">
+        <v>1</v>
+      </c>
+      <c r="G70" s="4" t="str">
+        <f t="shared" si="10"/>
+        <v>new Upgrade("Nuclear Fireworks",81247450573750L,167173305334,1),</v>
+      </c>
+      <c r="H70" s="11">
+        <f t="shared" si="11"/>
+        <v>486.00732282791182</v>
+      </c>
+      <c r="I70" s="4">
+        <f t="shared" si="8"/>
+        <v>14</v>
+      </c>
+      <c r="J70" t="s">
+        <v>95</v>
+      </c>
+      <c r="N70" s="4"/>
+    </row>
+    <row r="71" spans="1:14">
+      <c r="B71" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="C71">
+        <v>1755841378694</v>
+      </c>
+      <c r="D71" t="str">
+        <f t="shared" ref="D71:D76" si="12">IF(C71&gt;2147483647,"L","")</f>
+        <v>L</v>
+      </c>
+      <c r="E71">
+        <f>MROUND(Table1[[#This Row],[Cost]]/Table1[[#This Row],[Messages needed to earn back the amount of coins spend]],1)</f>
+        <v>3886619829</v>
+      </c>
+      <c r="F71" s="2">
+        <v>1</v>
+      </c>
+      <c r="G71" s="4" t="str">
+        <f t="shared" ref="G71:G76" si="13">_xlfn.CONCAT($K$1,$K$3,B71,$K$3,$K$2,C71,D71,$K$2,E71,$K$2,F71,"),")</f>
+        <v>new Upgrade("Meme",1755841378694L,3886619829,1),</v>
+      </c>
+      <c r="H71" s="11">
+        <f t="shared" si="11"/>
+        <v>451.76566172171169</v>
+      </c>
+      <c r="I71" s="4">
+        <f t="shared" si="8"/>
+        <v>13</v>
+      </c>
+      <c r="J71" t="s">
+        <v>95</v>
+      </c>
+      <c r="N71" s="4"/>
+    </row>
+    <row r="72" spans="1:14">
+      <c r="B72" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="C72">
+        <v>79837291968785</v>
+      </c>
+      <c r="D72" t="str">
+        <f>IF(C72&gt;2147483647,"L","")</f>
+        <v>L</v>
+      </c>
+      <c r="E72">
+        <f>MROUND(Table1[[#This Row],[Cost]]/Table1[[#This Row],[Messages needed to earn back the amount of coins spend]],1)</f>
+        <v>164324651505</v>
+      </c>
+      <c r="F72" s="2">
+        <v>1</v>
+      </c>
+      <c r="G72" s="4" t="str">
+        <f>_xlfn.CONCAT($K$1,$K$3,B72,$K$3,$K$2,C72,D72,$K$2,E72,$K$2,F72,"),")</f>
+        <v>new Upgrade("Bigfoot",79837291968785L,164324651505,1),</v>
+      </c>
+      <c r="H72" s="11">
+        <f t="shared" si="11"/>
+        <v>485.85097389592102</v>
+      </c>
+      <c r="I72" s="4">
+        <f t="shared" si="8"/>
+        <v>14</v>
+      </c>
+      <c r="J72" t="s">
+        <v>95</v>
+      </c>
+      <c r="N72" s="4"/>
+    </row>
+    <row r="73" spans="1:14">
+      <c r="B73" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="C73">
+        <v>5704058330541</v>
+      </c>
+      <c r="D73" t="str">
+        <f t="shared" ref="D73:D75" si="14">IF(C73&gt;2147483647,"L","")</f>
+        <v>L</v>
+      </c>
+      <c r="E73">
+        <f>MROUND(Table1[[#This Row],[Cost]]/Table1[[#This Row],[Messages needed to earn back the amount of coins spend]],1)</f>
+        <v>12338782071</v>
+      </c>
+      <c r="F73" s="2">
+        <v>1</v>
+      </c>
+      <c r="G73" s="4" t="str">
+        <f t="shared" ref="G73:G75" si="15">_xlfn.CONCAT($K$1,$K$3,B73,$K$3,$K$2,C73,D73,$K$2,E73,$K$2,F73,"),")</f>
+        <v>new Upgrade("Area 51",5704058330541L,12338782071,1),</v>
+      </c>
+      <c r="H73" s="11">
+        <f t="shared" si="11"/>
+        <v>462.28698241863572</v>
+      </c>
+      <c r="I73" s="4">
+        <f t="shared" si="8"/>
+        <v>13</v>
+      </c>
+      <c r="J73" t="s">
+        <v>95</v>
+      </c>
+      <c r="N73" s="4"/>
+    </row>
+    <row r="74" spans="1:14">
+      <c r="B74" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="C74">
+        <v>2221819257185</v>
+      </c>
+      <c r="D74" t="str">
+        <f t="shared" si="14"/>
+        <v>L</v>
+      </c>
+      <c r="E74">
+        <f>MROUND(Table1[[#This Row],[Cost]]/Table1[[#This Row],[Messages needed to earn back the amount of coins spend]],1)</f>
+        <v>4895303336</v>
+      </c>
+      <c r="F74" s="2">
+        <v>1</v>
+      </c>
+      <c r="G74" s="4" t="str">
+        <f t="shared" si="15"/>
+        <v>new Upgrade("Loch Ness Monster",2221819257185L,4895303336,1),</v>
+      </c>
+      <c r="H74" s="11">
+        <f t="shared" si="11"/>
+        <v>453.86753478632716</v>
+      </c>
+      <c r="I74" s="4">
+        <f t="shared" si="8"/>
+        <v>13</v>
+      </c>
+      <c r="J74" t="s">
+        <v>95</v>
+      </c>
+      <c r="N74" s="4"/>
+    </row>
+    <row r="75" spans="1:14">
+      <c r="B75" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="C75">
+        <v>839548670437</v>
+      </c>
+      <c r="D75" t="str">
+        <f t="shared" si="14"/>
+        <v>L</v>
+      </c>
+      <c r="E75">
+        <f>MROUND(Table1[[#This Row],[Cost]]/Table1[[#This Row],[Messages needed to earn back the amount of coins spend]],1)</f>
+        <v>1885876413</v>
+      </c>
+      <c r="F75" s="2">
+        <v>1</v>
+      </c>
+      <c r="G75" s="4" t="str">
+        <f t="shared" si="15"/>
+        <v>new Upgrade("The Moon",839548670437L,1885876413,1),</v>
+      </c>
+      <c r="H75" s="11">
+        <f t="shared" si="11"/>
+        <v>445.17692923698598</v>
+      </c>
+      <c r="I75" s="4">
+        <f t="shared" si="8"/>
+        <v>12</v>
+      </c>
+      <c r="J75" t="s">
+        <v>95</v>
+      </c>
+      <c r="N75" s="4"/>
+    </row>
+    <row r="76" spans="1:14">
+      <c r="B76" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="C76">
+        <v>1248529473245030</v>
+      </c>
+      <c r="D76" t="str">
+        <f t="shared" si="12"/>
+        <v>L</v>
+      </c>
+      <c r="E76">
+        <f>MROUND(Table1[[#This Row],[Cost]]/Table1[[#This Row],[Messages needed to earn back the amount of coins spend]],1)</f>
+        <v>2446152366149</v>
+      </c>
+      <c r="F76" s="2">
+        <v>5</v>
+      </c>
+      <c r="G76" s="4" t="str">
+        <f t="shared" si="13"/>
+        <v>new Upgrade("A True Cake",1248529473245030L,2446152366149,5),</v>
+      </c>
+      <c r="H76" s="11">
+        <f t="shared" si="11"/>
+        <v>510.40543938429477</v>
+      </c>
+      <c r="I76" s="4">
+        <f t="shared" si="8"/>
+        <v>16</v>
+      </c>
+      <c r="J76" t="s">
+        <v>95</v>
+      </c>
+      <c r="N76" s="4"/>
+    </row>
+    <row r="77" spans="1:14">
+      <c r="B77" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="C77">
+        <v>55905021527</v>
+      </c>
+      <c r="D77" t="str">
+        <f>IF(C77&gt;2147483647,"L","")</f>
+        <v>L</v>
+      </c>
+      <c r="E77">
+        <f>MROUND(Table1[[#This Row],[Cost]]/Table1[[#This Row],[Messages needed to earn back the amount of coins spend]],1)</f>
+        <v>132795976</v>
+      </c>
+      <c r="F77" s="2">
+        <v>1</v>
+      </c>
+      <c r="G77" s="4" t="str">
+        <f>_xlfn.CONCAT($K$1,$K$3,B77,$K$3,$K$2,C77,D77,$K$2,E77,$K$2,F77,"),")</f>
+        <v>new Upgrade("MissingNo",55905021527L,132795976,1),</v>
+      </c>
+      <c r="H77" s="11">
+        <f t="shared" si="11"/>
+        <v>420.98430481204133</v>
+      </c>
+      <c r="I77" s="4">
+        <f t="shared" si="8"/>
+        <v>11</v>
+      </c>
+      <c r="J77" t="s">
+        <v>95</v>
+      </c>
+      <c r="N77" s="4"/>
+    </row>
+    <row r="78" spans="1:14">
+      <c r="B78" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="C78">
+        <v>37910263806</v>
+      </c>
+      <c r="D78" t="str">
+        <f>IF(C78&gt;2147483647,"L","")</f>
+        <v>L</v>
+      </c>
+      <c r="E78">
+        <f>MROUND(Table1[[#This Row],[Cost]]/Table1[[#This Row],[Messages needed to earn back the amount of coins spend]],1)</f>
+        <v>90799614</v>
+      </c>
+      <c r="F78" s="2">
+        <v>2</v>
+      </c>
+      <c r="G78" s="4" t="str">
+        <f>_xlfn.CONCAT($K$1,$K$3,B78,$K$3,$K$2,C78,D78,$K$2,E78,$K$2,F78,"),")</f>
+        <v>new Upgrade("Airpods",37910263806L,90799614,2),</v>
+      </c>
+      <c r="H78" s="11">
+        <f t="shared" si="11"/>
+        <v>417.51569353838971</v>
+      </c>
+      <c r="I78" s="4">
+        <f t="shared" si="8"/>
+        <v>11</v>
+      </c>
+      <c r="J78" t="s">
+        <v>95</v>
+      </c>
+      <c r="N78" s="4"/>
+    </row>
+    <row r="79" spans="1:14">
+      <c r="B79" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="C79">
+        <v>1858055186797720</v>
+      </c>
+      <c r="D79" t="str">
+        <f t="shared" ref="D79" si="16">IF(C79&gt;2147483647,"L","")</f>
+        <v>L</v>
+      </c>
+      <c r="E79">
+        <f>MROUND(Table1[[#This Row],[Cost]]/Table1[[#This Row],[Messages needed to earn back the amount of coins spend]],1)</f>
+        <v>3615205690620</v>
+      </c>
+      <c r="F79" s="2">
+        <v>2</v>
+      </c>
+      <c r="G79" s="4" t="str">
+        <f>_xlfn.CONCAT($K$1,$K$3,B79,$K$3,$K$2,C79,D79,$K$2,E79,$K$2,F79,"),")</f>
+        <v>new Upgrade("Iron Man Suit",1858055186797720L,3615205690620,2),</v>
+      </c>
+      <c r="H79" s="11">
+        <f t="shared" si="11"/>
+        <v>513.95559362456413</v>
+      </c>
+      <c r="I79" s="4">
+        <f t="shared" si="8"/>
+        <v>16</v>
+      </c>
+      <c r="J79" t="s">
+        <v>95</v>
+      </c>
+      <c r="N79" s="4"/>
+    </row>
+    <row r="80" spans="1:14">
+      <c r="B80" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="C63">
-        <v>1</v>
-      </c>
-      <c r="D63" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="E63">
+      <c r="C80">
+        <v>1</v>
+      </c>
+      <c r="D80" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="E80">
         <v>0</v>
       </c>
-      <c r="F63" s="2">
+      <c r="F80" s="2">
         <v>256</v>
       </c>
-      <c r="G63" t="e">
-        <f>IF(A63="",_xlfn.CONCAT($K$1,#REF!,B63,#REF!,$K$2,C63,D63,$K$2,E63,$K$2,F63,"),",),_xlfn.CONCAT($K$1,#REF!,A63,#REF!,$K$2,#REF!,B63,#REF!,$K$2,C63,D63,$K$2,E63,$K$2,F63,"),"))</f>
-        <v>#REF!</v>
-      </c>
-      <c r="H63" s="12" t="e">
-        <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I63">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
+      <c r="G80" t="str">
+        <f>_xlfn.CONCAT($K$1,$K$3,B80,$K$3,$K$2,C80,D80,$K$2,E80,$K$2,F80,"),")</f>
+        <v>new Upgrade("Debug Byte",1,0,256),</v>
+      </c>
+      <c r="H80" s="11" t="s">
+        <v>117</v>
+      </c>
+      <c r="I80">
+        <v>1</v>
+      </c>
+      <c r="N80" s="4"/>
+    </row>
+    <row r="81" spans="14:14">
+      <c r="N81" s="4"/>
+    </row>
+    <row r="82" spans="14:14">
+      <c r="N82" s="4"/>
+    </row>
+    <row r="83" spans="14:14">
+      <c r="N83" s="4"/>
+    </row>
+    <row r="84" spans="14:14">
+      <c r="N84" s="4"/>
+    </row>
+    <row r="85" spans="14:14">
+      <c r="N85" s="4"/>
+    </row>
+    <row r="86" spans="14:14">
+      <c r="N86" s="4"/>
+    </row>
+    <row r="87" spans="14:14">
+      <c r="N87" s="4"/>
+    </row>
+    <row r="88" spans="14:14">
+      <c r="N88" s="4"/>
+    </row>
+    <row r="89" spans="14:14">
+      <c r="N89" s="4"/>
+    </row>
+    <row r="90" spans="14:14">
+      <c r="N90" s="4"/>
+    </row>
+    <row r="91" spans="14:14">
+      <c r="N91" s="4"/>
+    </row>
+    <row r="92" spans="14:14">
+      <c r="N92" s="4"/>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="K5:L7"/>
+  </mergeCells>
+  <conditionalFormatting sqref="C1:C1048576">
+    <cfRule type="cellIs" dxfId="1" priority="1" operator="greaterThan">
+      <formula>9223372036854770000</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
   <tableParts count="1">

--- a/Items.xlsx
+++ b/Items.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\johnw\iCloudDrive\Mine\My Programs\CoinGames\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91B9EB58-EAF6-4FCB-BA7C-B99153025302}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D3B60C7-CB5C-49C1-BD27-C67723F7442C}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{C42CA93E-3A2D-D040-AB9B-E333D2FB9CC9}"/>
   </bookViews>

--- a/Items.xlsx
+++ b/Items.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\johnw\iCloudDrive\Mine\My Programs\CoinGames\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D3B60C7-CB5C-49C1-BD27-C67723F7442C}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4DB98F6-E08E-43CB-B68C-A3DD2E7827A7}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{C42CA93E-3A2D-D040-AB9B-E333D2FB9CC9}"/>
+    <workbookView xWindow="2208" yWindow="624" windowWidth="20616" windowHeight="8964" activeTab="1" xr2:uid="{C42CA93E-3A2D-D040-AB9B-E333D2FB9CC9}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="120">
   <si>
     <t>Name</t>
   </si>
@@ -389,6 +389,9 @@
   </si>
   <si>
     <t>Digits</t>
+  </si>
+  <si>
+    <t>Dog</t>
   </si>
 </sst>
 </file>
@@ -519,9 +522,6 @@
   </cellStyles>
   <dxfs count="6">
     <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
       <font>
         <color rgb="FF9C0006"/>
       </font>
@@ -530,6 +530,9 @@
           <bgColor rgb="FFFFC7CE"/>
         </patternFill>
       </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -572,10 +575,10 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{4009156A-C36A-4516-A02C-24F9758B47EE}" name="Table1" displayName="Table1" ref="A1:J80" totalsRowShown="0">
-  <autoFilter ref="A1:J80" xr:uid="{78C1917B-7E31-49F9-99AB-AFB2F1BD8BEA}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:I80">
-    <sortCondition descending="1" ref="C1:C80"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{4009156A-C36A-4516-A02C-24F9758B47EE}" name="Table1" displayName="Table1" ref="A1:J81" totalsRowShown="0">
+  <autoFilter ref="A1:J81" xr:uid="{78C1917B-7E31-49F9-99AB-AFB2F1BD8BEA}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:I81">
+    <sortCondition descending="1" ref="C1:C81"/>
   </sortState>
   <tableColumns count="10">
     <tableColumn id="1" xr3:uid="{B3882E44-A406-45D7-8B81-3BE7D8468DD3}" name="Prefix"/>
@@ -592,7 +595,7 @@
     <tableColumn id="8" xr3:uid="{ED093BC7-1767-47E6-9724-AAE846529AF1}" name="Messages needed to earn back the amount of coins spend" dataDxfId="2">
       <calculatedColumnFormula>C2/E2</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{CED6810C-AE22-4E72-BAF9-196C471149E4}" name="Digits" dataDxfId="0">
+    <tableColumn id="9" xr3:uid="{CED6810C-AE22-4E72-BAF9-196C471149E4}" name="Digits" dataDxfId="1">
       <calculatedColumnFormula>CEILING(LOG10(C2),1)</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="10" xr3:uid="{4B948BE7-CCBA-44E6-88FF-EF66EE6101A1}" name="Egg"/>
@@ -2700,10 +2703,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E6AE1024-0C54-6843-8563-9D359055A938}">
-  <dimension ref="A1:N92"/>
+  <dimension ref="A1:N93"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+    <sheetView tabSelected="1" topLeftCell="B75" workbookViewId="0">
+      <selection activeCell="F79" sqref="F79"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6"/>
@@ -2775,15 +2778,15 @@
         <v>1</v>
       </c>
       <c r="G2" t="str">
-        <f>_xlfn.CONCAT($K$1,$K$3,B2,$K$3,$K$2,C2,D2,$K$2,E2,$K$2,F2,"),")</f>
+        <f t="shared" ref="G2:G33" si="1">_xlfn.CONCAT($K$1,$K$3,B2,$K$3,$K$2,C2,D2,$K$2,E2,$K$2,F2,"),")</f>
         <v>new Upgrade("International Space Station",50400000000L,196199000,1),</v>
       </c>
       <c r="H2" s="11">
-        <f t="shared" ref="H2:H9" si="1">C2/E2</f>
+        <f t="shared" ref="H2:H9" si="2">C2/E2</f>
         <v>256.88204323161688</v>
       </c>
       <c r="I2">
-        <f t="shared" ref="I2:I33" si="2">CEILING(LOG10(C2),1)</f>
+        <f t="shared" ref="I2:I33" si="3">CEILING(LOG10(C2),1)</f>
         <v>11</v>
       </c>
       <c r="K2" t="s">
@@ -2815,15 +2818,15 @@
         <v>1</v>
       </c>
       <c r="G3" t="str">
-        <f>_xlfn.CONCAT($K$1,$K$3,B3,$K$3,$K$2,C3,D3,$K$2,E3,$K$2,F3,"),")</f>
+        <f t="shared" si="1"/>
         <v>new Upgrade("Diamond Armor",5307786900L,25100000,1),</v>
       </c>
       <c r="H3" s="11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>211.46561354581672</v>
       </c>
       <c r="I3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>10</v>
       </c>
       <c r="K3" t="s">
@@ -2855,15 +2858,15 @@
         <v>1</v>
       </c>
       <c r="G4" t="str">
-        <f>_xlfn.CONCAT($K$1,$K$3,B4,$K$3,$K$2,C4,D4,$K$2,E4,$K$2,F4,"),")</f>
+        <f t="shared" si="1"/>
         <v>new Upgrade("Hubble Telescope",2870000000L,14320231,1),</v>
       </c>
       <c r="H4" s="11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>200.41576144965819</v>
       </c>
       <c r="I4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>10</v>
       </c>
       <c r="M4" s="3">
@@ -2892,20 +2895,20 @@
         <v>1</v>
       </c>
       <c r="G5" t="str">
-        <f>_xlfn.CONCAT($K$1,$K$3,B5,$K$3,$K$2,C5,D5,$K$2,E5,$K$2,F5,"),")</f>
+        <f t="shared" si="1"/>
         <v>new Upgrade("Baby Shark",2639860696L,13199303,1),</v>
       </c>
       <c r="H5" s="11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>200.00000727311132</v>
       </c>
       <c r="I5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>10</v>
       </c>
       <c r="K5" s="13" t="str">
-        <f>_xlfn.CONCAT(G2:G5000)</f>
-        <v>new Upgrade("International Space Station",50400000000L,196199000,1),new Upgrade("Diamond Armor",5307786900L,25100000,1),new Upgrade("Hubble Telescope",2870000000L,14320231,1),new Upgrade("Baby Shark",2639860696L,13199303,1),new Upgrade("Infinity Gauntlet",2147483647,13166600,1),new Upgrade("Wayne Manor",800000000,3970009,1),new Upgrade("Because I'm Batman!",682450750,3402000,1),new Upgrade("141-year-old newspaper",230000000,948324,1),new Upgrade("1963 Ferrari GTO",52000000,196300,5),new Upgrade("Honus Wagner Rookie Card",2000000,8727,3),new Upgrade("Captain America's Shield",17871941,113100,1),new Upgrade("Gold Plated Bugatti Veyron",10004738,43253,1),new Upgrade("Mjolnir",4490000,30000,1),new Upgrade("Crystal Piano",3200000,14324,1),new Upgrade("Thanos' Sword",2014000,10115,1),new Upgrade("The Tumbler Batmobile",1800000,6930,1),new Upgrade("Magnetic Floating Bed",1600000,8000,1),new Upgrade("All of the Pokemon",1510000,8090,1),new Upgrade("Ferrari Enzo",1325000,5500,7),new Upgrade("The Ultimate Ultimate Weapon",1230000,4920,6),new Upgrade("Darth Vader's Helmet",1138000,7486,1),new Upgrade("Crisp $1,000,000 bill",999999,0,100),new Upgrade("Tank",858000,3750,10),new Upgrade("Lightsaber",300000,1977,6),new Upgrade("Pet Dragon",630000,3030,5),new Upgrade("Smash Ball",400000,1500,6),new Upgrade("Legolas's Bow",301800,2110,1),new Upgrade("Phaser Rifle",200000,1000,1),new Upgrade("Six-Shooter",130364,600,6),new Upgrade("Kylo Ren's Helmet",200000,1350,1),new Upgrade("Nuclear Bomb",500235,2390,5),new Upgrade("Bowcaster",155893,563,10),new Upgrade("Genesis Device",765482,4570,1),new Upgrade("A bad feeling about this",166830,1138,1),new Upgrade("Death Star",1344339,7324,2),new Upgrade("Rocket",100000,500,10),new Upgrade("Ring of Power",2963500,19776,19),new Upgrade("Stormbreaker",1375947,10000,1),new Upgrade("Medpack",100000,500,10),new Upgrade("Mario's Hat",1019358,5342,1),new Upgrade("Blender (the program)",530000,2140,10),new Upgrade("iPhone XR",300000,1215,1),new Upgrade("Stormtrooper Helmet",13630,70,10),new Upgrade("Sandwitch",22414,84,10),new Upgrade("Oculus",39999,199,10),new Upgrade("Shards of Narsil",20000,97,6),new Upgrade("Batarang",14645,70,10),new Upgrade("Sword",10000,51,100),new Upgrade("Water Bottle",10000,49,10),new Upgrade("Easy Button",667186,2839,10),new Upgrade("Blender (for food)",10000,43,7),new Upgrade("The Piece of Resistance",998520,4950,1),new Upgrade("Shield",5000,25,200),new Upgrade("Shark Repellent Bat Spray",1996,10,4),new Upgrade("Kirk's Glasses",957440,4329,1),new Upgrade("Popcorn",1000,5,100),new Upgrade("Book",451,2,10),new Upgrade("Cookie",100,3,1),new Upgrade("Lego Brick",200,1,100),new Upgrade("Bug",1,-1,128),new Upgrade("Arc Reactor",59637044043L,141467051,1),new Upgrade("Kryptonite",2110089696934650L,4096534023712,1),new Upgrade("Air Force One",83250280290413900L,151941677102307,1),new Upgrade("Cheat",1,1,1),new Upgrade("Ice Cream",40896568606L,97793577,),new Upgrade("Klondike Bar",4275149189933540000L,7331994574249420,1),new Upgrade("Time Machine",83745097494464L,172216610960,1),new Upgrade("Bribe",1000000,0,1),new Upgrade("Nuclear Fireworks",81247450573750L,167173305334,1),new Upgrade("Meme",1755841378694L,3886619829,1),new Upgrade("Bigfoot",79837291968785L,164324651505,1),new Upgrade("Area 51",5704058330541L,12338782071,1),new Upgrade("Loch Ness Monster",2221819257185L,4895303336,1),new Upgrade("The Moon",839548670437L,1885876413,1),new Upgrade("A True Cake",1248529473245030L,2446152366149,5),new Upgrade("MissingNo",55905021527L,132795976,1),new Upgrade("Airpods",37910263806L,90799614,2),new Upgrade("Iron Man Suit",1858055186797720L,3615205690620,2),new Upgrade("Debug Byte",1,0,256),</v>
+        <f>_xlfn.CONCAT(G2:G5001)</f>
+        <v>new Upgrade("International Space Station",50400000000L,196199000,1),new Upgrade("Diamond Armor",5307786900L,25100000,1),new Upgrade("Hubble Telescope",2870000000L,14320231,1),new Upgrade("Baby Shark",2639860696L,13199303,1),new Upgrade("Infinity Gauntlet",2147483647,13166600,1),new Upgrade("Wayne Manor",800000000,3970009,1),new Upgrade("Because I'm Batman!",682450750,3402000,1),new Upgrade("141-year-old newspaper",230000000,948324,1),new Upgrade("1963 Ferrari GTO",52000000,196300,5),new Upgrade("Honus Wagner Rookie Card",2000000,8727,3),new Upgrade("Captain America's Shield",17871941,113100,1),new Upgrade("Gold Plated Bugatti Veyron",10004738,43253,1),new Upgrade("Mjolnir",4490000,30000,1),new Upgrade("Crystal Piano",3200000,14324,1),new Upgrade("Thanos' Sword",2014000,10115,1),new Upgrade("The Tumbler Batmobile",1800000,6930,1),new Upgrade("Magnetic Floating Bed",1600000,8000,1),new Upgrade("All of the Pokemon",1510000,8090,1),new Upgrade("Ferrari Enzo",1325000,5500,7),new Upgrade("The Ultimate Ultimate Weapon",1230000,4920,6),new Upgrade("Darth Vader's Helmet",1138000,7486,1),new Upgrade("Crisp $1,000,000 bill",999999,0,100),new Upgrade("Tank",858000,3750,10),new Upgrade("Lightsaber",300000,1977,6),new Upgrade("Pet Dragon",630000,3030,5),new Upgrade("Smash Ball",400000,1500,6),new Upgrade("Legolas's Bow",301800,2110,1),new Upgrade("Phaser Rifle",200000,1000,1),new Upgrade("Six-Shooter",130364,600,6),new Upgrade("Kylo Ren's Helmet",200000,1350,1),new Upgrade("Nuclear Bomb",500235,2390,5),new Upgrade("Bowcaster",155893,563,10),new Upgrade("Genesis Device",765482,4570,1),new Upgrade("A bad feeling about this",166830,1138,1),new Upgrade("Death Star",1344339,7324,2),new Upgrade("Rocket",100000,500,10),new Upgrade("Ring of Power",2963500,19776,19),new Upgrade("Stormbreaker",1375947,10000,1),new Upgrade("Medpack",100000,500,10),new Upgrade("Mario's Hat",1019358,5342,1),new Upgrade("Blender (the program)",530000,2140,10),new Upgrade("iPhone XR",300000,1215,1),new Upgrade("Stormtrooper Helmet",13630,70,10),new Upgrade("Sandwitch",22414,84,10),new Upgrade("Oculus",39999,199,10),new Upgrade("Shards of Narsil",20000,97,6),new Upgrade("Batarang",14645,70,10),new Upgrade("Sword",10000,51,100),new Upgrade("Water Bottle",10000,49,10),new Upgrade("Easy Button",667186,2839,10),new Upgrade("Blender (for food)",10000,43,7),new Upgrade("The Piece of Resistance",998520,4950,1),new Upgrade("Shield",5000,25,200),new Upgrade("Shark Repellent Bat Spray",1996,10,4),new Upgrade("Kirk's Glasses",957440,4329,1),new Upgrade("Popcorn",1000,5,100),new Upgrade("Book",451,2,10),new Upgrade("Cookie",100,3,1),new Upgrade("Lego Brick",200,1,100),new Upgrade("Bug",1,-1,128),new Upgrade("Arc Reactor",59637044043L,141467051,1),new Upgrade("Kryptonite",2110089696934650L,4096534023712,1),new Upgrade("Air Force One",83250280290413900L,151941677102307,1),new Upgrade("Cheat",1,1,1),new Upgrade("Ice Cream",40896568606L,97793577,),new Upgrade("Klondike Bar",4275149189933540000L,7331994574249420,1),new Upgrade("Time Machine",83745097494464L,172216610960,1),new Upgrade("Bribe",1000000,0,1),new Upgrade("Nuclear Fireworks",81247450573750L,167173305334,1),new Upgrade("Meme",1755841378694L,3886619829,1),new Upgrade("Bigfoot",79837291968785L,164324651505,1),new Upgrade("Area 51",5704058330541L,12338782071,1),new Upgrade("Loch Ness Monster",2221819257185L,4895303336,1),new Upgrade("The Moon",839548670437L,1885876413,1),new Upgrade("A True Cake",1248529473245030L,2446152366149,5),new Upgrade("MissingNo",55905021527L,132795976,1),new Upgrade("Dog",17728,62,3),new Upgrade("Airpods",37910263806L,90799614,2),new Upgrade("Iron Man Suit",1858055186797720L,3615205690620,2),new Upgrade("Debug Byte",1,0,256),</v>
       </c>
       <c r="L5" s="13"/>
       <c r="M5" s="3">
@@ -2934,15 +2937,15 @@
         <v>1</v>
       </c>
       <c r="G6" t="str">
-        <f>_xlfn.CONCAT($K$1,$K$3,B6,$K$3,$K$2,C6,D6,$K$2,E6,$K$2,F6,"),")</f>
+        <f t="shared" si="1"/>
         <v>new Upgrade("Infinity Gauntlet",2147483647,13166600,1),</v>
       </c>
       <c r="H6" s="12">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>163.10084964987163</v>
       </c>
       <c r="I6" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>10</v>
       </c>
       <c r="K6" s="13"/>
@@ -2952,7 +2955,7 @@
       </c>
       <c r="N6" s="4">
         <f>COUNTIF(I:I,M6)</f>
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -2973,15 +2976,15 @@
         <v>1</v>
       </c>
       <c r="G7" t="str">
-        <f>_xlfn.CONCAT($K$1,$K$3,B7,$K$3,$K$2,C7,D7,$K$2,E7,$K$2,F7,"),")</f>
+        <f t="shared" si="1"/>
         <v>new Upgrade("Wayne Manor",800000000,3970009,1),</v>
       </c>
       <c r="H7" s="11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>201.51087818692602</v>
       </c>
       <c r="I7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>9</v>
       </c>
       <c r="K7" s="13"/>
@@ -3012,15 +3015,15 @@
         <v>1</v>
       </c>
       <c r="G8" t="str">
-        <f>_xlfn.CONCAT($K$1,$K$3,B8,$K$3,$K$2,C8,D8,$K$2,E8,$K$2,F8,"),")</f>
+        <f t="shared" si="1"/>
         <v>new Upgrade("Because I'm Batman!",682450750,3402000,1),</v>
       </c>
       <c r="H8" s="11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>200.60280717225163</v>
       </c>
       <c r="I8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>9</v>
       </c>
       <c r="M8" s="5">
@@ -3049,15 +3052,15 @@
         <v>1</v>
       </c>
       <c r="G9" t="str">
-        <f>_xlfn.CONCAT($K$1,$K$3,B9,$K$3,$K$2,C9,D9,$K$2,E9,$K$2,F9,"),")</f>
+        <f t="shared" si="1"/>
         <v>new Upgrade("141-year-old newspaper",230000000,948324,1),</v>
       </c>
       <c r="H9" s="11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>242.53314268119334</v>
       </c>
       <c r="I9">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>9</v>
       </c>
       <c r="M9" s="3">
@@ -3086,15 +3089,15 @@
         <v>5</v>
       </c>
       <c r="G10" t="str">
-        <f>_xlfn.CONCAT($K$1,$K$3,B10,$K$3,$K$2,C10,D10,$K$2,E10,$K$2,F10,"),")</f>
+        <f t="shared" si="1"/>
         <v>new Upgrade("1963 Ferrari GTO",52000000,196300,5),</v>
       </c>
       <c r="H10" s="11">
-        <f>C10/E10</f>
+        <f t="shared" ref="H10:H41" si="4">C10/E10</f>
         <v>264.9006622516556</v>
       </c>
       <c r="I10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>8</v>
       </c>
       <c r="M10" s="3">
@@ -3124,15 +3127,15 @@
         <v>3</v>
       </c>
       <c r="G11" t="str">
-        <f>_xlfn.CONCAT($K$1,$K$3,B11,$K$3,$K$2,C11,D11,$K$2,E11,$K$2,F11,"),")</f>
+        <f t="shared" si="1"/>
         <v>new Upgrade("Honus Wagner Rookie Card",2000000,8727,3),</v>
       </c>
       <c r="H11" s="11">
-        <f>C11/E11</f>
+        <f t="shared" si="4"/>
         <v>229.17382834880257</v>
       </c>
       <c r="I11">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>7</v>
       </c>
       <c r="M11" s="3">
@@ -3161,15 +3164,15 @@
         <v>1</v>
       </c>
       <c r="G12" t="str">
-        <f>_xlfn.CONCAT($K$1,$K$3,B12,$K$3,$K$2,C12,D12,$K$2,E12,$K$2,F12,"),")</f>
+        <f t="shared" si="1"/>
         <v>new Upgrade("Captain America's Shield",17871941,113100,1),</v>
       </c>
       <c r="H12" s="12">
-        <f>C12/E12</f>
+        <f t="shared" si="4"/>
         <v>158.01893015030947</v>
       </c>
       <c r="I12" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>8</v>
       </c>
       <c r="M12" s="10">
@@ -3198,15 +3201,15 @@
         <v>1</v>
       </c>
       <c r="G13" t="str">
-        <f>_xlfn.CONCAT($K$1,$K$3,B13,$K$3,$K$2,C13,D13,$K$2,E13,$K$2,F13,"),")</f>
+        <f t="shared" si="1"/>
         <v>new Upgrade("Gold Plated Bugatti Veyron",10004738,43253,1),</v>
       </c>
       <c r="H13" s="11">
-        <f>C13/E13</f>
+        <f t="shared" si="4"/>
         <v>231.30737752294638</v>
       </c>
       <c r="I13">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>8</v>
       </c>
       <c r="M13" s="3">
@@ -3235,15 +3238,15 @@
         <v>1</v>
       </c>
       <c r="G14" t="str">
-        <f>_xlfn.CONCAT($K$1,$K$3,B14,$K$3,$K$2,C14,D14,$K$2,E14,$K$2,F14,"),")</f>
+        <f t="shared" si="1"/>
         <v>new Upgrade("Mjolnir",4490000,30000,1),</v>
       </c>
       <c r="H14" s="12">
-        <f>C14/E14</f>
+        <f t="shared" si="4"/>
         <v>149.66666666666666</v>
       </c>
       <c r="I14" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>7</v>
       </c>
       <c r="M14" s="10">
@@ -3272,15 +3275,15 @@
         <v>1</v>
       </c>
       <c r="G15" t="str">
-        <f>_xlfn.CONCAT($K$1,$K$3,B15,$K$3,$K$2,C15,D15,$K$2,E15,$K$2,F15,"),")</f>
+        <f t="shared" si="1"/>
         <v>new Upgrade("Crystal Piano",3200000,14324,1),</v>
       </c>
       <c r="H15" s="11">
-        <f>C15/E15</f>
+        <f t="shared" si="4"/>
         <v>223.40128455738619</v>
       </c>
       <c r="I15">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>7</v>
       </c>
       <c r="M15" s="3">
@@ -3310,15 +3313,15 @@
         <v>1</v>
       </c>
       <c r="G16" t="str">
-        <f>_xlfn.CONCAT($K$1,$K$3,B16,$K$3,$K$2,C16,D16,$K$2,E16,$K$2,F16,"),")</f>
+        <f t="shared" si="1"/>
         <v>new Upgrade("Thanos' Sword",2014000,10115,1),</v>
       </c>
       <c r="H16" s="11">
-        <f>C16/E16</f>
+        <f t="shared" si="4"/>
         <v>199.11023232822541</v>
       </c>
       <c r="I16">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>7</v>
       </c>
       <c r="M16" s="3">
@@ -3347,15 +3350,15 @@
         <v>1</v>
       </c>
       <c r="G17" t="str">
-        <f>_xlfn.CONCAT($K$1,$K$3,B17,$K$3,$K$2,C17,D17,$K$2,E17,$K$2,F17,"),")</f>
+        <f t="shared" si="1"/>
         <v>new Upgrade("The Tumbler Batmobile",1800000,6930,1),</v>
       </c>
       <c r="H17" s="11">
-        <f>C17/E17</f>
+        <f t="shared" si="4"/>
         <v>259.74025974025972</v>
       </c>
       <c r="I17">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>7</v>
       </c>
       <c r="M17" s="3">
@@ -3384,15 +3387,15 @@
         <v>1</v>
       </c>
       <c r="G18" t="str">
-        <f>_xlfn.CONCAT($K$1,$K$3,B18,$K$3,$K$2,C18,D18,$K$2,E18,$K$2,F18,"),")</f>
+        <f t="shared" si="1"/>
         <v>new Upgrade("Magnetic Floating Bed",1600000,8000,1),</v>
       </c>
       <c r="H18" s="11">
-        <f>C18/E18</f>
+        <f t="shared" si="4"/>
         <v>200</v>
       </c>
       <c r="I18">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>7</v>
       </c>
       <c r="M18" s="3">
@@ -3421,15 +3424,15 @@
         <v>1</v>
       </c>
       <c r="G19" t="str">
-        <f>_xlfn.CONCAT($K$1,$K$3,B19,$K$3,$K$2,C19,D19,$K$2,E19,$K$2,F19,"),")</f>
+        <f t="shared" si="1"/>
         <v>new Upgrade("All of the Pokemon",1510000,8090,1),</v>
       </c>
       <c r="H19" s="11">
-        <f>C19/E19</f>
+        <f t="shared" si="4"/>
         <v>186.65018541409148</v>
       </c>
       <c r="I19">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>7</v>
       </c>
       <c r="M19" s="3">
@@ -3458,15 +3461,15 @@
         <v>7</v>
       </c>
       <c r="G20" t="str">
-        <f>_xlfn.CONCAT($K$1,$K$3,B20,$K$3,$K$2,C20,D20,$K$2,E20,$K$2,F20,"),")</f>
+        <f t="shared" si="1"/>
         <v>new Upgrade("Ferrari Enzo",1325000,5500,7),</v>
       </c>
       <c r="H20" s="11">
-        <f>C20/E20</f>
+        <f t="shared" si="4"/>
         <v>240.90909090909091</v>
       </c>
       <c r="I20">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>7</v>
       </c>
       <c r="M20" s="3">
@@ -3496,15 +3499,15 @@
         <v>6</v>
       </c>
       <c r="G21" t="str">
-        <f>_xlfn.CONCAT($K$1,$K$3,B21,$K$3,$K$2,C21,D21,$K$2,E21,$K$2,F21,"),")</f>
+        <f t="shared" si="1"/>
         <v>new Upgrade("The Ultimate Ultimate Weapon",1230000,4920,6),</v>
       </c>
       <c r="H21" s="11">
-        <f>C21/E21</f>
+        <f t="shared" si="4"/>
         <v>250</v>
       </c>
       <c r="I21">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>7</v>
       </c>
       <c r="N21" s="4"/>
@@ -3527,15 +3530,15 @@
         <v>1</v>
       </c>
       <c r="G22" t="str">
-        <f>_xlfn.CONCAT($K$1,$K$3,B22,$K$3,$K$2,C22,D22,$K$2,E22,$K$2,F22,"),")</f>
+        <f t="shared" si="1"/>
         <v>new Upgrade("Darth Vader's Helmet",1138000,7486,1),</v>
       </c>
       <c r="H22" s="12">
-        <f>C22/E22</f>
+        <f t="shared" si="4"/>
         <v>152.0170985840235</v>
       </c>
       <c r="I22" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>7</v>
       </c>
       <c r="N22" s="4"/>
@@ -3558,15 +3561,15 @@
         <v>100</v>
       </c>
       <c r="G23" t="str">
-        <f>_xlfn.CONCAT($K$1,$K$3,B23,$K$3,$K$2,C23,D23,$K$2,E23,$K$2,F23,"),")</f>
+        <f t="shared" si="1"/>
         <v>new Upgrade("Crisp $1,000,000 bill",999999,0,100),</v>
       </c>
       <c r="H23" s="11" t="e">
-        <f>C23/E23</f>
+        <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
       <c r="I23">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>6</v>
       </c>
       <c r="N23" s="4"/>
@@ -3590,15 +3593,15 @@
         <v>10</v>
       </c>
       <c r="G24" t="str">
-        <f>_xlfn.CONCAT($K$1,$K$3,B24,$K$3,$K$2,C24,D24,$K$2,E24,$K$2,F24,"),")</f>
+        <f t="shared" si="1"/>
         <v>new Upgrade("Tank",858000,3750,10),</v>
       </c>
       <c r="H24" s="11">
-        <f>C24/E24</f>
+        <f t="shared" si="4"/>
         <v>228.8</v>
       </c>
       <c r="I24">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>6</v>
       </c>
       <c r="N24" s="4"/>
@@ -3621,15 +3624,15 @@
         <v>6</v>
       </c>
       <c r="G25" t="str">
-        <f>_xlfn.CONCAT($K$1,$K$3,B25,$K$3,$K$2,C25,D25,$K$2,E25,$K$2,F25,"),")</f>
+        <f t="shared" si="1"/>
         <v>new Upgrade("Lightsaber",300000,1977,6),</v>
       </c>
       <c r="H25" s="12">
-        <f>C25/E25</f>
+        <f t="shared" si="4"/>
         <v>151.74506828528072</v>
       </c>
       <c r="I25" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>6</v>
       </c>
       <c r="N25" s="4"/>
@@ -3652,15 +3655,15 @@
         <v>5</v>
       </c>
       <c r="G26" t="str">
-        <f>_xlfn.CONCAT($K$1,$K$3,B26,$K$3,$K$2,C26,D26,$K$2,E26,$K$2,F26,"),")</f>
+        <f t="shared" si="1"/>
         <v>new Upgrade("Pet Dragon",630000,3030,5),</v>
       </c>
       <c r="H26" s="11">
-        <f>C26/E26</f>
+        <f t="shared" si="4"/>
         <v>207.92079207920793</v>
       </c>
       <c r="I26">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>6</v>
       </c>
       <c r="N26" s="4"/>
@@ -3684,15 +3687,15 @@
         <v>6</v>
       </c>
       <c r="G27" t="str">
-        <f>_xlfn.CONCAT($K$1,$K$3,B27,$K$3,$K$2,C27,D27,$K$2,E27,$K$2,F27,"),")</f>
+        <f t="shared" si="1"/>
         <v>new Upgrade("Smash Ball",400000,1500,6),</v>
       </c>
       <c r="H27" s="11">
-        <f>C27/E27</f>
+        <f t="shared" si="4"/>
         <v>266.66666666666669</v>
       </c>
       <c r="I27">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>6</v>
       </c>
       <c r="N27" s="4"/>
@@ -3715,15 +3718,15 @@
         <v>1</v>
       </c>
       <c r="G28" t="str">
-        <f>_xlfn.CONCAT($K$1,$K$3,B28,$K$3,$K$2,C28,D28,$K$2,E28,$K$2,F28,"),")</f>
+        <f t="shared" si="1"/>
         <v>new Upgrade("Legolas's Bow",301800,2110,1),</v>
       </c>
       <c r="H28" s="12">
-        <f>C28/E28</f>
+        <f t="shared" si="4"/>
         <v>143.03317535545023</v>
       </c>
       <c r="I28" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>6</v>
       </c>
       <c r="N28" s="4"/>
@@ -3746,15 +3749,15 @@
         <v>1</v>
       </c>
       <c r="G29" t="str">
-        <f>_xlfn.CONCAT($K$1,$K$3,B29,$K$3,$K$2,C29,D29,$K$2,E29,$K$2,F29,"),")</f>
+        <f t="shared" si="1"/>
         <v>new Upgrade("Phaser Rifle",200000,1000,1),</v>
       </c>
       <c r="H29" s="11">
-        <f>C29/E29</f>
+        <f t="shared" si="4"/>
         <v>200</v>
       </c>
       <c r="I29">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>6</v>
       </c>
       <c r="N29" s="4"/>
@@ -3777,15 +3780,15 @@
         <v>6</v>
       </c>
       <c r="G30" t="str">
-        <f>_xlfn.CONCAT($K$1,$K$3,B30,$K$3,$K$2,C30,D30,$K$2,E30,$K$2,F30,"),")</f>
+        <f t="shared" si="1"/>
         <v>new Upgrade("Six-Shooter",130364,600,6),</v>
       </c>
       <c r="H30" s="11">
-        <f>C30/E30</f>
+        <f t="shared" si="4"/>
         <v>217.27333333333334</v>
       </c>
       <c r="I30">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>6</v>
       </c>
       <c r="N30" s="4"/>
@@ -3798,7 +3801,7 @@
         <v>200000</v>
       </c>
       <c r="D31" s="6" t="str">
-        <f t="shared" ref="D31:D59" si="3">IF(C31&gt;2147483647,"L","")</f>
+        <f t="shared" ref="D31:D59" si="5">IF(C31&gt;2147483647,"L","")</f>
         <v/>
       </c>
       <c r="E31" s="6">
@@ -3808,15 +3811,15 @@
         <v>1</v>
       </c>
       <c r="G31" t="str">
-        <f>_xlfn.CONCAT($K$1,$K$3,B31,$K$3,$K$2,C31,D31,$K$2,E31,$K$2,F31,"),")</f>
+        <f t="shared" si="1"/>
         <v>new Upgrade("Kylo Ren's Helmet",200000,1350,1),</v>
       </c>
       <c r="H31" s="12">
-        <f>C31/E31</f>
+        <f t="shared" si="4"/>
         <v>148.14814814814815</v>
       </c>
       <c r="I31" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>6</v>
       </c>
       <c r="N31" s="4"/>
@@ -3829,7 +3832,7 @@
         <v>500235</v>
       </c>
       <c r="D32" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="E32">
@@ -3839,15 +3842,15 @@
         <v>5</v>
       </c>
       <c r="G32" t="str">
-        <f>_xlfn.CONCAT($K$1,$K$3,B32,$K$3,$K$2,C32,D32,$K$2,E32,$K$2,F32,"),")</f>
+        <f t="shared" si="1"/>
         <v>new Upgrade("Nuclear Bomb",500235,2390,5),</v>
       </c>
       <c r="H32" s="11">
-        <f>C32/E32</f>
+        <f t="shared" si="4"/>
         <v>209.30334728033472</v>
       </c>
       <c r="I32">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>6</v>
       </c>
       <c r="N32" s="4"/>
@@ -3860,7 +3863,7 @@
         <v>155893</v>
       </c>
       <c r="D33" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="E33">
@@ -3870,15 +3873,15 @@
         <v>10</v>
       </c>
       <c r="G33" t="str">
-        <f>_xlfn.CONCAT($K$1,$K$3,B33,$K$3,$K$2,C33,D33,$K$2,E33,$K$2,F33,"),")</f>
+        <f t="shared" si="1"/>
         <v>new Upgrade("Bowcaster",155893,563,10),</v>
       </c>
       <c r="H33" s="11">
-        <f>C33/E33</f>
+        <f t="shared" si="4"/>
         <v>276.89698046181172</v>
       </c>
       <c r="I33">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>6</v>
       </c>
       <c r="N33" s="4"/>
@@ -3891,7 +3894,7 @@
         <v>765482</v>
       </c>
       <c r="D34" s="6" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="E34" s="6">
@@ -3902,15 +3905,15 @@
         <v>1</v>
       </c>
       <c r="G34" t="str">
-        <f>_xlfn.CONCAT($K$1,$K$3,B34,$K$3,$K$2,C34,D34,$K$2,E34,$K$2,F34,"),")</f>
+        <f t="shared" ref="G34:G65" si="6">_xlfn.CONCAT($K$1,$K$3,B34,$K$3,$K$2,C34,D34,$K$2,E34,$K$2,F34,"),")</f>
         <v>new Upgrade("Genesis Device",765482,4570,1),</v>
       </c>
       <c r="H34" s="12">
-        <f>C34/E34</f>
+        <f t="shared" si="4"/>
         <v>167.50153172866521</v>
       </c>
       <c r="I34" s="6">
-        <f t="shared" ref="I34:I65" si="4">CEILING(LOG10(C34),1)</f>
+        <f t="shared" ref="I34:I65" si="7">CEILING(LOG10(C34),1)</f>
         <v>6</v>
       </c>
       <c r="J34" s="6" t="s">
@@ -3926,7 +3929,7 @@
         <v>166830</v>
       </c>
       <c r="D35" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="E35">
@@ -3936,15 +3939,15 @@
         <v>1</v>
       </c>
       <c r="G35" t="str">
-        <f>_xlfn.CONCAT($K$1,$K$3,B35,$K$3,$K$2,C35,D35,$K$2,E35,$K$2,F35,"),")</f>
+        <f t="shared" si="6"/>
         <v>new Upgrade("A bad feeling about this",166830,1138,1),</v>
       </c>
       <c r="H35" s="11">
-        <f>C35/E35</f>
+        <f t="shared" si="4"/>
         <v>146.59929701230229</v>
       </c>
       <c r="I35">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>6</v>
       </c>
       <c r="N35" s="4"/>
@@ -3957,7 +3960,7 @@
         <v>1344339</v>
       </c>
       <c r="D36" s="6" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="E36" s="6">
@@ -3967,15 +3970,15 @@
         <v>2</v>
       </c>
       <c r="G36" t="str">
-        <f>_xlfn.CONCAT($K$1,$K$3,B36,$K$3,$K$2,C36,D36,$K$2,E36,$K$2,F36,"),")</f>
+        <f t="shared" si="6"/>
         <v>new Upgrade("Death Star",1344339,7324,2),</v>
       </c>
       <c r="H36" s="12">
-        <f>C36/E36</f>
+        <f t="shared" si="4"/>
         <v>183.55256690333152</v>
       </c>
       <c r="I36" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>7</v>
       </c>
       <c r="J36" s="6" t="s">
@@ -3991,7 +3994,7 @@
         <v>100000</v>
       </c>
       <c r="D37" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="E37">
@@ -4001,15 +4004,15 @@
         <v>10</v>
       </c>
       <c r="G37" t="str">
-        <f>_xlfn.CONCAT($K$1,$K$3,B37,$K$3,$K$2,C37,D37,$K$2,E37,$K$2,F37,"),")</f>
+        <f t="shared" si="6"/>
         <v>new Upgrade("Rocket",100000,500,10),</v>
       </c>
       <c r="H37" s="11">
-        <f>C37/E37</f>
+        <f t="shared" si="4"/>
         <v>200</v>
       </c>
       <c r="I37">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>5</v>
       </c>
       <c r="N37" s="4"/>
@@ -4025,7 +4028,7 @@
         <v>2963500</v>
       </c>
       <c r="D38" s="6" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="E38" s="6">
@@ -4036,15 +4039,15 @@
         <v>19</v>
       </c>
       <c r="G38" t="str">
-        <f>_xlfn.CONCAT($K$1,$K$3,B38,$K$3,$K$2,C38,D38,$K$2,E38,$K$2,F38,"),")</f>
+        <f t="shared" si="6"/>
         <v>new Upgrade("Ring of Power",2963500,19776,19),</v>
       </c>
       <c r="H38" s="12">
-        <f>C38/E38</f>
+        <f t="shared" si="4"/>
         <v>149.85335760517799</v>
       </c>
       <c r="I38" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>7</v>
       </c>
       <c r="J38" s="6" t="s">
@@ -4060,7 +4063,7 @@
         <v>1375947</v>
       </c>
       <c r="D39" s="6" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="E39" s="6">
@@ -4070,15 +4073,15 @@
         <v>1</v>
       </c>
       <c r="G39" t="str">
-        <f>_xlfn.CONCAT($K$1,$K$3,B39,$K$3,$K$2,C39,D39,$K$2,E39,$K$2,F39,"),")</f>
+        <f t="shared" si="6"/>
         <v>new Upgrade("Stormbreaker",1375947,10000,1),</v>
       </c>
       <c r="H39" s="12">
-        <f>C39/E39</f>
+        <f t="shared" si="4"/>
         <v>137.59469999999999</v>
       </c>
       <c r="I39" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>7</v>
       </c>
       <c r="J39" s="6" t="s">
@@ -4094,7 +4097,7 @@
         <v>100000</v>
       </c>
       <c r="D40" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="E40">
@@ -4104,15 +4107,15 @@
         <v>10</v>
       </c>
       <c r="G40" t="str">
-        <f>_xlfn.CONCAT($K$1,$K$3,B40,$K$3,$K$2,C40,D40,$K$2,E40,$K$2,F40,"),")</f>
+        <f t="shared" si="6"/>
         <v>new Upgrade("Medpack",100000,500,10),</v>
       </c>
       <c r="H40" s="11">
-        <f>C40/E40</f>
+        <f t="shared" si="4"/>
         <v>200</v>
       </c>
       <c r="I40">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>5</v>
       </c>
       <c r="N40" s="4"/>
@@ -4125,7 +4128,7 @@
         <v>1019358</v>
       </c>
       <c r="D41" s="6" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="E41" s="6">
@@ -4135,15 +4138,15 @@
         <v>1</v>
       </c>
       <c r="G41" t="str">
-        <f>_xlfn.CONCAT($K$1,$K$3,B41,$K$3,$K$2,C41,D41,$K$2,E41,$K$2,F41,"),")</f>
+        <f t="shared" si="6"/>
         <v>new Upgrade("Mario's Hat",1019358,5342,1),</v>
       </c>
       <c r="H41" s="12">
-        <f>C41/E41</f>
+        <f t="shared" si="4"/>
         <v>190.81954324223136</v>
       </c>
       <c r="I41" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>7</v>
       </c>
       <c r="J41" s="6" t="s">
@@ -4159,7 +4162,7 @@
         <v>530000</v>
       </c>
       <c r="D42" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="E42">
@@ -4169,15 +4172,15 @@
         <v>10</v>
       </c>
       <c r="G42" t="str">
-        <f>_xlfn.CONCAT($K$1,$K$3,B42,$K$3,$K$2,C42,D42,$K$2,E42,$K$2,F42,"),")</f>
+        <f t="shared" si="6"/>
         <v>new Upgrade("Blender (the program)",530000,2140,10),</v>
       </c>
       <c r="H42" s="11">
-        <f>C42/E42</f>
+        <f t="shared" ref="H42:H61" si="8">C42/E42</f>
         <v>247.66355140186917</v>
       </c>
       <c r="I42">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>6</v>
       </c>
       <c r="N42" s="4"/>
@@ -4190,7 +4193,7 @@
         <v>300000</v>
       </c>
       <c r="D43" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="E43">
@@ -4200,15 +4203,15 @@
         <v>1</v>
       </c>
       <c r="G43" t="str">
-        <f>_xlfn.CONCAT($K$1,$K$3,B43,$K$3,$K$2,C43,D43,$K$2,E43,$K$2,F43,"),")</f>
+        <f t="shared" si="6"/>
         <v>new Upgrade("iPhone XR",300000,1215,1),</v>
       </c>
       <c r="H43" s="11">
-        <f>C43/E43</f>
+        <f t="shared" si="8"/>
         <v>246.91358024691357</v>
       </c>
       <c r="I43">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>6</v>
       </c>
       <c r="J43" t="s">
@@ -4224,7 +4227,7 @@
         <v>13630</v>
       </c>
       <c r="D44" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="E44">
@@ -4234,15 +4237,15 @@
         <v>10</v>
       </c>
       <c r="G44" t="str">
-        <f>_xlfn.CONCAT($K$1,$K$3,B44,$K$3,$K$2,C44,D44,$K$2,E44,$K$2,F44,"),")</f>
+        <f t="shared" si="6"/>
         <v>new Upgrade("Stormtrooper Helmet",13630,70,10),</v>
       </c>
       <c r="H44" s="11">
-        <f>C44/E44</f>
+        <f t="shared" si="8"/>
         <v>194.71428571428572</v>
       </c>
       <c r="I44">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>5</v>
       </c>
       <c r="J44" t="s">
@@ -4258,7 +4261,7 @@
         <v>22414</v>
       </c>
       <c r="D45" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="E45">
@@ -4268,15 +4271,15 @@
         <v>10</v>
       </c>
       <c r="G45" t="str">
-        <f>_xlfn.CONCAT($K$1,$K$3,B45,$K$3,$K$2,C45,D45,$K$2,E45,$K$2,F45,"),")</f>
+        <f t="shared" si="6"/>
         <v>new Upgrade("Sandwitch",22414,84,10),</v>
       </c>
       <c r="H45" s="11">
-        <f>C45/E45</f>
+        <f t="shared" si="8"/>
         <v>266.83333333333331</v>
       </c>
       <c r="I45">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>5</v>
       </c>
       <c r="J45" t="s">
@@ -4292,7 +4295,7 @@
         <v>39999</v>
       </c>
       <c r="D46" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="E46">
@@ -4302,15 +4305,15 @@
         <v>10</v>
       </c>
       <c r="G46" t="str">
-        <f>_xlfn.CONCAT($K$1,$K$3,B46,$K$3,$K$2,C46,D46,$K$2,E46,$K$2,F46,"),")</f>
+        <f t="shared" si="6"/>
         <v>new Upgrade("Oculus",39999,199,10),</v>
       </c>
       <c r="H46" s="11">
-        <f>C46/E46</f>
+        <f t="shared" si="8"/>
         <v>201</v>
       </c>
       <c r="I46">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>5</v>
       </c>
       <c r="N46" s="4"/>
@@ -4323,7 +4326,7 @@
         <v>20000</v>
       </c>
       <c r="D47" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="E47">
@@ -4333,15 +4336,15 @@
         <v>6</v>
       </c>
       <c r="G47" t="str">
-        <f>_xlfn.CONCAT($K$1,$K$3,B47,$K$3,$K$2,C47,D47,$K$2,E47,$K$2,F47,"),")</f>
+        <f t="shared" si="6"/>
         <v>new Upgrade("Shards of Narsil",20000,97,6),</v>
       </c>
       <c r="H47" s="11">
-        <f>C47/E47</f>
+        <f t="shared" si="8"/>
         <v>206.18556701030928</v>
       </c>
       <c r="I47">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>5</v>
       </c>
       <c r="N47" s="4"/>
@@ -4354,7 +4357,7 @@
         <v>14645</v>
       </c>
       <c r="D48" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="E48">
@@ -4365,15 +4368,15 @@
         <v>10</v>
       </c>
       <c r="G48" t="str">
-        <f>_xlfn.CONCAT($K$1,$K$3,B48,$K$3,$K$2,C48,D48,$K$2,E48,$K$2,F48,"),")</f>
+        <f t="shared" si="6"/>
         <v>new Upgrade("Batarang",14645,70,10),</v>
       </c>
       <c r="H48" s="11">
-        <f>C48/E48</f>
+        <f t="shared" si="8"/>
         <v>209.21428571428572</v>
       </c>
       <c r="I48">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>5</v>
       </c>
       <c r="J48" t="s">
@@ -4389,7 +4392,7 @@
         <v>10000</v>
       </c>
       <c r="D49" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="E49">
@@ -4399,15 +4402,15 @@
         <v>100</v>
       </c>
       <c r="G49" t="str">
-        <f>_xlfn.CONCAT($K$1,$K$3,B49,$K$3,$K$2,C49,D49,$K$2,E49,$K$2,F49,"),")</f>
+        <f t="shared" si="6"/>
         <v>new Upgrade("Sword",10000,51,100),</v>
       </c>
       <c r="H49" s="11">
-        <f>C49/E49</f>
+        <f t="shared" si="8"/>
         <v>196.07843137254903</v>
       </c>
       <c r="I49">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>4</v>
       </c>
       <c r="N49" s="4"/>
@@ -4420,7 +4423,7 @@
         <v>10000</v>
       </c>
       <c r="D50" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="E50">
@@ -4430,15 +4433,15 @@
         <v>10</v>
       </c>
       <c r="G50" t="str">
-        <f>_xlfn.CONCAT($K$1,$K$3,B50,$K$3,$K$2,C50,D50,$K$2,E50,$K$2,F50,"),")</f>
+        <f t="shared" si="6"/>
         <v>new Upgrade("Water Bottle",10000,49,10),</v>
       </c>
       <c r="H50" s="11">
-        <f>C50/E50</f>
+        <f t="shared" si="8"/>
         <v>204.08163265306123</v>
       </c>
       <c r="I50">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>4</v>
       </c>
       <c r="N50" s="4"/>
@@ -4451,7 +4454,7 @@
         <v>667186</v>
       </c>
       <c r="D51" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="E51">
@@ -4461,15 +4464,15 @@
         <v>10</v>
       </c>
       <c r="G51" t="str">
-        <f>_xlfn.CONCAT($K$1,$K$3,B51,$K$3,$K$2,C51,D51,$K$2,E51,$K$2,F51,"),")</f>
+        <f t="shared" si="6"/>
         <v>new Upgrade("Easy Button",667186,2839,10),</v>
       </c>
       <c r="H51" s="11">
-        <f>C51/E51</f>
+        <f t="shared" si="8"/>
         <v>235.00739697076435</v>
       </c>
       <c r="I51">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>6</v>
       </c>
       <c r="J51" t="s">
@@ -4485,7 +4488,7 @@
         <v>10000</v>
       </c>
       <c r="D52" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="E52">
@@ -4495,15 +4498,15 @@
         <v>7</v>
       </c>
       <c r="G52" t="str">
-        <f>_xlfn.CONCAT($K$1,$K$3,B52,$K$3,$K$2,C52,D52,$K$2,E52,$K$2,F52,"),")</f>
+        <f t="shared" si="6"/>
         <v>new Upgrade("Blender (for food)",10000,43,7),</v>
       </c>
       <c r="H52" s="11">
-        <f>C52/E52</f>
+        <f t="shared" si="8"/>
         <v>232.55813953488371</v>
       </c>
       <c r="I52">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>4</v>
       </c>
       <c r="N52" s="4"/>
@@ -4516,7 +4519,7 @@
         <v>998520</v>
       </c>
       <c r="D53" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="E53">
@@ -4527,15 +4530,15 @@
         <v>1</v>
       </c>
       <c r="G53" t="str">
-        <f>_xlfn.CONCAT($K$1,$K$3,B53,$K$3,$K$2,C53,D53,$K$2,E53,$K$2,F53,"),")</f>
+        <f t="shared" si="6"/>
         <v>new Upgrade("The Piece of Resistance",998520,4950,1),</v>
       </c>
       <c r="H53" s="11">
-        <f>C53/E53</f>
+        <f t="shared" si="8"/>
         <v>201.72121212121212</v>
       </c>
       <c r="I53">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>6</v>
       </c>
       <c r="J53" t="s">
@@ -4551,7 +4554,7 @@
         <v>5000</v>
       </c>
       <c r="D54" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="E54">
@@ -4561,15 +4564,15 @@
         <v>200</v>
       </c>
       <c r="G54" t="str">
-        <f>_xlfn.CONCAT($K$1,$K$3,B54,$K$3,$K$2,C54,D54,$K$2,E54,$K$2,F54,"),")</f>
+        <f t="shared" si="6"/>
         <v>new Upgrade("Shield",5000,25,200),</v>
       </c>
       <c r="H54" s="11">
-        <f>C54/E54</f>
+        <f t="shared" si="8"/>
         <v>200</v>
       </c>
       <c r="I54">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>4</v>
       </c>
       <c r="N54" s="4"/>
@@ -4582,7 +4585,7 @@
         <v>1996</v>
       </c>
       <c r="D55" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="E55">
@@ -4592,15 +4595,15 @@
         <v>4</v>
       </c>
       <c r="G55" t="str">
-        <f>_xlfn.CONCAT($K$1,$K$3,B55,$K$3,$K$2,C55,D55,$K$2,E55,$K$2,F55,"),")</f>
+        <f t="shared" si="6"/>
         <v>new Upgrade("Shark Repellent Bat Spray",1996,10,4),</v>
       </c>
       <c r="H55" s="11">
-        <f>C55/E55</f>
+        <f t="shared" si="8"/>
         <v>199.6</v>
       </c>
       <c r="I55">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>4</v>
       </c>
       <c r="N55" s="4"/>
@@ -4613,7 +4616,7 @@
         <v>957440</v>
       </c>
       <c r="D56" s="6" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="E56" s="6">
@@ -4623,15 +4626,15 @@
         <v>1</v>
       </c>
       <c r="G56" t="str">
-        <f>_xlfn.CONCAT($K$1,$K$3,B56,$K$3,$K$2,C56,D56,$K$2,E56,$K$2,F56,"),")</f>
+        <f t="shared" si="6"/>
         <v>new Upgrade("Kirk's Glasses",957440,4329,1),</v>
       </c>
       <c r="H56" s="12">
-        <f>C56/E56</f>
+        <f t="shared" si="8"/>
         <v>221.16886116886116</v>
       </c>
       <c r="I56" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>6</v>
       </c>
       <c r="J56" s="6" t="s">
@@ -4647,7 +4650,7 @@
         <v>1000</v>
       </c>
       <c r="D57" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="E57">
@@ -4657,15 +4660,15 @@
         <v>100</v>
       </c>
       <c r="G57" t="str">
-        <f>_xlfn.CONCAT($K$1,$K$3,B57,$K$3,$K$2,C57,D57,$K$2,E57,$K$2,F57,"),")</f>
+        <f t="shared" si="6"/>
         <v>new Upgrade("Popcorn",1000,5,100),</v>
       </c>
       <c r="H57" s="11">
-        <f>C57/E57</f>
+        <f t="shared" si="8"/>
         <v>200</v>
       </c>
       <c r="I57">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>3</v>
       </c>
       <c r="N57" s="4"/>
@@ -4678,7 +4681,7 @@
         <v>451</v>
       </c>
       <c r="D58" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="E58">
@@ -4688,15 +4691,15 @@
         <v>10</v>
       </c>
       <c r="G58" t="str">
-        <f>_xlfn.CONCAT($K$1,$K$3,B58,$K$3,$K$2,C58,D58,$K$2,E58,$K$2,F58,"),")</f>
+        <f t="shared" si="6"/>
         <v>new Upgrade("Book",451,2,10),</v>
       </c>
       <c r="H58" s="11">
-        <f>C58/E58</f>
+        <f t="shared" si="8"/>
         <v>225.5</v>
       </c>
       <c r="I58">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>3</v>
       </c>
       <c r="N58" s="4"/>
@@ -4712,7 +4715,7 @@
         <v>100</v>
       </c>
       <c r="D59" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="E59">
@@ -4722,15 +4725,15 @@
         <v>1</v>
       </c>
       <c r="G59" t="str">
-        <f>_xlfn.CONCAT($K$1,$K$3,B59,$K$3,$K$2,C59,D59,$K$2,E59,$K$2,F59,"),")</f>
+        <f t="shared" si="6"/>
         <v>new Upgrade("Cookie",100,3,1),</v>
       </c>
       <c r="H59" s="11">
-        <f>C59/E59</f>
+        <f t="shared" si="8"/>
         <v>33.333333333333336</v>
       </c>
       <c r="I59">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>2</v>
       </c>
       <c r="N59" s="4"/>
@@ -4743,7 +4746,7 @@
         <v>200</v>
       </c>
       <c r="D60" t="str">
-        <f t="shared" ref="D60:D80" si="5">IF(C60&gt;2147483647,"L","")</f>
+        <f t="shared" ref="D60:D81" si="9">IF(C60&gt;2147483647,"L","")</f>
         <v/>
       </c>
       <c r="E60">
@@ -4753,15 +4756,15 @@
         <v>100</v>
       </c>
       <c r="G60" t="str">
-        <f>_xlfn.CONCAT($K$1,$K$3,B60,$K$3,$K$2,C60,D60,$K$2,E60,$K$2,F60,"),")</f>
+        <f t="shared" si="6"/>
         <v>new Upgrade("Lego Brick",200,1,100),</v>
       </c>
       <c r="H60" s="11">
-        <f>C60/E60</f>
+        <f t="shared" si="8"/>
         <v>200</v>
       </c>
       <c r="I60">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>3</v>
       </c>
       <c r="N60" s="4"/>
@@ -4774,7 +4777,7 @@
         <v>1</v>
       </c>
       <c r="D61" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="E61">
@@ -4784,11 +4787,11 @@
         <v>128</v>
       </c>
       <c r="G61" t="str">
-        <f>_xlfn.CONCAT($K$1,$K$3,B61,$K$3,$K$2,C61,D61,$K$2,E61,$K$2,F61,"),")</f>
+        <f t="shared" si="6"/>
         <v>new Upgrade("Bug",1,-1,128),</v>
       </c>
       <c r="H61" s="11">
-        <f>C61/E61</f>
+        <f t="shared" si="8"/>
         <v>-1</v>
       </c>
       <c r="I61">
@@ -4804,7 +4807,7 @@
         <v>59637044043</v>
       </c>
       <c r="D62" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>L</v>
       </c>
       <c r="E62">
@@ -4815,15 +4818,15 @@
         <v>1</v>
       </c>
       <c r="G62" s="4" t="str">
-        <f>_xlfn.CONCAT($K$1,$K$3,B62,$K$3,$K$2,C62,D62,$K$2,E62,$K$2,F62,"),")</f>
+        <f t="shared" si="6"/>
         <v>new Upgrade("Arc Reactor",59637044043L,141467051,1),</v>
       </c>
       <c r="H62" s="11">
-        <f t="shared" ref="H62:H64" si="6">16*LOG(C62,6)+200</f>
+        <f t="shared" ref="H62:H64" si="10">16*LOG(C62,6)+200</f>
         <v>421.56137082818816</v>
       </c>
       <c r="I62" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>11</v>
       </c>
       <c r="J62" t="s">
@@ -4840,7 +4843,7 @@
         <v>2110089696934650</v>
       </c>
       <c r="D63" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>L</v>
       </c>
       <c r="E63">
@@ -4851,15 +4854,15 @@
         <v>1</v>
       </c>
       <c r="G63" s="4" t="str">
-        <f>_xlfn.CONCAT($K$1,$K$3,B63,$K$3,$K$2,C63,D63,$K$2,E63,$K$2,F63,"),")</f>
+        <f t="shared" si="6"/>
         <v>new Upgrade("Kryptonite",2110089696934650L,4096534023712,1),</v>
       </c>
       <c r="H63" s="11">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>515.09146139659265</v>
       </c>
       <c r="I63" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>16</v>
       </c>
       <c r="J63" t="s">
@@ -4875,7 +4878,7 @@
         <v>8.3250280290413904E+16</v>
       </c>
       <c r="D64" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>L</v>
       </c>
       <c r="E64">
@@ -4886,15 +4889,15 @@
         <v>1</v>
       </c>
       <c r="G64" s="4" t="str">
-        <f>_xlfn.CONCAT($K$1,$K$3,B64,$K$3,$K$2,C64,D64,$K$2,E64,$K$2,F64,"),")</f>
+        <f t="shared" si="6"/>
         <v>new Upgrade("Air Force One",83250280290413900L,151941677102307,1),</v>
       </c>
       <c r="H64" s="11">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>547.90944708579946</v>
       </c>
       <c r="I64" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>17</v>
       </c>
       <c r="J64" t="s">
@@ -4919,7 +4922,7 @@
         <v>1</v>
       </c>
       <c r="G65" t="str">
-        <f>_xlfn.CONCAT($K$1,$K$3,B65,$K$3,$K$2,C65,D65,$K$2,E65,$K$2,F65,"),")</f>
+        <f t="shared" si="6"/>
         <v>new Upgrade("Cheat",1,1,1),</v>
       </c>
       <c r="H65" s="11">
@@ -4927,7 +4930,7 @@
         <v>1</v>
       </c>
       <c r="I65" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="N65" s="4"/>
@@ -4949,15 +4952,15 @@
       </c>
       <c r="F66" s="2"/>
       <c r="G66" s="4" t="str">
-        <f>_xlfn.CONCAT($K$1,$K$3,B66,$K$3,$K$2,C66,D66,$K$2,E66,$K$2,F66,"),")</f>
+        <f t="shared" ref="G66" si="11">_xlfn.CONCAT($K$1,$K$3,B66,$K$3,$K$2,C66,D66,$K$2,E66,$K$2,F66,"),")</f>
         <v>new Upgrade("Ice Cream",40896568606L,97793577,),</v>
       </c>
       <c r="H66" s="11">
-        <f t="shared" ref="H66" si="7">16*LOG(C66,6)+200</f>
+        <f t="shared" ref="H66" si="12">16*LOG(C66,6)+200</f>
         <v>418.19278686855296</v>
       </c>
       <c r="I66" s="4">
-        <f t="shared" ref="I66:I80" si="8">CEILING(LOG10(C66),1)</f>
+        <f t="shared" ref="I66:I80" si="13">CEILING(LOG10(C66),1)</f>
         <v>11</v>
       </c>
       <c r="N66" s="4"/>
@@ -4970,7 +4973,7 @@
         <v>4.2751491899335398E+18</v>
       </c>
       <c r="D67" t="str">
-        <f t="shared" ref="D67:D70" si="9">IF(C67&gt;2147483647,"L","")</f>
+        <f t="shared" ref="D67:D70" si="14">IF(C67&gt;2147483647,"L","")</f>
         <v>L</v>
       </c>
       <c r="E67">
@@ -4981,15 +4984,15 @@
         <v>1</v>
       </c>
       <c r="G67" s="4" t="str">
-        <f t="shared" ref="G67:G70" si="10">_xlfn.CONCAT($K$1,$K$3,B67,$K$3,$K$2,C67,D67,$K$2,E67,$K$2,F67,"),")</f>
+        <f t="shared" ref="G67:G70" si="15">_xlfn.CONCAT($K$1,$K$3,B67,$K$3,$K$2,C67,D67,$K$2,E67,$K$2,F67,"),")</f>
         <v>new Upgrade("Klondike Bar",4275149189933540000L,7331994574249420,1),</v>
       </c>
       <c r="H67" s="11">
-        <f t="shared" ref="H67:H79" si="11">16*LOG(C67,6)+200</f>
+        <f t="shared" ref="H67:H80" si="16">16*LOG(C67,6)+200</f>
         <v>583.081335732056</v>
       </c>
       <c r="I67" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="13"/>
         <v>19</v>
       </c>
       <c r="J67" t="s">
@@ -5005,7 +5008,7 @@
         <v>83745097494464</v>
       </c>
       <c r="D68" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="14"/>
         <v>L</v>
       </c>
       <c r="E68">
@@ -5016,15 +5019,15 @@
         <v>1</v>
       </c>
       <c r="G68" s="4" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="15"/>
         <v>new Upgrade("Time Machine",83745097494464L,172216610960,1),</v>
       </c>
       <c r="H68" s="11">
-        <f t="shared" si="11"/>
+        <f t="shared" si="16"/>
         <v>486.27770008752549</v>
       </c>
       <c r="I68" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="13"/>
         <v>14</v>
       </c>
       <c r="J68" t="s">
@@ -5040,7 +5043,7 @@
         <v>1000000</v>
       </c>
       <c r="D69" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
       <c r="E69">
@@ -5050,14 +5053,14 @@
         <v>1</v>
       </c>
       <c r="G69" s="4" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="15"/>
         <v>new Upgrade("Bribe",1000000,0,1),</v>
       </c>
       <c r="H69" s="11">
         <v>0</v>
       </c>
       <c r="I69" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="13"/>
         <v>6</v>
       </c>
       <c r="N69" s="4"/>
@@ -5070,7 +5073,7 @@
         <v>81247450573750</v>
       </c>
       <c r="D70" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="14"/>
         <v>L</v>
       </c>
       <c r="E70">
@@ -5081,15 +5084,15 @@
         <v>1</v>
       </c>
       <c r="G70" s="4" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="15"/>
         <v>new Upgrade("Nuclear Fireworks",81247450573750L,167173305334,1),</v>
       </c>
       <c r="H70" s="11">
-        <f t="shared" si="11"/>
+        <f t="shared" si="16"/>
         <v>486.00732282791182</v>
       </c>
       <c r="I70" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="13"/>
         <v>14</v>
       </c>
       <c r="J70" t="s">
@@ -5105,7 +5108,7 @@
         <v>1755841378694</v>
       </c>
       <c r="D71" t="str">
-        <f t="shared" ref="D71:D76" si="12">IF(C71&gt;2147483647,"L","")</f>
+        <f t="shared" ref="D71:D76" si="17">IF(C71&gt;2147483647,"L","")</f>
         <v>L</v>
       </c>
       <c r="E71">
@@ -5116,15 +5119,15 @@
         <v>1</v>
       </c>
       <c r="G71" s="4" t="str">
-        <f t="shared" ref="G71:G76" si="13">_xlfn.CONCAT($K$1,$K$3,B71,$K$3,$K$2,C71,D71,$K$2,E71,$K$2,F71,"),")</f>
+        <f t="shared" ref="G71:G76" si="18">_xlfn.CONCAT($K$1,$K$3,B71,$K$3,$K$2,C71,D71,$K$2,E71,$K$2,F71,"),")</f>
         <v>new Upgrade("Meme",1755841378694L,3886619829,1),</v>
       </c>
       <c r="H71" s="11">
-        <f t="shared" si="11"/>
+        <f t="shared" si="16"/>
         <v>451.76566172171169</v>
       </c>
       <c r="I71" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="13"/>
         <v>13</v>
       </c>
       <c r="J71" t="s">
@@ -5155,11 +5158,11 @@
         <v>new Upgrade("Bigfoot",79837291968785L,164324651505,1),</v>
       </c>
       <c r="H72" s="11">
-        <f t="shared" si="11"/>
+        <f t="shared" si="16"/>
         <v>485.85097389592102</v>
       </c>
       <c r="I72" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="13"/>
         <v>14</v>
       </c>
       <c r="J72" t="s">
@@ -5175,7 +5178,7 @@
         <v>5704058330541</v>
       </c>
       <c r="D73" t="str">
-        <f t="shared" ref="D73:D75" si="14">IF(C73&gt;2147483647,"L","")</f>
+        <f t="shared" ref="D73:D75" si="19">IF(C73&gt;2147483647,"L","")</f>
         <v>L</v>
       </c>
       <c r="E73">
@@ -5186,15 +5189,15 @@
         <v>1</v>
       </c>
       <c r="G73" s="4" t="str">
-        <f t="shared" ref="G73:G75" si="15">_xlfn.CONCAT($K$1,$K$3,B73,$K$3,$K$2,C73,D73,$K$2,E73,$K$2,F73,"),")</f>
+        <f t="shared" ref="G73:G75" si="20">_xlfn.CONCAT($K$1,$K$3,B73,$K$3,$K$2,C73,D73,$K$2,E73,$K$2,F73,"),")</f>
         <v>new Upgrade("Area 51",5704058330541L,12338782071,1),</v>
       </c>
       <c r="H73" s="11">
-        <f t="shared" si="11"/>
+        <f t="shared" si="16"/>
         <v>462.28698241863572</v>
       </c>
       <c r="I73" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="13"/>
         <v>13</v>
       </c>
       <c r="J73" t="s">
@@ -5210,7 +5213,7 @@
         <v>2221819257185</v>
       </c>
       <c r="D74" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="19"/>
         <v>L</v>
       </c>
       <c r="E74">
@@ -5221,15 +5224,15 @@
         <v>1</v>
       </c>
       <c r="G74" s="4" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="20"/>
         <v>new Upgrade("Loch Ness Monster",2221819257185L,4895303336,1),</v>
       </c>
       <c r="H74" s="11">
-        <f t="shared" si="11"/>
+        <f t="shared" si="16"/>
         <v>453.86753478632716</v>
       </c>
       <c r="I74" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="13"/>
         <v>13</v>
       </c>
       <c r="J74" t="s">
@@ -5245,7 +5248,7 @@
         <v>839548670437</v>
       </c>
       <c r="D75" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="19"/>
         <v>L</v>
       </c>
       <c r="E75">
@@ -5256,15 +5259,15 @@
         <v>1</v>
       </c>
       <c r="G75" s="4" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="20"/>
         <v>new Upgrade("The Moon",839548670437L,1885876413,1),</v>
       </c>
       <c r="H75" s="11">
-        <f t="shared" si="11"/>
+        <f t="shared" si="16"/>
         <v>445.17692923698598</v>
       </c>
       <c r="I75" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="13"/>
         <v>12</v>
       </c>
       <c r="J75" t="s">
@@ -5280,7 +5283,7 @@
         <v>1248529473245030</v>
       </c>
       <c r="D76" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="17"/>
         <v>L</v>
       </c>
       <c r="E76">
@@ -5291,15 +5294,15 @@
         <v>5</v>
       </c>
       <c r="G76" s="4" t="str">
+        <f t="shared" si="18"/>
+        <v>new Upgrade("A True Cake",1248529473245030L,2446152366149,5),</v>
+      </c>
+      <c r="H76" s="11">
+        <f t="shared" si="16"/>
+        <v>510.40543938429477</v>
+      </c>
+      <c r="I76" s="4">
         <f t="shared" si="13"/>
-        <v>new Upgrade("A True Cake",1248529473245030L,2446152366149,5),</v>
-      </c>
-      <c r="H76" s="11">
-        <f t="shared" si="11"/>
-        <v>510.40543938429477</v>
-      </c>
-      <c r="I76" s="4">
-        <f t="shared" si="8"/>
         <v>16</v>
       </c>
       <c r="J76" t="s">
@@ -5330,11 +5333,11 @@
         <v>new Upgrade("MissingNo",55905021527L,132795976,1),</v>
       </c>
       <c r="H77" s="11">
-        <f t="shared" si="11"/>
+        <f t="shared" si="16"/>
         <v>420.98430481204133</v>
       </c>
       <c r="I77" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="13"/>
         <v>11</v>
       </c>
       <c r="J77" t="s">
@@ -5344,33 +5347,33 @@
     </row>
     <row r="78" spans="1:14">
       <c r="B78" s="1" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="C78">
-        <v>37910263806</v>
+        <v>17728</v>
       </c>
       <c r="D78" t="str">
         <f>IF(C78&gt;2147483647,"L","")</f>
-        <v>L</v>
+        <v/>
       </c>
       <c r="E78">
         <f>MROUND(Table1[[#This Row],[Cost]]/Table1[[#This Row],[Messages needed to earn back the amount of coins spend]],1)</f>
-        <v>90799614</v>
+        <v>62</v>
       </c>
       <c r="F78" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G78" s="4" t="str">
         <f>_xlfn.CONCAT($K$1,$K$3,B78,$K$3,$K$2,C78,D78,$K$2,E78,$K$2,F78,"),")</f>
-        <v>new Upgrade("Airpods",37910263806L,90799614,2),</v>
+        <v>new Upgrade("Dog",17728,62,3),</v>
       </c>
       <c r="H78" s="11">
-        <f t="shared" si="11"/>
-        <v>417.51569353838971</v>
+        <f t="shared" si="16"/>
+        <v>287.3590524403304</v>
       </c>
       <c r="I78" s="4">
-        <f t="shared" si="8"/>
-        <v>11</v>
+        <f>CEILING(LOG10(C78),1)</f>
+        <v>5</v>
       </c>
       <c r="J78" t="s">
         <v>95</v>
@@ -5379,33 +5382,33 @@
     </row>
     <row r="79" spans="1:14">
       <c r="B79" s="1" t="s">
-        <v>102</v>
+        <v>115</v>
       </c>
       <c r="C79">
-        <v>1858055186797720</v>
+        <v>37910263806</v>
       </c>
       <c r="D79" t="str">
-        <f t="shared" ref="D79" si="16">IF(C79&gt;2147483647,"L","")</f>
+        <f>IF(C79&gt;2147483647,"L","")</f>
         <v>L</v>
       </c>
       <c r="E79">
         <f>MROUND(Table1[[#This Row],[Cost]]/Table1[[#This Row],[Messages needed to earn back the amount of coins spend]],1)</f>
-        <v>3615205690620</v>
+        <v>90799614</v>
       </c>
       <c r="F79" s="2">
         <v>2</v>
       </c>
       <c r="G79" s="4" t="str">
         <f>_xlfn.CONCAT($K$1,$K$3,B79,$K$3,$K$2,C79,D79,$K$2,E79,$K$2,F79,"),")</f>
-        <v>new Upgrade("Iron Man Suit",1858055186797720L,3615205690620,2),</v>
+        <v>new Upgrade("Airpods",37910263806L,90799614,2),</v>
       </c>
       <c r="H79" s="11">
-        <f t="shared" si="11"/>
-        <v>513.95559362456413</v>
+        <f t="shared" si="16"/>
+        <v>417.51569353838971</v>
       </c>
       <c r="I79" s="4">
-        <f t="shared" si="8"/>
-        <v>16</v>
+        <f t="shared" si="13"/>
+        <v>11</v>
       </c>
       <c r="J79" t="s">
         <v>95</v>
@@ -5414,75 +5417,110 @@
     </row>
     <row r="80" spans="1:14">
       <c r="B80" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="C80">
+        <v>1858055186797720</v>
+      </c>
+      <c r="D80" t="str">
+        <f t="shared" ref="D80" si="21">IF(C80&gt;2147483647,"L","")</f>
+        <v>L</v>
+      </c>
+      <c r="E80">
+        <f>MROUND(Table1[[#This Row],[Cost]]/Table1[[#This Row],[Messages needed to earn back the amount of coins spend]],1)</f>
+        <v>3615205690620</v>
+      </c>
+      <c r="F80" s="2">
+        <v>2</v>
+      </c>
+      <c r="G80" s="4" t="str">
+        <f>_xlfn.CONCAT($K$1,$K$3,B80,$K$3,$K$2,C80,D80,$K$2,E80,$K$2,F80,"),")</f>
+        <v>new Upgrade("Iron Man Suit",1858055186797720L,3615205690620,2),</v>
+      </c>
+      <c r="H80" s="11">
+        <f t="shared" si="16"/>
+        <v>513.95559362456413</v>
+      </c>
+      <c r="I80" s="4">
+        <f t="shared" si="13"/>
+        <v>16</v>
+      </c>
+      <c r="J80" t="s">
+        <v>95</v>
+      </c>
+      <c r="N80" s="4"/>
+    </row>
+    <row r="81" spans="2:14">
+      <c r="B81" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="C80">
-        <v>1</v>
-      </c>
-      <c r="D80" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="E80">
+      <c r="C81">
+        <v>1</v>
+      </c>
+      <c r="D81" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="E81">
         <v>0</v>
       </c>
-      <c r="F80" s="2">
+      <c r="F81" s="2">
         <v>256</v>
       </c>
-      <c r="G80" t="str">
-        <f>_xlfn.CONCAT($K$1,$K$3,B80,$K$3,$K$2,C80,D80,$K$2,E80,$K$2,F80,"),")</f>
+      <c r="G81" t="str">
+        <f>_xlfn.CONCAT($K$1,$K$3,B81,$K$3,$K$2,C81,D81,$K$2,E81,$K$2,F81,"),")</f>
         <v>new Upgrade("Debug Byte",1,0,256),</v>
       </c>
-      <c r="H80" s="11" t="s">
+      <c r="H81" s="11" t="s">
         <v>117</v>
       </c>
-      <c r="I80">
-        <v>1</v>
-      </c>
-      <c r="N80" s="4"/>
-    </row>
-    <row r="81" spans="14:14">
+      <c r="I81">
+        <v>1</v>
+      </c>
       <c r="N81" s="4"/>
     </row>
-    <row r="82" spans="14:14">
+    <row r="82" spans="2:14">
       <c r="N82" s="4"/>
     </row>
-    <row r="83" spans="14:14">
+    <row r="83" spans="2:14">
       <c r="N83" s="4"/>
     </row>
-    <row r="84" spans="14:14">
+    <row r="84" spans="2:14">
       <c r="N84" s="4"/>
     </row>
-    <row r="85" spans="14:14">
+    <row r="85" spans="2:14">
       <c r="N85" s="4"/>
     </row>
-    <row r="86" spans="14:14">
+    <row r="86" spans="2:14">
       <c r="N86" s="4"/>
     </row>
-    <row r="87" spans="14:14">
+    <row r="87" spans="2:14">
       <c r="N87" s="4"/>
     </row>
-    <row r="88" spans="14:14">
+    <row r="88" spans="2:14">
       <c r="N88" s="4"/>
     </row>
-    <row r="89" spans="14:14">
+    <row r="89" spans="2:14">
       <c r="N89" s="4"/>
     </row>
-    <row r="90" spans="14:14">
+    <row r="90" spans="2:14">
       <c r="N90" s="4"/>
     </row>
-    <row r="91" spans="14:14">
+    <row r="91" spans="2:14">
       <c r="N91" s="4"/>
     </row>
-    <row r="92" spans="14:14">
+    <row r="92" spans="2:14">
       <c r="N92" s="4"/>
+    </row>
+    <row r="93" spans="2:14">
+      <c r="N93" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="K5:L7"/>
   </mergeCells>
   <conditionalFormatting sqref="C1:C1048576">
-    <cfRule type="cellIs" dxfId="1" priority="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="greaterThan">
       <formula>9223372036854770000</formula>
     </cfRule>
   </conditionalFormatting>

--- a/Items.xlsx
+++ b/Items.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10812"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\johnw\iCloudDrive\Mine\My Programs\CoinGames\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/johnwuller/Bots/CoinGames/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4DB98F6-E08E-43CB-B68C-A3DD2E7827A7}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD67DBAC-E80B-FF45-8AA2-815731B799E4}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2208" yWindow="624" windowWidth="20616" windowHeight="8964" activeTab="1" xr2:uid="{C42CA93E-3A2D-D040-AB9B-E333D2FB9CC9}"/>
+    <workbookView xWindow="2200" yWindow="620" windowWidth="20620" windowHeight="8960" activeTab="1" xr2:uid="{C42CA93E-3A2D-D040-AB9B-E333D2FB9CC9}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -398,7 +398,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -522,16 +522,6 @@
   </cellStyles>
   <dxfs count="6">
     <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
@@ -561,6 +551,16 @@
         <scheme val="none"/>
       </font>
     </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -582,20 +582,20 @@
   </sortState>
   <tableColumns count="10">
     <tableColumn id="1" xr3:uid="{B3882E44-A406-45D7-8B81-3BE7D8468DD3}" name="Prefix"/>
-    <tableColumn id="2" xr3:uid="{BBEDCA42-A349-4B8A-B3F6-630CA6A6848E}" name="Name" dataDxfId="5"/>
+    <tableColumn id="2" xr3:uid="{BBEDCA42-A349-4B8A-B3F6-630CA6A6848E}" name="Name" dataDxfId="4"/>
     <tableColumn id="3" xr3:uid="{EF70BBD7-AFE9-448B-8134-0BE31683DB7F}" name="Cost"/>
     <tableColumn id="4" xr3:uid="{0656EB21-15AB-4A2D-8645-982D7283C115}" name="Column1">
       <calculatedColumnFormula>IF(C2&gt;2147483647,"L","")</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="5" xr3:uid="{72E00DC1-7F07-4212-9067-1519DBF1E8CB}" name="Boost"/>
-    <tableColumn id="6" xr3:uid="{4C3041D4-FCB0-4127-ACBC-989B299F0011}" name="Quantity" dataDxfId="4"/>
-    <tableColumn id="7" xr3:uid="{F74CFCBD-6EB6-4116-8F58-FAA3BD72544B}" name="Final" dataDxfId="3">
+    <tableColumn id="6" xr3:uid="{4C3041D4-FCB0-4127-ACBC-989B299F0011}" name="Quantity" dataDxfId="3"/>
+    <tableColumn id="7" xr3:uid="{F74CFCBD-6EB6-4116-8F58-FAA3BD72544B}" name="Final" dataDxfId="2">
       <calculatedColumnFormula>_xlfn.CONCAT($K$1,$K$3,B2,$K$3,$K$2,C2,D2,$K$2,E2,$K$2,F2,"),")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{ED093BC7-1767-47E6-9724-AAE846529AF1}" name="Messages needed to earn back the amount of coins spend" dataDxfId="2">
+    <tableColumn id="8" xr3:uid="{ED093BC7-1767-47E6-9724-AAE846529AF1}" name="Messages needed to earn back the amount of coins spend" dataDxfId="1">
       <calculatedColumnFormula>C2/E2</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{CED6810C-AE22-4E72-BAF9-196C471149E4}" name="Digits" dataDxfId="1">
+    <tableColumn id="9" xr3:uid="{CED6810C-AE22-4E72-BAF9-196C471149E4}" name="Digits" dataDxfId="0">
       <calculatedColumnFormula>CEILING(LOG10(C2),1)</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="10" xr3:uid="{4B948BE7-CCBA-44E6-88FF-EF66EE6101A1}" name="Egg"/>
@@ -907,17 +907,17 @@
       <selection activeCell="G2" sqref="G2:G68"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="38" customWidth="1"/>
-    <col min="3" max="3" width="12.19921875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.796875" style="2"/>
-    <col min="7" max="7" width="18.296875" customWidth="1"/>
-    <col min="9" max="9" width="19.296875" customWidth="1"/>
-    <col min="10" max="10" width="10.796875" customWidth="1"/>
+    <col min="3" max="3" width="12.1640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.83203125" style="2"/>
+    <col min="7" max="7" width="18.33203125" customWidth="1"/>
+    <col min="9" max="9" width="19.33203125" customWidth="1"/>
+    <col min="10" max="10" width="10.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>66</v>
       </c>
@@ -943,7 +943,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="2" spans="1:10">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B2" s="1" t="s">
         <v>5</v>
       </c>
@@ -972,7 +972,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="3" spans="1:10">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B3" s="1" t="s">
         <v>6</v>
       </c>
@@ -1001,7 +1001,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="4" spans="1:10">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B4" s="1" t="s">
         <v>7</v>
       </c>
@@ -1027,7 +1027,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="5" spans="1:10">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B5" s="1" t="s">
         <v>8</v>
       </c>
@@ -1053,7 +1053,7 @@
         <v>1319.7779136509732</v>
       </c>
     </row>
-    <row r="6" spans="1:10">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>9</v>
       </c>
@@ -1079,7 +1079,7 @@
         <v>1666.6666666666667</v>
       </c>
     </row>
-    <row r="7" spans="1:10">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B7" s="1" t="s">
         <v>68</v>
       </c>
@@ -1105,7 +1105,7 @@
         <v>1191.4627333333333</v>
       </c>
     </row>
-    <row r="8" spans="1:10">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B8" s="1" t="s">
         <v>10</v>
       </c>
@@ -1131,7 +1131,7 @@
         <v>1138</v>
       </c>
     </row>
-    <row r="9" spans="1:10">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B9" s="1" t="s">
         <v>11</v>
       </c>
@@ -1153,7 +1153,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="10" spans="1:10">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B10" s="1" t="s">
         <v>13</v>
       </c>
@@ -1179,7 +1179,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="11" spans="1:10">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B11" s="1" t="s">
         <v>14</v>
       </c>
@@ -1205,7 +1205,7 @@
         <v>3333.3333333333335</v>
       </c>
     </row>
-    <row r="12" spans="1:10">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>15</v>
       </c>
@@ -1234,7 +1234,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="13" spans="1:10">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B13" s="1" t="s">
         <v>17</v>
       </c>
@@ -1260,7 +1260,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="14" spans="1:10">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B14" s="1" t="s">
         <v>18</v>
       </c>
@@ -1286,7 +1286,7 @@
         <v>199.6</v>
       </c>
     </row>
-    <row r="15" spans="1:10">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B15" s="1" t="s">
         <v>19</v>
       </c>
@@ -1312,7 +1312,7 @@
         <v>37500</v>
       </c>
     </row>
-    <row r="16" spans="1:10">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B16" s="1" t="s">
         <v>20</v>
       </c>
@@ -1338,7 +1338,7 @@
         <v>404.6535154274153</v>
       </c>
     </row>
-    <row r="17" spans="2:8">
+    <row r="17" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B17" s="1" t="s">
         <v>21</v>
       </c>
@@ -1364,7 +1364,7 @@
         <v>5720</v>
       </c>
     </row>
-    <row r="18" spans="2:8">
+    <row r="18" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B18" s="1" t="s">
         <v>22</v>
       </c>
@@ -1390,7 +1390,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="19" spans="2:8">
+    <row r="19" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B19" s="1" t="s">
         <v>23</v>
       </c>
@@ -1416,7 +1416,7 @@
         <v>1496.6666666666667</v>
       </c>
     </row>
-    <row r="20" spans="2:8">
+    <row r="20" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B20" s="1" t="s">
         <v>24</v>
       </c>
@@ -1442,7 +1442,7 @@
         <v>750</v>
       </c>
     </row>
-    <row r="21" spans="2:8">
+    <row r="21" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B21" s="1" t="s">
         <v>25</v>
       </c>
@@ -1468,7 +1468,7 @@
         <v>36511.156186612578</v>
       </c>
     </row>
-    <row r="22" spans="2:8">
+    <row r="22" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B22" s="1" t="s">
         <v>26</v>
       </c>
@@ -1494,7 +1494,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="23" spans="2:8">
+    <row r="23" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B23" s="1" t="s">
         <v>27</v>
       </c>
@@ -1520,7 +1520,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="24" spans="2:8">
+    <row r="24" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B24" s="1" t="s">
         <v>28</v>
       </c>
@@ -1546,7 +1546,7 @@
         <v>1234567.8899999999</v>
       </c>
     </row>
-    <row r="25" spans="2:8">
+    <row r="25" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B25" s="1" t="s">
         <v>29</v>
       </c>
@@ -1572,7 +1572,7 @@
         <v>200000</v>
       </c>
     </row>
-    <row r="26" spans="2:8">
+    <row r="26" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B26" s="1" t="s">
         <v>30</v>
       </c>
@@ -1598,7 +1598,7 @@
         <v>20000</v>
       </c>
     </row>
-    <row r="27" spans="2:8">
+    <row r="27" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B27" s="1" t="s">
         <v>31</v>
       </c>
@@ -1624,7 +1624,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="28" spans="2:8">
+    <row r="28" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B28" s="1" t="s">
         <v>32</v>
       </c>
@@ -1650,7 +1650,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="29" spans="2:8">
+    <row r="29" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B29" s="1" t="s">
         <v>33</v>
       </c>
@@ -1676,7 +1676,7 @@
         <v>50000</v>
       </c>
     </row>
-    <row r="30" spans="2:8">
+    <row r="30" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B30" s="1" t="s">
         <v>34</v>
       </c>
@@ -1702,7 +1702,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="31" spans="2:8">
+    <row r="31" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B31" s="1" t="s">
         <v>67</v>
       </c>
@@ -1728,7 +1728,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="32" spans="2:8">
+    <row r="32" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B32" s="1" t="s">
         <v>69</v>
       </c>
@@ -1754,7 +1754,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="33" spans="1:8">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B33" s="1" t="s">
         <v>70</v>
       </c>
@@ -1780,7 +1780,7 @@
         <v>1481.4814814814815</v>
       </c>
     </row>
-    <row r="34" spans="1:8">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B34" s="1" t="s">
         <v>35</v>
       </c>
@@ -1806,7 +1806,7 @@
         <v>1866.5018541409147</v>
       </c>
     </row>
-    <row r="35" spans="1:8">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B35" s="1" t="s">
         <v>36</v>
       </c>
@@ -1832,7 +1832,7 @@
         <v>5000</v>
       </c>
     </row>
-    <row r="36" spans="1:8">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B36" s="1" t="s">
         <v>71</v>
       </c>
@@ -1858,7 +1858,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="37" spans="1:8">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>37</v>
       </c>
@@ -1884,7 +1884,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="38" spans="1:8">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B38" s="1" t="s">
         <v>38</v>
       </c>
@@ -1910,7 +1910,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="39" spans="1:8">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B39" s="1" t="s">
         <v>39</v>
       </c>
@@ -1936,7 +1936,7 @@
         <v>769.23076923076928</v>
       </c>
     </row>
-    <row r="40" spans="1:8">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A40" s="1" t="s">
         <v>40</v>
       </c>
@@ -1965,7 +1965,7 @@
         <v>3.3333333333333335</v>
       </c>
     </row>
-    <row r="41" spans="1:8">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B41" s="1" t="s">
         <v>42</v>
       </c>
@@ -1991,7 +1991,7 @@
         <v>105.4481546572935</v>
       </c>
     </row>
-    <row r="42" spans="1:8">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B42" s="1" t="s">
         <v>43</v>
       </c>
@@ -2017,7 +2017,7 @@
         <v>5000</v>
       </c>
     </row>
-    <row r="43" spans="1:8">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B43" s="1" t="s">
         <v>44</v>
       </c>
@@ -2043,7 +2043,7 @@
         <v>3571.4285714285716</v>
       </c>
     </row>
-    <row r="44" spans="1:8">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B44" s="1" t="s">
         <v>72</v>
       </c>
@@ -2069,7 +2069,7 @@
         <v>170.1</v>
       </c>
     </row>
-    <row r="45" spans="1:8">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B45" s="1" t="s">
         <v>45</v>
       </c>
@@ -2095,7 +2095,7 @@
         <v>100000</v>
       </c>
     </row>
-    <row r="46" spans="1:8">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B46" s="1" t="s">
         <v>46</v>
       </c>
@@ -2121,7 +2121,7 @@
         <v>20000</v>
       </c>
     </row>
-    <row r="47" spans="1:8">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B47" s="1" t="s">
         <v>47</v>
       </c>
@@ -2147,7 +2147,7 @@
         <v>5307786.9000000004</v>
       </c>
     </row>
-    <row r="48" spans="1:8">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B48" s="1" t="s">
         <v>48</v>
       </c>
@@ -2173,7 +2173,7 @@
         <v>5333.333333333333</v>
       </c>
     </row>
-    <row r="49" spans="1:8">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B49" s="1" t="s">
         <v>73</v>
       </c>
@@ -2199,7 +2199,7 @@
         <v>12563.295042432945</v>
       </c>
     </row>
-    <row r="50" spans="1:8">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B50" s="1" t="s">
         <v>49</v>
       </c>
@@ -2225,7 +2225,7 @@
         <v>14422.110552763819</v>
       </c>
     </row>
-    <row r="51" spans="1:8">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B51" s="1" t="s">
         <v>50</v>
       </c>
@@ -2251,7 +2251,7 @@
         <v>25688.204323161688</v>
       </c>
     </row>
-    <row r="52" spans="1:8">
+    <row r="52" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B52" s="1" t="s">
         <v>51</v>
       </c>
@@ -2277,7 +2277,7 @@
         <v>26490.066225165563</v>
       </c>
     </row>
-    <row r="53" spans="1:8">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B53" s="1" t="s">
         <v>52</v>
       </c>
@@ -2303,7 +2303,7 @@
         <v>6666.666666666667</v>
       </c>
     </row>
-    <row r="54" spans="1:8">
+    <row r="54" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B54" s="1" t="s">
         <v>53</v>
       </c>
@@ -2329,7 +2329,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="55" spans="1:8">
+    <row r="55" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B55" s="1" t="s">
         <v>54</v>
       </c>
@@ -2355,7 +2355,7 @@
         <v>1296.0712839206155</v>
       </c>
     </row>
-    <row r="56" spans="1:8">
+    <row r="56" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B56" s="1" t="s">
         <v>55</v>
       </c>
@@ -2381,7 +2381,7 @@
         <v>1593.6254980079682</v>
       </c>
     </row>
-    <row r="57" spans="1:8">
+    <row r="57" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B57" s="1" t="s">
         <v>56</v>
       </c>
@@ -2407,7 +2407,7 @@
         <v>8165.3225674752866</v>
       </c>
     </row>
-    <row r="58" spans="1:8">
+    <row r="58" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B58" s="1" t="s">
         <v>57</v>
       </c>
@@ -2433,7 +2433,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="59" spans="1:8">
+    <row r="59" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B59" s="1" t="s">
         <v>58</v>
       </c>
@@ -2459,7 +2459,7 @@
         <v>1631205.6737588653</v>
       </c>
     </row>
-    <row r="60" spans="1:8">
+    <row r="60" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B60" s="1" t="s">
         <v>59</v>
       </c>
@@ -2485,7 +2485,7 @@
         <v>37500</v>
       </c>
     </row>
-    <row r="61" spans="1:8">
+    <row r="61" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B61" s="1" t="s">
         <v>60</v>
       </c>
@@ -2511,7 +2511,7 @@
         <v>24090.909090909092</v>
       </c>
     </row>
-    <row r="62" spans="1:8">
+    <row r="62" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B62" s="1" t="s">
         <v>61</v>
       </c>
@@ -2537,7 +2537,7 @@
         <v>11000.523834468308</v>
       </c>
     </row>
-    <row r="63" spans="1:8">
+    <row r="63" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A63" s="1" t="s">
         <v>62</v>
       </c>
@@ -2566,7 +2566,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="64" spans="1:8">
+    <row r="64" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B64" s="1" t="s">
         <v>63</v>
       </c>
@@ -2592,7 +2592,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="65" spans="2:8">
+    <row r="65" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B65" s="1" t="s">
         <v>64</v>
       </c>
@@ -2618,7 +2618,7 @@
         <v>144.92753623188406</v>
       </c>
     </row>
-    <row r="66" spans="2:8">
+    <row r="66" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B66" s="1" t="s">
         <v>80</v>
       </c>
@@ -2644,7 +2644,7 @@
         <v>995.55116164112701</v>
       </c>
     </row>
-    <row r="67" spans="2:8">
+    <row r="67" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B67" s="1" t="s">
         <v>75</v>
       </c>
@@ -2670,7 +2670,7 @@
         <v>2515</v>
       </c>
     </row>
-    <row r="68" spans="2:8">
+    <row r="68" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B68" s="1" t="s">
         <v>65</v>
       </c>
@@ -2705,21 +2705,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E6AE1024-0C54-6843-8563-9D359055A938}">
   <dimension ref="A1:N93"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B75" workbookViewId="0">
-      <selection activeCell="F79" sqref="F79"/>
+    <sheetView tabSelected="1" topLeftCell="A63" workbookViewId="0">
+      <selection activeCell="F67" sqref="F67"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="3" max="3" width="11.8984375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.19921875" customWidth="1"/>
-    <col min="5" max="5" width="11.8984375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.19921875" customWidth="1"/>
-    <col min="8" max="8" width="51.296875" customWidth="1"/>
-    <col min="11" max="11" width="11.19921875" customWidth="1"/>
+    <col min="3" max="3" width="11.83203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.1640625" customWidth="1"/>
+    <col min="5" max="5" width="11.83203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.1640625" customWidth="1"/>
+    <col min="8" max="8" width="51.33203125" customWidth="1"/>
+    <col min="11" max="11" width="11.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>66</v>
       </c>
@@ -2760,7 +2760,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="2" spans="1:14">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B2" s="1" t="s">
         <v>50</v>
       </c>
@@ -2796,11 +2796,11 @@
         <v>1</v>
       </c>
       <c r="N2" s="4">
-        <f>COUNTIF(I:I,M2)</f>
+        <f t="shared" ref="N2:N20" si="4">COUNTIF(I:I,M2)</f>
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:14">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B3" s="1" t="s">
         <v>47</v>
       </c>
@@ -2836,11 +2836,11 @@
         <v>2</v>
       </c>
       <c r="N3" s="4">
-        <f>COUNTIF(I:I,M3)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B4" s="1" t="s">
         <v>49</v>
       </c>
@@ -2873,11 +2873,11 @@
         <v>3</v>
       </c>
       <c r="N4" s="4">
-        <f>COUNTIF(I:I,M4)</f>
+        <f t="shared" si="4"/>
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:14">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B5" s="1" t="s">
         <v>8</v>
       </c>
@@ -2908,18 +2908,18 @@
       </c>
       <c r="K5" s="13" t="str">
         <f>_xlfn.CONCAT(G2:G5001)</f>
-        <v>new Upgrade("International Space Station",50400000000L,196199000,1),new Upgrade("Diamond Armor",5307786900L,25100000,1),new Upgrade("Hubble Telescope",2870000000L,14320231,1),new Upgrade("Baby Shark",2639860696L,13199303,1),new Upgrade("Infinity Gauntlet",2147483647,13166600,1),new Upgrade("Wayne Manor",800000000,3970009,1),new Upgrade("Because I'm Batman!",682450750,3402000,1),new Upgrade("141-year-old newspaper",230000000,948324,1),new Upgrade("1963 Ferrari GTO",52000000,196300,5),new Upgrade("Honus Wagner Rookie Card",2000000,8727,3),new Upgrade("Captain America's Shield",17871941,113100,1),new Upgrade("Gold Plated Bugatti Veyron",10004738,43253,1),new Upgrade("Mjolnir",4490000,30000,1),new Upgrade("Crystal Piano",3200000,14324,1),new Upgrade("Thanos' Sword",2014000,10115,1),new Upgrade("The Tumbler Batmobile",1800000,6930,1),new Upgrade("Magnetic Floating Bed",1600000,8000,1),new Upgrade("All of the Pokemon",1510000,8090,1),new Upgrade("Ferrari Enzo",1325000,5500,7),new Upgrade("The Ultimate Ultimate Weapon",1230000,4920,6),new Upgrade("Darth Vader's Helmet",1138000,7486,1),new Upgrade("Crisp $1,000,000 bill",999999,0,100),new Upgrade("Tank",858000,3750,10),new Upgrade("Lightsaber",300000,1977,6),new Upgrade("Pet Dragon",630000,3030,5),new Upgrade("Smash Ball",400000,1500,6),new Upgrade("Legolas's Bow",301800,2110,1),new Upgrade("Phaser Rifle",200000,1000,1),new Upgrade("Six-Shooter",130364,600,6),new Upgrade("Kylo Ren's Helmet",200000,1350,1),new Upgrade("Nuclear Bomb",500235,2390,5),new Upgrade("Bowcaster",155893,563,10),new Upgrade("Genesis Device",765482,4570,1),new Upgrade("A bad feeling about this",166830,1138,1),new Upgrade("Death Star",1344339,7324,2),new Upgrade("Rocket",100000,500,10),new Upgrade("Ring of Power",2963500,19776,19),new Upgrade("Stormbreaker",1375947,10000,1),new Upgrade("Medpack",100000,500,10),new Upgrade("Mario's Hat",1019358,5342,1),new Upgrade("Blender (the program)",530000,2140,10),new Upgrade("iPhone XR",300000,1215,1),new Upgrade("Stormtrooper Helmet",13630,70,10),new Upgrade("Sandwitch",22414,84,10),new Upgrade("Oculus",39999,199,10),new Upgrade("Shards of Narsil",20000,97,6),new Upgrade("Batarang",14645,70,10),new Upgrade("Sword",10000,51,100),new Upgrade("Water Bottle",10000,49,10),new Upgrade("Easy Button",667186,2839,10),new Upgrade("Blender (for food)",10000,43,7),new Upgrade("The Piece of Resistance",998520,4950,1),new Upgrade("Shield",5000,25,200),new Upgrade("Shark Repellent Bat Spray",1996,10,4),new Upgrade("Kirk's Glasses",957440,4329,1),new Upgrade("Popcorn",1000,5,100),new Upgrade("Book",451,2,10),new Upgrade("Cookie",100,3,1),new Upgrade("Lego Brick",200,1,100),new Upgrade("Bug",1,-1,128),new Upgrade("Arc Reactor",59637044043L,141467051,1),new Upgrade("Kryptonite",2110089696934650L,4096534023712,1),new Upgrade("Air Force One",83250280290413900L,151941677102307,1),new Upgrade("Cheat",1,1,1),new Upgrade("Ice Cream",40896568606L,97793577,),new Upgrade("Klondike Bar",4275149189933540000L,7331994574249420,1),new Upgrade("Time Machine",83745097494464L,172216610960,1),new Upgrade("Bribe",1000000,0,1),new Upgrade("Nuclear Fireworks",81247450573750L,167173305334,1),new Upgrade("Meme",1755841378694L,3886619829,1),new Upgrade("Bigfoot",79837291968785L,164324651505,1),new Upgrade("Area 51",5704058330541L,12338782071,1),new Upgrade("Loch Ness Monster",2221819257185L,4895303336,1),new Upgrade("The Moon",839548670437L,1885876413,1),new Upgrade("A True Cake",1248529473245030L,2446152366149,5),new Upgrade("MissingNo",55905021527L,132795976,1),new Upgrade("Dog",17728,62,3),new Upgrade("Airpods",37910263806L,90799614,2),new Upgrade("Iron Man Suit",1858055186797720L,3615205690620,2),new Upgrade("Debug Byte",1,0,256),</v>
+        <v>new Upgrade("International Space Station",50400000000L,196199000,1),new Upgrade("Diamond Armor",5307786900L,25100000,1),new Upgrade("Hubble Telescope",2870000000L,14320231,1),new Upgrade("Baby Shark",2639860696L,13199303,1),new Upgrade("Infinity Gauntlet",2147483647,13166600,1),new Upgrade("Wayne Manor",800000000,3970009,1),new Upgrade("Because I'm Batman!",682450750,3402000,1),new Upgrade("141-year-old newspaper",230000000,948324,1),new Upgrade("1963 Ferrari GTO",52000000,196300,5),new Upgrade("Honus Wagner Rookie Card",2000000,8727,3),new Upgrade("Captain America's Shield",17871941,113100,1),new Upgrade("Gold Plated Bugatti Veyron",10004738,43253,1),new Upgrade("Mjolnir",4490000,30000,1),new Upgrade("Crystal Piano",3200000,14324,1),new Upgrade("Thanos' Sword",2014000,10115,1),new Upgrade("The Tumbler Batmobile",1800000,6930,1),new Upgrade("Magnetic Floating Bed",1600000,8000,1),new Upgrade("All of the Pokemon",1510000,8090,1),new Upgrade("Ferrari Enzo",1325000,5500,7),new Upgrade("The Ultimate Ultimate Weapon",1230000,4920,6),new Upgrade("Darth Vader's Helmet",1138000,7486,1),new Upgrade("Crisp $1,000,000 bill",999999,0,100),new Upgrade("Tank",858000,3750,10),new Upgrade("Lightsaber",300000,1977,6),new Upgrade("Pet Dragon",630000,3030,5),new Upgrade("Smash Ball",400000,1500,6),new Upgrade("Legolas's Bow",301800,2110,1),new Upgrade("Phaser Rifle",200000,1000,1),new Upgrade("Six-Shooter",130364,600,6),new Upgrade("Kylo Ren's Helmet",200000,1350,1),new Upgrade("Nuclear Bomb",500235,2390,5),new Upgrade("Bowcaster",155893,563,10),new Upgrade("Genesis Device",765482,4570,1),new Upgrade("A bad feeling about this",166830,1138,1),new Upgrade("Death Star",1344339,7324,2),new Upgrade("Rocket",100000,500,10),new Upgrade("Ring of Power",2963500,19776,19),new Upgrade("Stormbreaker",1375947,10000,1),new Upgrade("Medpack",100000,500,10),new Upgrade("Mario's Hat",1019358,5342,1),new Upgrade("Blender (the program)",530000,2140,10),new Upgrade("iPhone XR",300000,1215,1),new Upgrade("Stormtrooper Helmet",13630,70,10),new Upgrade("Sandwitch",22414,84,10),new Upgrade("Oculus",39999,199,10),new Upgrade("Shards of Narsil",20000,97,6),new Upgrade("Batarang",14645,70,10),new Upgrade("Sword",10000,51,100),new Upgrade("Water Bottle",10000,49,10),new Upgrade("Easy Button",667186,2839,10),new Upgrade("Blender (for food)",10000,43,7),new Upgrade("The Piece of Resistance",998520,4950,1),new Upgrade("Shield",5000,25,200),new Upgrade("Shark Repellent Bat Spray",1996,10,4),new Upgrade("Kirk's Glasses",957440,4329,1),new Upgrade("Popcorn",1000,5,100),new Upgrade("Book",451,2,10),new Upgrade("Cookie",100,3,1),new Upgrade("Lego Brick",200,1,100),new Upgrade("Bug",1,-1,128),new Upgrade("Arc Reactor",59637044043L,141467051,1),new Upgrade("Kryptonite",2110089696934650L,4096534023712,1),new Upgrade("Air Force One",83250280290413900L,151941677102307,1),new Upgrade("Cheat",1,1,1),new Upgrade("Ice Cream",40896568606L,97793577,10),new Upgrade("Klondike Bar",4275149189933540000L,7331994574249420,1),new Upgrade("Time Machine",83745097494464L,172216610960,1),new Upgrade("Bribe",1000000,0,1),new Upgrade("Nuclear Fireworks",81247450573750L,167173305334,1),new Upgrade("Meme",1755841378694L,3886619829,1),new Upgrade("Bigfoot",79837291968785L,164324651505,1),new Upgrade("Area 51",5704058330541L,12338782071,1),new Upgrade("Loch Ness Monster",2221819257185L,4895303336,1),new Upgrade("The Moon",839548670437L,1885876413,1),new Upgrade("A True Cake",1248529473245030L,2446152366149,5),new Upgrade("MissingNo",55905021527L,132795976,1),new Upgrade("Dog",17728,62,3),new Upgrade("Airpods",37910263806L,90799614,2),new Upgrade("Iron Man Suit",1858055186797720L,3615205690620,2),new Upgrade("Debug Byte",1,0,256),</v>
       </c>
       <c r="L5" s="13"/>
       <c r="M5" s="3">
         <v>4</v>
       </c>
       <c r="N5" s="4">
-        <f>COUNTIF(I:I,M5)</f>
+        <f t="shared" si="4"/>
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:14" s="6" customFormat="1">
+    <row r="6" spans="1:14" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B6" s="7" t="s">
         <v>11</v>
       </c>
@@ -2954,11 +2954,11 @@
         <v>5</v>
       </c>
       <c r="N6" s="4">
-        <f>COUNTIF(I:I,M6)</f>
+        <f t="shared" si="4"/>
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:14">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B7" s="1" t="s">
         <v>48</v>
       </c>
@@ -2993,11 +2993,11 @@
         <v>6</v>
       </c>
       <c r="N7" s="4">
-        <f>COUNTIF(I:I,M7)</f>
+        <f t="shared" si="4"/>
         <v>19</v>
       </c>
     </row>
-    <row r="8" spans="1:14">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B8" s="1" t="s">
         <v>88</v>
       </c>
@@ -3030,11 +3030,11 @@
         <v>7</v>
       </c>
       <c r="N8" s="4">
-        <f>COUNTIF(I:I,M8)</f>
+        <f t="shared" si="4"/>
         <v>14</v>
       </c>
     </row>
-    <row r="9" spans="1:14">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B9" s="1" t="s">
         <v>58</v>
       </c>
@@ -3067,11 +3067,11 @@
         <v>8</v>
       </c>
       <c r="N9" s="4">
-        <f>COUNTIF(I:I,M9)</f>
+        <f t="shared" si="4"/>
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:14">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B10" s="1" t="s">
         <v>51</v>
       </c>
@@ -3093,7 +3093,7 @@
         <v>new Upgrade("1963 Ferrari GTO",52000000,196300,5),</v>
       </c>
       <c r="H10" s="11">
-        <f t="shared" ref="H10:H41" si="4">C10/E10</f>
+        <f t="shared" ref="H10:H41" si="5">C10/E10</f>
         <v>264.9006622516556</v>
       </c>
       <c r="I10">
@@ -3104,11 +3104,11 @@
         <v>9</v>
       </c>
       <c r="N10" s="4">
-        <f>COUNTIF(I:I,M10)</f>
+        <f t="shared" si="4"/>
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="1:14">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B11" s="1" t="s">
         <v>61</v>
       </c>
@@ -3131,7 +3131,7 @@
         <v>new Upgrade("Honus Wagner Rookie Card",2000000,8727,3),</v>
       </c>
       <c r="H11" s="11">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>229.17382834880257</v>
       </c>
       <c r="I11">
@@ -3142,11 +3142,11 @@
         <v>10</v>
       </c>
       <c r="N11" s="4">
-        <f>COUNTIF(I:I,M11)</f>
+        <f t="shared" si="4"/>
         <v>4</v>
       </c>
     </row>
-    <row r="12" spans="1:14" s="6" customFormat="1">
+    <row r="12" spans="1:14" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B12" s="7" t="s">
         <v>84</v>
       </c>
@@ -3168,7 +3168,7 @@
         <v>new Upgrade("Captain America's Shield",17871941,113100,1),</v>
       </c>
       <c r="H12" s="12">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>158.01893015030947</v>
       </c>
       <c r="I12" s="6">
@@ -3179,11 +3179,11 @@
         <v>11</v>
       </c>
       <c r="N12" s="4">
-        <f>COUNTIF(I:I,M12)</f>
+        <f t="shared" si="4"/>
         <v>5</v>
       </c>
     </row>
-    <row r="13" spans="1:14">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B13" s="1" t="s">
         <v>52</v>
       </c>
@@ -3205,7 +3205,7 @@
         <v>new Upgrade("Gold Plated Bugatti Veyron",10004738,43253,1),</v>
       </c>
       <c r="H13" s="11">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>231.30737752294638</v>
       </c>
       <c r="I13">
@@ -3216,11 +3216,11 @@
         <v>13</v>
       </c>
       <c r="N13" s="4">
-        <f>COUNTIF(I:I,M13)</f>
+        <f t="shared" si="4"/>
         <v>3</v>
       </c>
     </row>
-    <row r="14" spans="1:14" s="6" customFormat="1">
+    <row r="14" spans="1:14" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B14" s="7" t="s">
         <v>23</v>
       </c>
@@ -3242,7 +3242,7 @@
         <v>new Upgrade("Mjolnir",4490000,30000,1),</v>
       </c>
       <c r="H14" s="12">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>149.66666666666666</v>
       </c>
       <c r="I14" s="6">
@@ -3253,11 +3253,11 @@
         <v>14</v>
       </c>
       <c r="N14" s="4">
-        <f>COUNTIF(I:I,M14)</f>
+        <f t="shared" si="4"/>
         <v>3</v>
       </c>
     </row>
-    <row r="15" spans="1:14">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B15" s="1" t="s">
         <v>55</v>
       </c>
@@ -3279,7 +3279,7 @@
         <v>new Upgrade("Crystal Piano",3200000,14324,1),</v>
       </c>
       <c r="H15" s="11">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>223.40128455738619</v>
       </c>
       <c r="I15">
@@ -3290,11 +3290,11 @@
         <v>15</v>
       </c>
       <c r="N15" s="4">
-        <f>COUNTIF(I:I,M15)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:14">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B16" s="1" t="s">
         <v>92</v>
       </c>
@@ -3317,7 +3317,7 @@
         <v>new Upgrade("Thanos' Sword",2014000,10115,1),</v>
       </c>
       <c r="H16" s="11">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>199.11023232822541</v>
       </c>
       <c r="I16">
@@ -3328,11 +3328,11 @@
         <v>16</v>
       </c>
       <c r="N16" s="4">
-        <f>COUNTIF(I:I,M16)</f>
+        <f t="shared" si="4"/>
         <v>3</v>
       </c>
     </row>
-    <row r="17" spans="2:14">
+    <row r="17" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B17" s="1" t="s">
         <v>25</v>
       </c>
@@ -3354,7 +3354,7 @@
         <v>new Upgrade("The Tumbler Batmobile",1800000,6930,1),</v>
       </c>
       <c r="H17" s="11">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>259.74025974025972</v>
       </c>
       <c r="I17">
@@ -3365,11 +3365,11 @@
         <v>17</v>
       </c>
       <c r="N17" s="4">
-        <f>COUNTIF(I:I,M17)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="2:14">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B18" s="1" t="s">
         <v>53</v>
       </c>
@@ -3391,7 +3391,7 @@
         <v>new Upgrade("Magnetic Floating Bed",1600000,8000,1),</v>
       </c>
       <c r="H18" s="11">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>200</v>
       </c>
       <c r="I18">
@@ -3402,11 +3402,11 @@
         <v>18</v>
       </c>
       <c r="N18" s="4">
-        <f>COUNTIF(I:I,M18)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="2:14">
+    <row r="19" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B19" s="1" t="s">
         <v>35</v>
       </c>
@@ -3428,7 +3428,7 @@
         <v>new Upgrade("All of the Pokemon",1510000,8090,1),</v>
       </c>
       <c r="H19" s="11">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>186.65018541409148</v>
       </c>
       <c r="I19">
@@ -3439,11 +3439,11 @@
         <v>19</v>
       </c>
       <c r="N19" s="4">
-        <f>COUNTIF(I:I,M19)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="2:14">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B20" s="1" t="s">
         <v>60</v>
       </c>
@@ -3465,7 +3465,7 @@
         <v>new Upgrade("Ferrari Enzo",1325000,5500,7),</v>
       </c>
       <c r="H20" s="11">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>240.90909090909091</v>
       </c>
       <c r="I20">
@@ -3476,11 +3476,11 @@
         <v>20</v>
       </c>
       <c r="N20" s="4">
-        <f>COUNTIF(I:I,M20)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="2:14">
+    <row r="21" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B21" s="1" t="s">
         <v>24</v>
       </c>
@@ -3503,7 +3503,7 @@
         <v>new Upgrade("The Ultimate Ultimate Weapon",1230000,4920,6),</v>
       </c>
       <c r="H21" s="11">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>250</v>
       </c>
       <c r="I21">
@@ -3512,7 +3512,7 @@
       </c>
       <c r="N21" s="4"/>
     </row>
-    <row r="22" spans="2:14" s="6" customFormat="1">
+    <row r="22" spans="2:14" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B22" s="7" t="s">
         <v>83</v>
       </c>
@@ -3534,7 +3534,7 @@
         <v>new Upgrade("Darth Vader's Helmet",1138000,7486,1),</v>
       </c>
       <c r="H22" s="12">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>152.0170985840235</v>
       </c>
       <c r="I22" s="6">
@@ -3543,7 +3543,7 @@
       </c>
       <c r="N22" s="4"/>
     </row>
-    <row r="23" spans="2:14">
+    <row r="23" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B23" s="1" t="s">
         <v>67</v>
       </c>
@@ -3565,7 +3565,7 @@
         <v>new Upgrade("Crisp $1,000,000 bill",999999,0,100),</v>
       </c>
       <c r="H23" s="11" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
       <c r="I23">
@@ -3574,7 +3574,7 @@
       </c>
       <c r="N23" s="4"/>
     </row>
-    <row r="24" spans="2:14">
+    <row r="24" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B24" s="1" t="s">
         <v>21</v>
       </c>
@@ -3597,7 +3597,7 @@
         <v>new Upgrade("Tank",858000,3750,10),</v>
       </c>
       <c r="H24" s="11">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>228.8</v>
       </c>
       <c r="I24">
@@ -3606,7 +3606,7 @@
       </c>
       <c r="N24" s="4"/>
     </row>
-    <row r="25" spans="2:14" s="6" customFormat="1">
+    <row r="25" spans="2:14" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B25" s="7" t="s">
         <v>20</v>
       </c>
@@ -3628,7 +3628,7 @@
         <v>new Upgrade("Lightsaber",300000,1977,6),</v>
       </c>
       <c r="H25" s="12">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>151.74506828528072</v>
       </c>
       <c r="I25" s="6">
@@ -3637,7 +3637,7 @@
       </c>
       <c r="N25" s="4"/>
     </row>
-    <row r="26" spans="2:14">
+    <row r="26" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B26" s="1" t="s">
         <v>22</v>
       </c>
@@ -3659,7 +3659,7 @@
         <v>new Upgrade("Pet Dragon",630000,3030,5),</v>
       </c>
       <c r="H26" s="11">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>207.92079207920793</v>
       </c>
       <c r="I26">
@@ -3668,7 +3668,7 @@
       </c>
       <c r="N26" s="4"/>
     </row>
-    <row r="27" spans="2:14">
+    <row r="27" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B27" s="1" t="s">
         <v>9</v>
       </c>
@@ -3691,7 +3691,7 @@
         <v>new Upgrade("Smash Ball",400000,1500,6),</v>
       </c>
       <c r="H27" s="11">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>266.66666666666669</v>
       </c>
       <c r="I27">
@@ -3700,7 +3700,7 @@
       </c>
       <c r="N27" s="4"/>
     </row>
-    <row r="28" spans="2:14" s="6" customFormat="1">
+    <row r="28" spans="2:14" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B28" s="7" t="s">
         <v>89</v>
       </c>
@@ -3722,7 +3722,7 @@
         <v>new Upgrade("Legolas's Bow",301800,2110,1),</v>
       </c>
       <c r="H28" s="12">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>143.03317535545023</v>
       </c>
       <c r="I28" s="6">
@@ -3731,7 +3731,7 @@
       </c>
       <c r="N28" s="4"/>
     </row>
-    <row r="29" spans="2:14">
+    <row r="29" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B29" s="1" t="s">
         <v>29</v>
       </c>
@@ -3753,7 +3753,7 @@
         <v>new Upgrade("Phaser Rifle",200000,1000,1),</v>
       </c>
       <c r="H29" s="11">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>200</v>
       </c>
       <c r="I29">
@@ -3762,7 +3762,7 @@
       </c>
       <c r="N29" s="4"/>
     </row>
-    <row r="30" spans="2:14">
+    <row r="30" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B30" s="1" t="s">
         <v>30</v>
       </c>
@@ -3784,7 +3784,7 @@
         <v>new Upgrade("Six-Shooter",130364,600,6),</v>
       </c>
       <c r="H30" s="11">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>217.27333333333334</v>
       </c>
       <c r="I30">
@@ -3793,7 +3793,7 @@
       </c>
       <c r="N30" s="4"/>
     </row>
-    <row r="31" spans="2:14" s="6" customFormat="1">
+    <row r="31" spans="2:14" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B31" s="7" t="s">
         <v>85</v>
       </c>
@@ -3801,7 +3801,7 @@
         <v>200000</v>
       </c>
       <c r="D31" s="6" t="str">
-        <f t="shared" ref="D31:D59" si="5">IF(C31&gt;2147483647,"L","")</f>
+        <f t="shared" ref="D31:D59" si="6">IF(C31&gt;2147483647,"L","")</f>
         <v/>
       </c>
       <c r="E31" s="6">
@@ -3815,7 +3815,7 @@
         <v>new Upgrade("Kylo Ren's Helmet",200000,1350,1),</v>
       </c>
       <c r="H31" s="12">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>148.14814814814815</v>
       </c>
       <c r="I31" s="6">
@@ -3824,7 +3824,7 @@
       </c>
       <c r="N31" s="4"/>
     </row>
-    <row r="32" spans="2:14">
+    <row r="32" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B32" s="1" t="s">
         <v>7</v>
       </c>
@@ -3832,7 +3832,7 @@
         <v>500235</v>
       </c>
       <c r="D32" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="E32">
@@ -3846,7 +3846,7 @@
         <v>new Upgrade("Nuclear Bomb",500235,2390,5),</v>
       </c>
       <c r="H32" s="11">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>209.30334728033472</v>
       </c>
       <c r="I32">
@@ -3855,7 +3855,7 @@
       </c>
       <c r="N32" s="4"/>
     </row>
-    <row r="33" spans="1:14">
+    <row r="33" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B33" s="1" t="s">
         <v>19</v>
       </c>
@@ -3863,7 +3863,7 @@
         <v>155893</v>
       </c>
       <c r="D33" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="E33">
@@ -3877,7 +3877,7 @@
         <v>new Upgrade("Bowcaster",155893,563,10),</v>
       </c>
       <c r="H33" s="11">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>276.89698046181172</v>
       </c>
       <c r="I33">
@@ -3886,7 +3886,7 @@
       </c>
       <c r="N33" s="4"/>
     </row>
-    <row r="34" spans="1:14" s="6" customFormat="1">
+    <row r="34" spans="1:14" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B34" s="7" t="s">
         <v>28</v>
       </c>
@@ -3894,7 +3894,7 @@
         <v>765482</v>
       </c>
       <c r="D34" s="6" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="E34" s="6">
@@ -3905,15 +3905,15 @@
         <v>1</v>
       </c>
       <c r="G34" t="str">
-        <f t="shared" ref="G34:G65" si="6">_xlfn.CONCAT($K$1,$K$3,B34,$K$3,$K$2,C34,D34,$K$2,E34,$K$2,F34,"),")</f>
+        <f t="shared" ref="G34:G65" si="7">_xlfn.CONCAT($K$1,$K$3,B34,$K$3,$K$2,C34,D34,$K$2,E34,$K$2,F34,"),")</f>
         <v>new Upgrade("Genesis Device",765482,4570,1),</v>
       </c>
       <c r="H34" s="12">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>167.50153172866521</v>
       </c>
       <c r="I34" s="6">
-        <f t="shared" ref="I34:I65" si="7">CEILING(LOG10(C34),1)</f>
+        <f t="shared" ref="I34:I65" si="8">CEILING(LOG10(C34),1)</f>
         <v>6</v>
       </c>
       <c r="J34" s="6" t="s">
@@ -3921,7 +3921,7 @@
       </c>
       <c r="N34" s="4"/>
     </row>
-    <row r="35" spans="1:14">
+    <row r="35" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B35" s="1" t="s">
         <v>42</v>
       </c>
@@ -3929,7 +3929,7 @@
         <v>166830</v>
       </c>
       <c r="D35" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="E35">
@@ -3939,20 +3939,20 @@
         <v>1</v>
       </c>
       <c r="G35" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>new Upgrade("A bad feeling about this",166830,1138,1),</v>
       </c>
       <c r="H35" s="11">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>146.59929701230229</v>
       </c>
       <c r="I35">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>6</v>
       </c>
       <c r="N35" s="4"/>
     </row>
-    <row r="36" spans="1:14" s="6" customFormat="1">
+    <row r="36" spans="1:14" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B36" s="7" t="s">
         <v>10</v>
       </c>
@@ -3960,7 +3960,7 @@
         <v>1344339</v>
       </c>
       <c r="D36" s="6" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="E36" s="6">
@@ -3970,15 +3970,15 @@
         <v>2</v>
       </c>
       <c r="G36" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>new Upgrade("Death Star",1344339,7324,2),</v>
       </c>
       <c r="H36" s="12">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>183.55256690333152</v>
       </c>
       <c r="I36" s="6">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>7</v>
       </c>
       <c r="J36" s="6" t="s">
@@ -3986,7 +3986,7 @@
       </c>
       <c r="N36" s="4"/>
     </row>
-    <row r="37" spans="1:14">
+    <row r="37" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>6</v>
       </c>
@@ -3994,7 +3994,7 @@
         <v>100000</v>
       </c>
       <c r="D37" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="E37">
@@ -4004,20 +4004,20 @@
         <v>10</v>
       </c>
       <c r="G37" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>new Upgrade("Rocket",100000,500,10),</v>
       </c>
       <c r="H37" s="11">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>200</v>
       </c>
       <c r="I37">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>5</v>
       </c>
       <c r="N37" s="4"/>
     </row>
-    <row r="38" spans="1:14" s="6" customFormat="1">
+    <row r="38" spans="1:14" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A38" s="7" t="s">
         <v>15</v>
       </c>
@@ -4028,7 +4028,7 @@
         <v>2963500</v>
       </c>
       <c r="D38" s="6" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="E38" s="6">
@@ -4039,15 +4039,15 @@
         <v>19</v>
       </c>
       <c r="G38" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>new Upgrade("Ring of Power",2963500,19776,19),</v>
       </c>
       <c r="H38" s="12">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>149.85335760517799</v>
       </c>
       <c r="I38" s="6">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>7</v>
       </c>
       <c r="J38" s="6" t="s">
@@ -4055,7 +4055,7 @@
       </c>
       <c r="N38" s="4"/>
     </row>
-    <row r="39" spans="1:14" s="6" customFormat="1">
+    <row r="39" spans="1:14" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B39" s="7" t="s">
         <v>17</v>
       </c>
@@ -4063,7 +4063,7 @@
         <v>1375947</v>
       </c>
       <c r="D39" s="6" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="E39" s="6">
@@ -4073,15 +4073,15 @@
         <v>1</v>
       </c>
       <c r="G39" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>new Upgrade("Stormbreaker",1375947,10000,1),</v>
       </c>
       <c r="H39" s="12">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>137.59469999999999</v>
       </c>
       <c r="I39" s="6">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>7</v>
       </c>
       <c r="J39" s="6" t="s">
@@ -4089,7 +4089,7 @@
       </c>
       <c r="N39" s="4"/>
     </row>
-    <row r="40" spans="1:14">
+    <row r="40" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B40" s="1" t="s">
         <v>32</v>
       </c>
@@ -4097,7 +4097,7 @@
         <v>100000</v>
       </c>
       <c r="D40" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="E40">
@@ -4107,20 +4107,20 @@
         <v>10</v>
       </c>
       <c r="G40" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>new Upgrade("Medpack",100000,500,10),</v>
       </c>
       <c r="H40" s="11">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>200</v>
       </c>
       <c r="I40">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>5</v>
       </c>
       <c r="N40" s="4"/>
     </row>
-    <row r="41" spans="1:14" s="6" customFormat="1">
+    <row r="41" spans="1:14" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B41" s="7" t="s">
         <v>86</v>
       </c>
@@ -4128,7 +4128,7 @@
         <v>1019358</v>
       </c>
       <c r="D41" s="6" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="E41" s="6">
@@ -4138,15 +4138,15 @@
         <v>1</v>
       </c>
       <c r="G41" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>new Upgrade("Mario's Hat",1019358,5342,1),</v>
       </c>
       <c r="H41" s="12">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>190.81954324223136</v>
       </c>
       <c r="I41" s="6">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>7</v>
       </c>
       <c r="J41" s="6" t="s">
@@ -4154,7 +4154,7 @@
       </c>
       <c r="N41" s="4"/>
     </row>
-    <row r="42" spans="1:14">
+    <row r="42" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B42" s="1" t="s">
         <v>44</v>
       </c>
@@ -4162,7 +4162,7 @@
         <v>530000</v>
       </c>
       <c r="D42" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="E42">
@@ -4172,20 +4172,20 @@
         <v>10</v>
       </c>
       <c r="G42" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>new Upgrade("Blender (the program)",530000,2140,10),</v>
       </c>
       <c r="H42" s="11">
-        <f t="shared" ref="H42:H61" si="8">C42/E42</f>
+        <f t="shared" ref="H42:H61" si="9">C42/E42</f>
         <v>247.66355140186917</v>
       </c>
       <c r="I42">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>6</v>
       </c>
       <c r="N42" s="4"/>
     </row>
-    <row r="43" spans="1:14">
+    <row r="43" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B43" s="1" t="s">
         <v>45</v>
       </c>
@@ -4193,7 +4193,7 @@
         <v>300000</v>
       </c>
       <c r="D43" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="E43">
@@ -4203,15 +4203,15 @@
         <v>1</v>
       </c>
       <c r="G43" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>new Upgrade("iPhone XR",300000,1215,1),</v>
       </c>
       <c r="H43" s="11">
+        <f t="shared" si="9"/>
+        <v>246.91358024691357</v>
+      </c>
+      <c r="I43">
         <f t="shared" si="8"/>
-        <v>246.91358024691357</v>
-      </c>
-      <c r="I43">
-        <f t="shared" si="7"/>
         <v>6</v>
       </c>
       <c r="J43" t="s">
@@ -4219,7 +4219,7 @@
       </c>
       <c r="N43" s="4"/>
     </row>
-    <row r="44" spans="1:14">
+    <row r="44" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B44" s="1" t="s">
         <v>46</v>
       </c>
@@ -4227,7 +4227,7 @@
         <v>13630</v>
       </c>
       <c r="D44" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="E44">
@@ -4237,15 +4237,15 @@
         <v>10</v>
       </c>
       <c r="G44" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>new Upgrade("Stormtrooper Helmet",13630,70,10),</v>
       </c>
       <c r="H44" s="11">
+        <f t="shared" si="9"/>
+        <v>194.71428571428572</v>
+      </c>
+      <c r="I44">
         <f t="shared" si="8"/>
-        <v>194.71428571428572</v>
-      </c>
-      <c r="I44">
-        <f t="shared" si="7"/>
         <v>5</v>
       </c>
       <c r="J44" t="s">
@@ -4253,7 +4253,7 @@
       </c>
       <c r="N44" s="4"/>
     </row>
-    <row r="45" spans="1:14">
+    <row r="45" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B45" s="1" t="s">
         <v>33</v>
       </c>
@@ -4261,7 +4261,7 @@
         <v>22414</v>
       </c>
       <c r="D45" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="E45">
@@ -4271,15 +4271,15 @@
         <v>10</v>
       </c>
       <c r="G45" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>new Upgrade("Sandwitch",22414,84,10),</v>
       </c>
       <c r="H45" s="11">
+        <f t="shared" si="9"/>
+        <v>266.83333333333331</v>
+      </c>
+      <c r="I45">
         <f t="shared" si="8"/>
-        <v>266.83333333333331</v>
-      </c>
-      <c r="I45">
-        <f t="shared" si="7"/>
         <v>5</v>
       </c>
       <c r="J45" t="s">
@@ -4287,7 +4287,7 @@
       </c>
       <c r="N45" s="4"/>
     </row>
-    <row r="46" spans="1:14">
+    <row r="46" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B46" s="1" t="s">
         <v>65</v>
       </c>
@@ -4295,7 +4295,7 @@
         <v>39999</v>
       </c>
       <c r="D46" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="E46">
@@ -4305,20 +4305,20 @@
         <v>10</v>
       </c>
       <c r="G46" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>new Upgrade("Oculus",39999,199,10),</v>
       </c>
       <c r="H46" s="11">
+        <f t="shared" si="9"/>
+        <v>201</v>
+      </c>
+      <c r="I46">
         <f t="shared" si="8"/>
-        <v>201</v>
-      </c>
-      <c r="I46">
-        <f t="shared" si="7"/>
         <v>5</v>
       </c>
       <c r="N46" s="4"/>
     </row>
-    <row r="47" spans="1:14">
+    <row r="47" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B47" s="1" t="s">
         <v>27</v>
       </c>
@@ -4326,7 +4326,7 @@
         <v>20000</v>
       </c>
       <c r="D47" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="E47">
@@ -4336,20 +4336,20 @@
         <v>6</v>
       </c>
       <c r="G47" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>new Upgrade("Shards of Narsil",20000,97,6),</v>
       </c>
       <c r="H47" s="11">
+        <f t="shared" si="9"/>
+        <v>206.18556701030928</v>
+      </c>
+      <c r="I47">
         <f t="shared" si="8"/>
-        <v>206.18556701030928</v>
-      </c>
-      <c r="I47">
-        <f t="shared" si="7"/>
         <v>5</v>
       </c>
       <c r="N47" s="4"/>
     </row>
-    <row r="48" spans="1:14">
+    <row r="48" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B48" s="1" t="s">
         <v>5</v>
       </c>
@@ -4357,7 +4357,7 @@
         <v>14645</v>
       </c>
       <c r="D48" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="E48">
@@ -4368,15 +4368,15 @@
         <v>10</v>
       </c>
       <c r="G48" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>new Upgrade("Batarang",14645,70,10),</v>
       </c>
       <c r="H48" s="11">
+        <f t="shared" si="9"/>
+        <v>209.21428571428572</v>
+      </c>
+      <c r="I48">
         <f t="shared" si="8"/>
-        <v>209.21428571428572</v>
-      </c>
-      <c r="I48">
-        <f t="shared" si="7"/>
         <v>5</v>
       </c>
       <c r="J48" t="s">
@@ -4384,7 +4384,7 @@
       </c>
       <c r="N48" s="4"/>
     </row>
-    <row r="49" spans="1:14">
+    <row r="49" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B49" s="1" t="s">
         <v>14</v>
       </c>
@@ -4392,7 +4392,7 @@
         <v>10000</v>
       </c>
       <c r="D49" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="E49">
@@ -4402,20 +4402,20 @@
         <v>100</v>
       </c>
       <c r="G49" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>new Upgrade("Sword",10000,51,100),</v>
       </c>
       <c r="H49" s="11">
+        <f t="shared" si="9"/>
+        <v>196.07843137254903</v>
+      </c>
+      <c r="I49">
         <f t="shared" si="8"/>
-        <v>196.07843137254903</v>
-      </c>
-      <c r="I49">
-        <f t="shared" si="7"/>
         <v>4</v>
       </c>
       <c r="N49" s="4"/>
     </row>
-    <row r="50" spans="1:14">
+    <row r="50" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B50" s="1" t="s">
         <v>34</v>
       </c>
@@ -4423,7 +4423,7 @@
         <v>10000</v>
       </c>
       <c r="D50" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="E50">
@@ -4433,20 +4433,20 @@
         <v>10</v>
       </c>
       <c r="G50" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>new Upgrade("Water Bottle",10000,49,10),</v>
       </c>
       <c r="H50" s="11">
+        <f t="shared" si="9"/>
+        <v>204.08163265306123</v>
+      </c>
+      <c r="I50">
         <f t="shared" si="8"/>
-        <v>204.08163265306123</v>
-      </c>
-      <c r="I50">
-        <f t="shared" si="7"/>
         <v>4</v>
       </c>
       <c r="N50" s="4"/>
     </row>
-    <row r="51" spans="1:14">
+    <row r="51" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B51" s="1" t="s">
         <v>39</v>
       </c>
@@ -4454,7 +4454,7 @@
         <v>667186</v>
       </c>
       <c r="D51" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="E51">
@@ -4464,15 +4464,15 @@
         <v>10</v>
       </c>
       <c r="G51" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>new Upgrade("Easy Button",667186,2839,10),</v>
       </c>
       <c r="H51" s="11">
+        <f t="shared" si="9"/>
+        <v>235.00739697076435</v>
+      </c>
+      <c r="I51">
         <f t="shared" si="8"/>
-        <v>235.00739697076435</v>
-      </c>
-      <c r="I51">
-        <f t="shared" si="7"/>
         <v>6</v>
       </c>
       <c r="J51" t="s">
@@ -4480,7 +4480,7 @@
       </c>
       <c r="N51" s="4"/>
     </row>
-    <row r="52" spans="1:14">
+    <row r="52" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B52" s="1" t="s">
         <v>43</v>
       </c>
@@ -4488,7 +4488,7 @@
         <v>10000</v>
       </c>
       <c r="D52" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="E52">
@@ -4498,20 +4498,20 @@
         <v>7</v>
       </c>
       <c r="G52" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>new Upgrade("Blender (for food)",10000,43,7),</v>
       </c>
       <c r="H52" s="11">
+        <f t="shared" si="9"/>
+        <v>232.55813953488371</v>
+      </c>
+      <c r="I52">
         <f t="shared" si="8"/>
-        <v>232.55813953488371</v>
-      </c>
-      <c r="I52">
-        <f t="shared" si="7"/>
         <v>4</v>
       </c>
       <c r="N52" s="4"/>
     </row>
-    <row r="53" spans="1:14">
+    <row r="53" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B53" s="1" t="s">
         <v>64</v>
       </c>
@@ -4519,7 +4519,7 @@
         <v>998520</v>
       </c>
       <c r="D53" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="E53">
@@ -4530,15 +4530,15 @@
         <v>1</v>
       </c>
       <c r="G53" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>new Upgrade("The Piece of Resistance",998520,4950,1),</v>
       </c>
       <c r="H53" s="11">
+        <f t="shared" si="9"/>
+        <v>201.72121212121212</v>
+      </c>
+      <c r="I53">
         <f t="shared" si="8"/>
-        <v>201.72121212121212</v>
-      </c>
-      <c r="I53">
-        <f t="shared" si="7"/>
         <v>6</v>
       </c>
       <c r="J53" t="s">
@@ -4546,7 +4546,7 @@
       </c>
       <c r="N53" s="4"/>
     </row>
-    <row r="54" spans="1:14">
+    <row r="54" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B54" s="1" t="s">
         <v>36</v>
       </c>
@@ -4554,7 +4554,7 @@
         <v>5000</v>
       </c>
       <c r="D54" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="E54">
@@ -4564,20 +4564,20 @@
         <v>200</v>
       </c>
       <c r="G54" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>new Upgrade("Shield",5000,25,200),</v>
       </c>
       <c r="H54" s="11">
+        <f t="shared" si="9"/>
+        <v>200</v>
+      </c>
+      <c r="I54">
         <f t="shared" si="8"/>
-        <v>200</v>
-      </c>
-      <c r="I54">
-        <f t="shared" si="7"/>
         <v>4</v>
       </c>
       <c r="N54" s="4"/>
     </row>
-    <row r="55" spans="1:14">
+    <row r="55" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B55" s="1" t="s">
         <v>18</v>
       </c>
@@ -4585,7 +4585,7 @@
         <v>1996</v>
       </c>
       <c r="D55" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="E55">
@@ -4595,20 +4595,20 @@
         <v>4</v>
       </c>
       <c r="G55" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>new Upgrade("Shark Repellent Bat Spray",1996,10,4),</v>
       </c>
       <c r="H55" s="11">
+        <f t="shared" si="9"/>
+        <v>199.6</v>
+      </c>
+      <c r="I55">
         <f t="shared" si="8"/>
-        <v>199.6</v>
-      </c>
-      <c r="I55">
-        <f t="shared" si="7"/>
         <v>4</v>
       </c>
       <c r="N55" s="4"/>
     </row>
-    <row r="56" spans="1:14" s="6" customFormat="1">
+    <row r="56" spans="1:14" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B56" s="7" t="s">
         <v>87</v>
       </c>
@@ -4616,7 +4616,7 @@
         <v>957440</v>
       </c>
       <c r="D56" s="6" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="E56" s="6">
@@ -4626,15 +4626,15 @@
         <v>1</v>
       </c>
       <c r="G56" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>new Upgrade("Kirk's Glasses",957440,4329,1),</v>
       </c>
       <c r="H56" s="12">
+        <f t="shared" si="9"/>
+        <v>221.16886116886116</v>
+      </c>
+      <c r="I56" s="6">
         <f t="shared" si="8"/>
-        <v>221.16886116886116</v>
-      </c>
-      <c r="I56" s="6">
-        <f t="shared" si="7"/>
         <v>6</v>
       </c>
       <c r="J56" s="6" t="s">
@@ -4642,7 +4642,7 @@
       </c>
       <c r="N56" s="4"/>
     </row>
-    <row r="57" spans="1:14">
+    <row r="57" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B57" s="1" t="s">
         <v>37</v>
       </c>
@@ -4650,7 +4650,7 @@
         <v>1000</v>
       </c>
       <c r="D57" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="E57">
@@ -4660,20 +4660,20 @@
         <v>100</v>
       </c>
       <c r="G57" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>new Upgrade("Popcorn",1000,5,100),</v>
       </c>
       <c r="H57" s="11">
+        <f t="shared" si="9"/>
+        <v>200</v>
+      </c>
+      <c r="I57">
         <f t="shared" si="8"/>
-        <v>200</v>
-      </c>
-      <c r="I57">
-        <f t="shared" si="7"/>
         <v>3</v>
       </c>
       <c r="N57" s="4"/>
     </row>
-    <row r="58" spans="1:14">
+    <row r="58" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B58" s="1" t="s">
         <v>63</v>
       </c>
@@ -4681,7 +4681,7 @@
         <v>451</v>
       </c>
       <c r="D58" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="E58">
@@ -4691,20 +4691,20 @@
         <v>10</v>
       </c>
       <c r="G58" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>new Upgrade("Book",451,2,10),</v>
       </c>
       <c r="H58" s="11">
+        <f t="shared" si="9"/>
+        <v>225.5</v>
+      </c>
+      <c r="I58">
         <f t="shared" si="8"/>
-        <v>225.5</v>
-      </c>
-      <c r="I58">
-        <f t="shared" si="7"/>
         <v>3</v>
       </c>
       <c r="N58" s="4"/>
     </row>
-    <row r="59" spans="1:14">
+    <row r="59" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A59" s="1" t="s">
         <v>40</v>
       </c>
@@ -4715,7 +4715,7 @@
         <v>100</v>
       </c>
       <c r="D59" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="E59">
@@ -4725,20 +4725,20 @@
         <v>1</v>
       </c>
       <c r="G59" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>new Upgrade("Cookie",100,3,1),</v>
       </c>
       <c r="H59" s="11">
+        <f t="shared" si="9"/>
+        <v>33.333333333333336</v>
+      </c>
+      <c r="I59">
         <f t="shared" si="8"/>
-        <v>33.333333333333336</v>
-      </c>
-      <c r="I59">
-        <f t="shared" si="7"/>
         <v>2</v>
       </c>
       <c r="N59" s="4"/>
     </row>
-    <row r="60" spans="1:14">
+    <row r="60" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B60" s="1" t="s">
         <v>31</v>
       </c>
@@ -4746,7 +4746,7 @@
         <v>200</v>
       </c>
       <c r="D60" t="str">
-        <f t="shared" ref="D60:D81" si="9">IF(C60&gt;2147483647,"L","")</f>
+        <f t="shared" ref="D60:D81" si="10">IF(C60&gt;2147483647,"L","")</f>
         <v/>
       </c>
       <c r="E60">
@@ -4756,20 +4756,20 @@
         <v>100</v>
       </c>
       <c r="G60" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>new Upgrade("Lego Brick",200,1,100),</v>
       </c>
       <c r="H60" s="11">
+        <f t="shared" si="9"/>
+        <v>200</v>
+      </c>
+      <c r="I60">
         <f t="shared" si="8"/>
-        <v>200</v>
-      </c>
-      <c r="I60">
-        <f t="shared" si="7"/>
         <v>3</v>
       </c>
       <c r="N60" s="4"/>
     </row>
-    <row r="61" spans="1:14">
+    <row r="61" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B61" s="1" t="s">
         <v>26</v>
       </c>
@@ -4777,7 +4777,7 @@
         <v>1</v>
       </c>
       <c r="D61" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="E61">
@@ -4787,11 +4787,11 @@
         <v>128</v>
       </c>
       <c r="G61" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>new Upgrade("Bug",1,-1,128),</v>
       </c>
       <c r="H61" s="11">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>-1</v>
       </c>
       <c r="I61">
@@ -4799,7 +4799,7 @@
       </c>
       <c r="N61" s="4"/>
     </row>
-    <row r="62" spans="1:14">
+    <row r="62" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B62" s="1" t="s">
         <v>99</v>
       </c>
@@ -4807,7 +4807,7 @@
         <v>59637044043</v>
       </c>
       <c r="D62" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>L</v>
       </c>
       <c r="E62">
@@ -4818,15 +4818,15 @@
         <v>1</v>
       </c>
       <c r="G62" s="4" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>new Upgrade("Arc Reactor",59637044043L,141467051,1),</v>
       </c>
       <c r="H62" s="11">
-        <f t="shared" ref="H62:H64" si="10">16*LOG(C62,6)+200</f>
+        <f t="shared" ref="H62:H64" si="11">16*LOG(C62,6)+200</f>
         <v>421.56137082818816</v>
       </c>
       <c r="I62" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>11</v>
       </c>
       <c r="J62" t="s">
@@ -4835,7 +4835,7 @@
       <c r="M62" s="3"/>
       <c r="N62" s="4"/>
     </row>
-    <row r="63" spans="1:14">
+    <row r="63" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B63" s="1" t="s">
         <v>100</v>
       </c>
@@ -4843,7 +4843,7 @@
         <v>2110089696934650</v>
       </c>
       <c r="D63" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>L</v>
       </c>
       <c r="E63">
@@ -4854,15 +4854,15 @@
         <v>1</v>
       </c>
       <c r="G63" s="4" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>new Upgrade("Kryptonite",2110089696934650L,4096534023712,1),</v>
       </c>
       <c r="H63" s="11">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>515.09146139659265</v>
       </c>
       <c r="I63" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>16</v>
       </c>
       <c r="J63" t="s">
@@ -4870,7 +4870,7 @@
       </c>
       <c r="N63" s="4"/>
     </row>
-    <row r="64" spans="1:14">
+    <row r="64" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B64" s="1" t="s">
         <v>101</v>
       </c>
@@ -4878,7 +4878,7 @@
         <v>8.3250280290413904E+16</v>
       </c>
       <c r="D64" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>L</v>
       </c>
       <c r="E64">
@@ -4889,15 +4889,15 @@
         <v>1</v>
       </c>
       <c r="G64" s="4" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>new Upgrade("Air Force One",83250280290413900L,151941677102307,1),</v>
       </c>
       <c r="H64" s="11">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>547.90944708579946</v>
       </c>
       <c r="I64" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>17</v>
       </c>
       <c r="J64" t="s">
@@ -4905,7 +4905,7 @@
       </c>
       <c r="N64" s="4"/>
     </row>
-    <row r="65" spans="1:14">
+    <row r="65" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>98</v>
       </c>
@@ -4922,7 +4922,7 @@
         <v>1</v>
       </c>
       <c r="G65" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>new Upgrade("Cheat",1,1,1),</v>
       </c>
       <c r="H65" s="11">
@@ -4930,12 +4930,12 @@
         <v>1</v>
       </c>
       <c r="I65" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="N65" s="4"/>
     </row>
-    <row r="66" spans="1:14">
+    <row r="66" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B66" s="1" t="s">
         <v>116</v>
       </c>
@@ -4950,22 +4950,24 @@
         <f>MROUND(Table1[[#This Row],[Cost]]/Table1[[#This Row],[Messages needed to earn back the amount of coins spend]],1)</f>
         <v>97793577</v>
       </c>
-      <c r="F66" s="2"/>
+      <c r="F66" s="2">
+        <v>10</v>
+      </c>
       <c r="G66" s="4" t="str">
-        <f t="shared" ref="G66" si="11">_xlfn.CONCAT($K$1,$K$3,B66,$K$3,$K$2,C66,D66,$K$2,E66,$K$2,F66,"),")</f>
-        <v>new Upgrade("Ice Cream",40896568606L,97793577,),</v>
+        <f t="shared" ref="G66" si="12">_xlfn.CONCAT($K$1,$K$3,B66,$K$3,$K$2,C66,D66,$K$2,E66,$K$2,F66,"),")</f>
+        <v>new Upgrade("Ice Cream",40896568606L,97793577,10),</v>
       </c>
       <c r="H66" s="11">
-        <f t="shared" ref="H66" si="12">16*LOG(C66,6)+200</f>
+        <f t="shared" ref="H66" si="13">16*LOG(C66,6)+200</f>
         <v>418.19278686855296</v>
       </c>
       <c r="I66" s="4">
-        <f t="shared" ref="I66:I80" si="13">CEILING(LOG10(C66),1)</f>
+        <f t="shared" ref="I66:I80" si="14">CEILING(LOG10(C66),1)</f>
         <v>11</v>
       </c>
       <c r="N66" s="4"/>
     </row>
-    <row r="67" spans="1:14">
+    <row r="67" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B67" s="1" t="s">
         <v>104</v>
       </c>
@@ -4973,7 +4975,7 @@
         <v>4.2751491899335398E+18</v>
       </c>
       <c r="D67" t="str">
-        <f t="shared" ref="D67:D70" si="14">IF(C67&gt;2147483647,"L","")</f>
+        <f t="shared" ref="D67:D70" si="15">IF(C67&gt;2147483647,"L","")</f>
         <v>L</v>
       </c>
       <c r="E67">
@@ -4984,15 +4986,15 @@
         <v>1</v>
       </c>
       <c r="G67" s="4" t="str">
-        <f t="shared" ref="G67:G70" si="15">_xlfn.CONCAT($K$1,$K$3,B67,$K$3,$K$2,C67,D67,$K$2,E67,$K$2,F67,"),")</f>
+        <f t="shared" ref="G67:G70" si="16">_xlfn.CONCAT($K$1,$K$3,B67,$K$3,$K$2,C67,D67,$K$2,E67,$K$2,F67,"),")</f>
         <v>new Upgrade("Klondike Bar",4275149189933540000L,7331994574249420,1),</v>
       </c>
       <c r="H67" s="11">
-        <f t="shared" ref="H67:H80" si="16">16*LOG(C67,6)+200</f>
+        <f t="shared" ref="H67:H80" si="17">16*LOG(C67,6)+200</f>
         <v>583.081335732056</v>
       </c>
       <c r="I67" s="4">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>19</v>
       </c>
       <c r="J67" t="s">
@@ -5000,7 +5002,7 @@
       </c>
       <c r="N67" s="4"/>
     </row>
-    <row r="68" spans="1:14">
+    <row r="68" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B68" s="1" t="s">
         <v>105</v>
       </c>
@@ -5008,7 +5010,7 @@
         <v>83745097494464</v>
       </c>
       <c r="D68" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>L</v>
       </c>
       <c r="E68">
@@ -5019,15 +5021,15 @@
         <v>1</v>
       </c>
       <c r="G68" s="4" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>new Upgrade("Time Machine",83745097494464L,172216610960,1),</v>
       </c>
       <c r="H68" s="11">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>486.27770008752549</v>
       </c>
       <c r="I68" s="4">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>14</v>
       </c>
       <c r="J68" t="s">
@@ -5035,7 +5037,7 @@
       </c>
       <c r="N68" s="4"/>
     </row>
-    <row r="69" spans="1:14">
+    <row r="69" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B69" s="1" t="s">
         <v>106</v>
       </c>
@@ -5043,7 +5045,7 @@
         <v>1000000</v>
       </c>
       <c r="D69" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="E69">
@@ -5053,19 +5055,19 @@
         <v>1</v>
       </c>
       <c r="G69" s="4" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>new Upgrade("Bribe",1000000,0,1),</v>
       </c>
       <c r="H69" s="11">
         <v>0</v>
       </c>
       <c r="I69" s="4">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>6</v>
       </c>
       <c r="N69" s="4"/>
     </row>
-    <row r="70" spans="1:14">
+    <row r="70" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B70" s="1" t="s">
         <v>107</v>
       </c>
@@ -5073,7 +5075,7 @@
         <v>81247450573750</v>
       </c>
       <c r="D70" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>L</v>
       </c>
       <c r="E70">
@@ -5084,15 +5086,15 @@
         <v>1</v>
       </c>
       <c r="G70" s="4" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>new Upgrade("Nuclear Fireworks",81247450573750L,167173305334,1),</v>
       </c>
       <c r="H70" s="11">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>486.00732282791182</v>
       </c>
       <c r="I70" s="4">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>14</v>
       </c>
       <c r="J70" t="s">
@@ -5100,7 +5102,7 @@
       </c>
       <c r="N70" s="4"/>
     </row>
-    <row r="71" spans="1:14">
+    <row r="71" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B71" s="1" t="s">
         <v>108</v>
       </c>
@@ -5108,7 +5110,7 @@
         <v>1755841378694</v>
       </c>
       <c r="D71" t="str">
-        <f t="shared" ref="D71:D76" si="17">IF(C71&gt;2147483647,"L","")</f>
+        <f t="shared" ref="D71:D76" si="18">IF(C71&gt;2147483647,"L","")</f>
         <v>L</v>
       </c>
       <c r="E71">
@@ -5119,15 +5121,15 @@
         <v>1</v>
       </c>
       <c r="G71" s="4" t="str">
-        <f t="shared" ref="G71:G76" si="18">_xlfn.CONCAT($K$1,$K$3,B71,$K$3,$K$2,C71,D71,$K$2,E71,$K$2,F71,"),")</f>
+        <f t="shared" ref="G71:G76" si="19">_xlfn.CONCAT($K$1,$K$3,B71,$K$3,$K$2,C71,D71,$K$2,E71,$K$2,F71,"),")</f>
         <v>new Upgrade("Meme",1755841378694L,3886619829,1),</v>
       </c>
       <c r="H71" s="11">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>451.76566172171169</v>
       </c>
       <c r="I71" s="4">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>13</v>
       </c>
       <c r="J71" t="s">
@@ -5135,7 +5137,7 @@
       </c>
       <c r="N71" s="4"/>
     </row>
-    <row r="72" spans="1:14">
+    <row r="72" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B72" s="1" t="s">
         <v>109</v>
       </c>
@@ -5158,11 +5160,11 @@
         <v>new Upgrade("Bigfoot",79837291968785L,164324651505,1),</v>
       </c>
       <c r="H72" s="11">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>485.85097389592102</v>
       </c>
       <c r="I72" s="4">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>14</v>
       </c>
       <c r="J72" t="s">
@@ -5170,7 +5172,7 @@
       </c>
       <c r="N72" s="4"/>
     </row>
-    <row r="73" spans="1:14">
+    <row r="73" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B73" s="1" t="s">
         <v>110</v>
       </c>
@@ -5178,7 +5180,7 @@
         <v>5704058330541</v>
       </c>
       <c r="D73" t="str">
-        <f t="shared" ref="D73:D75" si="19">IF(C73&gt;2147483647,"L","")</f>
+        <f t="shared" ref="D73:D75" si="20">IF(C73&gt;2147483647,"L","")</f>
         <v>L</v>
       </c>
       <c r="E73">
@@ -5189,15 +5191,15 @@
         <v>1</v>
       </c>
       <c r="G73" s="4" t="str">
-        <f t="shared" ref="G73:G75" si="20">_xlfn.CONCAT($K$1,$K$3,B73,$K$3,$K$2,C73,D73,$K$2,E73,$K$2,F73,"),")</f>
+        <f t="shared" ref="G73:G75" si="21">_xlfn.CONCAT($K$1,$K$3,B73,$K$3,$K$2,C73,D73,$K$2,E73,$K$2,F73,"),")</f>
         <v>new Upgrade("Area 51",5704058330541L,12338782071,1),</v>
       </c>
       <c r="H73" s="11">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>462.28698241863572</v>
       </c>
       <c r="I73" s="4">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>13</v>
       </c>
       <c r="J73" t="s">
@@ -5205,7 +5207,7 @@
       </c>
       <c r="N73" s="4"/>
     </row>
-    <row r="74" spans="1:14">
+    <row r="74" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B74" s="1" t="s">
         <v>111</v>
       </c>
@@ -5213,7 +5215,7 @@
         <v>2221819257185</v>
       </c>
       <c r="D74" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>L</v>
       </c>
       <c r="E74">
@@ -5224,15 +5226,15 @@
         <v>1</v>
       </c>
       <c r="G74" s="4" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>new Upgrade("Loch Ness Monster",2221819257185L,4895303336,1),</v>
       </c>
       <c r="H74" s="11">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>453.86753478632716</v>
       </c>
       <c r="I74" s="4">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>13</v>
       </c>
       <c r="J74" t="s">
@@ -5240,7 +5242,7 @@
       </c>
       <c r="N74" s="4"/>
     </row>
-    <row r="75" spans="1:14">
+    <row r="75" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B75" s="1" t="s">
         <v>112</v>
       </c>
@@ -5248,7 +5250,7 @@
         <v>839548670437</v>
       </c>
       <c r="D75" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>L</v>
       </c>
       <c r="E75">
@@ -5259,15 +5261,15 @@
         <v>1</v>
       </c>
       <c r="G75" s="4" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>new Upgrade("The Moon",839548670437L,1885876413,1),</v>
       </c>
       <c r="H75" s="11">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>445.17692923698598</v>
       </c>
       <c r="I75" s="4">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>12</v>
       </c>
       <c r="J75" t="s">
@@ -5275,7 +5277,7 @@
       </c>
       <c r="N75" s="4"/>
     </row>
-    <row r="76" spans="1:14">
+    <row r="76" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B76" s="1" t="s">
         <v>113</v>
       </c>
@@ -5283,7 +5285,7 @@
         <v>1248529473245030</v>
       </c>
       <c r="D76" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>L</v>
       </c>
       <c r="E76">
@@ -5294,15 +5296,15 @@
         <v>5</v>
       </c>
       <c r="G76" s="4" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>new Upgrade("A True Cake",1248529473245030L,2446152366149,5),</v>
       </c>
       <c r="H76" s="11">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>510.40543938429477</v>
       </c>
       <c r="I76" s="4">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>16</v>
       </c>
       <c r="J76" t="s">
@@ -5310,7 +5312,7 @@
       </c>
       <c r="N76" s="4"/>
     </row>
-    <row r="77" spans="1:14">
+    <row r="77" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B77" s="1" t="s">
         <v>114</v>
       </c>
@@ -5333,11 +5335,11 @@
         <v>new Upgrade("MissingNo",55905021527L,132795976,1),</v>
       </c>
       <c r="H77" s="11">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>420.98430481204133</v>
       </c>
       <c r="I77" s="4">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>11</v>
       </c>
       <c r="J77" t="s">
@@ -5345,7 +5347,7 @@
       </c>
       <c r="N77" s="4"/>
     </row>
-    <row r="78" spans="1:14">
+    <row r="78" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B78" s="1" t="s">
         <v>119</v>
       </c>
@@ -5368,7 +5370,7 @@
         <v>new Upgrade("Dog",17728,62,3),</v>
       </c>
       <c r="H78" s="11">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>287.3590524403304</v>
       </c>
       <c r="I78" s="4">
@@ -5380,7 +5382,7 @@
       </c>
       <c r="N78" s="4"/>
     </row>
-    <row r="79" spans="1:14">
+    <row r="79" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>115</v>
       </c>
@@ -5403,11 +5405,11 @@
         <v>new Upgrade("Airpods",37910263806L,90799614,2),</v>
       </c>
       <c r="H79" s="11">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>417.51569353838971</v>
       </c>
       <c r="I79" s="4">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>11</v>
       </c>
       <c r="J79" t="s">
@@ -5415,7 +5417,7 @@
       </c>
       <c r="N79" s="4"/>
     </row>
-    <row r="80" spans="1:14">
+    <row r="80" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B80" s="1" t="s">
         <v>102</v>
       </c>
@@ -5423,7 +5425,7 @@
         <v>1858055186797720</v>
       </c>
       <c r="D80" t="str">
-        <f t="shared" ref="D80" si="21">IF(C80&gt;2147483647,"L","")</f>
+        <f t="shared" ref="D80" si="22">IF(C80&gt;2147483647,"L","")</f>
         <v>L</v>
       </c>
       <c r="E80">
@@ -5438,11 +5440,11 @@
         <v>new Upgrade("Iron Man Suit",1858055186797720L,3615205690620,2),</v>
       </c>
       <c r="H80" s="11">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>513.95559362456413</v>
       </c>
       <c r="I80" s="4">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>16</v>
       </c>
       <c r="J80" t="s">
@@ -5450,7 +5452,7 @@
       </c>
       <c r="N80" s="4"/>
     </row>
-    <row r="81" spans="2:14">
+    <row r="81" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B81" s="1" t="s">
         <v>38</v>
       </c>
@@ -5458,7 +5460,7 @@
         <v>1</v>
       </c>
       <c r="D81" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="E81">
@@ -5479,40 +5481,40 @@
       </c>
       <c r="N81" s="4"/>
     </row>
-    <row r="82" spans="2:14">
+    <row r="82" spans="2:14" x14ac:dyDescent="0.2">
       <c r="N82" s="4"/>
     </row>
-    <row r="83" spans="2:14">
+    <row r="83" spans="2:14" x14ac:dyDescent="0.2">
       <c r="N83" s="4"/>
     </row>
-    <row r="84" spans="2:14">
+    <row r="84" spans="2:14" x14ac:dyDescent="0.2">
       <c r="N84" s="4"/>
     </row>
-    <row r="85" spans="2:14">
+    <row r="85" spans="2:14" x14ac:dyDescent="0.2">
       <c r="N85" s="4"/>
     </row>
-    <row r="86" spans="2:14">
+    <row r="86" spans="2:14" x14ac:dyDescent="0.2">
       <c r="N86" s="4"/>
     </row>
-    <row r="87" spans="2:14">
+    <row r="87" spans="2:14" x14ac:dyDescent="0.2">
       <c r="N87" s="4"/>
     </row>
-    <row r="88" spans="2:14">
+    <row r="88" spans="2:14" x14ac:dyDescent="0.2">
       <c r="N88" s="4"/>
     </row>
-    <row r="89" spans="2:14">
+    <row r="89" spans="2:14" x14ac:dyDescent="0.2">
       <c r="N89" s="4"/>
     </row>
-    <row r="90" spans="2:14">
+    <row r="90" spans="2:14" x14ac:dyDescent="0.2">
       <c r="N90" s="4"/>
     </row>
-    <row r="91" spans="2:14">
+    <row r="91" spans="2:14" x14ac:dyDescent="0.2">
       <c r="N91" s="4"/>
     </row>
-    <row r="92" spans="2:14">
+    <row r="92" spans="2:14" x14ac:dyDescent="0.2">
       <c r="N92" s="4"/>
     </row>
-    <row r="93" spans="2:14">
+    <row r="93" spans="2:14" x14ac:dyDescent="0.2">
       <c r="N93" s="4"/>
     </row>
   </sheetData>
@@ -5520,7 +5522,7 @@
     <mergeCell ref="K5:L7"/>
   </mergeCells>
   <conditionalFormatting sqref="C1:C1048576">
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="5" priority="1" operator="greaterThan">
       <formula>9223372036854770000</formula>
     </cfRule>
   </conditionalFormatting>

--- a/Items.xlsx
+++ b/Items.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/johnwuller/Bots/CoinGames/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD67DBAC-E80B-FF45-8AA2-815731B799E4}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09C36869-5710-C34B-B526-BB02E3A7E6A6}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2200" yWindow="620" windowWidth="20620" windowHeight="8960" activeTab="1" xr2:uid="{C42CA93E-3A2D-D040-AB9B-E333D2FB9CC9}"/>
+    <workbookView xWindow="1720" yWindow="1620" windowWidth="20620" windowHeight="8960" activeTab="1" xr2:uid="{C42CA93E-3A2D-D040-AB9B-E333D2FB9CC9}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="222" uniqueCount="134">
   <si>
     <t>Name</t>
   </si>
@@ -385,20 +385,62 @@
     <t>Ice Cream</t>
   </si>
   <si>
-    <t>N/A</t>
-  </si>
-  <si>
     <t>Digits</t>
   </si>
   <si>
     <t>Dog</t>
+  </si>
+  <si>
+    <t>Knight</t>
+  </si>
+  <si>
+    <t>NA</t>
+  </si>
+  <si>
+    <t>An Easy Win</t>
+  </si>
+  <si>
+    <t>Nuclear Missile</t>
+  </si>
+  <si>
+    <t>Popped Popcorn</t>
+  </si>
+  <si>
+    <t>A Great Disguise</t>
+  </si>
+  <si>
+    <t>Nuclear War</t>
+  </si>
+  <si>
+    <t>Blender (the world)</t>
+  </si>
+  <si>
+    <t>Ham</t>
+  </si>
+  <si>
+    <t>The Avengers' Weapons</t>
+  </si>
+  <si>
+    <t>Thor</t>
+  </si>
+  <si>
+    <t>Debug Kilobyte</t>
+  </si>
+  <si>
+    <t>Infinite Power</t>
+  </si>
+  <si>
+    <t>Anduril</t>
+  </si>
+  <si>
+    <t>KHAAAAAAAAAAN</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -455,6 +497,12 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Helvetica"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -491,7 +539,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -516,6 +564,7 @@
     <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -575,8 +624,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{4009156A-C36A-4516-A02C-24F9758B47EE}" name="Table1" displayName="Table1" ref="A1:J81" totalsRowShown="0">
-  <autoFilter ref="A1:J81" xr:uid="{78C1917B-7E31-49F9-99AB-AFB2F1BD8BEA}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{4009156A-C36A-4516-A02C-24F9758B47EE}" name="Table1" displayName="Table1" ref="A1:J95" totalsRowShown="0">
+  <autoFilter ref="A1:J95" xr:uid="{78C1917B-7E31-49F9-99AB-AFB2F1BD8BEA}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:I81">
     <sortCondition descending="1" ref="C1:C81"/>
   </sortState>
@@ -2703,15 +2752,15 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E6AE1024-0C54-6843-8563-9D359055A938}">
-  <dimension ref="A1:N93"/>
+  <dimension ref="A1:N95"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A63" workbookViewId="0">
-      <selection activeCell="F67" sqref="F67"/>
+    <sheetView tabSelected="1" topLeftCell="A89" workbookViewId="0">
+      <selection activeCell="A95" sqref="A82:J95"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="3" max="3" width="11.83203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11.1640625" customWidth="1"/>
     <col min="5" max="5" width="11.83203125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="11.1640625" customWidth="1"/>
@@ -2745,7 +2794,7 @@
         <v>82</v>
       </c>
       <c r="I1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="J1" t="s">
         <v>94</v>
@@ -2874,7 +2923,7 @@
       </c>
       <c r="N4" s="4">
         <f t="shared" si="4"/>
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.2">
@@ -2908,7 +2957,7 @@
       </c>
       <c r="K5" s="13" t="str">
         <f>_xlfn.CONCAT(G2:G5001)</f>
-        <v>new Upgrade("International Space Station",50400000000L,196199000,1),new Upgrade("Diamond Armor",5307786900L,25100000,1),new Upgrade("Hubble Telescope",2870000000L,14320231,1),new Upgrade("Baby Shark",2639860696L,13199303,1),new Upgrade("Infinity Gauntlet",2147483647,13166600,1),new Upgrade("Wayne Manor",800000000,3970009,1),new Upgrade("Because I'm Batman!",682450750,3402000,1),new Upgrade("141-year-old newspaper",230000000,948324,1),new Upgrade("1963 Ferrari GTO",52000000,196300,5),new Upgrade("Honus Wagner Rookie Card",2000000,8727,3),new Upgrade("Captain America's Shield",17871941,113100,1),new Upgrade("Gold Plated Bugatti Veyron",10004738,43253,1),new Upgrade("Mjolnir",4490000,30000,1),new Upgrade("Crystal Piano",3200000,14324,1),new Upgrade("Thanos' Sword",2014000,10115,1),new Upgrade("The Tumbler Batmobile",1800000,6930,1),new Upgrade("Magnetic Floating Bed",1600000,8000,1),new Upgrade("All of the Pokemon",1510000,8090,1),new Upgrade("Ferrari Enzo",1325000,5500,7),new Upgrade("The Ultimate Ultimate Weapon",1230000,4920,6),new Upgrade("Darth Vader's Helmet",1138000,7486,1),new Upgrade("Crisp $1,000,000 bill",999999,0,100),new Upgrade("Tank",858000,3750,10),new Upgrade("Lightsaber",300000,1977,6),new Upgrade("Pet Dragon",630000,3030,5),new Upgrade("Smash Ball",400000,1500,6),new Upgrade("Legolas's Bow",301800,2110,1),new Upgrade("Phaser Rifle",200000,1000,1),new Upgrade("Six-Shooter",130364,600,6),new Upgrade("Kylo Ren's Helmet",200000,1350,1),new Upgrade("Nuclear Bomb",500235,2390,5),new Upgrade("Bowcaster",155893,563,10),new Upgrade("Genesis Device",765482,4570,1),new Upgrade("A bad feeling about this",166830,1138,1),new Upgrade("Death Star",1344339,7324,2),new Upgrade("Rocket",100000,500,10),new Upgrade("Ring of Power",2963500,19776,19),new Upgrade("Stormbreaker",1375947,10000,1),new Upgrade("Medpack",100000,500,10),new Upgrade("Mario's Hat",1019358,5342,1),new Upgrade("Blender (the program)",530000,2140,10),new Upgrade("iPhone XR",300000,1215,1),new Upgrade("Stormtrooper Helmet",13630,70,10),new Upgrade("Sandwitch",22414,84,10),new Upgrade("Oculus",39999,199,10),new Upgrade("Shards of Narsil",20000,97,6),new Upgrade("Batarang",14645,70,10),new Upgrade("Sword",10000,51,100),new Upgrade("Water Bottle",10000,49,10),new Upgrade("Easy Button",667186,2839,10),new Upgrade("Blender (for food)",10000,43,7),new Upgrade("The Piece of Resistance",998520,4950,1),new Upgrade("Shield",5000,25,200),new Upgrade("Shark Repellent Bat Spray",1996,10,4),new Upgrade("Kirk's Glasses",957440,4329,1),new Upgrade("Popcorn",1000,5,100),new Upgrade("Book",451,2,10),new Upgrade("Cookie",100,3,1),new Upgrade("Lego Brick",200,1,100),new Upgrade("Bug",1,-1,128),new Upgrade("Arc Reactor",59637044043L,141467051,1),new Upgrade("Kryptonite",2110089696934650L,4096534023712,1),new Upgrade("Air Force One",83250280290413900L,151941677102307,1),new Upgrade("Cheat",1,1,1),new Upgrade("Ice Cream",40896568606L,97793577,10),new Upgrade("Klondike Bar",4275149189933540000L,7331994574249420,1),new Upgrade("Time Machine",83745097494464L,172216610960,1),new Upgrade("Bribe",1000000,0,1),new Upgrade("Nuclear Fireworks",81247450573750L,167173305334,1),new Upgrade("Meme",1755841378694L,3886619829,1),new Upgrade("Bigfoot",79837291968785L,164324651505,1),new Upgrade("Area 51",5704058330541L,12338782071,1),new Upgrade("Loch Ness Monster",2221819257185L,4895303336,1),new Upgrade("The Moon",839548670437L,1885876413,1),new Upgrade("A True Cake",1248529473245030L,2446152366149,5),new Upgrade("MissingNo",55905021527L,132795976,1),new Upgrade("Dog",17728,62,3),new Upgrade("Airpods",37910263806L,90799614,2),new Upgrade("Iron Man Suit",1858055186797720L,3615205690620,2),new Upgrade("Debug Byte",1,0,256),</v>
+        <v>new Upgrade("International Space Station",50400000000L,196199000,1),new Upgrade("Diamond Armor",5307786900L,25100000,1),new Upgrade("Hubble Telescope",2870000000L,14320231,1),new Upgrade("Baby Shark",2639860696L,13199303,1),new Upgrade("Infinity Gauntlet",2147483647,13166600,1),new Upgrade("Wayne Manor",800000000,3970009,1),new Upgrade("Because I'm Batman!",682450750,3402000,1),new Upgrade("141-year-old newspaper",230000000,948324,1),new Upgrade("1963 Ferrari GTO",52000000,196300,5),new Upgrade("Honus Wagner Rookie Card",2000000,8727,3),new Upgrade("Captain America's Shield",17871941,113100,1),new Upgrade("Gold Plated Bugatti Veyron",10004738,43253,1),new Upgrade("Mjolnir",4490000,30000,1),new Upgrade("Crystal Piano",3200000,14324,1),new Upgrade("Thanos' Sword",2014000,10115,1),new Upgrade("The Tumbler Batmobile",1800000,6930,1),new Upgrade("Magnetic Floating Bed",1600000,8000,1),new Upgrade("All of the Pokemon",1510000,8090,1),new Upgrade("Ferrari Enzo",1325000,5500,7),new Upgrade("The Ultimate Ultimate Weapon",1230000,4920,6),new Upgrade("Darth Vader's Helmet",1138000,7486,1),new Upgrade("Crisp $1,000,000 bill",999999,0,100),new Upgrade("Tank",858000,3750,10),new Upgrade("Lightsaber",300000,1977,6),new Upgrade("Pet Dragon",630000,3030,5),new Upgrade("Smash Ball",400000,1500,6),new Upgrade("Legolas's Bow",301800,2110,1),new Upgrade("Phaser Rifle",200000,1000,1),new Upgrade("Six-Shooter",130364,600,6),new Upgrade("Kylo Ren's Helmet",200000,1350,1),new Upgrade("Nuclear Bomb",500235,2390,5),new Upgrade("Bowcaster",155893,563,10),new Upgrade("Genesis Device",765482,4570,1),new Upgrade("A bad feeling about this",166830,1138,1),new Upgrade("Death Star",1344339,7324,2),new Upgrade("Rocket",100000,500,10),new Upgrade("Ring of Power",2963500,19776,19),new Upgrade("Stormbreaker",1375947,10000,1),new Upgrade("Medpack",100000,500,10),new Upgrade("Mario's Hat",1019358,5342,1),new Upgrade("Blender (the program)",530000,2140,10),new Upgrade("iPhone XR",300000,1215,1),new Upgrade("Stormtrooper Helmet",13630,70,10),new Upgrade("Sandwitch",22414,84,10),new Upgrade("Oculus",39999,199,10),new Upgrade("Shards of Narsil",20000,97,6),new Upgrade("Batarang",14645,70,10),new Upgrade("Sword",10000,51,100),new Upgrade("Water Bottle",10000,49,10),new Upgrade("Easy Button",667186,2839,10),new Upgrade("Blender (for food)",10000,43,7),new Upgrade("The Piece of Resistance",998520,4950,1),new Upgrade("Shield",5000,25,200),new Upgrade("Shark Repellent Bat Spray",1996,10,4),new Upgrade("Kirk's Glasses",957440,4329,1),new Upgrade("Popcorn",1000,5,100),new Upgrade("Book",451,2,10),new Upgrade("Cookie",100,3,1),new Upgrade("Lego Brick",200,1,100),new Upgrade("Bug",1,-1,128),new Upgrade("Arc Reactor",59637044043L,141467051,1),new Upgrade("Kryptonite",2110089696934650L,4096534023712,1),new Upgrade("Air Force One",83250280290413900L,151941677102307,1),new Upgrade("Cheat",1,1,1),new Upgrade("Ice Cream",40896568606L,97793577,10),new Upgrade("Klondike Bar",4275149189933540000L,7331994574249420,1),new Upgrade("Time Machine",83745097494464L,172216610960,1),new Upgrade("Bribe",1000000,0,1),new Upgrade("Nuclear Fireworks",81247450573750L,167173305334,1),new Upgrade("Meme",1755841378694L,3886619829,1),new Upgrade("Bigfoot",79837291968785L,164324651505,1),new Upgrade("Area 51",5704058330541L,12338782071,1),new Upgrade("Loch Ness Monster",2221819257185L,4895303336,1),new Upgrade("The Moon",839548670437L,1885876413,1),new Upgrade("A True Cake",1248529473245030L,2446152366149,5),new Upgrade("MissingNo",55905021527L,132795976,1),new Upgrade("Dog",17728,62,3),new Upgrade("Airpods",37910263806L,90799614,2),new Upgrade("Iron Man Suit",1858055186797720L,3615205690620,2),new Upgrade("Debug Byte",1,0,256),new Upgrade("Knight",10000,35,10),new Upgrade("An Easy Win",100000,330,3),new Upgrade("Nuclear Missile",5900000,17393,10),new Upgrade("Popped Popcorn",10000,35,100),new Upgrade("A Great Disguise",10000000,29076,2),new Upgrade("Nuclear War",1000000,3092,2),new Upgrade("Blender (the world)",279,1,12),new Upgrade("Ham",300,500,1),new Upgrade("The Avengers' Weapons",10708070000L,26359853,1),new Upgrade("Thor",2011201700,5139880,1),new Upgrade("Debug Kilobyte",1000,4,256),new Upgrade("Infinite Power",66666666,654321,1),new Upgrade("Anduril",150000,490,1),new Upgrade("KHAAAAAAAAAAN",100000000,274354,1),</v>
       </c>
       <c r="L5" s="13"/>
       <c r="M5" s="3">
@@ -2916,7 +2965,7 @@
       </c>
       <c r="N5" s="4">
         <f t="shared" si="4"/>
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="6" spans="1:14" s="6" customFormat="1" x14ac:dyDescent="0.2">
@@ -2955,7 +3004,7 @@
       </c>
       <c r="N6" s="4">
         <f t="shared" si="4"/>
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.2">
@@ -2994,7 +3043,7 @@
       </c>
       <c r="N7" s="4">
         <f t="shared" si="4"/>
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.2">
@@ -3031,7 +3080,7 @@
       </c>
       <c r="N8" s="4">
         <f t="shared" si="4"/>
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.2">
@@ -3068,7 +3117,7 @@
       </c>
       <c r="N9" s="4">
         <f t="shared" si="4"/>
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.2">
@@ -3143,7 +3192,7 @@
       </c>
       <c r="N11" s="4">
         <f t="shared" si="4"/>
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="12" spans="1:14" s="6" customFormat="1" x14ac:dyDescent="0.2">
@@ -3180,7 +3229,7 @@
       </c>
       <c r="N12" s="4">
         <f t="shared" si="4"/>
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.2">
@@ -4990,7 +5039,7 @@
         <v>new Upgrade("Klondike Bar",4275149189933540000L,7331994574249420,1),</v>
       </c>
       <c r="H67" s="11">
-        <f t="shared" ref="H67:H80" si="17">16*LOG(C67,6)+200</f>
+        <f t="shared" ref="H67:H95" si="17">16*LOG(C67,6)+200</f>
         <v>583.081335732056</v>
       </c>
       <c r="I67" s="4">
@@ -5349,7 +5398,7 @@
     </row>
     <row r="78" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B78" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C78">
         <v>17728</v>
@@ -5474,7 +5523,7 @@
         <v>new Upgrade("Debug Byte",1,0,256),</v>
       </c>
       <c r="H81" s="11" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="I81">
         <v>1</v>
@@ -5482,46 +5531,454 @@
       <c r="N81" s="4"/>
     </row>
     <row r="82" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B82" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="C82">
+        <v>10000</v>
+      </c>
+      <c r="D82" t="str">
+        <f>IF(C82&gt;2147483647,"L","")</f>
+        <v/>
+      </c>
+      <c r="E82">
+        <f>MROUND(Table1[[#This Row],[Cost]]/Table1[[#This Row],[Messages needed to earn back the amount of coins spend]],1)</f>
+        <v>35</v>
+      </c>
+      <c r="F82" s="2">
+        <v>10</v>
+      </c>
+      <c r="G82" s="4" t="str">
+        <f>_xlfn.CONCAT($K$1,$K$3,B82,$K$3,$K$2,C82,D82,$K$2,E82,$K$2,F82,"),")</f>
+        <v>new Upgrade("Knight",10000,35,10),</v>
+      </c>
+      <c r="H82" s="11">
+        <f t="shared" si="17"/>
+        <v>282.246221372062</v>
+      </c>
+      <c r="I82" s="4">
+        <f>CEILING(LOG10(C82),1)</f>
+        <v>4</v>
+      </c>
       <c r="N82" s="4"/>
     </row>
     <row r="83" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B83" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="C83">
+        <v>100000</v>
+      </c>
+      <c r="D83" t="str">
+        <f>IF(C83&gt;2147483647,"L","")</f>
+        <v/>
+      </c>
+      <c r="E83">
+        <f>MROUND(Table1[[#This Row],[Cost]]/Table1[[#This Row],[Messages needed to earn back the amount of coins spend]],1)</f>
+        <v>330</v>
+      </c>
+      <c r="F83" s="2">
+        <v>3</v>
+      </c>
+      <c r="G83" s="4" t="str">
+        <f>_xlfn.CONCAT($K$1,$K$3,B83,$K$3,$K$2,C83,D83,$K$2,E83,$K$2,F83,"),")</f>
+        <v>new Upgrade("An Easy Win",100000,330,3),</v>
+      </c>
+      <c r="H83" s="11">
+        <f t="shared" si="17"/>
+        <v>302.80777671507752</v>
+      </c>
+      <c r="I83" s="4">
+        <f>CEILING(LOG10(C83),1)</f>
+        <v>5</v>
+      </c>
       <c r="N83" s="4"/>
     </row>
     <row r="84" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B84" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="C84" s="14">
+        <v>5900000</v>
+      </c>
+      <c r="D84" t="str">
+        <f>IF(C84&gt;2147483647,"L","")</f>
+        <v/>
+      </c>
+      <c r="E84">
+        <f>MROUND(Table1[[#This Row],[Cost]]/Table1[[#This Row],[Messages needed to earn back the amount of coins spend]],1)</f>
+        <v>17393</v>
+      </c>
+      <c r="F84" s="2">
+        <v>10</v>
+      </c>
+      <c r="G84" s="4" t="str">
+        <f>_xlfn.CONCAT($K$1,$K$3,B84,$K$3,$K$2,C84,D84,$K$2,E84,$K$2,F84,"),")</f>
+        <v>new Upgrade("Nuclear Missile",5900000,17393,10),</v>
+      </c>
+      <c r="H84" s="11">
+        <f t="shared" si="17"/>
+        <v>339.21924835674781</v>
+      </c>
+      <c r="I84" s="4">
+        <f>CEILING(LOG10(C84),1)</f>
+        <v>7</v>
+      </c>
       <c r="N84" s="4"/>
     </row>
     <row r="85" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B85" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="C85">
+        <v>10000</v>
+      </c>
+      <c r="D85" t="str">
+        <f>IF(C85&gt;2147483647,"L","")</f>
+        <v/>
+      </c>
+      <c r="E85">
+        <f>MROUND(Table1[[#This Row],[Cost]]/Table1[[#This Row],[Messages needed to earn back the amount of coins spend]],1)</f>
+        <v>35</v>
+      </c>
+      <c r="F85" s="2">
+        <v>100</v>
+      </c>
+      <c r="G85" s="4" t="str">
+        <f>_xlfn.CONCAT($K$1,$K$3,B85,$K$3,$K$2,C85,D85,$K$2,E85,$K$2,F85,"),")</f>
+        <v>new Upgrade("Popped Popcorn",10000,35,100),</v>
+      </c>
+      <c r="H85" s="11">
+        <f t="shared" si="17"/>
+        <v>282.246221372062</v>
+      </c>
+      <c r="I85" s="4">
+        <f>CEILING(LOG10(C85),1)</f>
+        <v>4</v>
+      </c>
       <c r="N85" s="4"/>
     </row>
     <row r="86" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B86" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="C86" s="14">
+        <v>10000000</v>
+      </c>
+      <c r="D86" t="str">
+        <f>IF(C86&gt;2147483647,"L","")</f>
+        <v/>
+      </c>
+      <c r="E86">
+        <f>MROUND(Table1[[#This Row],[Cost]]/Table1[[#This Row],[Messages needed to earn back the amount of coins spend]],1)</f>
+        <v>29076</v>
+      </c>
+      <c r="F86" s="2">
+        <v>2</v>
+      </c>
+      <c r="G86" s="4" t="str">
+        <f>_xlfn.CONCAT($K$1,$K$3,B86,$K$3,$K$2,C86,D86,$K$2,E86,$K$2,F86,"),")</f>
+        <v>new Upgrade("A Great Disguise",10000000,29076,2),</v>
+      </c>
+      <c r="H86" s="11">
+        <f t="shared" si="17"/>
+        <v>343.93088740110852</v>
+      </c>
+      <c r="I86" s="4">
+        <f>CEILING(LOG10(C86),1)</f>
+        <v>7</v>
+      </c>
       <c r="N86" s="4"/>
     </row>
     <row r="87" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B87" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="C87" s="14">
+        <v>1000000</v>
+      </c>
+      <c r="D87" t="str">
+        <f>IF(C87&gt;2147483647,"L","")</f>
+        <v/>
+      </c>
+      <c r="E87">
+        <f>MROUND(Table1[[#This Row],[Cost]]/Table1[[#This Row],[Messages needed to earn back the amount of coins spend]],1)</f>
+        <v>3092</v>
+      </c>
+      <c r="F87" s="2">
+        <v>2</v>
+      </c>
+      <c r="G87" s="4" t="str">
+        <f>_xlfn.CONCAT($K$1,$K$3,B87,$K$3,$K$2,C87,D87,$K$2,E87,$K$2,F87,"),")</f>
+        <v>new Upgrade("Nuclear War",1000000,3092,2),</v>
+      </c>
+      <c r="H87" s="11">
+        <f t="shared" si="17"/>
+        <v>323.36933205809299</v>
+      </c>
+      <c r="I87" s="4">
+        <f>CEILING(LOG10(C87),1)</f>
+        <v>6</v>
+      </c>
       <c r="N87" s="4"/>
     </row>
     <row r="88" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B88" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="C88">
+        <v>279</v>
+      </c>
+      <c r="D88" t="str">
+        <f>IF(C88&gt;2147483647,"L","")</f>
+        <v/>
+      </c>
+      <c r="E88">
+        <f>MROUND(Table1[[#This Row],[Cost]]/Table1[[#This Row],[Messages needed to earn back the amount of coins spend]],1)</f>
+        <v>1</v>
+      </c>
+      <c r="F88" s="2">
+        <v>12</v>
+      </c>
+      <c r="G88" s="4" t="str">
+        <f>_xlfn.CONCAT($K$1,$K$3,B88,$K$3,$K$2,C88,D88,$K$2,E88,$K$2,F88,"),")</f>
+        <v>new Upgrade("Blender (the world)",279,1,12),</v>
+      </c>
+      <c r="H88" s="11">
+        <f t="shared" si="17"/>
+        <v>250.2854261727214</v>
+      </c>
+      <c r="I88" s="4">
+        <f>CEILING(LOG10(C88),1)</f>
+        <v>3</v>
+      </c>
       <c r="N88" s="4"/>
     </row>
     <row r="89" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B89" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="C89">
+        <v>300</v>
+      </c>
+      <c r="D89" t="str">
+        <f>IF(C89&gt;2147483647,"L","")</f>
+        <v/>
+      </c>
+      <c r="E89">
+        <v>500</v>
+      </c>
+      <c r="F89" s="2">
+        <v>1</v>
+      </c>
+      <c r="G89" s="4" t="str">
+        <f>_xlfn.CONCAT($K$1,$K$3,B89,$K$3,$K$2,C89,D89,$K$2,E89,$K$2,F89,"),")</f>
+        <v>new Upgrade("Ham",300,500,1),</v>
+      </c>
+      <c r="H89" s="11">
+        <f t="shared" si="17"/>
+        <v>250.93346577027833</v>
+      </c>
+      <c r="I89" s="4">
+        <f>CEILING(LOG10(C89),1)</f>
+        <v>3</v>
+      </c>
       <c r="N89" s="4"/>
     </row>
     <row r="90" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B90" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="C90" s="14">
+        <v>10708070000</v>
+      </c>
+      <c r="D90" t="str">
+        <f>IF(C90&gt;2147483647,"L","")</f>
+        <v>L</v>
+      </c>
+      <c r="E90">
+        <f>MROUND(Table1[[#This Row],[Cost]]/Table1[[#This Row],[Messages needed to earn back the amount of coins spend]],1)</f>
+        <v>26359853</v>
+      </c>
+      <c r="F90" s="2">
+        <v>1</v>
+      </c>
+      <c r="G90" s="4" t="str">
+        <f>_xlfn.CONCAT($K$1,$K$3,B90,$K$3,$K$2,C90,D90,$K$2,E90,$K$2,F90,"),")</f>
+        <v>new Upgrade("The Avengers' Weapons",10708070000L,26359853,1),</v>
+      </c>
+      <c r="H90" s="11">
+        <f t="shared" si="17"/>
+        <v>406.22646194537566</v>
+      </c>
+      <c r="I90" s="4">
+        <f>CEILING(LOG10(C90),1)</f>
+        <v>11</v>
+      </c>
       <c r="N90" s="4"/>
     </row>
     <row r="91" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B91" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="C91" s="14">
+        <v>2011201700</v>
+      </c>
+      <c r="D91" t="str">
+        <f>IF(C91&gt;2147483647,"L","")</f>
+        <v/>
+      </c>
+      <c r="E91">
+        <f>MROUND(Table1[[#This Row],[Cost]]/Table1[[#This Row],[Messages needed to earn back the amount of coins spend]],1)</f>
+        <v>5139880</v>
+      </c>
+      <c r="F91" s="2">
+        <v>1</v>
+      </c>
+      <c r="G91" s="4" t="str">
+        <f>_xlfn.CONCAT($K$1,$K$3,B91,$K$3,$K$2,C91,D91,$K$2,E91,$K$2,F91,"),")</f>
+        <v>new Upgrade("Thor",2011201700,5139880,1),</v>
+      </c>
+      <c r="H91" s="11">
+        <f t="shared" si="17"/>
+        <v>391.29351776482065</v>
+      </c>
+      <c r="I91" s="4">
+        <f>CEILING(LOG10(C91),1)</f>
+        <v>10</v>
+      </c>
       <c r="N91" s="4"/>
     </row>
     <row r="92" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B92" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="C92">
+        <v>1000</v>
+      </c>
+      <c r="D92" t="str">
+        <f>IF(C92&gt;2147483647,"L","")</f>
+        <v/>
+      </c>
+      <c r="E92">
+        <f>MROUND(Table1[[#This Row],[Cost]]/Table1[[#This Row],[Messages needed to earn back the amount of coins spend]],1)</f>
+        <v>4</v>
+      </c>
+      <c r="F92" s="2">
+        <v>256</v>
+      </c>
+      <c r="G92" s="4" t="str">
+        <f>_xlfn.CONCAT($K$1,$K$3,B92,$K$3,$K$2,C92,D92,$K$2,E92,$K$2,F92,"),")</f>
+        <v>new Upgrade("Debug Kilobyte",1000,4,256),</v>
+      </c>
+      <c r="H92" s="11">
+        <f t="shared" si="17"/>
+        <v>261.68466602904653</v>
+      </c>
+      <c r="I92" s="4">
+        <f>CEILING(LOG10(C92),1)</f>
+        <v>3</v>
+      </c>
       <c r="N92" s="4"/>
     </row>
     <row r="93" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B93" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="C93" s="14">
+        <v>66666666</v>
+      </c>
+      <c r="D93" t="str">
+        <f>IF(C93&gt;2147483647,"L","")</f>
+        <v/>
+      </c>
+      <c r="E93" s="14">
+        <v>654321</v>
+      </c>
+      <c r="F93" s="2">
+        <v>1</v>
+      </c>
+      <c r="G93" s="4" t="str">
+        <f>_xlfn.CONCAT($K$1,$K$3,B93,$K$3,$K$2,C93,D93,$K$2,E93,$K$2,F93,"),")</f>
+        <v>new Upgrade("Infinite Power",66666666,654321,1),</v>
+      </c>
+      <c r="H93" s="11">
+        <f t="shared" si="17"/>
+        <v>360.87173248633167</v>
+      </c>
+      <c r="I93" s="4">
+        <f>CEILING(LOG10(C93),1)</f>
+        <v>8</v>
+      </c>
       <c r="N93" s="4"/>
+    </row>
+    <row r="94" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B94" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="C94" s="14">
+        <v>150000</v>
+      </c>
+      <c r="D94" t="str">
+        <f>IF(C94&gt;2147483647,"L","")</f>
+        <v/>
+      </c>
+      <c r="E94">
+        <f>MROUND(Table1[[#This Row],[Cost]]/Table1[[#This Row],[Messages needed to earn back the amount of coins spend]],1)</f>
+        <v>490</v>
+      </c>
+      <c r="F94" s="2">
+        <v>1</v>
+      </c>
+      <c r="G94" s="4" t="str">
+        <f>_xlfn.CONCAT($K$1,$K$3,B94,$K$3,$K$2,C94,D94,$K$2,E94,$K$2,F94,"),")</f>
+        <v>new Upgrade("Anduril",150000,490,1),</v>
+      </c>
+      <c r="H94" s="11">
+        <f t="shared" si="17"/>
+        <v>306.42848688357219</v>
+      </c>
+      <c r="I94" s="4">
+        <f>CEILING(LOG10(C94),1)</f>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="95" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B95" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="C95" s="14">
+        <v>100000000</v>
+      </c>
+      <c r="D95" t="str">
+        <f>IF(C95&gt;2147483647,"L","")</f>
+        <v/>
+      </c>
+      <c r="E95">
+        <f>MROUND(Table1[[#This Row],[Cost]]/Table1[[#This Row],[Messages needed to earn back the amount of coins spend]],1)</f>
+        <v>274354</v>
+      </c>
+      <c r="F95" s="2">
+        <v>1</v>
+      </c>
+      <c r="G95" s="4" t="str">
+        <f>_xlfn.CONCAT($K$1,$K$3,B95,$K$3,$K$2,C95,D95,$K$2,E95,$K$2,F95,"),")</f>
+        <v>new Upgrade("KHAAAAAAAAAAN",100000000,274354,1),</v>
+      </c>
+      <c r="H95" s="11">
+        <f t="shared" si="17"/>
+        <v>364.49244274412399</v>
+      </c>
+      <c r="I95" s="4">
+        <f>CEILING(LOG10(C95),1)</f>
+        <v>8</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="K5:L7"/>
   </mergeCells>
-  <conditionalFormatting sqref="C1:C1048576">
+  <conditionalFormatting sqref="C1:C83 C85 C88:C89 C92 C96:C1048576">
     <cfRule type="cellIs" dxfId="5" priority="1" operator="greaterThan">
       <formula>9223372036854770000</formula>
     </cfRule>
